--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="523">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3896,9 +3896,6 @@
     <t>Card Board Cutting</t>
   </si>
   <si>
-    <t>PVC Tape</t>
-  </si>
-  <si>
     <t>Tape</t>
   </si>
   <si>
@@ -3948,6 +3945,21 @@
   </si>
   <si>
     <t>Tabbaco Tracking Asp.net</t>
+  </si>
+  <si>
+    <t>13th feb 2015</t>
+  </si>
+  <si>
+    <t>Anmol singh</t>
+  </si>
+  <si>
+    <t>Soldering</t>
+  </si>
+  <si>
+    <t>13th Feb</t>
+  </si>
+  <si>
+    <t>sushant</t>
   </si>
 </sst>
 </file>
@@ -4675,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4799,10 +4811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5287,25 +5299,59 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B20">
         <v>8375940733</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F20">
         <v>400</v>
       </c>
       <c r="H20" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>519</v>
+      </c>
+      <c r="B21">
+        <v>9838195681</v>
+      </c>
+      <c r="D21" t="s">
+        <v>520</v>
+      </c>
+      <c r="E21" t="s">
+        <v>521</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>522</v>
+      </c>
+      <c r="B22">
+        <v>9793382456</v>
+      </c>
+      <c r="D22" t="s">
+        <v>520</v>
+      </c>
+      <c r="E22" t="s">
+        <v>521</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5334,7 +5380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -5631,19 +5677,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B16">
         <v>7042248420</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D16" t="s">
         <v>516</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>517</v>
-      </c>
-      <c r="E16" t="s">
-        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5670,48 +5716,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" t="s">
         <v>510</v>
-      </c>
-      <c r="B2" t="s">
-        <v>511</v>
       </c>
       <c r="C2">
         <v>31253</v>
@@ -5724,6 +5770,20 @@
       </c>
       <c r="F2">
         <v>1990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3">
+        <v>3080</v>
+      </c>
+      <c r="E3">
+        <v>5049</v>
+      </c>
+      <c r="F3">
+        <v>5070</v>
       </c>
     </row>
   </sheetData>
@@ -5735,8 +5795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5992,10 +6052,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>498</v>
+      </c>
+      <c r="B23" t="s">
         <v>501</v>
-      </c>
-      <c r="B23" t="s">
-        <v>502</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -7018,7 +7078,7 @@
         <v>6000</v>
       </c>
       <c r="I3" s="81" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J3" s="81"/>
       <c r="K3" s="85" t="s">

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="534">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3960,6 +3960,39 @@
   </si>
   <si>
     <t>sushant</t>
+  </si>
+  <si>
+    <t>Fire Fighting Robot based on DTMF</t>
+  </si>
+  <si>
+    <t>14thfeb</t>
+  </si>
+  <si>
+    <t>Govind Vaishnav</t>
+  </si>
+  <si>
+    <t>gvaishnav502@gmail.com</t>
+  </si>
+  <si>
+    <t>9716246542</t>
+  </si>
+  <si>
+    <t>Hroun</t>
+  </si>
+  <si>
+    <t>Mountassir</t>
+  </si>
+  <si>
+    <t>Sharda University</t>
+  </si>
+  <si>
+    <t>8051 Dev Board Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               14th Feb</t>
+  </si>
+  <si>
+    <t>14th feb 2015</t>
   </si>
 </sst>
 </file>
@@ -4188,7 +4221,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4381,6 +4414,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4685,10 +4721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4697,9 +4733,9 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
@@ -4799,6 +4835,52 @@
       </c>
       <c r="J3" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4">
+        <v>9971907103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F4">
+        <v>1500</v>
+      </c>
+      <c r="G4">
+        <v>1500</v>
+      </c>
+      <c r="H4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5">
+        <v>9971907103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -4813,7 +4895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5716,10 +5798,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5784,6 +5866,20 @@
       </c>
       <c r="F3">
         <v>5070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+      <c r="E4">
+        <v>10049</v>
+      </c>
+      <c r="F4">
+        <v>10070</v>
       </c>
     </row>
   </sheetData>
@@ -6304,9 +6400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7594,16 +7690,32 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A20" s="48">
+        <v>20</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>527</v>
+      </c>
       <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="48">
+        <v>1000</v>
+      </c>
       <c r="J20" s="48"/>
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
@@ -7625,9 +7737,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1"/>
+    <hyperlink ref="E20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId2"/>
     <sheet name="Student Visited In Lab" sheetId="3" r:id="rId3"/>
     <sheet name="Balance" sheetId="10" r:id="rId4"/>
-    <sheet name="Purchase " sheetId="4" r:id="rId5"/>
-    <sheet name="Rate List" sheetId="5" r:id="rId6"/>
-    <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId7"/>
-    <sheet name="Final Year Projects" sheetId="9" r:id="rId8"/>
+    <sheet name="Celeab Responsibilities" sheetId="11" r:id="rId5"/>
+    <sheet name="Purchase " sheetId="4" r:id="rId6"/>
+    <sheet name="Rate List" sheetId="5" r:id="rId7"/>
+    <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId8"/>
+    <sheet name="Final Year Projects" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="548">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3994,12 +3995,54 @@
   <si>
     <t>14th feb 2015</t>
   </si>
+  <si>
+    <t>Shankar</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>û</t>
+  </si>
+  <si>
+    <t>Maintain a proper xlsheet lab account data in terms of purchase, expense, and income.</t>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Make project which is reqiued in shop</t>
+  </si>
+  <si>
+    <t>Customer work</t>
+  </si>
+  <si>
+    <t>Ethching and soldering, all designed pcb</t>
+  </si>
+  <si>
+    <t>Dealing With All final year students regarding Taking project and any type of help and idea.</t>
+  </si>
+  <si>
+    <t>Any types of Training of students (Basic electronics, 8051dev board and Arduino Training)</t>
+  </si>
+  <si>
+    <t>Explanation of students who come to take project frome our shop</t>
+  </si>
+  <si>
+    <t>All major and mini project pcb design</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4062,6 +4105,12 @@
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -4221,7 +4270,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4417,6 +4466,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4479,7 +4543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4511,9 +4575,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4545,6 +4610,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4720,14 +4786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -4741,7 +4807,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4773,7 +4839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="61" customFormat="1">
+    <row r="2" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
@@ -4805,7 +4871,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4837,7 +4903,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>528</v>
       </c>
@@ -4860,7 +4926,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -4892,14 +4958,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -4912,7 +4978,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4938,7 +5004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4964,7 +5030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4987,7 +5053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5013,7 +5079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5039,7 +5105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5065,7 +5131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -5088,7 +5154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -5111,7 +5177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -5137,7 +5203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>329</v>
       </c>
@@ -5163,7 +5229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -5189,7 +5255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="72" customFormat="1">
+    <row r="12" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>335</v>
       </c>
@@ -5212,7 +5278,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>346</v>
       </c>
@@ -5238,7 +5304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -5264,7 +5330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="76" customFormat="1">
+    <row r="15" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>34</v>
       </c>
@@ -5290,7 +5356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="78" customFormat="1">
+    <row r="16" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>421</v>
       </c>
@@ -5319,7 +5385,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>429</v>
       </c>
@@ -5345,7 +5411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>435</v>
       </c>
@@ -5362,7 +5428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>9711307405</v>
       </c>
@@ -5379,7 +5445,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>502</v>
       </c>
@@ -5402,7 +5468,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>519</v>
       </c>
@@ -5419,7 +5485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>522</v>
       </c>
@@ -5459,14 +5525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -5475,7 +5541,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -5495,7 +5561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -5515,7 +5581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -5535,7 +5601,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -5555,7 +5621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5575,7 +5641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5595,7 +5661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -5615,7 +5681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>358</v>
       </c>
@@ -5635,7 +5701,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>408</v>
       </c>
@@ -5655,7 +5721,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -5672,7 +5738,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>445</v>
       </c>
@@ -5689,7 +5755,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>465</v>
       </c>
@@ -5706,7 +5772,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -5723,7 +5789,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>492</v>
       </c>
@@ -5740,7 +5806,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>496</v>
       </c>
@@ -5757,7 +5823,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>514</v>
       </c>
@@ -5797,14 +5863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -5814,7 +5880,7 @@
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>506</v>
       </c>
@@ -5834,7 +5900,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -5854,7 +5920,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>518</v>
       </c>
@@ -5868,7 +5934,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>533</v>
       </c>
@@ -5888,14 +5954,163 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" style="90" customWidth="1"/>
+    <col min="2" max="2" width="15" style="91" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="91" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="91" customWidth="1"/>
+    <col min="5" max="5" width="82.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="90" t="s">
+        <v>543</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="90" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="90" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
+        <v>539</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="90" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="s">
+        <v>547</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -5904,7 +6119,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -5915,7 +6130,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -5926,7 +6141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -5937,7 +6152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -5948,7 +6163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -5959,7 +6174,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -5970,7 +6185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>338</v>
       </c>
@@ -5981,7 +6196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>338</v>
       </c>
@@ -5992,7 +6207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -6003,7 +6218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>348</v>
       </c>
@@ -6014,7 +6229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>348</v>
       </c>
@@ -6025,7 +6240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>419</v>
       </c>
@@ -6036,7 +6251,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>427</v>
       </c>
@@ -6047,7 +6262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -6058,7 +6273,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>437</v>
       </c>
@@ -6069,7 +6284,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -6080,7 +6295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -6091,7 +6306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>449</v>
       </c>
@@ -6102,7 +6317,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>488</v>
       </c>
@@ -6113,7 +6328,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>488</v>
       </c>
@@ -6124,7 +6339,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>498</v>
       </c>
@@ -6135,7 +6350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>498</v>
       </c>
@@ -6146,7 +6361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>498</v>
       </c>
@@ -6162,20 +6377,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -6183,7 +6398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6191,7 +6406,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -6199,7 +6414,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -6207,7 +6422,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -6215,7 +6430,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -6223,7 +6438,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -6231,7 +6446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -6239,7 +6454,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -6247,7 +6462,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -6255,7 +6470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -6263,7 +6478,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -6271,7 +6486,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -6279,7 +6494,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>345</v>
       </c>
@@ -6287,7 +6502,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>368</v>
       </c>
@@ -6295,7 +6510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>369</v>
       </c>
@@ -6303,7 +6518,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>370</v>
       </c>
@@ -6311,7 +6526,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -6319,7 +6534,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -6327,7 +6542,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>383</v>
       </c>
@@ -6335,7 +6550,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>388</v>
       </c>
@@ -6343,7 +6558,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>389</v>
       </c>
@@ -6351,7 +6566,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>390</v>
       </c>
@@ -6359,7 +6574,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -6367,7 +6582,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>460</v>
       </c>
@@ -6375,7 +6590,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>461</v>
       </c>
@@ -6383,7 +6598,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>462</v>
       </c>
@@ -6396,8 +6611,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6405,7 +6620,7 @@
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -7115,7 +7330,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
@@ -7151,8 +7366,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="87" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" s="87" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81">
         <v>1</v>
       </c>
@@ -7182,7 +7397,7 @@
       </c>
       <c r="L3" s="86"/>
     </row>
-    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1">
+    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64">
         <v>2</v>
       </c>
@@ -7214,7 +7429,7 @@
       </c>
       <c r="L4" s="70"/>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -7246,7 +7461,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -7278,7 +7493,7 @@
       </c>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -7310,7 +7525,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -7342,7 +7557,7 @@
       </c>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -7372,7 +7587,7 @@
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -7402,7 +7617,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -7436,7 +7651,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -7468,7 +7683,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -7500,7 +7715,7 @@
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -7532,7 +7747,7 @@
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -7564,7 +7779,7 @@
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -7592,7 +7807,7 @@
       </c>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -7624,7 +7839,7 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
+    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>17</v>
       </c>
@@ -7658,7 +7873,7 @@
       </c>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -7690,7 +7905,7 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48">
         <v>20</v>
       </c>
@@ -7720,7 +7935,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1">
+    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="48"/>
@@ -7744,15 +7959,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -7760,7 +7975,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
         <v>152</v>
       </c>
@@ -7774,13 +7989,13 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="D2" s="15">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>155</v>
       </c>
@@ -7788,7 +8003,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>156</v>
       </c>
@@ -7799,7 +8014,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>157</v>
       </c>
@@ -7810,7 +8025,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
         <v>158</v>
       </c>
@@ -7821,7 +8036,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>159</v>
       </c>
@@ -7832,7 +8047,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>160</v>
       </c>
@@ -7843,7 +8058,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>161</v>
       </c>
@@ -7854,7 +8069,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
         <v>162</v>
       </c>
@@ -7865,7 +8080,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>163</v>
       </c>
@@ -7876,7 +8091,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>164</v>
       </c>
@@ -7887,12 +8102,12 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>166</v>
       </c>
@@ -7900,7 +8115,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>167</v>
       </c>
@@ -7908,7 +8123,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>168</v>
       </c>
@@ -7916,12 +8131,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="57" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="s">
         <v>170</v>
       </c>
@@ -7929,7 +8144,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
         <v>171</v>
       </c>
@@ -7937,7 +8152,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>172</v>
       </c>
@@ -7945,7 +8160,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
         <v>173</v>
       </c>
@@ -7953,7 +8168,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
         <v>174</v>
       </c>
@@ -7961,7 +8176,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>175</v>
       </c>
@@ -7969,7 +8184,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>176</v>
       </c>
@@ -7977,7 +8192,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="74" t="s">
         <v>381</v>
       </c>
@@ -7985,7 +8200,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>344</v>
       </c>
@@ -7993,7 +8208,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="74" t="s">
         <v>349</v>
       </c>
@@ -8001,7 +8216,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="74" t="s">
         <v>350</v>
       </c>
@@ -8009,7 +8224,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="74" t="s">
         <v>351</v>
       </c>
@@ -8017,7 +8232,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="74" t="s">
         <v>382</v>
       </c>
@@ -8025,17 +8240,17 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="31" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="32" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="33" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="57" t="s">
         <v>366</v>
       </c>
@@ -8043,7 +8258,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
         <v>367</v>
       </c>
@@ -8051,17 +8266,17 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="35" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="36" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
         <v>371</v>
       </c>
@@ -8069,7 +8284,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>373</v>
       </c>
@@ -8077,7 +8292,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
         <v>374</v>
       </c>
@@ -8085,7 +8300,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
         <v>375</v>
       </c>
@@ -8093,7 +8308,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
         <v>376</v>
       </c>
@@ -8101,7 +8316,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="74" t="s">
         <v>384</v>
       </c>
@@ -8109,12 +8324,12 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="43" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="74" t="s">
         <v>385</v>
       </c>
@@ -8122,7 +8337,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
         <v>182</v>
       </c>
@@ -8130,12 +8345,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="46" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="57" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
         <v>378</v>
       </c>
@@ -8143,141 +8358,141 @@
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="58"/>
     </row>
-    <row r="49" spans="1:1" ht="15">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="54"/>
     </row>
-    <row r="50" spans="1:1" ht="16.5">
+    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="55" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15">
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15">
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15">
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15">
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="54"/>
     </row>
-    <row r="75" spans="1:3" ht="16.5">
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="55" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15">
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="54" t="s">
         <v>209</v>
       </c>
@@ -8285,7 +8500,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15">
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="54" t="s">
         <v>391</v>
       </c>
@@ -8293,7 +8508,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="54" t="s">
         <v>392</v>
       </c>
@@ -8301,7 +8516,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="54" t="s">
         <v>210</v>
       </c>
@@ -8309,7 +8524,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="54" t="s">
         <v>393</v>
       </c>
@@ -8317,7 +8532,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="54" t="s">
         <v>211</v>
       </c>
@@ -8325,7 +8540,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>394</v>
       </c>
@@ -8333,7 +8548,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15">
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="54" t="s">
         <v>395</v>
       </c>
@@ -8341,12 +8556,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="84" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="57" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="54" t="s">
         <v>396</v>
       </c>
@@ -8354,12 +8569,12 @@
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="86" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="54" t="s">
         <v>214</v>
       </c>
@@ -8367,7 +8582,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15">
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="54" t="s">
         <v>397</v>
       </c>
@@ -8375,7 +8590,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="54" t="s">
         <v>398</v>
       </c>
@@ -8383,7 +8598,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="54" t="s">
         <v>399</v>
       </c>
@@ -8391,7 +8606,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="54" t="s">
         <v>400</v>
       </c>
@@ -8399,7 +8614,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="54" t="s">
         <v>401</v>
       </c>
@@ -8407,7 +8622,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15">
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="54" t="s">
         <v>402</v>
       </c>
@@ -8415,12 +8630,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="94" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="54" t="s">
         <v>403</v>
       </c>
@@ -8428,7 +8643,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15">
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="54" t="s">
         <v>404</v>
       </c>
@@ -8436,7 +8651,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15">
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="54" t="s">
         <v>405</v>
       </c>
@@ -8444,12 +8659,12 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="98" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="54" t="s">
         <v>217</v>
       </c>
@@ -8457,7 +8672,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15">
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="54" t="s">
         <v>406</v>
       </c>
@@ -8465,12 +8680,12 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="101" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="57" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15">
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="54" t="s">
         <v>407</v>
       </c>
@@ -8478,20 +8693,20 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="54"/>
     </row>
-    <row r="105" spans="1:3" ht="16.5">
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15">
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="54" t="s">
         <v>415</v>
       </c>
@@ -8499,7 +8714,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15">
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="54" t="s">
         <v>220</v>
       </c>
@@ -8507,7 +8722,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15">
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="54" t="s">
         <v>416</v>
       </c>
@@ -8515,7 +8730,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15">
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="54" t="s">
         <v>417</v>
       </c>
@@ -8523,7 +8738,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15">
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="54" t="s">
         <v>418</v>
       </c>
@@ -8531,7 +8746,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15">
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="54" t="s">
         <v>420</v>
       </c>
@@ -8539,7 +8754,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15">
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="54" t="s">
         <v>221</v>
       </c>
@@ -8547,7 +8762,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15">
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="54" t="s">
         <v>454</v>
       </c>
@@ -8555,7 +8770,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15">
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="54" t="s">
         <v>222</v>
       </c>
@@ -8563,12 +8778,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="115" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="57" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15">
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="54" t="s">
         <v>224</v>
       </c>
@@ -8576,7 +8791,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15">
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="54" t="s">
         <v>455</v>
       </c>
@@ -8584,7 +8799,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15">
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="54" t="s">
         <v>456</v>
       </c>
@@ -8592,25 +8807,25 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15">
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15">
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="54"/>
     </row>
-    <row r="121" spans="1:3" ht="16.5">
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="122" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15">
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="54" t="s">
         <v>227</v>
       </c>
@@ -8618,7 +8833,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15">
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="54" t="s">
         <v>228</v>
       </c>
@@ -8626,7 +8841,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15">
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="54" t="s">
         <v>229</v>
       </c>
@@ -8634,7 +8849,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15">
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="54" t="s">
         <v>230</v>
       </c>
@@ -8642,7 +8857,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15">
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="54" t="s">
         <v>457</v>
       </c>
@@ -8650,37 +8865,37 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="128" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="129" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="130" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="131" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="132" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="57" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="133" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="57" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15">
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="54" t="s">
         <v>237</v>
       </c>
@@ -8688,42 +8903,42 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="135" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="136" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="137" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="138" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="57" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15">
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="54" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="140" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="57" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="141" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15">
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="54" t="s">
         <v>245</v>
       </c>
@@ -8731,7 +8946,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15">
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="54" t="s">
         <v>246</v>
       </c>
@@ -8739,45 +8954,45 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="144" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="145" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="57" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="146" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="147" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="57" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="148" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="149" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15">
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="54"/>
     </row>
-    <row r="151" spans="1:3" ht="16.5">
+    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15">
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="54" t="s">
         <v>254</v>
       </c>
@@ -8785,7 +9000,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15">
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="54" t="s">
         <v>255</v>
       </c>
@@ -8793,7 +9008,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15">
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="54" t="s">
         <v>256</v>
       </c>
@@ -8801,7 +9016,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15">
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="54" t="s">
         <v>458</v>
       </c>
@@ -8809,7 +9024,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15">
+    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="54" t="s">
         <v>257</v>
       </c>
@@ -8817,7 +9032,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15">
+    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="54" t="s">
         <v>459</v>
       </c>
@@ -8825,17 +9040,17 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15">
+    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5">
+    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="55" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15">
+    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="54" t="s">
         <v>259</v>
       </c>
@@ -8843,7 +9058,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15">
+    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="54" t="s">
         <v>260</v>
       </c>
@@ -8851,17 +9066,17 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="162" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="163" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="164" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="57" t="s">
         <v>263</v>
       </c>
@@ -8869,7 +9084,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15">
+    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="54" t="s">
         <v>264</v>
       </c>
@@ -8877,62 +9092,62 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="166" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="167" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="57" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="168" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="169" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="170" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="171" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="57" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="172" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="57" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="173" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="174" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="175" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="176" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15">
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="54" t="s">
         <v>276</v>
       </c>
@@ -8940,12 +9155,12 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="178" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15">
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="54" t="s">
         <v>469</v>
       </c>
@@ -8953,7 +9168,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15">
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="54" t="s">
         <v>470</v>
       </c>
@@ -8961,12 +9176,12 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="181" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="57" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15">
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="54" t="s">
         <v>471</v>
       </c>
@@ -8974,17 +9189,17 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="183" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="184" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="57" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15">
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="54" t="s">
         <v>472</v>
       </c>
@@ -8992,55 +9207,55 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="186" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="187" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="57" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="188" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="189" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="57" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="190" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="57" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="191" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="57" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="192" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="57" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="193" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15">
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="54"/>
     </row>
-    <row r="195" spans="1:3" ht="16.5">
+    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="55" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15">
+    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="54" t="s">
         <v>463</v>
       </c>
@@ -9048,7 +9263,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15">
+    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="54" t="s">
         <v>290</v>
       </c>
@@ -9056,7 +9271,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15">
+    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="54" t="s">
         <v>464</v>
       </c>
@@ -9064,7 +9279,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15">
+    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="54" t="s">
         <v>473</v>
       </c>
@@ -9072,7 +9287,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15">
+    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="54" t="s">
         <v>474</v>
       </c>
@@ -9080,12 +9295,12 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="201" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="57" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15">
+    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="54" t="s">
         <v>475</v>
       </c>
@@ -9093,7 +9308,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15">
+    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="54" t="s">
         <v>476</v>
       </c>
@@ -9101,7 +9316,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15">
+    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="54" t="s">
         <v>477</v>
       </c>
@@ -9109,15 +9324,15 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15">
+    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="54"/>
     </row>
-    <row r="206" spans="1:3" ht="16.5">
+    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="55" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15">
+    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="54" t="s">
         <v>478</v>
       </c>
@@ -9125,7 +9340,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15">
+    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="54" t="s">
         <v>479</v>
       </c>
@@ -9133,7 +9348,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15">
+    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="54" t="s">
         <v>480</v>
       </c>
@@ -9141,38 +9356,38 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="210" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="57" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15">
+    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="54"/>
     </row>
-    <row r="212" spans="1:3" ht="16.5">
+    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="55" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15">
+    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="54" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15">
+    <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="54" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15">
+    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="54"/>
     </row>
-    <row r="216" spans="1:3" ht="16.5">
+    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="55" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15">
+    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="54" t="s">
         <v>481</v>
       </c>
@@ -9180,12 +9395,12 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="218" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="57" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15">
+    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="54" t="s">
         <v>482</v>
       </c>
@@ -9193,158 +9408,158 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="220" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="57" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="221" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="57" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="222" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="223" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="57" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="224" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="57" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="63" customFormat="1" ht="15">
+    <row r="225" spans="1:1" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="57" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15">
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="54"/>
     </row>
-    <row r="227" spans="1:1" ht="16.5">
+    <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="55" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15">
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="54" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15">
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="54"/>
     </row>
-    <row r="230" spans="1:1" ht="16.5">
+    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="55" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15">
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15">
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="54" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16.5">
+    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="55" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="56" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16.5">
+    <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="55" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16.5">
+    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="55" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16.5">
+    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="55" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="59" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="59" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="59" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="59" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="59" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="60" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="59" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="59" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="59" t="s">
         <v>328</v>
       </c>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="549">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4020,9 +4020,6 @@
     <t>Make project which is reqiued in shop</t>
   </si>
   <si>
-    <t>Customer work</t>
-  </si>
-  <si>
     <t>Ethching and soldering, all designed pcb</t>
   </si>
   <si>
@@ -4036,6 +4033,12 @@
   </si>
   <si>
     <t>All major and mini project pcb design</t>
+  </si>
+  <si>
+    <t>Dealing with Students for Mini pojects</t>
+  </si>
+  <si>
+    <t>Customer soldering work</t>
   </si>
 </sst>
 </file>
@@ -5955,10 +5958,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6000,13 +6003,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B3" s="89" t="s">
         <v>538</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>537</v>
@@ -6014,13 +6017,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B4" s="89" t="s">
         <v>538</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>537</v>
@@ -6028,7 +6031,7 @@
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B5" s="89" t="s">
         <v>537</v>
@@ -6042,7 +6045,7 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B6" s="89" t="s">
         <v>537</v>
@@ -6070,13 +6073,13 @@
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B8" s="89" t="s">
         <v>537</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>538</v>
@@ -6084,7 +6087,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B9" s="89" t="s">
         <v>538</v>
@@ -6094,6 +6097,20 @@
       </c>
       <c r="D9" s="89" t="s">
         <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="90" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="552">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4039,6 +4039,15 @@
   </si>
   <si>
     <t>Customer soldering work</t>
+  </si>
+  <si>
+    <t>Provide PCB/Code for Training</t>
+  </si>
+  <si>
+    <t>Complete Final Year projects</t>
+  </si>
+  <si>
+    <t>Mathew</t>
   </si>
 </sst>
 </file>
@@ -4273,7 +4282,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4482,6 +4491,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5958,10 +5970,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,10 +5982,10 @@
     <col min="2" max="2" width="15" style="91" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="91" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="91" customWidth="1"/>
-    <col min="5" max="5" width="82.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="94" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>540</v>
       </c>
@@ -5986,8 +5998,11 @@
       <c r="D1" s="92" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="93" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>541</v>
       </c>
@@ -6000,8 +6015,11 @@
       <c r="D2" s="89" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
         <v>548</v>
       </c>
@@ -6014,8 +6032,11 @@
       <c r="D3" s="89" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
         <v>542</v>
       </c>
@@ -6028,8 +6049,11 @@
       <c r="D4" s="89" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E4" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
         <v>543</v>
       </c>
@@ -6042,8 +6066,11 @@
       <c r="D5" s="89" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E5" s="89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>544</v>
       </c>
@@ -6056,8 +6083,11 @@
       <c r="D6" s="89" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E6" s="89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>539</v>
       </c>
@@ -6070,8 +6100,11 @@
       <c r="D7" s="89" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>545</v>
       </c>
@@ -6084,8 +6117,11 @@
       <c r="D8" s="89" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
         <v>546</v>
       </c>
@@ -6098,8 +6134,11 @@
       <c r="D9" s="89" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
         <v>547</v>
       </c>
@@ -6110,6 +6149,43 @@
         <v>537</v>
       </c>
       <c r="D10" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="90" t="s">
+        <v>549</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="90" t="s">
+        <v>550</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>538</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="E12" s="89" t="s">
         <v>537</v>
       </c>
     </row>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -4125,7 +4125,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4189,6 +4189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4282,25 +4288,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4425,7 +4418,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4496,6 +4488,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4804,15 +4817,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
@@ -4854,35 +4867,36 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="70">
         <v>9540890120</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="70">
         <v>5000</v>
       </c>
-      <c r="H2" s="62">
+      <c r="H2" s="89">
         <v>42016</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="70" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4925,6 +4939,7 @@
       <c r="B4">
         <v>9971907103</v>
       </c>
+      <c r="C4" s="56"/>
       <c r="D4" t="s">
         <v>530</v>
       </c>
@@ -4940,6 +4955,8 @@
       <c r="H4" t="s">
         <v>532</v>
       </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4948,6 +4965,7 @@
       <c r="B5">
         <v>9971907103</v>
       </c>
+      <c r="C5" s="56"/>
       <c r="D5" t="s">
         <v>530</v>
       </c>
@@ -4963,6 +4981,8 @@
       <c r="H5" t="s">
         <v>532</v>
       </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4976,8 +4996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5270,26 +5290,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="66">
         <v>9871310918</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="66">
         <v>150</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="66" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5345,58 +5365,58 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+    <row r="15" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="70">
         <v>9711022937</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="71" t="s">
         <v>413</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="70" t="s">
         <v>412</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="70">
         <v>350</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="70">
         <v>350</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="70" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="72">
         <v>9990180164</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="73" t="s">
         <v>422</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="72" t="s">
         <v>423</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="72">
         <v>1500</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="H16" s="78" t="s">
+      <c r="H16" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="72" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5422,7 +5442,7 @@
       <c r="G17">
         <v>250</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="70" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5433,7 +5453,7 @@
       <c r="D18" t="s">
         <v>436</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="74" t="s">
         <v>490</v>
       </c>
       <c r="F18">
@@ -5499,6 +5519,8 @@
       <c r="F21">
         <v>50</v>
       </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -5516,6 +5538,8 @@
       <c r="F22">
         <v>30</v>
       </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5543,8 +5567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F10:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5752,6 +5776,7 @@
       <c r="E10" t="s">
         <v>444</v>
       </c>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5769,6 +5794,7 @@
       <c r="E11" t="s">
         <v>447</v>
       </c>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5786,6 +5812,7 @@
       <c r="E12" t="s">
         <v>468</v>
       </c>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5803,6 +5830,7 @@
       <c r="E13" t="s">
         <v>485</v>
       </c>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5820,6 +5848,7 @@
       <c r="E14" t="s">
         <v>495</v>
       </c>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5837,6 +5866,7 @@
       <c r="E15" t="s">
         <v>495</v>
       </c>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5854,6 +5884,7 @@
       <c r="E16" t="s">
         <v>517</v>
       </c>
+      <c r="F16" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5881,7 +5912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -5972,220 +6003,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="90" customWidth="1"/>
-    <col min="2" max="2" width="15" style="91" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="91" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="91" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="94" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" style="84" customWidth="1"/>
+    <col min="2" max="2" width="15" style="85" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="85" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>540</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="86" t="s">
         <v>534</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="86" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="86" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="87" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="84" t="s">
         <v>541</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="83" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="83" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="84" t="s">
         <v>542</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="83" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="84" t="s">
         <v>543</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="83" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="84" t="s">
         <v>544</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="83" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="84" t="s">
         <v>539</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="83" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="84" t="s">
         <v>545</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="83" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="84" t="s">
         <v>546</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="83" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="83" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="83" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="84" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="83" t="s">
         <v>538</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="83" t="s">
         <v>537</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="83" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6474,8 +6505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6487,7 +6518,7 @@
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="69" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6548,7 +6579,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="56" t="s">
         <v>81</v>
       </c>
       <c r="B9">
@@ -6668,7 +6699,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="56" t="s">
         <v>81</v>
       </c>
       <c r="B24">
@@ -6709,1338 +6740,1338 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="14" customWidth="1"/>
-    <col min="13" max="257" width="9.140625" style="15"/>
-    <col min="258" max="258" width="27.7109375" style="15" customWidth="1"/>
-    <col min="259" max="259" width="15.28515625" style="15" customWidth="1"/>
-    <col min="260" max="260" width="15.140625" style="15" customWidth="1"/>
-    <col min="261" max="261" width="17.85546875" style="15" customWidth="1"/>
-    <col min="262" max="262" width="19.85546875" style="15" customWidth="1"/>
-    <col min="263" max="263" width="14.85546875" style="15" customWidth="1"/>
-    <col min="264" max="264" width="14.140625" style="15" customWidth="1"/>
-    <col min="265" max="265" width="14.85546875" style="15" customWidth="1"/>
-    <col min="266" max="266" width="16.140625" style="15" customWidth="1"/>
-    <col min="267" max="267" width="26.42578125" style="15" customWidth="1"/>
-    <col min="268" max="513" width="9.140625" style="15"/>
-    <col min="514" max="514" width="27.7109375" style="15" customWidth="1"/>
-    <col min="515" max="515" width="15.28515625" style="15" customWidth="1"/>
-    <col min="516" max="516" width="15.140625" style="15" customWidth="1"/>
-    <col min="517" max="517" width="17.85546875" style="15" customWidth="1"/>
-    <col min="518" max="518" width="19.85546875" style="15" customWidth="1"/>
-    <col min="519" max="519" width="14.85546875" style="15" customWidth="1"/>
-    <col min="520" max="520" width="14.140625" style="15" customWidth="1"/>
-    <col min="521" max="521" width="14.85546875" style="15" customWidth="1"/>
-    <col min="522" max="522" width="16.140625" style="15" customWidth="1"/>
-    <col min="523" max="523" width="26.42578125" style="15" customWidth="1"/>
-    <col min="524" max="769" width="9.140625" style="15"/>
-    <col min="770" max="770" width="27.7109375" style="15" customWidth="1"/>
-    <col min="771" max="771" width="15.28515625" style="15" customWidth="1"/>
-    <col min="772" max="772" width="15.140625" style="15" customWidth="1"/>
-    <col min="773" max="773" width="17.85546875" style="15" customWidth="1"/>
-    <col min="774" max="774" width="19.85546875" style="15" customWidth="1"/>
-    <col min="775" max="775" width="14.85546875" style="15" customWidth="1"/>
-    <col min="776" max="776" width="14.140625" style="15" customWidth="1"/>
-    <col min="777" max="777" width="14.85546875" style="15" customWidth="1"/>
-    <col min="778" max="778" width="16.140625" style="15" customWidth="1"/>
-    <col min="779" max="779" width="26.42578125" style="15" customWidth="1"/>
-    <col min="780" max="1025" width="9.140625" style="15"/>
-    <col min="1026" max="1026" width="27.7109375" style="15" customWidth="1"/>
-    <col min="1027" max="1027" width="15.28515625" style="15" customWidth="1"/>
-    <col min="1028" max="1028" width="15.140625" style="15" customWidth="1"/>
-    <col min="1029" max="1029" width="17.85546875" style="15" customWidth="1"/>
-    <col min="1030" max="1030" width="19.85546875" style="15" customWidth="1"/>
-    <col min="1031" max="1031" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1032" max="1032" width="14.140625" style="15" customWidth="1"/>
-    <col min="1033" max="1033" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1034" max="1034" width="16.140625" style="15" customWidth="1"/>
-    <col min="1035" max="1035" width="26.42578125" style="15" customWidth="1"/>
-    <col min="1036" max="1281" width="9.140625" style="15"/>
-    <col min="1282" max="1282" width="27.7109375" style="15" customWidth="1"/>
-    <col min="1283" max="1283" width="15.28515625" style="15" customWidth="1"/>
-    <col min="1284" max="1284" width="15.140625" style="15" customWidth="1"/>
-    <col min="1285" max="1285" width="17.85546875" style="15" customWidth="1"/>
-    <col min="1286" max="1286" width="19.85546875" style="15" customWidth="1"/>
-    <col min="1287" max="1287" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1288" max="1288" width="14.140625" style="15" customWidth="1"/>
-    <col min="1289" max="1289" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1290" max="1290" width="16.140625" style="15" customWidth="1"/>
-    <col min="1291" max="1291" width="26.42578125" style="15" customWidth="1"/>
-    <col min="1292" max="1537" width="9.140625" style="15"/>
-    <col min="1538" max="1538" width="27.7109375" style="15" customWidth="1"/>
-    <col min="1539" max="1539" width="15.28515625" style="15" customWidth="1"/>
-    <col min="1540" max="1540" width="15.140625" style="15" customWidth="1"/>
-    <col min="1541" max="1541" width="17.85546875" style="15" customWidth="1"/>
-    <col min="1542" max="1542" width="19.85546875" style="15" customWidth="1"/>
-    <col min="1543" max="1543" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1544" max="1544" width="14.140625" style="15" customWidth="1"/>
-    <col min="1545" max="1545" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1546" max="1546" width="16.140625" style="15" customWidth="1"/>
-    <col min="1547" max="1547" width="26.42578125" style="15" customWidth="1"/>
-    <col min="1548" max="1793" width="9.140625" style="15"/>
-    <col min="1794" max="1794" width="27.7109375" style="15" customWidth="1"/>
-    <col min="1795" max="1795" width="15.28515625" style="15" customWidth="1"/>
-    <col min="1796" max="1796" width="15.140625" style="15" customWidth="1"/>
-    <col min="1797" max="1797" width="17.85546875" style="15" customWidth="1"/>
-    <col min="1798" max="1798" width="19.85546875" style="15" customWidth="1"/>
-    <col min="1799" max="1799" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1800" max="1800" width="14.140625" style="15" customWidth="1"/>
-    <col min="1801" max="1801" width="14.85546875" style="15" customWidth="1"/>
-    <col min="1802" max="1802" width="16.140625" style="15" customWidth="1"/>
-    <col min="1803" max="1803" width="26.42578125" style="15" customWidth="1"/>
-    <col min="1804" max="2049" width="9.140625" style="15"/>
-    <col min="2050" max="2050" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2051" max="2051" width="15.28515625" style="15" customWidth="1"/>
-    <col min="2052" max="2052" width="15.140625" style="15" customWidth="1"/>
-    <col min="2053" max="2053" width="17.85546875" style="15" customWidth="1"/>
-    <col min="2054" max="2054" width="19.85546875" style="15" customWidth="1"/>
-    <col min="2055" max="2055" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2056" max="2056" width="14.140625" style="15" customWidth="1"/>
-    <col min="2057" max="2057" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2058" max="2058" width="16.140625" style="15" customWidth="1"/>
-    <col min="2059" max="2059" width="26.42578125" style="15" customWidth="1"/>
-    <col min="2060" max="2305" width="9.140625" style="15"/>
-    <col min="2306" max="2306" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2307" max="2307" width="15.28515625" style="15" customWidth="1"/>
-    <col min="2308" max="2308" width="15.140625" style="15" customWidth="1"/>
-    <col min="2309" max="2309" width="17.85546875" style="15" customWidth="1"/>
-    <col min="2310" max="2310" width="19.85546875" style="15" customWidth="1"/>
-    <col min="2311" max="2311" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2312" max="2312" width="14.140625" style="15" customWidth="1"/>
-    <col min="2313" max="2313" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2314" max="2314" width="16.140625" style="15" customWidth="1"/>
-    <col min="2315" max="2315" width="26.42578125" style="15" customWidth="1"/>
-    <col min="2316" max="2561" width="9.140625" style="15"/>
-    <col min="2562" max="2562" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2563" max="2563" width="15.28515625" style="15" customWidth="1"/>
-    <col min="2564" max="2564" width="15.140625" style="15" customWidth="1"/>
-    <col min="2565" max="2565" width="17.85546875" style="15" customWidth="1"/>
-    <col min="2566" max="2566" width="19.85546875" style="15" customWidth="1"/>
-    <col min="2567" max="2567" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2568" max="2568" width="14.140625" style="15" customWidth="1"/>
-    <col min="2569" max="2569" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2570" max="2570" width="16.140625" style="15" customWidth="1"/>
-    <col min="2571" max="2571" width="26.42578125" style="15" customWidth="1"/>
-    <col min="2572" max="2817" width="9.140625" style="15"/>
-    <col min="2818" max="2818" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2819" max="2819" width="15.28515625" style="15" customWidth="1"/>
-    <col min="2820" max="2820" width="15.140625" style="15" customWidth="1"/>
-    <col min="2821" max="2821" width="17.85546875" style="15" customWidth="1"/>
-    <col min="2822" max="2822" width="19.85546875" style="15" customWidth="1"/>
-    <col min="2823" max="2823" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2824" max="2824" width="14.140625" style="15" customWidth="1"/>
-    <col min="2825" max="2825" width="14.85546875" style="15" customWidth="1"/>
-    <col min="2826" max="2826" width="16.140625" style="15" customWidth="1"/>
-    <col min="2827" max="2827" width="26.42578125" style="15" customWidth="1"/>
-    <col min="2828" max="3073" width="9.140625" style="15"/>
-    <col min="3074" max="3074" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3075" max="3075" width="15.28515625" style="15" customWidth="1"/>
-    <col min="3076" max="3076" width="15.140625" style="15" customWidth="1"/>
-    <col min="3077" max="3077" width="17.85546875" style="15" customWidth="1"/>
-    <col min="3078" max="3078" width="19.85546875" style="15" customWidth="1"/>
-    <col min="3079" max="3079" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3080" max="3080" width="14.140625" style="15" customWidth="1"/>
-    <col min="3081" max="3081" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3082" max="3082" width="16.140625" style="15" customWidth="1"/>
-    <col min="3083" max="3083" width="26.42578125" style="15" customWidth="1"/>
-    <col min="3084" max="3329" width="9.140625" style="15"/>
-    <col min="3330" max="3330" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3331" max="3331" width="15.28515625" style="15" customWidth="1"/>
-    <col min="3332" max="3332" width="15.140625" style="15" customWidth="1"/>
-    <col min="3333" max="3333" width="17.85546875" style="15" customWidth="1"/>
-    <col min="3334" max="3334" width="19.85546875" style="15" customWidth="1"/>
-    <col min="3335" max="3335" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3336" max="3336" width="14.140625" style="15" customWidth="1"/>
-    <col min="3337" max="3337" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3338" max="3338" width="16.140625" style="15" customWidth="1"/>
-    <col min="3339" max="3339" width="26.42578125" style="15" customWidth="1"/>
-    <col min="3340" max="3585" width="9.140625" style="15"/>
-    <col min="3586" max="3586" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3587" max="3587" width="15.28515625" style="15" customWidth="1"/>
-    <col min="3588" max="3588" width="15.140625" style="15" customWidth="1"/>
-    <col min="3589" max="3589" width="17.85546875" style="15" customWidth="1"/>
-    <col min="3590" max="3590" width="19.85546875" style="15" customWidth="1"/>
-    <col min="3591" max="3591" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3592" max="3592" width="14.140625" style="15" customWidth="1"/>
-    <col min="3593" max="3593" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3594" max="3594" width="16.140625" style="15" customWidth="1"/>
-    <col min="3595" max="3595" width="26.42578125" style="15" customWidth="1"/>
-    <col min="3596" max="3841" width="9.140625" style="15"/>
-    <col min="3842" max="3842" width="27.7109375" style="15" customWidth="1"/>
-    <col min="3843" max="3843" width="15.28515625" style="15" customWidth="1"/>
-    <col min="3844" max="3844" width="15.140625" style="15" customWidth="1"/>
-    <col min="3845" max="3845" width="17.85546875" style="15" customWidth="1"/>
-    <col min="3846" max="3846" width="19.85546875" style="15" customWidth="1"/>
-    <col min="3847" max="3847" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3848" max="3848" width="14.140625" style="15" customWidth="1"/>
-    <col min="3849" max="3849" width="14.85546875" style="15" customWidth="1"/>
-    <col min="3850" max="3850" width="16.140625" style="15" customWidth="1"/>
-    <col min="3851" max="3851" width="26.42578125" style="15" customWidth="1"/>
-    <col min="3852" max="4097" width="9.140625" style="15"/>
-    <col min="4098" max="4098" width="27.7109375" style="15" customWidth="1"/>
-    <col min="4099" max="4099" width="15.28515625" style="15" customWidth="1"/>
-    <col min="4100" max="4100" width="15.140625" style="15" customWidth="1"/>
-    <col min="4101" max="4101" width="17.85546875" style="15" customWidth="1"/>
-    <col min="4102" max="4102" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4103" max="4103" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4104" max="4104" width="14.140625" style="15" customWidth="1"/>
-    <col min="4105" max="4105" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4106" max="4106" width="16.140625" style="15" customWidth="1"/>
-    <col min="4107" max="4107" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4108" max="4353" width="9.140625" style="15"/>
-    <col min="4354" max="4354" width="27.7109375" style="15" customWidth="1"/>
-    <col min="4355" max="4355" width="15.28515625" style="15" customWidth="1"/>
-    <col min="4356" max="4356" width="15.140625" style="15" customWidth="1"/>
-    <col min="4357" max="4357" width="17.85546875" style="15" customWidth="1"/>
-    <col min="4358" max="4358" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4359" max="4359" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4360" max="4360" width="14.140625" style="15" customWidth="1"/>
-    <col min="4361" max="4361" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4362" max="4362" width="16.140625" style="15" customWidth="1"/>
-    <col min="4363" max="4363" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4364" max="4609" width="9.140625" style="15"/>
-    <col min="4610" max="4610" width="27.7109375" style="15" customWidth="1"/>
-    <col min="4611" max="4611" width="15.28515625" style="15" customWidth="1"/>
-    <col min="4612" max="4612" width="15.140625" style="15" customWidth="1"/>
-    <col min="4613" max="4613" width="17.85546875" style="15" customWidth="1"/>
-    <col min="4614" max="4614" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4615" max="4615" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4616" max="4616" width="14.140625" style="15" customWidth="1"/>
-    <col min="4617" max="4617" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4618" max="4618" width="16.140625" style="15" customWidth="1"/>
-    <col min="4619" max="4619" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4620" max="4865" width="9.140625" style="15"/>
-    <col min="4866" max="4866" width="27.7109375" style="15" customWidth="1"/>
-    <col min="4867" max="4867" width="15.28515625" style="15" customWidth="1"/>
-    <col min="4868" max="4868" width="15.140625" style="15" customWidth="1"/>
-    <col min="4869" max="4869" width="17.85546875" style="15" customWidth="1"/>
-    <col min="4870" max="4870" width="19.85546875" style="15" customWidth="1"/>
-    <col min="4871" max="4871" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4872" max="4872" width="14.140625" style="15" customWidth="1"/>
-    <col min="4873" max="4873" width="14.85546875" style="15" customWidth="1"/>
-    <col min="4874" max="4874" width="16.140625" style="15" customWidth="1"/>
-    <col min="4875" max="4875" width="26.42578125" style="15" customWidth="1"/>
-    <col min="4876" max="5121" width="9.140625" style="15"/>
-    <col min="5122" max="5122" width="27.7109375" style="15" customWidth="1"/>
-    <col min="5123" max="5123" width="15.28515625" style="15" customWidth="1"/>
-    <col min="5124" max="5124" width="15.140625" style="15" customWidth="1"/>
-    <col min="5125" max="5125" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5126" max="5126" width="19.85546875" style="15" customWidth="1"/>
-    <col min="5127" max="5127" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5128" max="5128" width="14.140625" style="15" customWidth="1"/>
-    <col min="5129" max="5129" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5130" max="5130" width="16.140625" style="15" customWidth="1"/>
-    <col min="5131" max="5131" width="26.42578125" style="15" customWidth="1"/>
-    <col min="5132" max="5377" width="9.140625" style="15"/>
-    <col min="5378" max="5378" width="27.7109375" style="15" customWidth="1"/>
-    <col min="5379" max="5379" width="15.28515625" style="15" customWidth="1"/>
-    <col min="5380" max="5380" width="15.140625" style="15" customWidth="1"/>
-    <col min="5381" max="5381" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5382" max="5382" width="19.85546875" style="15" customWidth="1"/>
-    <col min="5383" max="5383" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5384" max="5384" width="14.140625" style="15" customWidth="1"/>
-    <col min="5385" max="5385" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5386" max="5386" width="16.140625" style="15" customWidth="1"/>
-    <col min="5387" max="5387" width="26.42578125" style="15" customWidth="1"/>
-    <col min="5388" max="5633" width="9.140625" style="15"/>
-    <col min="5634" max="5634" width="27.7109375" style="15" customWidth="1"/>
-    <col min="5635" max="5635" width="15.28515625" style="15" customWidth="1"/>
-    <col min="5636" max="5636" width="15.140625" style="15" customWidth="1"/>
-    <col min="5637" max="5637" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5638" max="5638" width="19.85546875" style="15" customWidth="1"/>
-    <col min="5639" max="5639" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5640" max="5640" width="14.140625" style="15" customWidth="1"/>
-    <col min="5641" max="5641" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5642" max="5642" width="16.140625" style="15" customWidth="1"/>
-    <col min="5643" max="5643" width="26.42578125" style="15" customWidth="1"/>
-    <col min="5644" max="5889" width="9.140625" style="15"/>
-    <col min="5890" max="5890" width="27.7109375" style="15" customWidth="1"/>
-    <col min="5891" max="5891" width="15.28515625" style="15" customWidth="1"/>
-    <col min="5892" max="5892" width="15.140625" style="15" customWidth="1"/>
-    <col min="5893" max="5893" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5894" max="5894" width="19.85546875" style="15" customWidth="1"/>
-    <col min="5895" max="5895" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5896" max="5896" width="14.140625" style="15" customWidth="1"/>
-    <col min="5897" max="5897" width="14.85546875" style="15" customWidth="1"/>
-    <col min="5898" max="5898" width="16.140625" style="15" customWidth="1"/>
-    <col min="5899" max="5899" width="26.42578125" style="15" customWidth="1"/>
-    <col min="5900" max="6145" width="9.140625" style="15"/>
-    <col min="6146" max="6146" width="27.7109375" style="15" customWidth="1"/>
-    <col min="6147" max="6147" width="15.28515625" style="15" customWidth="1"/>
-    <col min="6148" max="6148" width="15.140625" style="15" customWidth="1"/>
-    <col min="6149" max="6149" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6150" max="6150" width="19.85546875" style="15" customWidth="1"/>
-    <col min="6151" max="6151" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6152" max="6152" width="14.140625" style="15" customWidth="1"/>
-    <col min="6153" max="6153" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6154" max="6154" width="16.140625" style="15" customWidth="1"/>
-    <col min="6155" max="6155" width="26.42578125" style="15" customWidth="1"/>
-    <col min="6156" max="6401" width="9.140625" style="15"/>
-    <col min="6402" max="6402" width="27.7109375" style="15" customWidth="1"/>
-    <col min="6403" max="6403" width="15.28515625" style="15" customWidth="1"/>
-    <col min="6404" max="6404" width="15.140625" style="15" customWidth="1"/>
-    <col min="6405" max="6405" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6406" max="6406" width="19.85546875" style="15" customWidth="1"/>
-    <col min="6407" max="6407" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6408" max="6408" width="14.140625" style="15" customWidth="1"/>
-    <col min="6409" max="6409" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6410" max="6410" width="16.140625" style="15" customWidth="1"/>
-    <col min="6411" max="6411" width="26.42578125" style="15" customWidth="1"/>
-    <col min="6412" max="6657" width="9.140625" style="15"/>
-    <col min="6658" max="6658" width="27.7109375" style="15" customWidth="1"/>
-    <col min="6659" max="6659" width="15.28515625" style="15" customWidth="1"/>
-    <col min="6660" max="6660" width="15.140625" style="15" customWidth="1"/>
-    <col min="6661" max="6661" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6662" max="6662" width="19.85546875" style="15" customWidth="1"/>
-    <col min="6663" max="6663" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6664" max="6664" width="14.140625" style="15" customWidth="1"/>
-    <col min="6665" max="6665" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6666" max="6666" width="16.140625" style="15" customWidth="1"/>
-    <col min="6667" max="6667" width="26.42578125" style="15" customWidth="1"/>
-    <col min="6668" max="6913" width="9.140625" style="15"/>
-    <col min="6914" max="6914" width="27.7109375" style="15" customWidth="1"/>
-    <col min="6915" max="6915" width="15.28515625" style="15" customWidth="1"/>
-    <col min="6916" max="6916" width="15.140625" style="15" customWidth="1"/>
-    <col min="6917" max="6917" width="17.85546875" style="15" customWidth="1"/>
-    <col min="6918" max="6918" width="19.85546875" style="15" customWidth="1"/>
-    <col min="6919" max="6919" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6920" max="6920" width="14.140625" style="15" customWidth="1"/>
-    <col min="6921" max="6921" width="14.85546875" style="15" customWidth="1"/>
-    <col min="6922" max="6922" width="16.140625" style="15" customWidth="1"/>
-    <col min="6923" max="6923" width="26.42578125" style="15" customWidth="1"/>
-    <col min="6924" max="7169" width="9.140625" style="15"/>
-    <col min="7170" max="7170" width="27.7109375" style="15" customWidth="1"/>
-    <col min="7171" max="7171" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7172" max="7172" width="15.140625" style="15" customWidth="1"/>
-    <col min="7173" max="7173" width="17.85546875" style="15" customWidth="1"/>
-    <col min="7174" max="7174" width="19.85546875" style="15" customWidth="1"/>
-    <col min="7175" max="7175" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7176" max="7176" width="14.140625" style="15" customWidth="1"/>
-    <col min="7177" max="7177" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7178" max="7178" width="16.140625" style="15" customWidth="1"/>
-    <col min="7179" max="7179" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7180" max="7425" width="9.140625" style="15"/>
-    <col min="7426" max="7426" width="27.7109375" style="15" customWidth="1"/>
-    <col min="7427" max="7427" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7428" max="7428" width="15.140625" style="15" customWidth="1"/>
-    <col min="7429" max="7429" width="17.85546875" style="15" customWidth="1"/>
-    <col min="7430" max="7430" width="19.85546875" style="15" customWidth="1"/>
-    <col min="7431" max="7431" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7432" max="7432" width="14.140625" style="15" customWidth="1"/>
-    <col min="7433" max="7433" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7434" max="7434" width="16.140625" style="15" customWidth="1"/>
-    <col min="7435" max="7435" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7436" max="7681" width="9.140625" style="15"/>
-    <col min="7682" max="7682" width="27.7109375" style="15" customWidth="1"/>
-    <col min="7683" max="7683" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7684" max="7684" width="15.140625" style="15" customWidth="1"/>
-    <col min="7685" max="7685" width="17.85546875" style="15" customWidth="1"/>
-    <col min="7686" max="7686" width="19.85546875" style="15" customWidth="1"/>
-    <col min="7687" max="7687" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7688" max="7688" width="14.140625" style="15" customWidth="1"/>
-    <col min="7689" max="7689" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7690" max="7690" width="16.140625" style="15" customWidth="1"/>
-    <col min="7691" max="7691" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7692" max="7937" width="9.140625" style="15"/>
-    <col min="7938" max="7938" width="27.7109375" style="15" customWidth="1"/>
-    <col min="7939" max="7939" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7940" max="7940" width="15.140625" style="15" customWidth="1"/>
-    <col min="7941" max="7941" width="17.85546875" style="15" customWidth="1"/>
-    <col min="7942" max="7942" width="19.85546875" style="15" customWidth="1"/>
-    <col min="7943" max="7943" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7944" max="7944" width="14.140625" style="15" customWidth="1"/>
-    <col min="7945" max="7945" width="14.85546875" style="15" customWidth="1"/>
-    <col min="7946" max="7946" width="16.140625" style="15" customWidth="1"/>
-    <col min="7947" max="7947" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7948" max="8193" width="9.140625" style="15"/>
-    <col min="8194" max="8194" width="27.7109375" style="15" customWidth="1"/>
-    <col min="8195" max="8195" width="15.28515625" style="15" customWidth="1"/>
-    <col min="8196" max="8196" width="15.140625" style="15" customWidth="1"/>
-    <col min="8197" max="8197" width="17.85546875" style="15" customWidth="1"/>
-    <col min="8198" max="8198" width="19.85546875" style="15" customWidth="1"/>
-    <col min="8199" max="8199" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8200" max="8200" width="14.140625" style="15" customWidth="1"/>
-    <col min="8201" max="8201" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8202" max="8202" width="16.140625" style="15" customWidth="1"/>
-    <col min="8203" max="8203" width="26.42578125" style="15" customWidth="1"/>
-    <col min="8204" max="8449" width="9.140625" style="15"/>
-    <col min="8450" max="8450" width="27.7109375" style="15" customWidth="1"/>
-    <col min="8451" max="8451" width="15.28515625" style="15" customWidth="1"/>
-    <col min="8452" max="8452" width="15.140625" style="15" customWidth="1"/>
-    <col min="8453" max="8453" width="17.85546875" style="15" customWidth="1"/>
-    <col min="8454" max="8454" width="19.85546875" style="15" customWidth="1"/>
-    <col min="8455" max="8455" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8456" max="8456" width="14.140625" style="15" customWidth="1"/>
-    <col min="8457" max="8457" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8458" max="8458" width="16.140625" style="15" customWidth="1"/>
-    <col min="8459" max="8459" width="26.42578125" style="15" customWidth="1"/>
-    <col min="8460" max="8705" width="9.140625" style="15"/>
-    <col min="8706" max="8706" width="27.7109375" style="15" customWidth="1"/>
-    <col min="8707" max="8707" width="15.28515625" style="15" customWidth="1"/>
-    <col min="8708" max="8708" width="15.140625" style="15" customWidth="1"/>
-    <col min="8709" max="8709" width="17.85546875" style="15" customWidth="1"/>
-    <col min="8710" max="8710" width="19.85546875" style="15" customWidth="1"/>
-    <col min="8711" max="8711" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8712" max="8712" width="14.140625" style="15" customWidth="1"/>
-    <col min="8713" max="8713" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8714" max="8714" width="16.140625" style="15" customWidth="1"/>
-    <col min="8715" max="8715" width="26.42578125" style="15" customWidth="1"/>
-    <col min="8716" max="8961" width="9.140625" style="15"/>
-    <col min="8962" max="8962" width="27.7109375" style="15" customWidth="1"/>
-    <col min="8963" max="8963" width="15.28515625" style="15" customWidth="1"/>
-    <col min="8964" max="8964" width="15.140625" style="15" customWidth="1"/>
-    <col min="8965" max="8965" width="17.85546875" style="15" customWidth="1"/>
-    <col min="8966" max="8966" width="19.85546875" style="15" customWidth="1"/>
-    <col min="8967" max="8967" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8968" max="8968" width="14.140625" style="15" customWidth="1"/>
-    <col min="8969" max="8969" width="14.85546875" style="15" customWidth="1"/>
-    <col min="8970" max="8970" width="16.140625" style="15" customWidth="1"/>
-    <col min="8971" max="8971" width="26.42578125" style="15" customWidth="1"/>
-    <col min="8972" max="9217" width="9.140625" style="15"/>
-    <col min="9218" max="9218" width="27.7109375" style="15" customWidth="1"/>
-    <col min="9219" max="9219" width="15.28515625" style="15" customWidth="1"/>
-    <col min="9220" max="9220" width="15.140625" style="15" customWidth="1"/>
-    <col min="9221" max="9221" width="17.85546875" style="15" customWidth="1"/>
-    <col min="9222" max="9222" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9223" max="9223" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9224" max="9224" width="14.140625" style="15" customWidth="1"/>
-    <col min="9225" max="9225" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9226" max="9226" width="16.140625" style="15" customWidth="1"/>
-    <col min="9227" max="9227" width="26.42578125" style="15" customWidth="1"/>
-    <col min="9228" max="9473" width="9.140625" style="15"/>
-    <col min="9474" max="9474" width="27.7109375" style="15" customWidth="1"/>
-    <col min="9475" max="9475" width="15.28515625" style="15" customWidth="1"/>
-    <col min="9476" max="9476" width="15.140625" style="15" customWidth="1"/>
-    <col min="9477" max="9477" width="17.85546875" style="15" customWidth="1"/>
-    <col min="9478" max="9478" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9479" max="9479" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9480" max="9480" width="14.140625" style="15" customWidth="1"/>
-    <col min="9481" max="9481" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9482" max="9482" width="16.140625" style="15" customWidth="1"/>
-    <col min="9483" max="9483" width="26.42578125" style="15" customWidth="1"/>
-    <col min="9484" max="9729" width="9.140625" style="15"/>
-    <col min="9730" max="9730" width="27.7109375" style="15" customWidth="1"/>
-    <col min="9731" max="9731" width="15.28515625" style="15" customWidth="1"/>
-    <col min="9732" max="9732" width="15.140625" style="15" customWidth="1"/>
-    <col min="9733" max="9733" width="17.85546875" style="15" customWidth="1"/>
-    <col min="9734" max="9734" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9735" max="9735" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9736" max="9736" width="14.140625" style="15" customWidth="1"/>
-    <col min="9737" max="9737" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9738" max="9738" width="16.140625" style="15" customWidth="1"/>
-    <col min="9739" max="9739" width="26.42578125" style="15" customWidth="1"/>
-    <col min="9740" max="9985" width="9.140625" style="15"/>
-    <col min="9986" max="9986" width="27.7109375" style="15" customWidth="1"/>
-    <col min="9987" max="9987" width="15.28515625" style="15" customWidth="1"/>
-    <col min="9988" max="9988" width="15.140625" style="15" customWidth="1"/>
-    <col min="9989" max="9989" width="17.85546875" style="15" customWidth="1"/>
-    <col min="9990" max="9990" width="19.85546875" style="15" customWidth="1"/>
-    <col min="9991" max="9991" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9992" max="9992" width="14.140625" style="15" customWidth="1"/>
-    <col min="9993" max="9993" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9994" max="9994" width="16.140625" style="15" customWidth="1"/>
-    <col min="9995" max="9995" width="26.42578125" style="15" customWidth="1"/>
-    <col min="9996" max="10241" width="9.140625" style="15"/>
-    <col min="10242" max="10242" width="27.7109375" style="15" customWidth="1"/>
-    <col min="10243" max="10243" width="15.28515625" style="15" customWidth="1"/>
-    <col min="10244" max="10244" width="15.140625" style="15" customWidth="1"/>
-    <col min="10245" max="10245" width="17.85546875" style="15" customWidth="1"/>
-    <col min="10246" max="10246" width="19.85546875" style="15" customWidth="1"/>
-    <col min="10247" max="10247" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10248" max="10248" width="14.140625" style="15" customWidth="1"/>
-    <col min="10249" max="10249" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10250" max="10250" width="16.140625" style="15" customWidth="1"/>
-    <col min="10251" max="10251" width="26.42578125" style="15" customWidth="1"/>
-    <col min="10252" max="10497" width="9.140625" style="15"/>
-    <col min="10498" max="10498" width="27.7109375" style="15" customWidth="1"/>
-    <col min="10499" max="10499" width="15.28515625" style="15" customWidth="1"/>
-    <col min="10500" max="10500" width="15.140625" style="15" customWidth="1"/>
-    <col min="10501" max="10501" width="17.85546875" style="15" customWidth="1"/>
-    <col min="10502" max="10502" width="19.85546875" style="15" customWidth="1"/>
-    <col min="10503" max="10503" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10504" max="10504" width="14.140625" style="15" customWidth="1"/>
-    <col min="10505" max="10505" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10506" max="10506" width="16.140625" style="15" customWidth="1"/>
-    <col min="10507" max="10507" width="26.42578125" style="15" customWidth="1"/>
-    <col min="10508" max="10753" width="9.140625" style="15"/>
-    <col min="10754" max="10754" width="27.7109375" style="15" customWidth="1"/>
-    <col min="10755" max="10755" width="15.28515625" style="15" customWidth="1"/>
-    <col min="10756" max="10756" width="15.140625" style="15" customWidth="1"/>
-    <col min="10757" max="10757" width="17.85546875" style="15" customWidth="1"/>
-    <col min="10758" max="10758" width="19.85546875" style="15" customWidth="1"/>
-    <col min="10759" max="10759" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10760" max="10760" width="14.140625" style="15" customWidth="1"/>
-    <col min="10761" max="10761" width="14.85546875" style="15" customWidth="1"/>
-    <col min="10762" max="10762" width="16.140625" style="15" customWidth="1"/>
-    <col min="10763" max="10763" width="26.42578125" style="15" customWidth="1"/>
-    <col min="10764" max="11009" width="9.140625" style="15"/>
-    <col min="11010" max="11010" width="27.7109375" style="15" customWidth="1"/>
-    <col min="11011" max="11011" width="15.28515625" style="15" customWidth="1"/>
-    <col min="11012" max="11012" width="15.140625" style="15" customWidth="1"/>
-    <col min="11013" max="11013" width="17.85546875" style="15" customWidth="1"/>
-    <col min="11014" max="11014" width="19.85546875" style="15" customWidth="1"/>
-    <col min="11015" max="11015" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11016" max="11016" width="14.140625" style="15" customWidth="1"/>
-    <col min="11017" max="11017" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11018" max="11018" width="16.140625" style="15" customWidth="1"/>
-    <col min="11019" max="11019" width="26.42578125" style="15" customWidth="1"/>
-    <col min="11020" max="11265" width="9.140625" style="15"/>
-    <col min="11266" max="11266" width="27.7109375" style="15" customWidth="1"/>
-    <col min="11267" max="11267" width="15.28515625" style="15" customWidth="1"/>
-    <col min="11268" max="11268" width="15.140625" style="15" customWidth="1"/>
-    <col min="11269" max="11269" width="17.85546875" style="15" customWidth="1"/>
-    <col min="11270" max="11270" width="19.85546875" style="15" customWidth="1"/>
-    <col min="11271" max="11271" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11272" max="11272" width="14.140625" style="15" customWidth="1"/>
-    <col min="11273" max="11273" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11274" max="11274" width="16.140625" style="15" customWidth="1"/>
-    <col min="11275" max="11275" width="26.42578125" style="15" customWidth="1"/>
-    <col min="11276" max="11521" width="9.140625" style="15"/>
-    <col min="11522" max="11522" width="27.7109375" style="15" customWidth="1"/>
-    <col min="11523" max="11523" width="15.28515625" style="15" customWidth="1"/>
-    <col min="11524" max="11524" width="15.140625" style="15" customWidth="1"/>
-    <col min="11525" max="11525" width="17.85546875" style="15" customWidth="1"/>
-    <col min="11526" max="11526" width="19.85546875" style="15" customWidth="1"/>
-    <col min="11527" max="11527" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11528" max="11528" width="14.140625" style="15" customWidth="1"/>
-    <col min="11529" max="11529" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11530" max="11530" width="16.140625" style="15" customWidth="1"/>
-    <col min="11531" max="11531" width="26.42578125" style="15" customWidth="1"/>
-    <col min="11532" max="11777" width="9.140625" style="15"/>
-    <col min="11778" max="11778" width="27.7109375" style="15" customWidth="1"/>
-    <col min="11779" max="11779" width="15.28515625" style="15" customWidth="1"/>
-    <col min="11780" max="11780" width="15.140625" style="15" customWidth="1"/>
-    <col min="11781" max="11781" width="17.85546875" style="15" customWidth="1"/>
-    <col min="11782" max="11782" width="19.85546875" style="15" customWidth="1"/>
-    <col min="11783" max="11783" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11784" max="11784" width="14.140625" style="15" customWidth="1"/>
-    <col min="11785" max="11785" width="14.85546875" style="15" customWidth="1"/>
-    <col min="11786" max="11786" width="16.140625" style="15" customWidth="1"/>
-    <col min="11787" max="11787" width="26.42578125" style="15" customWidth="1"/>
-    <col min="11788" max="12033" width="9.140625" style="15"/>
-    <col min="12034" max="12034" width="27.7109375" style="15" customWidth="1"/>
-    <col min="12035" max="12035" width="15.28515625" style="15" customWidth="1"/>
-    <col min="12036" max="12036" width="15.140625" style="15" customWidth="1"/>
-    <col min="12037" max="12037" width="17.85546875" style="15" customWidth="1"/>
-    <col min="12038" max="12038" width="19.85546875" style="15" customWidth="1"/>
-    <col min="12039" max="12039" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12040" max="12040" width="14.140625" style="15" customWidth="1"/>
-    <col min="12041" max="12041" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12042" max="12042" width="16.140625" style="15" customWidth="1"/>
-    <col min="12043" max="12043" width="26.42578125" style="15" customWidth="1"/>
-    <col min="12044" max="12289" width="9.140625" style="15"/>
-    <col min="12290" max="12290" width="27.7109375" style="15" customWidth="1"/>
-    <col min="12291" max="12291" width="15.28515625" style="15" customWidth="1"/>
-    <col min="12292" max="12292" width="15.140625" style="15" customWidth="1"/>
-    <col min="12293" max="12293" width="17.85546875" style="15" customWidth="1"/>
-    <col min="12294" max="12294" width="19.85546875" style="15" customWidth="1"/>
-    <col min="12295" max="12295" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12296" max="12296" width="14.140625" style="15" customWidth="1"/>
-    <col min="12297" max="12297" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12298" max="12298" width="16.140625" style="15" customWidth="1"/>
-    <col min="12299" max="12299" width="26.42578125" style="15" customWidth="1"/>
-    <col min="12300" max="12545" width="9.140625" style="15"/>
-    <col min="12546" max="12546" width="27.7109375" style="15" customWidth="1"/>
-    <col min="12547" max="12547" width="15.28515625" style="15" customWidth="1"/>
-    <col min="12548" max="12548" width="15.140625" style="15" customWidth="1"/>
-    <col min="12549" max="12549" width="17.85546875" style="15" customWidth="1"/>
-    <col min="12550" max="12550" width="19.85546875" style="15" customWidth="1"/>
-    <col min="12551" max="12551" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12552" max="12552" width="14.140625" style="15" customWidth="1"/>
-    <col min="12553" max="12553" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12554" max="12554" width="16.140625" style="15" customWidth="1"/>
-    <col min="12555" max="12555" width="26.42578125" style="15" customWidth="1"/>
-    <col min="12556" max="12801" width="9.140625" style="15"/>
-    <col min="12802" max="12802" width="27.7109375" style="15" customWidth="1"/>
-    <col min="12803" max="12803" width="15.28515625" style="15" customWidth="1"/>
-    <col min="12804" max="12804" width="15.140625" style="15" customWidth="1"/>
-    <col min="12805" max="12805" width="17.85546875" style="15" customWidth="1"/>
-    <col min="12806" max="12806" width="19.85546875" style="15" customWidth="1"/>
-    <col min="12807" max="12807" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12808" max="12808" width="14.140625" style="15" customWidth="1"/>
-    <col min="12809" max="12809" width="14.85546875" style="15" customWidth="1"/>
-    <col min="12810" max="12810" width="16.140625" style="15" customWidth="1"/>
-    <col min="12811" max="12811" width="26.42578125" style="15" customWidth="1"/>
-    <col min="12812" max="13057" width="9.140625" style="15"/>
-    <col min="13058" max="13058" width="27.7109375" style="15" customWidth="1"/>
-    <col min="13059" max="13059" width="15.28515625" style="15" customWidth="1"/>
-    <col min="13060" max="13060" width="15.140625" style="15" customWidth="1"/>
-    <col min="13061" max="13061" width="17.85546875" style="15" customWidth="1"/>
-    <col min="13062" max="13062" width="19.85546875" style="15" customWidth="1"/>
-    <col min="13063" max="13063" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13064" max="13064" width="14.140625" style="15" customWidth="1"/>
-    <col min="13065" max="13065" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13066" max="13066" width="16.140625" style="15" customWidth="1"/>
-    <col min="13067" max="13067" width="26.42578125" style="15" customWidth="1"/>
-    <col min="13068" max="13313" width="9.140625" style="15"/>
-    <col min="13314" max="13314" width="27.7109375" style="15" customWidth="1"/>
-    <col min="13315" max="13315" width="15.28515625" style="15" customWidth="1"/>
-    <col min="13316" max="13316" width="15.140625" style="15" customWidth="1"/>
-    <col min="13317" max="13317" width="17.85546875" style="15" customWidth="1"/>
-    <col min="13318" max="13318" width="19.85546875" style="15" customWidth="1"/>
-    <col min="13319" max="13319" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13320" max="13320" width="14.140625" style="15" customWidth="1"/>
-    <col min="13321" max="13321" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13322" max="13322" width="16.140625" style="15" customWidth="1"/>
-    <col min="13323" max="13323" width="26.42578125" style="15" customWidth="1"/>
-    <col min="13324" max="13569" width="9.140625" style="15"/>
-    <col min="13570" max="13570" width="27.7109375" style="15" customWidth="1"/>
-    <col min="13571" max="13571" width="15.28515625" style="15" customWidth="1"/>
-    <col min="13572" max="13572" width="15.140625" style="15" customWidth="1"/>
-    <col min="13573" max="13573" width="17.85546875" style="15" customWidth="1"/>
-    <col min="13574" max="13574" width="19.85546875" style="15" customWidth="1"/>
-    <col min="13575" max="13575" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13576" max="13576" width="14.140625" style="15" customWidth="1"/>
-    <col min="13577" max="13577" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13578" max="13578" width="16.140625" style="15" customWidth="1"/>
-    <col min="13579" max="13579" width="26.42578125" style="15" customWidth="1"/>
-    <col min="13580" max="13825" width="9.140625" style="15"/>
-    <col min="13826" max="13826" width="27.7109375" style="15" customWidth="1"/>
-    <col min="13827" max="13827" width="15.28515625" style="15" customWidth="1"/>
-    <col min="13828" max="13828" width="15.140625" style="15" customWidth="1"/>
-    <col min="13829" max="13829" width="17.85546875" style="15" customWidth="1"/>
-    <col min="13830" max="13830" width="19.85546875" style="15" customWidth="1"/>
-    <col min="13831" max="13831" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13832" max="13832" width="14.140625" style="15" customWidth="1"/>
-    <col min="13833" max="13833" width="14.85546875" style="15" customWidth="1"/>
-    <col min="13834" max="13834" width="16.140625" style="15" customWidth="1"/>
-    <col min="13835" max="13835" width="26.42578125" style="15" customWidth="1"/>
-    <col min="13836" max="14081" width="9.140625" style="15"/>
-    <col min="14082" max="14082" width="27.7109375" style="15" customWidth="1"/>
-    <col min="14083" max="14083" width="15.28515625" style="15" customWidth="1"/>
-    <col min="14084" max="14084" width="15.140625" style="15" customWidth="1"/>
-    <col min="14085" max="14085" width="17.85546875" style="15" customWidth="1"/>
-    <col min="14086" max="14086" width="19.85546875" style="15" customWidth="1"/>
-    <col min="14087" max="14087" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14088" max="14088" width="14.140625" style="15" customWidth="1"/>
-    <col min="14089" max="14089" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14090" max="14090" width="16.140625" style="15" customWidth="1"/>
-    <col min="14091" max="14091" width="26.42578125" style="15" customWidth="1"/>
-    <col min="14092" max="14337" width="9.140625" style="15"/>
-    <col min="14338" max="14338" width="27.7109375" style="15" customWidth="1"/>
-    <col min="14339" max="14339" width="15.28515625" style="15" customWidth="1"/>
-    <col min="14340" max="14340" width="15.140625" style="15" customWidth="1"/>
-    <col min="14341" max="14341" width="17.85546875" style="15" customWidth="1"/>
-    <col min="14342" max="14342" width="19.85546875" style="15" customWidth="1"/>
-    <col min="14343" max="14343" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14344" max="14344" width="14.140625" style="15" customWidth="1"/>
-    <col min="14345" max="14345" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14346" max="14346" width="16.140625" style="15" customWidth="1"/>
-    <col min="14347" max="14347" width="26.42578125" style="15" customWidth="1"/>
-    <col min="14348" max="14593" width="9.140625" style="15"/>
-    <col min="14594" max="14594" width="27.7109375" style="15" customWidth="1"/>
-    <col min="14595" max="14595" width="15.28515625" style="15" customWidth="1"/>
-    <col min="14596" max="14596" width="15.140625" style="15" customWidth="1"/>
-    <col min="14597" max="14597" width="17.85546875" style="15" customWidth="1"/>
-    <col min="14598" max="14598" width="19.85546875" style="15" customWidth="1"/>
-    <col min="14599" max="14599" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14600" max="14600" width="14.140625" style="15" customWidth="1"/>
-    <col min="14601" max="14601" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14602" max="14602" width="16.140625" style="15" customWidth="1"/>
-    <col min="14603" max="14603" width="26.42578125" style="15" customWidth="1"/>
-    <col min="14604" max="14849" width="9.140625" style="15"/>
-    <col min="14850" max="14850" width="27.7109375" style="15" customWidth="1"/>
-    <col min="14851" max="14851" width="15.28515625" style="15" customWidth="1"/>
-    <col min="14852" max="14852" width="15.140625" style="15" customWidth="1"/>
-    <col min="14853" max="14853" width="17.85546875" style="15" customWidth="1"/>
-    <col min="14854" max="14854" width="19.85546875" style="15" customWidth="1"/>
-    <col min="14855" max="14855" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14856" max="14856" width="14.140625" style="15" customWidth="1"/>
-    <col min="14857" max="14857" width="14.85546875" style="15" customWidth="1"/>
-    <col min="14858" max="14858" width="16.140625" style="15" customWidth="1"/>
-    <col min="14859" max="14859" width="26.42578125" style="15" customWidth="1"/>
-    <col min="14860" max="15105" width="9.140625" style="15"/>
-    <col min="15106" max="15106" width="27.7109375" style="15" customWidth="1"/>
-    <col min="15107" max="15107" width="15.28515625" style="15" customWidth="1"/>
-    <col min="15108" max="15108" width="15.140625" style="15" customWidth="1"/>
-    <col min="15109" max="15109" width="17.85546875" style="15" customWidth="1"/>
-    <col min="15110" max="15110" width="19.85546875" style="15" customWidth="1"/>
-    <col min="15111" max="15111" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15112" max="15112" width="14.140625" style="15" customWidth="1"/>
-    <col min="15113" max="15113" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15114" max="15114" width="16.140625" style="15" customWidth="1"/>
-    <col min="15115" max="15115" width="26.42578125" style="15" customWidth="1"/>
-    <col min="15116" max="15361" width="9.140625" style="15"/>
-    <col min="15362" max="15362" width="27.7109375" style="15" customWidth="1"/>
-    <col min="15363" max="15363" width="15.28515625" style="15" customWidth="1"/>
-    <col min="15364" max="15364" width="15.140625" style="15" customWidth="1"/>
-    <col min="15365" max="15365" width="17.85546875" style="15" customWidth="1"/>
-    <col min="15366" max="15366" width="19.85546875" style="15" customWidth="1"/>
-    <col min="15367" max="15367" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15368" max="15368" width="14.140625" style="15" customWidth="1"/>
-    <col min="15369" max="15369" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15370" max="15370" width="16.140625" style="15" customWidth="1"/>
-    <col min="15371" max="15371" width="26.42578125" style="15" customWidth="1"/>
-    <col min="15372" max="15617" width="9.140625" style="15"/>
-    <col min="15618" max="15618" width="27.7109375" style="15" customWidth="1"/>
-    <col min="15619" max="15619" width="15.28515625" style="15" customWidth="1"/>
-    <col min="15620" max="15620" width="15.140625" style="15" customWidth="1"/>
-    <col min="15621" max="15621" width="17.85546875" style="15" customWidth="1"/>
-    <col min="15622" max="15622" width="19.85546875" style="15" customWidth="1"/>
-    <col min="15623" max="15623" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15624" max="15624" width="14.140625" style="15" customWidth="1"/>
-    <col min="15625" max="15625" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15626" max="15626" width="16.140625" style="15" customWidth="1"/>
-    <col min="15627" max="15627" width="26.42578125" style="15" customWidth="1"/>
-    <col min="15628" max="15873" width="9.140625" style="15"/>
-    <col min="15874" max="15874" width="27.7109375" style="15" customWidth="1"/>
-    <col min="15875" max="15875" width="15.28515625" style="15" customWidth="1"/>
-    <col min="15876" max="15876" width="15.140625" style="15" customWidth="1"/>
-    <col min="15877" max="15877" width="17.85546875" style="15" customWidth="1"/>
-    <col min="15878" max="15878" width="19.85546875" style="15" customWidth="1"/>
-    <col min="15879" max="15879" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15880" max="15880" width="14.140625" style="15" customWidth="1"/>
-    <col min="15881" max="15881" width="14.85546875" style="15" customWidth="1"/>
-    <col min="15882" max="15882" width="16.140625" style="15" customWidth="1"/>
-    <col min="15883" max="15883" width="26.42578125" style="15" customWidth="1"/>
-    <col min="15884" max="16129" width="9.140625" style="15"/>
-    <col min="16130" max="16130" width="27.7109375" style="15" customWidth="1"/>
-    <col min="16131" max="16131" width="15.28515625" style="15" customWidth="1"/>
-    <col min="16132" max="16132" width="15.140625" style="15" customWidth="1"/>
-    <col min="16133" max="16133" width="17.85546875" style="15" customWidth="1"/>
-    <col min="16134" max="16134" width="19.85546875" style="15" customWidth="1"/>
-    <col min="16135" max="16135" width="14.85546875" style="15" customWidth="1"/>
-    <col min="16136" max="16136" width="14.140625" style="15" customWidth="1"/>
-    <col min="16137" max="16137" width="14.85546875" style="15" customWidth="1"/>
-    <col min="16138" max="16138" width="16.140625" style="15" customWidth="1"/>
-    <col min="16139" max="16139" width="26.42578125" style="15" customWidth="1"/>
-    <col min="16140" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="27.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="9" customWidth="1"/>
+    <col min="13" max="257" width="9.140625" style="10"/>
+    <col min="258" max="258" width="27.7109375" style="10" customWidth="1"/>
+    <col min="259" max="259" width="15.28515625" style="10" customWidth="1"/>
+    <col min="260" max="260" width="15.140625" style="10" customWidth="1"/>
+    <col min="261" max="261" width="17.85546875" style="10" customWidth="1"/>
+    <col min="262" max="262" width="19.85546875" style="10" customWidth="1"/>
+    <col min="263" max="263" width="14.85546875" style="10" customWidth="1"/>
+    <col min="264" max="264" width="14.140625" style="10" customWidth="1"/>
+    <col min="265" max="265" width="14.85546875" style="10" customWidth="1"/>
+    <col min="266" max="266" width="16.140625" style="10" customWidth="1"/>
+    <col min="267" max="267" width="26.42578125" style="10" customWidth="1"/>
+    <col min="268" max="513" width="9.140625" style="10"/>
+    <col min="514" max="514" width="27.7109375" style="10" customWidth="1"/>
+    <col min="515" max="515" width="15.28515625" style="10" customWidth="1"/>
+    <col min="516" max="516" width="15.140625" style="10" customWidth="1"/>
+    <col min="517" max="517" width="17.85546875" style="10" customWidth="1"/>
+    <col min="518" max="518" width="19.85546875" style="10" customWidth="1"/>
+    <col min="519" max="519" width="14.85546875" style="10" customWidth="1"/>
+    <col min="520" max="520" width="14.140625" style="10" customWidth="1"/>
+    <col min="521" max="521" width="14.85546875" style="10" customWidth="1"/>
+    <col min="522" max="522" width="16.140625" style="10" customWidth="1"/>
+    <col min="523" max="523" width="26.42578125" style="10" customWidth="1"/>
+    <col min="524" max="769" width="9.140625" style="10"/>
+    <col min="770" max="770" width="27.7109375" style="10" customWidth="1"/>
+    <col min="771" max="771" width="15.28515625" style="10" customWidth="1"/>
+    <col min="772" max="772" width="15.140625" style="10" customWidth="1"/>
+    <col min="773" max="773" width="17.85546875" style="10" customWidth="1"/>
+    <col min="774" max="774" width="19.85546875" style="10" customWidth="1"/>
+    <col min="775" max="775" width="14.85546875" style="10" customWidth="1"/>
+    <col min="776" max="776" width="14.140625" style="10" customWidth="1"/>
+    <col min="777" max="777" width="14.85546875" style="10" customWidth="1"/>
+    <col min="778" max="778" width="16.140625" style="10" customWidth="1"/>
+    <col min="779" max="779" width="26.42578125" style="10" customWidth="1"/>
+    <col min="780" max="1025" width="9.140625" style="10"/>
+    <col min="1026" max="1026" width="27.7109375" style="10" customWidth="1"/>
+    <col min="1027" max="1027" width="15.28515625" style="10" customWidth="1"/>
+    <col min="1028" max="1028" width="15.140625" style="10" customWidth="1"/>
+    <col min="1029" max="1029" width="17.85546875" style="10" customWidth="1"/>
+    <col min="1030" max="1030" width="19.85546875" style="10" customWidth="1"/>
+    <col min="1031" max="1031" width="14.85546875" style="10" customWidth="1"/>
+    <col min="1032" max="1032" width="14.140625" style="10" customWidth="1"/>
+    <col min="1033" max="1033" width="14.85546875" style="10" customWidth="1"/>
+    <col min="1034" max="1034" width="16.140625" style="10" customWidth="1"/>
+    <col min="1035" max="1035" width="26.42578125" style="10" customWidth="1"/>
+    <col min="1036" max="1281" width="9.140625" style="10"/>
+    <col min="1282" max="1282" width="27.7109375" style="10" customWidth="1"/>
+    <col min="1283" max="1283" width="15.28515625" style="10" customWidth="1"/>
+    <col min="1284" max="1284" width="15.140625" style="10" customWidth="1"/>
+    <col min="1285" max="1285" width="17.85546875" style="10" customWidth="1"/>
+    <col min="1286" max="1286" width="19.85546875" style="10" customWidth="1"/>
+    <col min="1287" max="1287" width="14.85546875" style="10" customWidth="1"/>
+    <col min="1288" max="1288" width="14.140625" style="10" customWidth="1"/>
+    <col min="1289" max="1289" width="14.85546875" style="10" customWidth="1"/>
+    <col min="1290" max="1290" width="16.140625" style="10" customWidth="1"/>
+    <col min="1291" max="1291" width="26.42578125" style="10" customWidth="1"/>
+    <col min="1292" max="1537" width="9.140625" style="10"/>
+    <col min="1538" max="1538" width="27.7109375" style="10" customWidth="1"/>
+    <col min="1539" max="1539" width="15.28515625" style="10" customWidth="1"/>
+    <col min="1540" max="1540" width="15.140625" style="10" customWidth="1"/>
+    <col min="1541" max="1541" width="17.85546875" style="10" customWidth="1"/>
+    <col min="1542" max="1542" width="19.85546875" style="10" customWidth="1"/>
+    <col min="1543" max="1543" width="14.85546875" style="10" customWidth="1"/>
+    <col min="1544" max="1544" width="14.140625" style="10" customWidth="1"/>
+    <col min="1545" max="1545" width="14.85546875" style="10" customWidth="1"/>
+    <col min="1546" max="1546" width="16.140625" style="10" customWidth="1"/>
+    <col min="1547" max="1547" width="26.42578125" style="10" customWidth="1"/>
+    <col min="1548" max="1793" width="9.140625" style="10"/>
+    <col min="1794" max="1794" width="27.7109375" style="10" customWidth="1"/>
+    <col min="1795" max="1795" width="15.28515625" style="10" customWidth="1"/>
+    <col min="1796" max="1796" width="15.140625" style="10" customWidth="1"/>
+    <col min="1797" max="1797" width="17.85546875" style="10" customWidth="1"/>
+    <col min="1798" max="1798" width="19.85546875" style="10" customWidth="1"/>
+    <col min="1799" max="1799" width="14.85546875" style="10" customWidth="1"/>
+    <col min="1800" max="1800" width="14.140625" style="10" customWidth="1"/>
+    <col min="1801" max="1801" width="14.85546875" style="10" customWidth="1"/>
+    <col min="1802" max="1802" width="16.140625" style="10" customWidth="1"/>
+    <col min="1803" max="1803" width="26.42578125" style="10" customWidth="1"/>
+    <col min="1804" max="2049" width="9.140625" style="10"/>
+    <col min="2050" max="2050" width="27.7109375" style="10" customWidth="1"/>
+    <col min="2051" max="2051" width="15.28515625" style="10" customWidth="1"/>
+    <col min="2052" max="2052" width="15.140625" style="10" customWidth="1"/>
+    <col min="2053" max="2053" width="17.85546875" style="10" customWidth="1"/>
+    <col min="2054" max="2054" width="19.85546875" style="10" customWidth="1"/>
+    <col min="2055" max="2055" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2056" max="2056" width="14.140625" style="10" customWidth="1"/>
+    <col min="2057" max="2057" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2058" max="2058" width="16.140625" style="10" customWidth="1"/>
+    <col min="2059" max="2059" width="26.42578125" style="10" customWidth="1"/>
+    <col min="2060" max="2305" width="9.140625" style="10"/>
+    <col min="2306" max="2306" width="27.7109375" style="10" customWidth="1"/>
+    <col min="2307" max="2307" width="15.28515625" style="10" customWidth="1"/>
+    <col min="2308" max="2308" width="15.140625" style="10" customWidth="1"/>
+    <col min="2309" max="2309" width="17.85546875" style="10" customWidth="1"/>
+    <col min="2310" max="2310" width="19.85546875" style="10" customWidth="1"/>
+    <col min="2311" max="2311" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2312" max="2312" width="14.140625" style="10" customWidth="1"/>
+    <col min="2313" max="2313" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2314" max="2314" width="16.140625" style="10" customWidth="1"/>
+    <col min="2315" max="2315" width="26.42578125" style="10" customWidth="1"/>
+    <col min="2316" max="2561" width="9.140625" style="10"/>
+    <col min="2562" max="2562" width="27.7109375" style="10" customWidth="1"/>
+    <col min="2563" max="2563" width="15.28515625" style="10" customWidth="1"/>
+    <col min="2564" max="2564" width="15.140625" style="10" customWidth="1"/>
+    <col min="2565" max="2565" width="17.85546875" style="10" customWidth="1"/>
+    <col min="2566" max="2566" width="19.85546875" style="10" customWidth="1"/>
+    <col min="2567" max="2567" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2568" max="2568" width="14.140625" style="10" customWidth="1"/>
+    <col min="2569" max="2569" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2570" max="2570" width="16.140625" style="10" customWidth="1"/>
+    <col min="2571" max="2571" width="26.42578125" style="10" customWidth="1"/>
+    <col min="2572" max="2817" width="9.140625" style="10"/>
+    <col min="2818" max="2818" width="27.7109375" style="10" customWidth="1"/>
+    <col min="2819" max="2819" width="15.28515625" style="10" customWidth="1"/>
+    <col min="2820" max="2820" width="15.140625" style="10" customWidth="1"/>
+    <col min="2821" max="2821" width="17.85546875" style="10" customWidth="1"/>
+    <col min="2822" max="2822" width="19.85546875" style="10" customWidth="1"/>
+    <col min="2823" max="2823" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2824" max="2824" width="14.140625" style="10" customWidth="1"/>
+    <col min="2825" max="2825" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2826" max="2826" width="16.140625" style="10" customWidth="1"/>
+    <col min="2827" max="2827" width="26.42578125" style="10" customWidth="1"/>
+    <col min="2828" max="3073" width="9.140625" style="10"/>
+    <col min="3074" max="3074" width="27.7109375" style="10" customWidth="1"/>
+    <col min="3075" max="3075" width="15.28515625" style="10" customWidth="1"/>
+    <col min="3076" max="3076" width="15.140625" style="10" customWidth="1"/>
+    <col min="3077" max="3077" width="17.85546875" style="10" customWidth="1"/>
+    <col min="3078" max="3078" width="19.85546875" style="10" customWidth="1"/>
+    <col min="3079" max="3079" width="14.85546875" style="10" customWidth="1"/>
+    <col min="3080" max="3080" width="14.140625" style="10" customWidth="1"/>
+    <col min="3081" max="3081" width="14.85546875" style="10" customWidth="1"/>
+    <col min="3082" max="3082" width="16.140625" style="10" customWidth="1"/>
+    <col min="3083" max="3083" width="26.42578125" style="10" customWidth="1"/>
+    <col min="3084" max="3329" width="9.140625" style="10"/>
+    <col min="3330" max="3330" width="27.7109375" style="10" customWidth="1"/>
+    <col min="3331" max="3331" width="15.28515625" style="10" customWidth="1"/>
+    <col min="3332" max="3332" width="15.140625" style="10" customWidth="1"/>
+    <col min="3333" max="3333" width="17.85546875" style="10" customWidth="1"/>
+    <col min="3334" max="3334" width="19.85546875" style="10" customWidth="1"/>
+    <col min="3335" max="3335" width="14.85546875" style="10" customWidth="1"/>
+    <col min="3336" max="3336" width="14.140625" style="10" customWidth="1"/>
+    <col min="3337" max="3337" width="14.85546875" style="10" customWidth="1"/>
+    <col min="3338" max="3338" width="16.140625" style="10" customWidth="1"/>
+    <col min="3339" max="3339" width="26.42578125" style="10" customWidth="1"/>
+    <col min="3340" max="3585" width="9.140625" style="10"/>
+    <col min="3586" max="3586" width="27.7109375" style="10" customWidth="1"/>
+    <col min="3587" max="3587" width="15.28515625" style="10" customWidth="1"/>
+    <col min="3588" max="3588" width="15.140625" style="10" customWidth="1"/>
+    <col min="3589" max="3589" width="17.85546875" style="10" customWidth="1"/>
+    <col min="3590" max="3590" width="19.85546875" style="10" customWidth="1"/>
+    <col min="3591" max="3591" width="14.85546875" style="10" customWidth="1"/>
+    <col min="3592" max="3592" width="14.140625" style="10" customWidth="1"/>
+    <col min="3593" max="3593" width="14.85546875" style="10" customWidth="1"/>
+    <col min="3594" max="3594" width="16.140625" style="10" customWidth="1"/>
+    <col min="3595" max="3595" width="26.42578125" style="10" customWidth="1"/>
+    <col min="3596" max="3841" width="9.140625" style="10"/>
+    <col min="3842" max="3842" width="27.7109375" style="10" customWidth="1"/>
+    <col min="3843" max="3843" width="15.28515625" style="10" customWidth="1"/>
+    <col min="3844" max="3844" width="15.140625" style="10" customWidth="1"/>
+    <col min="3845" max="3845" width="17.85546875" style="10" customWidth="1"/>
+    <col min="3846" max="3846" width="19.85546875" style="10" customWidth="1"/>
+    <col min="3847" max="3847" width="14.85546875" style="10" customWidth="1"/>
+    <col min="3848" max="3848" width="14.140625" style="10" customWidth="1"/>
+    <col min="3849" max="3849" width="14.85546875" style="10" customWidth="1"/>
+    <col min="3850" max="3850" width="16.140625" style="10" customWidth="1"/>
+    <col min="3851" max="3851" width="26.42578125" style="10" customWidth="1"/>
+    <col min="3852" max="4097" width="9.140625" style="10"/>
+    <col min="4098" max="4098" width="27.7109375" style="10" customWidth="1"/>
+    <col min="4099" max="4099" width="15.28515625" style="10" customWidth="1"/>
+    <col min="4100" max="4100" width="15.140625" style="10" customWidth="1"/>
+    <col min="4101" max="4101" width="17.85546875" style="10" customWidth="1"/>
+    <col min="4102" max="4102" width="19.85546875" style="10" customWidth="1"/>
+    <col min="4103" max="4103" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4104" max="4104" width="14.140625" style="10" customWidth="1"/>
+    <col min="4105" max="4105" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4106" max="4106" width="16.140625" style="10" customWidth="1"/>
+    <col min="4107" max="4107" width="26.42578125" style="10" customWidth="1"/>
+    <col min="4108" max="4353" width="9.140625" style="10"/>
+    <col min="4354" max="4354" width="27.7109375" style="10" customWidth="1"/>
+    <col min="4355" max="4355" width="15.28515625" style="10" customWidth="1"/>
+    <col min="4356" max="4356" width="15.140625" style="10" customWidth="1"/>
+    <col min="4357" max="4357" width="17.85546875" style="10" customWidth="1"/>
+    <col min="4358" max="4358" width="19.85546875" style="10" customWidth="1"/>
+    <col min="4359" max="4359" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4360" max="4360" width="14.140625" style="10" customWidth="1"/>
+    <col min="4361" max="4361" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4362" max="4362" width="16.140625" style="10" customWidth="1"/>
+    <col min="4363" max="4363" width="26.42578125" style="10" customWidth="1"/>
+    <col min="4364" max="4609" width="9.140625" style="10"/>
+    <col min="4610" max="4610" width="27.7109375" style="10" customWidth="1"/>
+    <col min="4611" max="4611" width="15.28515625" style="10" customWidth="1"/>
+    <col min="4612" max="4612" width="15.140625" style="10" customWidth="1"/>
+    <col min="4613" max="4613" width="17.85546875" style="10" customWidth="1"/>
+    <col min="4614" max="4614" width="19.85546875" style="10" customWidth="1"/>
+    <col min="4615" max="4615" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4616" max="4616" width="14.140625" style="10" customWidth="1"/>
+    <col min="4617" max="4617" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4618" max="4618" width="16.140625" style="10" customWidth="1"/>
+    <col min="4619" max="4619" width="26.42578125" style="10" customWidth="1"/>
+    <col min="4620" max="4865" width="9.140625" style="10"/>
+    <col min="4866" max="4866" width="27.7109375" style="10" customWidth="1"/>
+    <col min="4867" max="4867" width="15.28515625" style="10" customWidth="1"/>
+    <col min="4868" max="4868" width="15.140625" style="10" customWidth="1"/>
+    <col min="4869" max="4869" width="17.85546875" style="10" customWidth="1"/>
+    <col min="4870" max="4870" width="19.85546875" style="10" customWidth="1"/>
+    <col min="4871" max="4871" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4872" max="4872" width="14.140625" style="10" customWidth="1"/>
+    <col min="4873" max="4873" width="14.85546875" style="10" customWidth="1"/>
+    <col min="4874" max="4874" width="16.140625" style="10" customWidth="1"/>
+    <col min="4875" max="4875" width="26.42578125" style="10" customWidth="1"/>
+    <col min="4876" max="5121" width="9.140625" style="10"/>
+    <col min="5122" max="5122" width="27.7109375" style="10" customWidth="1"/>
+    <col min="5123" max="5123" width="15.28515625" style="10" customWidth="1"/>
+    <col min="5124" max="5124" width="15.140625" style="10" customWidth="1"/>
+    <col min="5125" max="5125" width="17.85546875" style="10" customWidth="1"/>
+    <col min="5126" max="5126" width="19.85546875" style="10" customWidth="1"/>
+    <col min="5127" max="5127" width="14.85546875" style="10" customWidth="1"/>
+    <col min="5128" max="5128" width="14.140625" style="10" customWidth="1"/>
+    <col min="5129" max="5129" width="14.85546875" style="10" customWidth="1"/>
+    <col min="5130" max="5130" width="16.140625" style="10" customWidth="1"/>
+    <col min="5131" max="5131" width="26.42578125" style="10" customWidth="1"/>
+    <col min="5132" max="5377" width="9.140625" style="10"/>
+    <col min="5378" max="5378" width="27.7109375" style="10" customWidth="1"/>
+    <col min="5379" max="5379" width="15.28515625" style="10" customWidth="1"/>
+    <col min="5380" max="5380" width="15.140625" style="10" customWidth="1"/>
+    <col min="5381" max="5381" width="17.85546875" style="10" customWidth="1"/>
+    <col min="5382" max="5382" width="19.85546875" style="10" customWidth="1"/>
+    <col min="5383" max="5383" width="14.85546875" style="10" customWidth="1"/>
+    <col min="5384" max="5384" width="14.140625" style="10" customWidth="1"/>
+    <col min="5385" max="5385" width="14.85546875" style="10" customWidth="1"/>
+    <col min="5386" max="5386" width="16.140625" style="10" customWidth="1"/>
+    <col min="5387" max="5387" width="26.42578125" style="10" customWidth="1"/>
+    <col min="5388" max="5633" width="9.140625" style="10"/>
+    <col min="5634" max="5634" width="27.7109375" style="10" customWidth="1"/>
+    <col min="5635" max="5635" width="15.28515625" style="10" customWidth="1"/>
+    <col min="5636" max="5636" width="15.140625" style="10" customWidth="1"/>
+    <col min="5637" max="5637" width="17.85546875" style="10" customWidth="1"/>
+    <col min="5638" max="5638" width="19.85546875" style="10" customWidth="1"/>
+    <col min="5639" max="5639" width="14.85546875" style="10" customWidth="1"/>
+    <col min="5640" max="5640" width="14.140625" style="10" customWidth="1"/>
+    <col min="5641" max="5641" width="14.85546875" style="10" customWidth="1"/>
+    <col min="5642" max="5642" width="16.140625" style="10" customWidth="1"/>
+    <col min="5643" max="5643" width="26.42578125" style="10" customWidth="1"/>
+    <col min="5644" max="5889" width="9.140625" style="10"/>
+    <col min="5890" max="5890" width="27.7109375" style="10" customWidth="1"/>
+    <col min="5891" max="5891" width="15.28515625" style="10" customWidth="1"/>
+    <col min="5892" max="5892" width="15.140625" style="10" customWidth="1"/>
+    <col min="5893" max="5893" width="17.85546875" style="10" customWidth="1"/>
+    <col min="5894" max="5894" width="19.85546875" style="10" customWidth="1"/>
+    <col min="5895" max="5895" width="14.85546875" style="10" customWidth="1"/>
+    <col min="5896" max="5896" width="14.140625" style="10" customWidth="1"/>
+    <col min="5897" max="5897" width="14.85546875" style="10" customWidth="1"/>
+    <col min="5898" max="5898" width="16.140625" style="10" customWidth="1"/>
+    <col min="5899" max="5899" width="26.42578125" style="10" customWidth="1"/>
+    <col min="5900" max="6145" width="9.140625" style="10"/>
+    <col min="6146" max="6146" width="27.7109375" style="10" customWidth="1"/>
+    <col min="6147" max="6147" width="15.28515625" style="10" customWidth="1"/>
+    <col min="6148" max="6148" width="15.140625" style="10" customWidth="1"/>
+    <col min="6149" max="6149" width="17.85546875" style="10" customWidth="1"/>
+    <col min="6150" max="6150" width="19.85546875" style="10" customWidth="1"/>
+    <col min="6151" max="6151" width="14.85546875" style="10" customWidth="1"/>
+    <col min="6152" max="6152" width="14.140625" style="10" customWidth="1"/>
+    <col min="6153" max="6153" width="14.85546875" style="10" customWidth="1"/>
+    <col min="6154" max="6154" width="16.140625" style="10" customWidth="1"/>
+    <col min="6155" max="6155" width="26.42578125" style="10" customWidth="1"/>
+    <col min="6156" max="6401" width="9.140625" style="10"/>
+    <col min="6402" max="6402" width="27.7109375" style="10" customWidth="1"/>
+    <col min="6403" max="6403" width="15.28515625" style="10" customWidth="1"/>
+    <col min="6404" max="6404" width="15.140625" style="10" customWidth="1"/>
+    <col min="6405" max="6405" width="17.85546875" style="10" customWidth="1"/>
+    <col min="6406" max="6406" width="19.85546875" style="10" customWidth="1"/>
+    <col min="6407" max="6407" width="14.85546875" style="10" customWidth="1"/>
+    <col min="6408" max="6408" width="14.140625" style="10" customWidth="1"/>
+    <col min="6409" max="6409" width="14.85546875" style="10" customWidth="1"/>
+    <col min="6410" max="6410" width="16.140625" style="10" customWidth="1"/>
+    <col min="6411" max="6411" width="26.42578125" style="10" customWidth="1"/>
+    <col min="6412" max="6657" width="9.140625" style="10"/>
+    <col min="6658" max="6658" width="27.7109375" style="10" customWidth="1"/>
+    <col min="6659" max="6659" width="15.28515625" style="10" customWidth="1"/>
+    <col min="6660" max="6660" width="15.140625" style="10" customWidth="1"/>
+    <col min="6661" max="6661" width="17.85546875" style="10" customWidth="1"/>
+    <col min="6662" max="6662" width="19.85546875" style="10" customWidth="1"/>
+    <col min="6663" max="6663" width="14.85546875" style="10" customWidth="1"/>
+    <col min="6664" max="6664" width="14.140625" style="10" customWidth="1"/>
+    <col min="6665" max="6665" width="14.85546875" style="10" customWidth="1"/>
+    <col min="6666" max="6666" width="16.140625" style="10" customWidth="1"/>
+    <col min="6667" max="6667" width="26.42578125" style="10" customWidth="1"/>
+    <col min="6668" max="6913" width="9.140625" style="10"/>
+    <col min="6914" max="6914" width="27.7109375" style="10" customWidth="1"/>
+    <col min="6915" max="6915" width="15.28515625" style="10" customWidth="1"/>
+    <col min="6916" max="6916" width="15.140625" style="10" customWidth="1"/>
+    <col min="6917" max="6917" width="17.85546875" style="10" customWidth="1"/>
+    <col min="6918" max="6918" width="19.85546875" style="10" customWidth="1"/>
+    <col min="6919" max="6919" width="14.85546875" style="10" customWidth="1"/>
+    <col min="6920" max="6920" width="14.140625" style="10" customWidth="1"/>
+    <col min="6921" max="6921" width="14.85546875" style="10" customWidth="1"/>
+    <col min="6922" max="6922" width="16.140625" style="10" customWidth="1"/>
+    <col min="6923" max="6923" width="26.42578125" style="10" customWidth="1"/>
+    <col min="6924" max="7169" width="9.140625" style="10"/>
+    <col min="7170" max="7170" width="27.7109375" style="10" customWidth="1"/>
+    <col min="7171" max="7171" width="15.28515625" style="10" customWidth="1"/>
+    <col min="7172" max="7172" width="15.140625" style="10" customWidth="1"/>
+    <col min="7173" max="7173" width="17.85546875" style="10" customWidth="1"/>
+    <col min="7174" max="7174" width="19.85546875" style="10" customWidth="1"/>
+    <col min="7175" max="7175" width="14.85546875" style="10" customWidth="1"/>
+    <col min="7176" max="7176" width="14.140625" style="10" customWidth="1"/>
+    <col min="7177" max="7177" width="14.85546875" style="10" customWidth="1"/>
+    <col min="7178" max="7178" width="16.140625" style="10" customWidth="1"/>
+    <col min="7179" max="7179" width="26.42578125" style="10" customWidth="1"/>
+    <col min="7180" max="7425" width="9.140625" style="10"/>
+    <col min="7426" max="7426" width="27.7109375" style="10" customWidth="1"/>
+    <col min="7427" max="7427" width="15.28515625" style="10" customWidth="1"/>
+    <col min="7428" max="7428" width="15.140625" style="10" customWidth="1"/>
+    <col min="7429" max="7429" width="17.85546875" style="10" customWidth="1"/>
+    <col min="7430" max="7430" width="19.85546875" style="10" customWidth="1"/>
+    <col min="7431" max="7431" width="14.85546875" style="10" customWidth="1"/>
+    <col min="7432" max="7432" width="14.140625" style="10" customWidth="1"/>
+    <col min="7433" max="7433" width="14.85546875" style="10" customWidth="1"/>
+    <col min="7434" max="7434" width="16.140625" style="10" customWidth="1"/>
+    <col min="7435" max="7435" width="26.42578125" style="10" customWidth="1"/>
+    <col min="7436" max="7681" width="9.140625" style="10"/>
+    <col min="7682" max="7682" width="27.7109375" style="10" customWidth="1"/>
+    <col min="7683" max="7683" width="15.28515625" style="10" customWidth="1"/>
+    <col min="7684" max="7684" width="15.140625" style="10" customWidth="1"/>
+    <col min="7685" max="7685" width="17.85546875" style="10" customWidth="1"/>
+    <col min="7686" max="7686" width="19.85546875" style="10" customWidth="1"/>
+    <col min="7687" max="7687" width="14.85546875" style="10" customWidth="1"/>
+    <col min="7688" max="7688" width="14.140625" style="10" customWidth="1"/>
+    <col min="7689" max="7689" width="14.85546875" style="10" customWidth="1"/>
+    <col min="7690" max="7690" width="16.140625" style="10" customWidth="1"/>
+    <col min="7691" max="7691" width="26.42578125" style="10" customWidth="1"/>
+    <col min="7692" max="7937" width="9.140625" style="10"/>
+    <col min="7938" max="7938" width="27.7109375" style="10" customWidth="1"/>
+    <col min="7939" max="7939" width="15.28515625" style="10" customWidth="1"/>
+    <col min="7940" max="7940" width="15.140625" style="10" customWidth="1"/>
+    <col min="7941" max="7941" width="17.85546875" style="10" customWidth="1"/>
+    <col min="7942" max="7942" width="19.85546875" style="10" customWidth="1"/>
+    <col min="7943" max="7943" width="14.85546875" style="10" customWidth="1"/>
+    <col min="7944" max="7944" width="14.140625" style="10" customWidth="1"/>
+    <col min="7945" max="7945" width="14.85546875" style="10" customWidth="1"/>
+    <col min="7946" max="7946" width="16.140625" style="10" customWidth="1"/>
+    <col min="7947" max="7947" width="26.42578125" style="10" customWidth="1"/>
+    <col min="7948" max="8193" width="9.140625" style="10"/>
+    <col min="8194" max="8194" width="27.7109375" style="10" customWidth="1"/>
+    <col min="8195" max="8195" width="15.28515625" style="10" customWidth="1"/>
+    <col min="8196" max="8196" width="15.140625" style="10" customWidth="1"/>
+    <col min="8197" max="8197" width="17.85546875" style="10" customWidth="1"/>
+    <col min="8198" max="8198" width="19.85546875" style="10" customWidth="1"/>
+    <col min="8199" max="8199" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8200" max="8200" width="14.140625" style="10" customWidth="1"/>
+    <col min="8201" max="8201" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8202" max="8202" width="16.140625" style="10" customWidth="1"/>
+    <col min="8203" max="8203" width="26.42578125" style="10" customWidth="1"/>
+    <col min="8204" max="8449" width="9.140625" style="10"/>
+    <col min="8450" max="8450" width="27.7109375" style="10" customWidth="1"/>
+    <col min="8451" max="8451" width="15.28515625" style="10" customWidth="1"/>
+    <col min="8452" max="8452" width="15.140625" style="10" customWidth="1"/>
+    <col min="8453" max="8453" width="17.85546875" style="10" customWidth="1"/>
+    <col min="8454" max="8454" width="19.85546875" style="10" customWidth="1"/>
+    <col min="8455" max="8455" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8456" max="8456" width="14.140625" style="10" customWidth="1"/>
+    <col min="8457" max="8457" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8458" max="8458" width="16.140625" style="10" customWidth="1"/>
+    <col min="8459" max="8459" width="26.42578125" style="10" customWidth="1"/>
+    <col min="8460" max="8705" width="9.140625" style="10"/>
+    <col min="8706" max="8706" width="27.7109375" style="10" customWidth="1"/>
+    <col min="8707" max="8707" width="15.28515625" style="10" customWidth="1"/>
+    <col min="8708" max="8708" width="15.140625" style="10" customWidth="1"/>
+    <col min="8709" max="8709" width="17.85546875" style="10" customWidth="1"/>
+    <col min="8710" max="8710" width="19.85546875" style="10" customWidth="1"/>
+    <col min="8711" max="8711" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8712" max="8712" width="14.140625" style="10" customWidth="1"/>
+    <col min="8713" max="8713" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8714" max="8714" width="16.140625" style="10" customWidth="1"/>
+    <col min="8715" max="8715" width="26.42578125" style="10" customWidth="1"/>
+    <col min="8716" max="8961" width="9.140625" style="10"/>
+    <col min="8962" max="8962" width="27.7109375" style="10" customWidth="1"/>
+    <col min="8963" max="8963" width="15.28515625" style="10" customWidth="1"/>
+    <col min="8964" max="8964" width="15.140625" style="10" customWidth="1"/>
+    <col min="8965" max="8965" width="17.85546875" style="10" customWidth="1"/>
+    <col min="8966" max="8966" width="19.85546875" style="10" customWidth="1"/>
+    <col min="8967" max="8967" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8968" max="8968" width="14.140625" style="10" customWidth="1"/>
+    <col min="8969" max="8969" width="14.85546875" style="10" customWidth="1"/>
+    <col min="8970" max="8970" width="16.140625" style="10" customWidth="1"/>
+    <col min="8971" max="8971" width="26.42578125" style="10" customWidth="1"/>
+    <col min="8972" max="9217" width="9.140625" style="10"/>
+    <col min="9218" max="9218" width="27.7109375" style="10" customWidth="1"/>
+    <col min="9219" max="9219" width="15.28515625" style="10" customWidth="1"/>
+    <col min="9220" max="9220" width="15.140625" style="10" customWidth="1"/>
+    <col min="9221" max="9221" width="17.85546875" style="10" customWidth="1"/>
+    <col min="9222" max="9222" width="19.85546875" style="10" customWidth="1"/>
+    <col min="9223" max="9223" width="14.85546875" style="10" customWidth="1"/>
+    <col min="9224" max="9224" width="14.140625" style="10" customWidth="1"/>
+    <col min="9225" max="9225" width="14.85546875" style="10" customWidth="1"/>
+    <col min="9226" max="9226" width="16.140625" style="10" customWidth="1"/>
+    <col min="9227" max="9227" width="26.42578125" style="10" customWidth="1"/>
+    <col min="9228" max="9473" width="9.140625" style="10"/>
+    <col min="9474" max="9474" width="27.7109375" style="10" customWidth="1"/>
+    <col min="9475" max="9475" width="15.28515625" style="10" customWidth="1"/>
+    <col min="9476" max="9476" width="15.140625" style="10" customWidth="1"/>
+    <col min="9477" max="9477" width="17.85546875" style="10" customWidth="1"/>
+    <col min="9478" max="9478" width="19.85546875" style="10" customWidth="1"/>
+    <col min="9479" max="9479" width="14.85546875" style="10" customWidth="1"/>
+    <col min="9480" max="9480" width="14.140625" style="10" customWidth="1"/>
+    <col min="9481" max="9481" width="14.85546875" style="10" customWidth="1"/>
+    <col min="9482" max="9482" width="16.140625" style="10" customWidth="1"/>
+    <col min="9483" max="9483" width="26.42578125" style="10" customWidth="1"/>
+    <col min="9484" max="9729" width="9.140625" style="10"/>
+    <col min="9730" max="9730" width="27.7109375" style="10" customWidth="1"/>
+    <col min="9731" max="9731" width="15.28515625" style="10" customWidth="1"/>
+    <col min="9732" max="9732" width="15.140625" style="10" customWidth="1"/>
+    <col min="9733" max="9733" width="17.85546875" style="10" customWidth="1"/>
+    <col min="9734" max="9734" width="19.85546875" style="10" customWidth="1"/>
+    <col min="9735" max="9735" width="14.85546875" style="10" customWidth="1"/>
+    <col min="9736" max="9736" width="14.140625" style="10" customWidth="1"/>
+    <col min="9737" max="9737" width="14.85546875" style="10" customWidth="1"/>
+    <col min="9738" max="9738" width="16.140625" style="10" customWidth="1"/>
+    <col min="9739" max="9739" width="26.42578125" style="10" customWidth="1"/>
+    <col min="9740" max="9985" width="9.140625" style="10"/>
+    <col min="9986" max="9986" width="27.7109375" style="10" customWidth="1"/>
+    <col min="9987" max="9987" width="15.28515625" style="10" customWidth="1"/>
+    <col min="9988" max="9988" width="15.140625" style="10" customWidth="1"/>
+    <col min="9989" max="9989" width="17.85546875" style="10" customWidth="1"/>
+    <col min="9990" max="9990" width="19.85546875" style="10" customWidth="1"/>
+    <col min="9991" max="9991" width="14.85546875" style="10" customWidth="1"/>
+    <col min="9992" max="9992" width="14.140625" style="10" customWidth="1"/>
+    <col min="9993" max="9993" width="14.85546875" style="10" customWidth="1"/>
+    <col min="9994" max="9994" width="16.140625" style="10" customWidth="1"/>
+    <col min="9995" max="9995" width="26.42578125" style="10" customWidth="1"/>
+    <col min="9996" max="10241" width="9.140625" style="10"/>
+    <col min="10242" max="10242" width="27.7109375" style="10" customWidth="1"/>
+    <col min="10243" max="10243" width="15.28515625" style="10" customWidth="1"/>
+    <col min="10244" max="10244" width="15.140625" style="10" customWidth="1"/>
+    <col min="10245" max="10245" width="17.85546875" style="10" customWidth="1"/>
+    <col min="10246" max="10246" width="19.85546875" style="10" customWidth="1"/>
+    <col min="10247" max="10247" width="14.85546875" style="10" customWidth="1"/>
+    <col min="10248" max="10248" width="14.140625" style="10" customWidth="1"/>
+    <col min="10249" max="10249" width="14.85546875" style="10" customWidth="1"/>
+    <col min="10250" max="10250" width="16.140625" style="10" customWidth="1"/>
+    <col min="10251" max="10251" width="26.42578125" style="10" customWidth="1"/>
+    <col min="10252" max="10497" width="9.140625" style="10"/>
+    <col min="10498" max="10498" width="27.7109375" style="10" customWidth="1"/>
+    <col min="10499" max="10499" width="15.28515625" style="10" customWidth="1"/>
+    <col min="10500" max="10500" width="15.140625" style="10" customWidth="1"/>
+    <col min="10501" max="10501" width="17.85546875" style="10" customWidth="1"/>
+    <col min="10502" max="10502" width="19.85546875" style="10" customWidth="1"/>
+    <col min="10503" max="10503" width="14.85546875" style="10" customWidth="1"/>
+    <col min="10504" max="10504" width="14.140625" style="10" customWidth="1"/>
+    <col min="10505" max="10505" width="14.85546875" style="10" customWidth="1"/>
+    <col min="10506" max="10506" width="16.140625" style="10" customWidth="1"/>
+    <col min="10507" max="10507" width="26.42578125" style="10" customWidth="1"/>
+    <col min="10508" max="10753" width="9.140625" style="10"/>
+    <col min="10754" max="10754" width="27.7109375" style="10" customWidth="1"/>
+    <col min="10755" max="10755" width="15.28515625" style="10" customWidth="1"/>
+    <col min="10756" max="10756" width="15.140625" style="10" customWidth="1"/>
+    <col min="10757" max="10757" width="17.85546875" style="10" customWidth="1"/>
+    <col min="10758" max="10758" width="19.85546875" style="10" customWidth="1"/>
+    <col min="10759" max="10759" width="14.85546875" style="10" customWidth="1"/>
+    <col min="10760" max="10760" width="14.140625" style="10" customWidth="1"/>
+    <col min="10761" max="10761" width="14.85546875" style="10" customWidth="1"/>
+    <col min="10762" max="10762" width="16.140625" style="10" customWidth="1"/>
+    <col min="10763" max="10763" width="26.42578125" style="10" customWidth="1"/>
+    <col min="10764" max="11009" width="9.140625" style="10"/>
+    <col min="11010" max="11010" width="27.7109375" style="10" customWidth="1"/>
+    <col min="11011" max="11011" width="15.28515625" style="10" customWidth="1"/>
+    <col min="11012" max="11012" width="15.140625" style="10" customWidth="1"/>
+    <col min="11013" max="11013" width="17.85546875" style="10" customWidth="1"/>
+    <col min="11014" max="11014" width="19.85546875" style="10" customWidth="1"/>
+    <col min="11015" max="11015" width="14.85546875" style="10" customWidth="1"/>
+    <col min="11016" max="11016" width="14.140625" style="10" customWidth="1"/>
+    <col min="11017" max="11017" width="14.85546875" style="10" customWidth="1"/>
+    <col min="11018" max="11018" width="16.140625" style="10" customWidth="1"/>
+    <col min="11019" max="11019" width="26.42578125" style="10" customWidth="1"/>
+    <col min="11020" max="11265" width="9.140625" style="10"/>
+    <col min="11266" max="11266" width="27.7109375" style="10" customWidth="1"/>
+    <col min="11267" max="11267" width="15.28515625" style="10" customWidth="1"/>
+    <col min="11268" max="11268" width="15.140625" style="10" customWidth="1"/>
+    <col min="11269" max="11269" width="17.85546875" style="10" customWidth="1"/>
+    <col min="11270" max="11270" width="19.85546875" style="10" customWidth="1"/>
+    <col min="11271" max="11271" width="14.85546875" style="10" customWidth="1"/>
+    <col min="11272" max="11272" width="14.140625" style="10" customWidth="1"/>
+    <col min="11273" max="11273" width="14.85546875" style="10" customWidth="1"/>
+    <col min="11274" max="11274" width="16.140625" style="10" customWidth="1"/>
+    <col min="11275" max="11275" width="26.42578125" style="10" customWidth="1"/>
+    <col min="11276" max="11521" width="9.140625" style="10"/>
+    <col min="11522" max="11522" width="27.7109375" style="10" customWidth="1"/>
+    <col min="11523" max="11523" width="15.28515625" style="10" customWidth="1"/>
+    <col min="11524" max="11524" width="15.140625" style="10" customWidth="1"/>
+    <col min="11525" max="11525" width="17.85546875" style="10" customWidth="1"/>
+    <col min="11526" max="11526" width="19.85546875" style="10" customWidth="1"/>
+    <col min="11527" max="11527" width="14.85546875" style="10" customWidth="1"/>
+    <col min="11528" max="11528" width="14.140625" style="10" customWidth="1"/>
+    <col min="11529" max="11529" width="14.85546875" style="10" customWidth="1"/>
+    <col min="11530" max="11530" width="16.140625" style="10" customWidth="1"/>
+    <col min="11531" max="11531" width="26.42578125" style="10" customWidth="1"/>
+    <col min="11532" max="11777" width="9.140625" style="10"/>
+    <col min="11778" max="11778" width="27.7109375" style="10" customWidth="1"/>
+    <col min="11779" max="11779" width="15.28515625" style="10" customWidth="1"/>
+    <col min="11780" max="11780" width="15.140625" style="10" customWidth="1"/>
+    <col min="11781" max="11781" width="17.85546875" style="10" customWidth="1"/>
+    <col min="11782" max="11782" width="19.85546875" style="10" customWidth="1"/>
+    <col min="11783" max="11783" width="14.85546875" style="10" customWidth="1"/>
+    <col min="11784" max="11784" width="14.140625" style="10" customWidth="1"/>
+    <col min="11785" max="11785" width="14.85546875" style="10" customWidth="1"/>
+    <col min="11786" max="11786" width="16.140625" style="10" customWidth="1"/>
+    <col min="11787" max="11787" width="26.42578125" style="10" customWidth="1"/>
+    <col min="11788" max="12033" width="9.140625" style="10"/>
+    <col min="12034" max="12034" width="27.7109375" style="10" customWidth="1"/>
+    <col min="12035" max="12035" width="15.28515625" style="10" customWidth="1"/>
+    <col min="12036" max="12036" width="15.140625" style="10" customWidth="1"/>
+    <col min="12037" max="12037" width="17.85546875" style="10" customWidth="1"/>
+    <col min="12038" max="12038" width="19.85546875" style="10" customWidth="1"/>
+    <col min="12039" max="12039" width="14.85546875" style="10" customWidth="1"/>
+    <col min="12040" max="12040" width="14.140625" style="10" customWidth="1"/>
+    <col min="12041" max="12041" width="14.85546875" style="10" customWidth="1"/>
+    <col min="12042" max="12042" width="16.140625" style="10" customWidth="1"/>
+    <col min="12043" max="12043" width="26.42578125" style="10" customWidth="1"/>
+    <col min="12044" max="12289" width="9.140625" style="10"/>
+    <col min="12290" max="12290" width="27.7109375" style="10" customWidth="1"/>
+    <col min="12291" max="12291" width="15.28515625" style="10" customWidth="1"/>
+    <col min="12292" max="12292" width="15.140625" style="10" customWidth="1"/>
+    <col min="12293" max="12293" width="17.85546875" style="10" customWidth="1"/>
+    <col min="12294" max="12294" width="19.85546875" style="10" customWidth="1"/>
+    <col min="12295" max="12295" width="14.85546875" style="10" customWidth="1"/>
+    <col min="12296" max="12296" width="14.140625" style="10" customWidth="1"/>
+    <col min="12297" max="12297" width="14.85546875" style="10" customWidth="1"/>
+    <col min="12298" max="12298" width="16.140625" style="10" customWidth="1"/>
+    <col min="12299" max="12299" width="26.42578125" style="10" customWidth="1"/>
+    <col min="12300" max="12545" width="9.140625" style="10"/>
+    <col min="12546" max="12546" width="27.7109375" style="10" customWidth="1"/>
+    <col min="12547" max="12547" width="15.28515625" style="10" customWidth="1"/>
+    <col min="12548" max="12548" width="15.140625" style="10" customWidth="1"/>
+    <col min="12549" max="12549" width="17.85546875" style="10" customWidth="1"/>
+    <col min="12550" max="12550" width="19.85546875" style="10" customWidth="1"/>
+    <col min="12551" max="12551" width="14.85546875" style="10" customWidth="1"/>
+    <col min="12552" max="12552" width="14.140625" style="10" customWidth="1"/>
+    <col min="12553" max="12553" width="14.85546875" style="10" customWidth="1"/>
+    <col min="12554" max="12554" width="16.140625" style="10" customWidth="1"/>
+    <col min="12555" max="12555" width="26.42578125" style="10" customWidth="1"/>
+    <col min="12556" max="12801" width="9.140625" style="10"/>
+    <col min="12802" max="12802" width="27.7109375" style="10" customWidth="1"/>
+    <col min="12803" max="12803" width="15.28515625" style="10" customWidth="1"/>
+    <col min="12804" max="12804" width="15.140625" style="10" customWidth="1"/>
+    <col min="12805" max="12805" width="17.85546875" style="10" customWidth="1"/>
+    <col min="12806" max="12806" width="19.85546875" style="10" customWidth="1"/>
+    <col min="12807" max="12807" width="14.85546875" style="10" customWidth="1"/>
+    <col min="12808" max="12808" width="14.140625" style="10" customWidth="1"/>
+    <col min="12809" max="12809" width="14.85546875" style="10" customWidth="1"/>
+    <col min="12810" max="12810" width="16.140625" style="10" customWidth="1"/>
+    <col min="12811" max="12811" width="26.42578125" style="10" customWidth="1"/>
+    <col min="12812" max="13057" width="9.140625" style="10"/>
+    <col min="13058" max="13058" width="27.7109375" style="10" customWidth="1"/>
+    <col min="13059" max="13059" width="15.28515625" style="10" customWidth="1"/>
+    <col min="13060" max="13060" width="15.140625" style="10" customWidth="1"/>
+    <col min="13061" max="13061" width="17.85546875" style="10" customWidth="1"/>
+    <col min="13062" max="13062" width="19.85546875" style="10" customWidth="1"/>
+    <col min="13063" max="13063" width="14.85546875" style="10" customWidth="1"/>
+    <col min="13064" max="13064" width="14.140625" style="10" customWidth="1"/>
+    <col min="13065" max="13065" width="14.85546875" style="10" customWidth="1"/>
+    <col min="13066" max="13066" width="16.140625" style="10" customWidth="1"/>
+    <col min="13067" max="13067" width="26.42578125" style="10" customWidth="1"/>
+    <col min="13068" max="13313" width="9.140625" style="10"/>
+    <col min="13314" max="13314" width="27.7109375" style="10" customWidth="1"/>
+    <col min="13315" max="13315" width="15.28515625" style="10" customWidth="1"/>
+    <col min="13316" max="13316" width="15.140625" style="10" customWidth="1"/>
+    <col min="13317" max="13317" width="17.85546875" style="10" customWidth="1"/>
+    <col min="13318" max="13318" width="19.85546875" style="10" customWidth="1"/>
+    <col min="13319" max="13319" width="14.85546875" style="10" customWidth="1"/>
+    <col min="13320" max="13320" width="14.140625" style="10" customWidth="1"/>
+    <col min="13321" max="13321" width="14.85546875" style="10" customWidth="1"/>
+    <col min="13322" max="13322" width="16.140625" style="10" customWidth="1"/>
+    <col min="13323" max="13323" width="26.42578125" style="10" customWidth="1"/>
+    <col min="13324" max="13569" width="9.140625" style="10"/>
+    <col min="13570" max="13570" width="27.7109375" style="10" customWidth="1"/>
+    <col min="13571" max="13571" width="15.28515625" style="10" customWidth="1"/>
+    <col min="13572" max="13572" width="15.140625" style="10" customWidth="1"/>
+    <col min="13573" max="13573" width="17.85546875" style="10" customWidth="1"/>
+    <col min="13574" max="13574" width="19.85546875" style="10" customWidth="1"/>
+    <col min="13575" max="13575" width="14.85546875" style="10" customWidth="1"/>
+    <col min="13576" max="13576" width="14.140625" style="10" customWidth="1"/>
+    <col min="13577" max="13577" width="14.85546875" style="10" customWidth="1"/>
+    <col min="13578" max="13578" width="16.140625" style="10" customWidth="1"/>
+    <col min="13579" max="13579" width="26.42578125" style="10" customWidth="1"/>
+    <col min="13580" max="13825" width="9.140625" style="10"/>
+    <col min="13826" max="13826" width="27.7109375" style="10" customWidth="1"/>
+    <col min="13827" max="13827" width="15.28515625" style="10" customWidth="1"/>
+    <col min="13828" max="13828" width="15.140625" style="10" customWidth="1"/>
+    <col min="13829" max="13829" width="17.85546875" style="10" customWidth="1"/>
+    <col min="13830" max="13830" width="19.85546875" style="10" customWidth="1"/>
+    <col min="13831" max="13831" width="14.85546875" style="10" customWidth="1"/>
+    <col min="13832" max="13832" width="14.140625" style="10" customWidth="1"/>
+    <col min="13833" max="13833" width="14.85546875" style="10" customWidth="1"/>
+    <col min="13834" max="13834" width="16.140625" style="10" customWidth="1"/>
+    <col min="13835" max="13835" width="26.42578125" style="10" customWidth="1"/>
+    <col min="13836" max="14081" width="9.140625" style="10"/>
+    <col min="14082" max="14082" width="27.7109375" style="10" customWidth="1"/>
+    <col min="14083" max="14083" width="15.28515625" style="10" customWidth="1"/>
+    <col min="14084" max="14084" width="15.140625" style="10" customWidth="1"/>
+    <col min="14085" max="14085" width="17.85546875" style="10" customWidth="1"/>
+    <col min="14086" max="14086" width="19.85546875" style="10" customWidth="1"/>
+    <col min="14087" max="14087" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14088" max="14088" width="14.140625" style="10" customWidth="1"/>
+    <col min="14089" max="14089" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14090" max="14090" width="16.140625" style="10" customWidth="1"/>
+    <col min="14091" max="14091" width="26.42578125" style="10" customWidth="1"/>
+    <col min="14092" max="14337" width="9.140625" style="10"/>
+    <col min="14338" max="14338" width="27.7109375" style="10" customWidth="1"/>
+    <col min="14339" max="14339" width="15.28515625" style="10" customWidth="1"/>
+    <col min="14340" max="14340" width="15.140625" style="10" customWidth="1"/>
+    <col min="14341" max="14341" width="17.85546875" style="10" customWidth="1"/>
+    <col min="14342" max="14342" width="19.85546875" style="10" customWidth="1"/>
+    <col min="14343" max="14343" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14344" max="14344" width="14.140625" style="10" customWidth="1"/>
+    <col min="14345" max="14345" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14346" max="14346" width="16.140625" style="10" customWidth="1"/>
+    <col min="14347" max="14347" width="26.42578125" style="10" customWidth="1"/>
+    <col min="14348" max="14593" width="9.140625" style="10"/>
+    <col min="14594" max="14594" width="27.7109375" style="10" customWidth="1"/>
+    <col min="14595" max="14595" width="15.28515625" style="10" customWidth="1"/>
+    <col min="14596" max="14596" width="15.140625" style="10" customWidth="1"/>
+    <col min="14597" max="14597" width="17.85546875" style="10" customWidth="1"/>
+    <col min="14598" max="14598" width="19.85546875" style="10" customWidth="1"/>
+    <col min="14599" max="14599" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14600" max="14600" width="14.140625" style="10" customWidth="1"/>
+    <col min="14601" max="14601" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14602" max="14602" width="16.140625" style="10" customWidth="1"/>
+    <col min="14603" max="14603" width="26.42578125" style="10" customWidth="1"/>
+    <col min="14604" max="14849" width="9.140625" style="10"/>
+    <col min="14850" max="14850" width="27.7109375" style="10" customWidth="1"/>
+    <col min="14851" max="14851" width="15.28515625" style="10" customWidth="1"/>
+    <col min="14852" max="14852" width="15.140625" style="10" customWidth="1"/>
+    <col min="14853" max="14853" width="17.85546875" style="10" customWidth="1"/>
+    <col min="14854" max="14854" width="19.85546875" style="10" customWidth="1"/>
+    <col min="14855" max="14855" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14856" max="14856" width="14.140625" style="10" customWidth="1"/>
+    <col min="14857" max="14857" width="14.85546875" style="10" customWidth="1"/>
+    <col min="14858" max="14858" width="16.140625" style="10" customWidth="1"/>
+    <col min="14859" max="14859" width="26.42578125" style="10" customWidth="1"/>
+    <col min="14860" max="15105" width="9.140625" style="10"/>
+    <col min="15106" max="15106" width="27.7109375" style="10" customWidth="1"/>
+    <col min="15107" max="15107" width="15.28515625" style="10" customWidth="1"/>
+    <col min="15108" max="15108" width="15.140625" style="10" customWidth="1"/>
+    <col min="15109" max="15109" width="17.85546875" style="10" customWidth="1"/>
+    <col min="15110" max="15110" width="19.85546875" style="10" customWidth="1"/>
+    <col min="15111" max="15111" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15112" max="15112" width="14.140625" style="10" customWidth="1"/>
+    <col min="15113" max="15113" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15114" max="15114" width="16.140625" style="10" customWidth="1"/>
+    <col min="15115" max="15115" width="26.42578125" style="10" customWidth="1"/>
+    <col min="15116" max="15361" width="9.140625" style="10"/>
+    <col min="15362" max="15362" width="27.7109375" style="10" customWidth="1"/>
+    <col min="15363" max="15363" width="15.28515625" style="10" customWidth="1"/>
+    <col min="15364" max="15364" width="15.140625" style="10" customWidth="1"/>
+    <col min="15365" max="15365" width="17.85546875" style="10" customWidth="1"/>
+    <col min="15366" max="15366" width="19.85546875" style="10" customWidth="1"/>
+    <col min="15367" max="15367" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15368" max="15368" width="14.140625" style="10" customWidth="1"/>
+    <col min="15369" max="15369" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15370" max="15370" width="16.140625" style="10" customWidth="1"/>
+    <col min="15371" max="15371" width="26.42578125" style="10" customWidth="1"/>
+    <col min="15372" max="15617" width="9.140625" style="10"/>
+    <col min="15618" max="15618" width="27.7109375" style="10" customWidth="1"/>
+    <col min="15619" max="15619" width="15.28515625" style="10" customWidth="1"/>
+    <col min="15620" max="15620" width="15.140625" style="10" customWidth="1"/>
+    <col min="15621" max="15621" width="17.85546875" style="10" customWidth="1"/>
+    <col min="15622" max="15622" width="19.85546875" style="10" customWidth="1"/>
+    <col min="15623" max="15623" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15624" max="15624" width="14.140625" style="10" customWidth="1"/>
+    <col min="15625" max="15625" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15626" max="15626" width="16.140625" style="10" customWidth="1"/>
+    <col min="15627" max="15627" width="26.42578125" style="10" customWidth="1"/>
+    <col min="15628" max="15873" width="9.140625" style="10"/>
+    <col min="15874" max="15874" width="27.7109375" style="10" customWidth="1"/>
+    <col min="15875" max="15875" width="15.28515625" style="10" customWidth="1"/>
+    <col min="15876" max="15876" width="15.140625" style="10" customWidth="1"/>
+    <col min="15877" max="15877" width="17.85546875" style="10" customWidth="1"/>
+    <col min="15878" max="15878" width="19.85546875" style="10" customWidth="1"/>
+    <col min="15879" max="15879" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15880" max="15880" width="14.140625" style="10" customWidth="1"/>
+    <col min="15881" max="15881" width="14.85546875" style="10" customWidth="1"/>
+    <col min="15882" max="15882" width="16.140625" style="10" customWidth="1"/>
+    <col min="15883" max="15883" width="26.42578125" style="10" customWidth="1"/>
+    <col min="15884" max="16129" width="9.140625" style="10"/>
+    <col min="16130" max="16130" width="27.7109375" style="10" customWidth="1"/>
+    <col min="16131" max="16131" width="15.28515625" style="10" customWidth="1"/>
+    <col min="16132" max="16132" width="15.140625" style="10" customWidth="1"/>
+    <col min="16133" max="16133" width="17.85546875" style="10" customWidth="1"/>
+    <col min="16134" max="16134" width="19.85546875" style="10" customWidth="1"/>
+    <col min="16135" max="16135" width="14.85546875" style="10" customWidth="1"/>
+    <col min="16136" max="16136" width="14.140625" style="10" customWidth="1"/>
+    <col min="16137" max="16137" width="14.85546875" style="10" customWidth="1"/>
+    <col min="16138" max="16138" width="16.140625" style="10" customWidth="1"/>
+    <col min="16139" max="16139" width="26.42578125" style="10" customWidth="1"/>
+    <col min="16140" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="97" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="9"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" s="87" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81">
+    <row r="3" spans="1:12" s="81" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="77">
         <v>41907</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82">
+      <c r="E3" s="79"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76">
         <v>9555382729</v>
       </c>
-      <c r="H3" s="81">
+      <c r="H3" s="75">
         <v>6000</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="75" t="s">
         <v>505</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="85" t="s">
+      <c r="J3" s="75"/>
+      <c r="K3" s="79" t="s">
         <v>491</v>
       </c>
-      <c r="L3" s="86"/>
-    </row>
-    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64">
+      <c r="L3" s="80"/>
+    </row>
+    <row r="4" spans="1:12" s="65" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="60">
         <v>41924</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="63">
         <v>9999405538</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="58">
         <v>7000</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="58">
         <v>500</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="L4" s="70"/>
-    </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="1:12" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="28">
         <v>41947</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="31">
         <v>9650182218</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="26">
         <v>5500</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="26">
         <v>5500</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="L5" s="33"/>
+    </row>
+    <row r="6" spans="1:12" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>41947</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="23">
         <v>9716027793</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="18">
         <v>5500</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="18">
         <v>1500</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="18"/>
+      <c r="K6" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="28">
         <v>41907</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="31">
         <v>9891085793</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="26">
         <v>4000</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="26">
         <v>1000</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" s="34" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="28">
         <v>41947</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="31">
         <v>9350215064</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="35">
         <v>9000</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="26">
         <v>1000</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="26"/>
+      <c r="K8" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="28">
         <v>41952</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36">
+      <c r="E9" s="27"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31">
         <v>9136791828</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="26">
         <v>1000</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="26">
         <v>1000</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:12" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="28">
         <v>41964</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36">
+      <c r="E10" s="27"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31">
         <v>8800556120</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="26">
         <v>850</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="26">
         <v>850</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="35" t="s">
+      <c r="J10" s="26"/>
+      <c r="K10" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:12" s="34" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <v>41964</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="31">
         <v>9958911395</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="26">
         <v>3000</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="26">
         <v>3000</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="28">
         <v>41971</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" s="25" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="20">
         <v>41964</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="23">
         <v>8527336673</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="18">
         <v>7500</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="18">
         <v>3000</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="41" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" s="17" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="13">
         <v>41947</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="12">
         <v>8287222934</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="11">
         <v>8000</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="11">
         <v>100</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="20" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="17" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="13">
         <v>41947</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="12">
         <v>7042060502</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="11">
         <v>10000</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="20" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" s="25" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="20">
         <v>41983</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23">
         <v>8287414627</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="18">
         <v>4000</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="18">
         <v>1000</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="68" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" s="34" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="28">
         <v>41980</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="31">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="26">
         <v>4500</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="26">
         <v>1500</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="37" t="s">
+      <c r="J16" s="26"/>
+      <c r="K16" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="1:12" s="34" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="28">
         <v>41985</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="36" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="26">
         <v>5800</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="26">
         <v>5800</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="37" t="s">
+      <c r="J17" s="26"/>
+      <c r="K17" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" s="42" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="40">
         <v>41987</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="38">
         <v>4000</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="38">
         <v>4000</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="37" t="s">
+      <c r="J18" s="38"/>
+      <c r="K18" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="L18" s="46"/>
-    </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" s="34" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>19</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="28">
         <v>42020</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="26">
         <v>3000</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="26">
         <v>3000</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="37" t="s">
+      <c r="J19" s="26"/>
+      <c r="K19" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="1:12" s="47" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
         <v>20</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="43" t="s">
         <v>524</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="82" t="s">
         <v>526</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48">
+      <c r="H20" s="90"/>
+      <c r="I20" s="43">
         <v>1000</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-    </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="1:12" s="47" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="46"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8062,1598 +8093,1598 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="84.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="10">
         <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="54"/>
-      <c r="D2" s="15">
+      <c r="A2" s="49"/>
+      <c r="D2" s="10">
         <v>1800</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="10">
         <v>2200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="10">
         <v>650</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="10">
         <v>2800</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="10">
         <v>1000</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>3200</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>800</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>3800</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="10">
         <v>975</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <v>4200</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <v>468</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <v>4800</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>910</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="10">
         <v>5200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="10">
         <v>500</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="10">
         <v>5800</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="10">
         <v>800</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="10">
         <v>6200</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="10">
         <v>500</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="10">
         <v>6800</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="52" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="10">
         <v>975</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="10">
         <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="10">
         <v>910</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="52" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="10">
         <v>910</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="10">
         <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="10">
         <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="10">
         <v>680</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="10">
         <v>780</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="10">
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="74" t="s">
+    <row r="25" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="68" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="5">
         <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="10">
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="5">
         <v>2041</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="74" t="s">
+    <row r="28" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="5">
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="74" t="s">
+    <row r="29" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
+    <row r="30" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="68" t="s">
         <v>382</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="5">
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+    <row r="31" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+    <row r="33" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="57">
         <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="10">
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
+    <row r="35" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="52" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+    <row r="36" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="10">
         <v>1079</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="10">
         <v>780</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="10">
         <v>1235</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="10">
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="74" t="s">
+    <row r="42" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="68" t="s">
         <v>384</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="5">
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+    <row r="43" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="74" t="s">
+    <row r="44" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="68" t="s">
         <v>385</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="5">
         <v>665</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="10">
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="57" t="s">
+    <row r="46" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="52" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="10">
         <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="53"/>
     </row>
     <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="49"/>
     </row>
     <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="50" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="49" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="49" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="49" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="49" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="49" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="49" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="49" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="49" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="49" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="49" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="49" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="49" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="49" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="49" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="49" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="49" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="49" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="49" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="49" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="49" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="49" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="49" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="49" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
+      <c r="A74" s="49"/>
     </row>
     <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="50" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="10">
         <v>1274</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="10">
         <v>780</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="10">
         <v>910</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="10">
         <v>1274</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="10">
         <v>1066</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="10">
         <v>1196</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="10">
         <v>1196</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="10">
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="57" t="s">
+    <row r="84" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="52" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="10">
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="57" t="s">
+    <row r="86" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="52" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="10">
         <v>1430</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="10">
         <v>1040</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="10">
         <v>975</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="10">
         <v>1235</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="54" t="s">
+      <c r="A91" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="10">
         <v>1430</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="49" t="s">
         <v>401</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="10">
         <v>1066</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="54" t="s">
+      <c r="A93" s="49" t="s">
         <v>402</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="10">
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="57" t="s">
+    <row r="94" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="52" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="54" t="s">
+      <c r="A95" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="10">
         <v>1430</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="54" t="s">
+      <c r="A97" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="10">
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="57" t="s">
+    <row r="98" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="52" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="10">
         <v>1700</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="49" t="s">
         <v>406</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C100" s="10">
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="57" t="s">
+    <row r="101" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="52" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="54" t="s">
+      <c r="A102" s="49" t="s">
         <v>407</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="10">
         <v>3035</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="49" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="54"/>
+      <c r="A104" s="49"/>
     </row>
     <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="50" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="54" t="s">
+      <c r="A106" s="49" t="s">
         <v>415</v>
       </c>
-      <c r="C106" s="15">
+      <c r="C106" s="10">
         <v>975</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="54" t="s">
+      <c r="A107" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="10">
         <v>665</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="54" t="s">
+      <c r="A108" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="C108" s="15">
+      <c r="C108" s="10">
         <v>975</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C109" s="10">
         <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="C110" s="15">
+      <c r="C110" s="10">
         <v>975</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C111" s="10">
         <v>750</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="54" t="s">
+      <c r="A112" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="C112" s="15">
+      <c r="C112" s="10">
         <v>975</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="54" t="s">
+      <c r="A113" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="10">
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="57" t="s">
+    <row r="115" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="52" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="54" t="s">
+      <c r="A116" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C116" s="15">
+      <c r="C116" s="10">
         <v>1066</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="54" t="s">
+      <c r="A117" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="C117" s="15">
+      <c r="C117" s="10">
         <v>1365</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="54" t="s">
+      <c r="A118" s="49" t="s">
         <v>456</v>
       </c>
-      <c r="C118" s="15">
+      <c r="C118" s="10">
         <v>1846</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="54" t="s">
+      <c r="A119" s="49" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="54"/>
+      <c r="A120" s="49"/>
     </row>
     <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="55" t="s">
+      <c r="A121" s="50" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="57" t="s">
+    <row r="122" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="52" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C123" s="15">
+      <c r="C123" s="10">
         <v>2340</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="54" t="s">
+      <c r="A124" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C124" s="10">
         <v>2560</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="C125" s="15">
+      <c r="C125" s="10">
         <v>2807</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="54" t="s">
+      <c r="A126" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="C126" s="15">
+      <c r="C126" s="10">
         <v>2470</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="54" t="s">
+      <c r="A127" s="49" t="s">
         <v>457</v>
       </c>
-      <c r="C127" s="15">
+      <c r="C127" s="10">
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="57" t="s">
+    <row r="128" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="52" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="57" t="s">
+    <row r="129" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="52" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="57" t="s">
+    <row r="130" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="52" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="57" t="s">
+    <row r="131" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="52" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="57" t="s">
+    <row r="132" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="52" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="57" t="s">
+    <row r="133" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="52" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="54" t="s">
+      <c r="A134" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="C134" s="15">
+      <c r="C134" s="10">
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="57" t="s">
+    <row r="135" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="52" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="57" t="s">
+    <row r="136" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="52" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="57" t="s">
+    <row r="137" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="52" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="57" t="s">
+    <row r="138" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="52" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="54" t="s">
+      <c r="A139" s="49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="57" t="s">
+    <row r="140" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="52" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="57" t="s">
+    <row r="141" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="52" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="54" t="s">
+      <c r="A142" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="C142" s="15">
+      <c r="C142" s="10">
         <v>2240</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="C143" s="15">
+      <c r="C143" s="10">
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="57" t="s">
+    <row r="144" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="52" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="57" t="s">
+    <row r="145" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="52" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="57" t="s">
+    <row r="146" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="52" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="57" t="s">
+    <row r="147" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="52" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="57" t="s">
+    <row r="148" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="52" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="57" t="s">
+    <row r="149" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="52" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="54"/>
+      <c r="A150" s="49"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="55" t="s">
+      <c r="A151" s="50" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="54" t="s">
+      <c r="A152" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="C152" s="15">
+      <c r="C152" s="10">
         <v>1360</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="54" t="s">
+      <c r="A153" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="C153" s="15">
+      <c r="C153" s="10">
         <v>1615</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="54" t="s">
+      <c r="A154" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="C154" s="15">
+      <c r="C154" s="10">
         <v>1460</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="54" t="s">
+      <c r="A155" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="C155" s="15">
+      <c r="C155" s="10">
         <v>3240</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="54" t="s">
+      <c r="A156" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="C156" s="15">
+      <c r="C156" s="10">
         <v>1680</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="54" t="s">
+      <c r="A157" s="49" t="s">
         <v>459</v>
       </c>
-      <c r="C157" s="15">
+      <c r="C157" s="10">
         <v>3900</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="54" t="s">
+      <c r="A158" s="49" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="55" t="s">
+      <c r="A159" s="50" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="54" t="s">
+      <c r="A160" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C160" s="15">
+      <c r="C160" s="10">
         <v>2470</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="54" t="s">
+      <c r="A161" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="C161" s="15">
+      <c r="C161" s="10">
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="57" t="s">
+    <row r="162" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="52" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="57" t="s">
+    <row r="163" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="52" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="57" t="s">
+    <row r="164" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="C164" s="63">
+      <c r="C164" s="57">
         <v>3475</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="54" t="s">
+      <c r="A165" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="C165" s="15">
+      <c r="C165" s="10">
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="57" t="s">
+    <row r="166" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166" s="52" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="57" t="s">
+    <row r="167" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="52" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="57" t="s">
+    <row r="168" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="52" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="57" t="s">
+    <row r="169" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="52" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="57" t="s">
+    <row r="170" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="52" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="57" t="s">
+    <row r="171" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="52" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="57" t="s">
+    <row r="172" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="52" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="57" t="s">
+    <row r="173" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="52" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="57" t="s">
+    <row r="174" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="52" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="57" t="s">
+    <row r="175" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="52" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="57" t="s">
+    <row r="176" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="52" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="54" t="s">
+      <c r="A177" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="C177" s="15">
+      <c r="C177" s="10">
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="57" t="s">
+    <row r="178" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="52" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="54" t="s">
+      <c r="A179" s="49" t="s">
         <v>469</v>
       </c>
-      <c r="C179" s="15">
+      <c r="C179" s="10">
         <v>2170</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="54" t="s">
+      <c r="A180" s="49" t="s">
         <v>470</v>
       </c>
-      <c r="C180" s="15">
+      <c r="C180" s="10">
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="57" t="s">
+    <row r="181" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="52" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="54" t="s">
+      <c r="A182" s="49" t="s">
         <v>471</v>
       </c>
-      <c r="C182" s="15">
+      <c r="C182" s="10">
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="57" t="s">
+    <row r="183" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="52" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="57" t="s">
+    <row r="184" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="52" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="54" t="s">
+      <c r="A185" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="C185" s="15">
+      <c r="C185" s="10">
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="57" t="s">
+    <row r="186" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="52" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="57" t="s">
+    <row r="187" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="52" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="57" t="s">
+    <row r="188" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" s="52" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="57" t="s">
+    <row r="189" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="52" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="57" t="s">
+    <row r="190" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="52" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="57" t="s">
+    <row r="191" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="52" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="57" t="s">
+    <row r="192" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="52" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="57" t="s">
+    <row r="193" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="52" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="54"/>
+      <c r="A194" s="49"/>
     </row>
     <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="55" t="s">
+      <c r="A195" s="50" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="54" t="s">
+      <c r="A196" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="C196" s="15">
+      <c r="C196" s="10">
         <v>4030</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="54" t="s">
+      <c r="A197" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="C197" s="15">
+      <c r="C197" s="10">
         <v>4280</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="54" t="s">
+      <c r="A198" s="49" t="s">
         <v>464</v>
       </c>
-      <c r="C198" s="15">
+      <c r="C198" s="10">
         <v>3800</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="54" t="s">
+      <c r="A199" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="C199" s="15">
+      <c r="C199" s="10">
         <v>3670</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="54" t="s">
+      <c r="A200" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="C200" s="15">
+      <c r="C200" s="10">
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="57" t="s">
+    <row r="201" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" s="52" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="54" t="s">
+      <c r="A202" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="C202" s="15">
+      <c r="C202" s="10">
         <v>3865</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="54" t="s">
+      <c r="A203" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="C203" s="15">
+      <c r="C203" s="10">
         <v>3790</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="54" t="s">
+      <c r="A204" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="C204" s="15">
+      <c r="C204" s="10">
         <v>4290</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="54"/>
+      <c r="A205" s="49"/>
     </row>
     <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="55" t="s">
+      <c r="A206" s="50" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="54" t="s">
+      <c r="A207" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="C207" s="15">
+      <c r="C207" s="10">
         <v>3870</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A208" s="54" t="s">
+      <c r="A208" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="C208" s="15">
+      <c r="C208" s="10">
         <v>4800</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A209" s="54" t="s">
+      <c r="A209" s="49" t="s">
         <v>480</v>
       </c>
-      <c r="C209" s="15">
+      <c r="C209" s="10">
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="57" t="s">
+    <row r="210" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="52" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="54"/>
+      <c r="A211" s="49"/>
     </row>
     <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="55" t="s">
+      <c r="A212" s="50" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A213" s="54" t="s">
+      <c r="A213" s="49" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A214" s="54" t="s">
+      <c r="A214" s="49" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A215" s="54"/>
+      <c r="A215" s="49"/>
     </row>
     <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="55" t="s">
+      <c r="A216" s="50" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="54" t="s">
+      <c r="A217" s="49" t="s">
         <v>481</v>
       </c>
-      <c r="C217" s="15">
+      <c r="C217" s="10">
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A218" s="57" t="s">
+    <row r="218" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A218" s="52" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A219" s="54" t="s">
+      <c r="A219" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="C219" s="15">
+      <c r="C219" s="10">
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="57" t="s">
+    <row r="220" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" s="52" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="57" t="s">
+    <row r="221" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A221" s="52" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A222" s="57" t="s">
+    <row r="222" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A222" s="52" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="57" t="s">
+    <row r="223" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A223" s="52" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="57" t="s">
+    <row r="224" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A224" s="52" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="63" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="57" t="s">
+    <row r="225" spans="1:1" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A225" s="52" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="54"/>
+      <c r="A226" s="49"/>
     </row>
     <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="55" t="s">
+      <c r="A227" s="50" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="54" t="s">
+      <c r="A228" s="49" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A229" s="54"/>
+      <c r="A229" s="49"/>
     </row>
     <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="55" t="s">
+      <c r="A230" s="50" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="54" t="s">
+      <c r="A231" s="49" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A232" s="54" t="s">
+      <c r="A232" s="49" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="55" t="s">
+      <c r="A234" s="50" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="56" t="s">
+      <c r="A235" s="51" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="56" t="s">
+      <c r="A236" s="51" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="56" t="s">
+      <c r="A237" s="51" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="56" t="s">
+      <c r="A238" s="51" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="56" t="s">
+      <c r="A239" s="51" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="56" t="s">
+      <c r="A240" s="51" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="55" t="s">
+      <c r="A242" s="50" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="55" t="s">
+      <c r="A244" s="50" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="55" t="s">
+      <c r="A246" s="50" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="59" t="s">
+      <c r="A247" s="54" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="59" t="s">
+      <c r="A248" s="54" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="59" t="s">
+      <c r="A249" s="54" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="59" t="s">
+      <c r="A250" s="54" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="59" t="s">
+      <c r="A251" s="54" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="60" t="s">
+      <c r="A252" s="55" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="59" t="s">
+      <c r="A253" s="54" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="59" t="s">
+      <c r="A254" s="54" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="59" t="s">
+      <c r="A255" s="54" t="s">
         <v>328</v>
       </c>
     </row>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId2"/>
     <sheet name="Student Visited In Lab" sheetId="3" r:id="rId3"/>
     <sheet name="Balance" sheetId="10" r:id="rId4"/>
-    <sheet name="Celeab Responsibilities" sheetId="11" r:id="rId5"/>
-    <sheet name="Purchase " sheetId="4" r:id="rId6"/>
-    <sheet name="Rate List" sheetId="5" r:id="rId7"/>
-    <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId8"/>
-    <sheet name="Final Year Projects" sheetId="9" r:id="rId9"/>
+    <sheet name="Purchase " sheetId="4" r:id="rId5"/>
+    <sheet name="Rate List" sheetId="5" r:id="rId6"/>
+    <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId7"/>
+    <sheet name="Final Year Projects" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="541">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3996,65 +3995,32 @@
     <t>14th feb 2015</t>
   </si>
   <si>
-    <t>Shankar</t>
-  </si>
-  <si>
-    <t>Rohit</t>
-  </si>
-  <si>
-    <t>Dinesh</t>
-  </si>
-  <si>
-    <t>ü</t>
-  </si>
-  <si>
-    <t>û</t>
-  </si>
-  <si>
-    <t>Maintain a proper xlsheet lab account data in terms of purchase, expense, and income.</t>
-  </si>
-  <si>
-    <t>Responsibility</t>
-  </si>
-  <si>
-    <t>Make project which is reqiued in shop</t>
-  </si>
-  <si>
-    <t>Ethching and soldering, all designed pcb</t>
-  </si>
-  <si>
-    <t>Dealing With All final year students regarding Taking project and any type of help and idea.</t>
-  </si>
-  <si>
-    <t>Any types of Training of students (Basic electronics, 8051dev board and Arduino Training)</t>
-  </si>
-  <si>
-    <t>Explanation of students who come to take project frome our shop</t>
-  </si>
-  <si>
-    <t>All major and mini project pcb design</t>
-  </si>
-  <si>
-    <t>Dealing with Students for Mini pojects</t>
-  </si>
-  <si>
-    <t>Customer soldering work</t>
-  </si>
-  <si>
-    <t>Provide PCB/Code for Training</t>
-  </si>
-  <si>
-    <t>Complete Final Year projects</t>
-  </si>
-  <si>
-    <t>Mathew</t>
+    <t>Street light that glows on vehicle movement using pic</t>
+  </si>
+  <si>
+    <t>15th Feb</t>
+  </si>
+  <si>
+    <t>Ankur</t>
+  </si>
+  <si>
+    <t>Ankur.bareliya2404@gmail.com</t>
+  </si>
+  <si>
+    <t>G.C.E.T</t>
+  </si>
+  <si>
+    <t>9654640996</t>
+  </si>
+  <si>
+    <t>Deliver up to 25th feb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4118,14 +4084,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4194,7 +4154,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4288,12 +4260,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4418,6 +4403,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4470,45 +4456,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4571,7 +4521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4603,10 +4553,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4638,7 +4587,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4814,18 +4762,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
@@ -4835,7 +4783,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4867,40 +4815,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:11" s="61" customFormat="1">
+      <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="61">
         <v>9540890120</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="61" t="s">
         <v>486</v>
       </c>
-      <c r="G2" s="70">
+      <c r="G2" s="61">
         <v>5000</v>
       </c>
-      <c r="H2" s="89">
+      <c r="H2" s="62">
         <v>42016</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="61" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4932,14 +4879,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>528</v>
       </c>
       <c r="B4">
         <v>9971907103</v>
       </c>
-      <c r="C4" s="56"/>
       <c r="D4" t="s">
         <v>530</v>
       </c>
@@ -4955,17 +4901,14 @@
       <c r="H4" t="s">
         <v>532</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>529</v>
       </c>
       <c r="B5">
         <v>9971907103</v>
       </c>
-      <c r="C5" s="56"/>
       <c r="D5" t="s">
         <v>530</v>
       </c>
@@ -4981,8 +4924,6 @@
       <c r="H5" t="s">
         <v>532</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4993,14 +4934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -5013,7 +4954,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5039,7 +4980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5065,7 +5006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5088,7 +5029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5114,7 +5055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5140,7 +5081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5166,7 +5107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -5189,7 +5130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -5212,7 +5153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -5238,7 +5179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>329</v>
       </c>
@@ -5264,7 +5205,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -5290,30 +5231,30 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:9" s="72" customFormat="1">
+      <c r="A12" s="72" t="s">
         <v>335</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="72">
         <v>9871310918</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="73" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="72">
         <v>150</v>
       </c>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="72" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>346</v>
       </c>
@@ -5339,7 +5280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -5365,62 +5306,62 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:9" s="76" customFormat="1">
+      <c r="A15" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="70">
+      <c r="B15" s="76">
         <v>9711022937</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="76" t="s">
         <v>414</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="76" t="s">
         <v>412</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="76">
         <v>350</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="76">
         <v>350</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="76" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:9" s="78" customFormat="1">
+      <c r="A16" s="78" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="78">
         <v>9990180164</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="79" t="s">
         <v>422</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="78" t="s">
         <v>423</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="78" t="s">
         <v>424</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="78">
         <v>1500</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="78" t="s">
         <v>425</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="78" t="s">
         <v>425</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="78" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>429</v>
       </c>
@@ -5442,18 +5383,18 @@
       <c r="G17">
         <v>250</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="76" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>435</v>
       </c>
       <c r="D18" t="s">
         <v>436</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="80" t="s">
         <v>490</v>
       </c>
       <c r="F18">
@@ -5463,7 +5404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19">
         <v>9711307405</v>
       </c>
@@ -5480,7 +5421,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>502</v>
       </c>
@@ -5503,7 +5444,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>519</v>
       </c>
@@ -5519,10 +5460,8 @@
       <c r="F21">
         <v>50</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>522</v>
       </c>
@@ -5538,8 +5477,6 @@
       <c r="F22">
         <v>30</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5564,14 +5501,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F10:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -5580,7 +5517,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -5600,7 +5537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -5620,7 +5557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -5640,7 +5577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -5660,7 +5597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5680,7 +5617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5700,7 +5637,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -5720,7 +5657,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>358</v>
       </c>
@@ -5740,7 +5677,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>408</v>
       </c>
@@ -5760,7 +5697,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -5776,9 +5713,8 @@
       <c r="E10" t="s">
         <v>444</v>
       </c>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>445</v>
       </c>
@@ -5794,9 +5730,8 @@
       <c r="E11" t="s">
         <v>447</v>
       </c>
-      <c r="F11" s="56"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>465</v>
       </c>
@@ -5812,9 +5747,8 @@
       <c r="E12" t="s">
         <v>468</v>
       </c>
-      <c r="F12" s="56"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -5830,9 +5764,8 @@
       <c r="E13" t="s">
         <v>485</v>
       </c>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>492</v>
       </c>
@@ -5848,9 +5781,8 @@
       <c r="E14" t="s">
         <v>495</v>
       </c>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>496</v>
       </c>
@@ -5866,9 +5798,8 @@
       <c r="E15" t="s">
         <v>495</v>
       </c>
-      <c r="F15" s="56"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>514</v>
       </c>
@@ -5884,7 +5815,6 @@
       <c r="E16" t="s">
         <v>517</v>
       </c>
-      <c r="F16" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5909,44 +5839,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="89" t="s">
         <v>507</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="90" t="s">
         <v>508</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="61" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="91" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -5966,7 +5896,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>518</v>
       </c>
@@ -5980,7 +5910,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>533</v>
       </c>
@@ -5992,6 +5922,23 @@
       </c>
       <c r="F4">
         <v>10070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>11049</v>
+      </c>
+      <c r="F5">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
@@ -6000,241 +5947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.7109375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="15" style="85" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="85" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="85" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="88" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
-        <v>540</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>534</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>535</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>536</v>
-      </c>
-      <c r="E1" s="87" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>541</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="D2" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
-        <v>548</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>542</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
-        <v>543</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
-        <v>544</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
-        <v>539</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
-        <v>546</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="D9" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="D10" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
-        <v>550</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>538</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>537</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>537</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -6243,7 +5963,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -6254,7 +5974,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6265,7 +5985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -6276,7 +5996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -6287,7 +6007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -6298,7 +6018,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -6309,7 +6029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>338</v>
       </c>
@@ -6320,7 +6040,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>338</v>
       </c>
@@ -6331,7 +6051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -6342,7 +6062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>348</v>
       </c>
@@ -6353,7 +6073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>348</v>
       </c>
@@ -6364,7 +6084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>419</v>
       </c>
@@ -6375,7 +6095,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>427</v>
       </c>
@@ -6386,7 +6106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -6397,7 +6117,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>437</v>
       </c>
@@ -6408,7 +6128,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -6419,7 +6139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -6430,7 +6150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>449</v>
       </c>
@@ -6441,7 +6161,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>488</v>
       </c>
@@ -6452,7 +6172,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>488</v>
       </c>
@@ -6463,7 +6183,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>498</v>
       </c>
@@ -6474,7 +6194,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>498</v>
       </c>
@@ -6485,7 +6205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>498</v>
       </c>
@@ -6494,6 +6214,251 @@
       </c>
       <c r="C23">
         <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>535</v>
+      </c>
+      <c r="B24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C24">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>460</v>
+      </c>
+      <c r="B25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -6502,3189 +6467,2978 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="14" customWidth="1"/>
+    <col min="13" max="257" width="9.140625" style="15"/>
+    <col min="258" max="258" width="27.7109375" style="15" customWidth="1"/>
+    <col min="259" max="259" width="15.28515625" style="15" customWidth="1"/>
+    <col min="260" max="260" width="15.140625" style="15" customWidth="1"/>
+    <col min="261" max="261" width="17.85546875" style="15" customWidth="1"/>
+    <col min="262" max="262" width="19.85546875" style="15" customWidth="1"/>
+    <col min="263" max="263" width="14.85546875" style="15" customWidth="1"/>
+    <col min="264" max="264" width="14.140625" style="15" customWidth="1"/>
+    <col min="265" max="265" width="14.85546875" style="15" customWidth="1"/>
+    <col min="266" max="266" width="16.140625" style="15" customWidth="1"/>
+    <col min="267" max="267" width="26.42578125" style="15" customWidth="1"/>
+    <col min="268" max="513" width="9.140625" style="15"/>
+    <col min="514" max="514" width="27.7109375" style="15" customWidth="1"/>
+    <col min="515" max="515" width="15.28515625" style="15" customWidth="1"/>
+    <col min="516" max="516" width="15.140625" style="15" customWidth="1"/>
+    <col min="517" max="517" width="17.85546875" style="15" customWidth="1"/>
+    <col min="518" max="518" width="19.85546875" style="15" customWidth="1"/>
+    <col min="519" max="519" width="14.85546875" style="15" customWidth="1"/>
+    <col min="520" max="520" width="14.140625" style="15" customWidth="1"/>
+    <col min="521" max="521" width="14.85546875" style="15" customWidth="1"/>
+    <col min="522" max="522" width="16.140625" style="15" customWidth="1"/>
+    <col min="523" max="523" width="26.42578125" style="15" customWidth="1"/>
+    <col min="524" max="769" width="9.140625" style="15"/>
+    <col min="770" max="770" width="27.7109375" style="15" customWidth="1"/>
+    <col min="771" max="771" width="15.28515625" style="15" customWidth="1"/>
+    <col min="772" max="772" width="15.140625" style="15" customWidth="1"/>
+    <col min="773" max="773" width="17.85546875" style="15" customWidth="1"/>
+    <col min="774" max="774" width="19.85546875" style="15" customWidth="1"/>
+    <col min="775" max="775" width="14.85546875" style="15" customWidth="1"/>
+    <col min="776" max="776" width="14.140625" style="15" customWidth="1"/>
+    <col min="777" max="777" width="14.85546875" style="15" customWidth="1"/>
+    <col min="778" max="778" width="16.140625" style="15" customWidth="1"/>
+    <col min="779" max="779" width="26.42578125" style="15" customWidth="1"/>
+    <col min="780" max="1025" width="9.140625" style="15"/>
+    <col min="1026" max="1026" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1027" max="1027" width="15.28515625" style="15" customWidth="1"/>
+    <col min="1028" max="1028" width="15.140625" style="15" customWidth="1"/>
+    <col min="1029" max="1029" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1030" max="1030" width="19.85546875" style="15" customWidth="1"/>
+    <col min="1031" max="1031" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1032" max="1032" width="14.140625" style="15" customWidth="1"/>
+    <col min="1033" max="1033" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1034" max="1034" width="16.140625" style="15" customWidth="1"/>
+    <col min="1035" max="1035" width="26.42578125" style="15" customWidth="1"/>
+    <col min="1036" max="1281" width="9.140625" style="15"/>
+    <col min="1282" max="1282" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1283" max="1283" width="15.28515625" style="15" customWidth="1"/>
+    <col min="1284" max="1284" width="15.140625" style="15" customWidth="1"/>
+    <col min="1285" max="1285" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1286" max="1286" width="19.85546875" style="15" customWidth="1"/>
+    <col min="1287" max="1287" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1288" max="1288" width="14.140625" style="15" customWidth="1"/>
+    <col min="1289" max="1289" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1290" max="1290" width="16.140625" style="15" customWidth="1"/>
+    <col min="1291" max="1291" width="26.42578125" style="15" customWidth="1"/>
+    <col min="1292" max="1537" width="9.140625" style="15"/>
+    <col min="1538" max="1538" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1539" max="1539" width="15.28515625" style="15" customWidth="1"/>
+    <col min="1540" max="1540" width="15.140625" style="15" customWidth="1"/>
+    <col min="1541" max="1541" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1542" max="1542" width="19.85546875" style="15" customWidth="1"/>
+    <col min="1543" max="1543" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1544" max="1544" width="14.140625" style="15" customWidth="1"/>
+    <col min="1545" max="1545" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1546" max="1546" width="16.140625" style="15" customWidth="1"/>
+    <col min="1547" max="1547" width="26.42578125" style="15" customWidth="1"/>
+    <col min="1548" max="1793" width="9.140625" style="15"/>
+    <col min="1794" max="1794" width="27.7109375" style="15" customWidth="1"/>
+    <col min="1795" max="1795" width="15.28515625" style="15" customWidth="1"/>
+    <col min="1796" max="1796" width="15.140625" style="15" customWidth="1"/>
+    <col min="1797" max="1797" width="17.85546875" style="15" customWidth="1"/>
+    <col min="1798" max="1798" width="19.85546875" style="15" customWidth="1"/>
+    <col min="1799" max="1799" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1800" max="1800" width="14.140625" style="15" customWidth="1"/>
+    <col min="1801" max="1801" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1802" max="1802" width="16.140625" style="15" customWidth="1"/>
+    <col min="1803" max="1803" width="26.42578125" style="15" customWidth="1"/>
+    <col min="1804" max="2049" width="9.140625" style="15"/>
+    <col min="2050" max="2050" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2051" max="2051" width="15.28515625" style="15" customWidth="1"/>
+    <col min="2052" max="2052" width="15.140625" style="15" customWidth="1"/>
+    <col min="2053" max="2053" width="17.85546875" style="15" customWidth="1"/>
+    <col min="2054" max="2054" width="19.85546875" style="15" customWidth="1"/>
+    <col min="2055" max="2055" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2056" max="2056" width="14.140625" style="15" customWidth="1"/>
+    <col min="2057" max="2057" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2058" max="2058" width="16.140625" style="15" customWidth="1"/>
+    <col min="2059" max="2059" width="26.42578125" style="15" customWidth="1"/>
+    <col min="2060" max="2305" width="9.140625" style="15"/>
+    <col min="2306" max="2306" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2307" max="2307" width="15.28515625" style="15" customWidth="1"/>
+    <col min="2308" max="2308" width="15.140625" style="15" customWidth="1"/>
+    <col min="2309" max="2309" width="17.85546875" style="15" customWidth="1"/>
+    <col min="2310" max="2310" width="19.85546875" style="15" customWidth="1"/>
+    <col min="2311" max="2311" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2312" max="2312" width="14.140625" style="15" customWidth="1"/>
+    <col min="2313" max="2313" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2314" max="2314" width="16.140625" style="15" customWidth="1"/>
+    <col min="2315" max="2315" width="26.42578125" style="15" customWidth="1"/>
+    <col min="2316" max="2561" width="9.140625" style="15"/>
+    <col min="2562" max="2562" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2563" max="2563" width="15.28515625" style="15" customWidth="1"/>
+    <col min="2564" max="2564" width="15.140625" style="15" customWidth="1"/>
+    <col min="2565" max="2565" width="17.85546875" style="15" customWidth="1"/>
+    <col min="2566" max="2566" width="19.85546875" style="15" customWidth="1"/>
+    <col min="2567" max="2567" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2568" max="2568" width="14.140625" style="15" customWidth="1"/>
+    <col min="2569" max="2569" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2570" max="2570" width="16.140625" style="15" customWidth="1"/>
+    <col min="2571" max="2571" width="26.42578125" style="15" customWidth="1"/>
+    <col min="2572" max="2817" width="9.140625" style="15"/>
+    <col min="2818" max="2818" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2819" max="2819" width="15.28515625" style="15" customWidth="1"/>
+    <col min="2820" max="2820" width="15.140625" style="15" customWidth="1"/>
+    <col min="2821" max="2821" width="17.85546875" style="15" customWidth="1"/>
+    <col min="2822" max="2822" width="19.85546875" style="15" customWidth="1"/>
+    <col min="2823" max="2823" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2824" max="2824" width="14.140625" style="15" customWidth="1"/>
+    <col min="2825" max="2825" width="14.85546875" style="15" customWidth="1"/>
+    <col min="2826" max="2826" width="16.140625" style="15" customWidth="1"/>
+    <col min="2827" max="2827" width="26.42578125" style="15" customWidth="1"/>
+    <col min="2828" max="3073" width="9.140625" style="15"/>
+    <col min="3074" max="3074" width="27.7109375" style="15" customWidth="1"/>
+    <col min="3075" max="3075" width="15.28515625" style="15" customWidth="1"/>
+    <col min="3076" max="3076" width="15.140625" style="15" customWidth="1"/>
+    <col min="3077" max="3077" width="17.85546875" style="15" customWidth="1"/>
+    <col min="3078" max="3078" width="19.85546875" style="15" customWidth="1"/>
+    <col min="3079" max="3079" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3080" max="3080" width="14.140625" style="15" customWidth="1"/>
+    <col min="3081" max="3081" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3082" max="3082" width="16.140625" style="15" customWidth="1"/>
+    <col min="3083" max="3083" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3084" max="3329" width="9.140625" style="15"/>
+    <col min="3330" max="3330" width="27.7109375" style="15" customWidth="1"/>
+    <col min="3331" max="3331" width="15.28515625" style="15" customWidth="1"/>
+    <col min="3332" max="3332" width="15.140625" style="15" customWidth="1"/>
+    <col min="3333" max="3333" width="17.85546875" style="15" customWidth="1"/>
+    <col min="3334" max="3334" width="19.85546875" style="15" customWidth="1"/>
+    <col min="3335" max="3335" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3336" max="3336" width="14.140625" style="15" customWidth="1"/>
+    <col min="3337" max="3337" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3338" max="3338" width="16.140625" style="15" customWidth="1"/>
+    <col min="3339" max="3339" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3340" max="3585" width="9.140625" style="15"/>
+    <col min="3586" max="3586" width="27.7109375" style="15" customWidth="1"/>
+    <col min="3587" max="3587" width="15.28515625" style="15" customWidth="1"/>
+    <col min="3588" max="3588" width="15.140625" style="15" customWidth="1"/>
+    <col min="3589" max="3589" width="17.85546875" style="15" customWidth="1"/>
+    <col min="3590" max="3590" width="19.85546875" style="15" customWidth="1"/>
+    <col min="3591" max="3591" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3592" max="3592" width="14.140625" style="15" customWidth="1"/>
+    <col min="3593" max="3593" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3594" max="3594" width="16.140625" style="15" customWidth="1"/>
+    <col min="3595" max="3595" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3596" max="3841" width="9.140625" style="15"/>
+    <col min="3842" max="3842" width="27.7109375" style="15" customWidth="1"/>
+    <col min="3843" max="3843" width="15.28515625" style="15" customWidth="1"/>
+    <col min="3844" max="3844" width="15.140625" style="15" customWidth="1"/>
+    <col min="3845" max="3845" width="17.85546875" style="15" customWidth="1"/>
+    <col min="3846" max="3846" width="19.85546875" style="15" customWidth="1"/>
+    <col min="3847" max="3847" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3848" max="3848" width="14.140625" style="15" customWidth="1"/>
+    <col min="3849" max="3849" width="14.85546875" style="15" customWidth="1"/>
+    <col min="3850" max="3850" width="16.140625" style="15" customWidth="1"/>
+    <col min="3851" max="3851" width="26.42578125" style="15" customWidth="1"/>
+    <col min="3852" max="4097" width="9.140625" style="15"/>
+    <col min="4098" max="4098" width="27.7109375" style="15" customWidth="1"/>
+    <col min="4099" max="4099" width="15.28515625" style="15" customWidth="1"/>
+    <col min="4100" max="4100" width="15.140625" style="15" customWidth="1"/>
+    <col min="4101" max="4101" width="17.85546875" style="15" customWidth="1"/>
+    <col min="4102" max="4102" width="19.85546875" style="15" customWidth="1"/>
+    <col min="4103" max="4103" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4104" max="4104" width="14.140625" style="15" customWidth="1"/>
+    <col min="4105" max="4105" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4106" max="4106" width="16.140625" style="15" customWidth="1"/>
+    <col min="4107" max="4107" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4108" max="4353" width="9.140625" style="15"/>
+    <col min="4354" max="4354" width="27.7109375" style="15" customWidth="1"/>
+    <col min="4355" max="4355" width="15.28515625" style="15" customWidth="1"/>
+    <col min="4356" max="4356" width="15.140625" style="15" customWidth="1"/>
+    <col min="4357" max="4357" width="17.85546875" style="15" customWidth="1"/>
+    <col min="4358" max="4358" width="19.85546875" style="15" customWidth="1"/>
+    <col min="4359" max="4359" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4360" max="4360" width="14.140625" style="15" customWidth="1"/>
+    <col min="4361" max="4361" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4362" max="4362" width="16.140625" style="15" customWidth="1"/>
+    <col min="4363" max="4363" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4364" max="4609" width="9.140625" style="15"/>
+    <col min="4610" max="4610" width="27.7109375" style="15" customWidth="1"/>
+    <col min="4611" max="4611" width="15.28515625" style="15" customWidth="1"/>
+    <col min="4612" max="4612" width="15.140625" style="15" customWidth="1"/>
+    <col min="4613" max="4613" width="17.85546875" style="15" customWidth="1"/>
+    <col min="4614" max="4614" width="19.85546875" style="15" customWidth="1"/>
+    <col min="4615" max="4615" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4616" max="4616" width="14.140625" style="15" customWidth="1"/>
+    <col min="4617" max="4617" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4618" max="4618" width="16.140625" style="15" customWidth="1"/>
+    <col min="4619" max="4619" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4620" max="4865" width="9.140625" style="15"/>
+    <col min="4866" max="4866" width="27.7109375" style="15" customWidth="1"/>
+    <col min="4867" max="4867" width="15.28515625" style="15" customWidth="1"/>
+    <col min="4868" max="4868" width="15.140625" style="15" customWidth="1"/>
+    <col min="4869" max="4869" width="17.85546875" style="15" customWidth="1"/>
+    <col min="4870" max="4870" width="19.85546875" style="15" customWidth="1"/>
+    <col min="4871" max="4871" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4872" max="4872" width="14.140625" style="15" customWidth="1"/>
+    <col min="4873" max="4873" width="14.85546875" style="15" customWidth="1"/>
+    <col min="4874" max="4874" width="16.140625" style="15" customWidth="1"/>
+    <col min="4875" max="4875" width="26.42578125" style="15" customWidth="1"/>
+    <col min="4876" max="5121" width="9.140625" style="15"/>
+    <col min="5122" max="5122" width="27.7109375" style="15" customWidth="1"/>
+    <col min="5123" max="5123" width="15.28515625" style="15" customWidth="1"/>
+    <col min="5124" max="5124" width="15.140625" style="15" customWidth="1"/>
+    <col min="5125" max="5125" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5126" max="5126" width="19.85546875" style="15" customWidth="1"/>
+    <col min="5127" max="5127" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5128" max="5128" width="14.140625" style="15" customWidth="1"/>
+    <col min="5129" max="5129" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5130" max="5130" width="16.140625" style="15" customWidth="1"/>
+    <col min="5131" max="5131" width="26.42578125" style="15" customWidth="1"/>
+    <col min="5132" max="5377" width="9.140625" style="15"/>
+    <col min="5378" max="5378" width="27.7109375" style="15" customWidth="1"/>
+    <col min="5379" max="5379" width="15.28515625" style="15" customWidth="1"/>
+    <col min="5380" max="5380" width="15.140625" style="15" customWidth="1"/>
+    <col min="5381" max="5381" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5382" max="5382" width="19.85546875" style="15" customWidth="1"/>
+    <col min="5383" max="5383" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5384" max="5384" width="14.140625" style="15" customWidth="1"/>
+    <col min="5385" max="5385" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5386" max="5386" width="16.140625" style="15" customWidth="1"/>
+    <col min="5387" max="5387" width="26.42578125" style="15" customWidth="1"/>
+    <col min="5388" max="5633" width="9.140625" style="15"/>
+    <col min="5634" max="5634" width="27.7109375" style="15" customWidth="1"/>
+    <col min="5635" max="5635" width="15.28515625" style="15" customWidth="1"/>
+    <col min="5636" max="5636" width="15.140625" style="15" customWidth="1"/>
+    <col min="5637" max="5637" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5638" max="5638" width="19.85546875" style="15" customWidth="1"/>
+    <col min="5639" max="5639" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5640" max="5640" width="14.140625" style="15" customWidth="1"/>
+    <col min="5641" max="5641" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5642" max="5642" width="16.140625" style="15" customWidth="1"/>
+    <col min="5643" max="5643" width="26.42578125" style="15" customWidth="1"/>
+    <col min="5644" max="5889" width="9.140625" style="15"/>
+    <col min="5890" max="5890" width="27.7109375" style="15" customWidth="1"/>
+    <col min="5891" max="5891" width="15.28515625" style="15" customWidth="1"/>
+    <col min="5892" max="5892" width="15.140625" style="15" customWidth="1"/>
+    <col min="5893" max="5893" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5894" max="5894" width="19.85546875" style="15" customWidth="1"/>
+    <col min="5895" max="5895" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5896" max="5896" width="14.140625" style="15" customWidth="1"/>
+    <col min="5897" max="5897" width="14.85546875" style="15" customWidth="1"/>
+    <col min="5898" max="5898" width="16.140625" style="15" customWidth="1"/>
+    <col min="5899" max="5899" width="26.42578125" style="15" customWidth="1"/>
+    <col min="5900" max="6145" width="9.140625" style="15"/>
+    <col min="6146" max="6146" width="27.7109375" style="15" customWidth="1"/>
+    <col min="6147" max="6147" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6148" max="6148" width="15.140625" style="15" customWidth="1"/>
+    <col min="6149" max="6149" width="17.85546875" style="15" customWidth="1"/>
+    <col min="6150" max="6150" width="19.85546875" style="15" customWidth="1"/>
+    <col min="6151" max="6151" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6152" max="6152" width="14.140625" style="15" customWidth="1"/>
+    <col min="6153" max="6153" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6154" max="6154" width="16.140625" style="15" customWidth="1"/>
+    <col min="6155" max="6155" width="26.42578125" style="15" customWidth="1"/>
+    <col min="6156" max="6401" width="9.140625" style="15"/>
+    <col min="6402" max="6402" width="27.7109375" style="15" customWidth="1"/>
+    <col min="6403" max="6403" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6404" max="6404" width="15.140625" style="15" customWidth="1"/>
+    <col min="6405" max="6405" width="17.85546875" style="15" customWidth="1"/>
+    <col min="6406" max="6406" width="19.85546875" style="15" customWidth="1"/>
+    <col min="6407" max="6407" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6408" max="6408" width="14.140625" style="15" customWidth="1"/>
+    <col min="6409" max="6409" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6410" max="6410" width="16.140625" style="15" customWidth="1"/>
+    <col min="6411" max="6411" width="26.42578125" style="15" customWidth="1"/>
+    <col min="6412" max="6657" width="9.140625" style="15"/>
+    <col min="6658" max="6658" width="27.7109375" style="15" customWidth="1"/>
+    <col min="6659" max="6659" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6660" max="6660" width="15.140625" style="15" customWidth="1"/>
+    <col min="6661" max="6661" width="17.85546875" style="15" customWidth="1"/>
+    <col min="6662" max="6662" width="19.85546875" style="15" customWidth="1"/>
+    <col min="6663" max="6663" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6664" max="6664" width="14.140625" style="15" customWidth="1"/>
+    <col min="6665" max="6665" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6666" max="6666" width="16.140625" style="15" customWidth="1"/>
+    <col min="6667" max="6667" width="26.42578125" style="15" customWidth="1"/>
+    <col min="6668" max="6913" width="9.140625" style="15"/>
+    <col min="6914" max="6914" width="27.7109375" style="15" customWidth="1"/>
+    <col min="6915" max="6915" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6916" max="6916" width="15.140625" style="15" customWidth="1"/>
+    <col min="6917" max="6917" width="17.85546875" style="15" customWidth="1"/>
+    <col min="6918" max="6918" width="19.85546875" style="15" customWidth="1"/>
+    <col min="6919" max="6919" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6920" max="6920" width="14.140625" style="15" customWidth="1"/>
+    <col min="6921" max="6921" width="14.85546875" style="15" customWidth="1"/>
+    <col min="6922" max="6922" width="16.140625" style="15" customWidth="1"/>
+    <col min="6923" max="6923" width="26.42578125" style="15" customWidth="1"/>
+    <col min="6924" max="7169" width="9.140625" style="15"/>
+    <col min="7170" max="7170" width="27.7109375" style="15" customWidth="1"/>
+    <col min="7171" max="7171" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7172" max="7172" width="15.140625" style="15" customWidth="1"/>
+    <col min="7173" max="7173" width="17.85546875" style="15" customWidth="1"/>
+    <col min="7174" max="7174" width="19.85546875" style="15" customWidth="1"/>
+    <col min="7175" max="7175" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7176" max="7176" width="14.140625" style="15" customWidth="1"/>
+    <col min="7177" max="7177" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7178" max="7178" width="16.140625" style="15" customWidth="1"/>
+    <col min="7179" max="7179" width="26.42578125" style="15" customWidth="1"/>
+    <col min="7180" max="7425" width="9.140625" style="15"/>
+    <col min="7426" max="7426" width="27.7109375" style="15" customWidth="1"/>
+    <col min="7427" max="7427" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7428" max="7428" width="15.140625" style="15" customWidth="1"/>
+    <col min="7429" max="7429" width="17.85546875" style="15" customWidth="1"/>
+    <col min="7430" max="7430" width="19.85546875" style="15" customWidth="1"/>
+    <col min="7431" max="7431" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7432" max="7432" width="14.140625" style="15" customWidth="1"/>
+    <col min="7433" max="7433" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7434" max="7434" width="16.140625" style="15" customWidth="1"/>
+    <col min="7435" max="7435" width="26.42578125" style="15" customWidth="1"/>
+    <col min="7436" max="7681" width="9.140625" style="15"/>
+    <col min="7682" max="7682" width="27.7109375" style="15" customWidth="1"/>
+    <col min="7683" max="7683" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7684" max="7684" width="15.140625" style="15" customWidth="1"/>
+    <col min="7685" max="7685" width="17.85546875" style="15" customWidth="1"/>
+    <col min="7686" max="7686" width="19.85546875" style="15" customWidth="1"/>
+    <col min="7687" max="7687" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7688" max="7688" width="14.140625" style="15" customWidth="1"/>
+    <col min="7689" max="7689" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7690" max="7690" width="16.140625" style="15" customWidth="1"/>
+    <col min="7691" max="7691" width="26.42578125" style="15" customWidth="1"/>
+    <col min="7692" max="7937" width="9.140625" style="15"/>
+    <col min="7938" max="7938" width="27.7109375" style="15" customWidth="1"/>
+    <col min="7939" max="7939" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7940" max="7940" width="15.140625" style="15" customWidth="1"/>
+    <col min="7941" max="7941" width="17.85546875" style="15" customWidth="1"/>
+    <col min="7942" max="7942" width="19.85546875" style="15" customWidth="1"/>
+    <col min="7943" max="7943" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7944" max="7944" width="14.140625" style="15" customWidth="1"/>
+    <col min="7945" max="7945" width="14.85546875" style="15" customWidth="1"/>
+    <col min="7946" max="7946" width="16.140625" style="15" customWidth="1"/>
+    <col min="7947" max="7947" width="26.42578125" style="15" customWidth="1"/>
+    <col min="7948" max="8193" width="9.140625" style="15"/>
+    <col min="8194" max="8194" width="27.7109375" style="15" customWidth="1"/>
+    <col min="8195" max="8195" width="15.28515625" style="15" customWidth="1"/>
+    <col min="8196" max="8196" width="15.140625" style="15" customWidth="1"/>
+    <col min="8197" max="8197" width="17.85546875" style="15" customWidth="1"/>
+    <col min="8198" max="8198" width="19.85546875" style="15" customWidth="1"/>
+    <col min="8199" max="8199" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8200" max="8200" width="14.140625" style="15" customWidth="1"/>
+    <col min="8201" max="8201" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8202" max="8202" width="16.140625" style="15" customWidth="1"/>
+    <col min="8203" max="8203" width="26.42578125" style="15" customWidth="1"/>
+    <col min="8204" max="8449" width="9.140625" style="15"/>
+    <col min="8450" max="8450" width="27.7109375" style="15" customWidth="1"/>
+    <col min="8451" max="8451" width="15.28515625" style="15" customWidth="1"/>
+    <col min="8452" max="8452" width="15.140625" style="15" customWidth="1"/>
+    <col min="8453" max="8453" width="17.85546875" style="15" customWidth="1"/>
+    <col min="8454" max="8454" width="19.85546875" style="15" customWidth="1"/>
+    <col min="8455" max="8455" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8456" max="8456" width="14.140625" style="15" customWidth="1"/>
+    <col min="8457" max="8457" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8458" max="8458" width="16.140625" style="15" customWidth="1"/>
+    <col min="8459" max="8459" width="26.42578125" style="15" customWidth="1"/>
+    <col min="8460" max="8705" width="9.140625" style="15"/>
+    <col min="8706" max="8706" width="27.7109375" style="15" customWidth="1"/>
+    <col min="8707" max="8707" width="15.28515625" style="15" customWidth="1"/>
+    <col min="8708" max="8708" width="15.140625" style="15" customWidth="1"/>
+    <col min="8709" max="8709" width="17.85546875" style="15" customWidth="1"/>
+    <col min="8710" max="8710" width="19.85546875" style="15" customWidth="1"/>
+    <col min="8711" max="8711" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8712" max="8712" width="14.140625" style="15" customWidth="1"/>
+    <col min="8713" max="8713" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8714" max="8714" width="16.140625" style="15" customWidth="1"/>
+    <col min="8715" max="8715" width="26.42578125" style="15" customWidth="1"/>
+    <col min="8716" max="8961" width="9.140625" style="15"/>
+    <col min="8962" max="8962" width="27.7109375" style="15" customWidth="1"/>
+    <col min="8963" max="8963" width="15.28515625" style="15" customWidth="1"/>
+    <col min="8964" max="8964" width="15.140625" style="15" customWidth="1"/>
+    <col min="8965" max="8965" width="17.85546875" style="15" customWidth="1"/>
+    <col min="8966" max="8966" width="19.85546875" style="15" customWidth="1"/>
+    <col min="8967" max="8967" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8968" max="8968" width="14.140625" style="15" customWidth="1"/>
+    <col min="8969" max="8969" width="14.85546875" style="15" customWidth="1"/>
+    <col min="8970" max="8970" width="16.140625" style="15" customWidth="1"/>
+    <col min="8971" max="8971" width="26.42578125" style="15" customWidth="1"/>
+    <col min="8972" max="9217" width="9.140625" style="15"/>
+    <col min="9218" max="9218" width="27.7109375" style="15" customWidth="1"/>
+    <col min="9219" max="9219" width="15.28515625" style="15" customWidth="1"/>
+    <col min="9220" max="9220" width="15.140625" style="15" customWidth="1"/>
+    <col min="9221" max="9221" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9222" max="9222" width="19.85546875" style="15" customWidth="1"/>
+    <col min="9223" max="9223" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9224" max="9224" width="14.140625" style="15" customWidth="1"/>
+    <col min="9225" max="9225" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9226" max="9226" width="16.140625" style="15" customWidth="1"/>
+    <col min="9227" max="9227" width="26.42578125" style="15" customWidth="1"/>
+    <col min="9228" max="9473" width="9.140625" style="15"/>
+    <col min="9474" max="9474" width="27.7109375" style="15" customWidth="1"/>
+    <col min="9475" max="9475" width="15.28515625" style="15" customWidth="1"/>
+    <col min="9476" max="9476" width="15.140625" style="15" customWidth="1"/>
+    <col min="9477" max="9477" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9478" max="9478" width="19.85546875" style="15" customWidth="1"/>
+    <col min="9479" max="9479" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9480" max="9480" width="14.140625" style="15" customWidth="1"/>
+    <col min="9481" max="9481" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9482" max="9482" width="16.140625" style="15" customWidth="1"/>
+    <col min="9483" max="9483" width="26.42578125" style="15" customWidth="1"/>
+    <col min="9484" max="9729" width="9.140625" style="15"/>
+    <col min="9730" max="9730" width="27.7109375" style="15" customWidth="1"/>
+    <col min="9731" max="9731" width="15.28515625" style="15" customWidth="1"/>
+    <col min="9732" max="9732" width="15.140625" style="15" customWidth="1"/>
+    <col min="9733" max="9733" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9734" max="9734" width="19.85546875" style="15" customWidth="1"/>
+    <col min="9735" max="9735" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9736" max="9736" width="14.140625" style="15" customWidth="1"/>
+    <col min="9737" max="9737" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9738" max="9738" width="16.140625" style="15" customWidth="1"/>
+    <col min="9739" max="9739" width="26.42578125" style="15" customWidth="1"/>
+    <col min="9740" max="9985" width="9.140625" style="15"/>
+    <col min="9986" max="9986" width="27.7109375" style="15" customWidth="1"/>
+    <col min="9987" max="9987" width="15.28515625" style="15" customWidth="1"/>
+    <col min="9988" max="9988" width="15.140625" style="15" customWidth="1"/>
+    <col min="9989" max="9989" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9990" max="9990" width="19.85546875" style="15" customWidth="1"/>
+    <col min="9991" max="9991" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9992" max="9992" width="14.140625" style="15" customWidth="1"/>
+    <col min="9993" max="9993" width="14.85546875" style="15" customWidth="1"/>
+    <col min="9994" max="9994" width="16.140625" style="15" customWidth="1"/>
+    <col min="9995" max="9995" width="26.42578125" style="15" customWidth="1"/>
+    <col min="9996" max="10241" width="9.140625" style="15"/>
+    <col min="10242" max="10242" width="27.7109375" style="15" customWidth="1"/>
+    <col min="10243" max="10243" width="15.28515625" style="15" customWidth="1"/>
+    <col min="10244" max="10244" width="15.140625" style="15" customWidth="1"/>
+    <col min="10245" max="10245" width="17.85546875" style="15" customWidth="1"/>
+    <col min="10246" max="10246" width="19.85546875" style="15" customWidth="1"/>
+    <col min="10247" max="10247" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10248" max="10248" width="14.140625" style="15" customWidth="1"/>
+    <col min="10249" max="10249" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10250" max="10250" width="16.140625" style="15" customWidth="1"/>
+    <col min="10251" max="10251" width="26.42578125" style="15" customWidth="1"/>
+    <col min="10252" max="10497" width="9.140625" style="15"/>
+    <col min="10498" max="10498" width="27.7109375" style="15" customWidth="1"/>
+    <col min="10499" max="10499" width="15.28515625" style="15" customWidth="1"/>
+    <col min="10500" max="10500" width="15.140625" style="15" customWidth="1"/>
+    <col min="10501" max="10501" width="17.85546875" style="15" customWidth="1"/>
+    <col min="10502" max="10502" width="19.85546875" style="15" customWidth="1"/>
+    <col min="10503" max="10503" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10504" max="10504" width="14.140625" style="15" customWidth="1"/>
+    <col min="10505" max="10505" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10506" max="10506" width="16.140625" style="15" customWidth="1"/>
+    <col min="10507" max="10507" width="26.42578125" style="15" customWidth="1"/>
+    <col min="10508" max="10753" width="9.140625" style="15"/>
+    <col min="10754" max="10754" width="27.7109375" style="15" customWidth="1"/>
+    <col min="10755" max="10755" width="15.28515625" style="15" customWidth="1"/>
+    <col min="10756" max="10756" width="15.140625" style="15" customWidth="1"/>
+    <col min="10757" max="10757" width="17.85546875" style="15" customWidth="1"/>
+    <col min="10758" max="10758" width="19.85546875" style="15" customWidth="1"/>
+    <col min="10759" max="10759" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10760" max="10760" width="14.140625" style="15" customWidth="1"/>
+    <col min="10761" max="10761" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10762" max="10762" width="16.140625" style="15" customWidth="1"/>
+    <col min="10763" max="10763" width="26.42578125" style="15" customWidth="1"/>
+    <col min="10764" max="11009" width="9.140625" style="15"/>
+    <col min="11010" max="11010" width="27.7109375" style="15" customWidth="1"/>
+    <col min="11011" max="11011" width="15.28515625" style="15" customWidth="1"/>
+    <col min="11012" max="11012" width="15.140625" style="15" customWidth="1"/>
+    <col min="11013" max="11013" width="17.85546875" style="15" customWidth="1"/>
+    <col min="11014" max="11014" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11015" max="11015" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11016" max="11016" width="14.140625" style="15" customWidth="1"/>
+    <col min="11017" max="11017" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11018" max="11018" width="16.140625" style="15" customWidth="1"/>
+    <col min="11019" max="11019" width="26.42578125" style="15" customWidth="1"/>
+    <col min="11020" max="11265" width="9.140625" style="15"/>
+    <col min="11266" max="11266" width="27.7109375" style="15" customWidth="1"/>
+    <col min="11267" max="11267" width="15.28515625" style="15" customWidth="1"/>
+    <col min="11268" max="11268" width="15.140625" style="15" customWidth="1"/>
+    <col min="11269" max="11269" width="17.85546875" style="15" customWidth="1"/>
+    <col min="11270" max="11270" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11271" max="11271" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11272" max="11272" width="14.140625" style="15" customWidth="1"/>
+    <col min="11273" max="11273" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11274" max="11274" width="16.140625" style="15" customWidth="1"/>
+    <col min="11275" max="11275" width="26.42578125" style="15" customWidth="1"/>
+    <col min="11276" max="11521" width="9.140625" style="15"/>
+    <col min="11522" max="11522" width="27.7109375" style="15" customWidth="1"/>
+    <col min="11523" max="11523" width="15.28515625" style="15" customWidth="1"/>
+    <col min="11524" max="11524" width="15.140625" style="15" customWidth="1"/>
+    <col min="11525" max="11525" width="17.85546875" style="15" customWidth="1"/>
+    <col min="11526" max="11526" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11527" max="11527" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11528" max="11528" width="14.140625" style="15" customWidth="1"/>
+    <col min="11529" max="11529" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11530" max="11530" width="16.140625" style="15" customWidth="1"/>
+    <col min="11531" max="11531" width="26.42578125" style="15" customWidth="1"/>
+    <col min="11532" max="11777" width="9.140625" style="15"/>
+    <col min="11778" max="11778" width="27.7109375" style="15" customWidth="1"/>
+    <col min="11779" max="11779" width="15.28515625" style="15" customWidth="1"/>
+    <col min="11780" max="11780" width="15.140625" style="15" customWidth="1"/>
+    <col min="11781" max="11781" width="17.85546875" style="15" customWidth="1"/>
+    <col min="11782" max="11782" width="19.85546875" style="15" customWidth="1"/>
+    <col min="11783" max="11783" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11784" max="11784" width="14.140625" style="15" customWidth="1"/>
+    <col min="11785" max="11785" width="14.85546875" style="15" customWidth="1"/>
+    <col min="11786" max="11786" width="16.140625" style="15" customWidth="1"/>
+    <col min="11787" max="11787" width="26.42578125" style="15" customWidth="1"/>
+    <col min="11788" max="12033" width="9.140625" style="15"/>
+    <col min="12034" max="12034" width="27.7109375" style="15" customWidth="1"/>
+    <col min="12035" max="12035" width="15.28515625" style="15" customWidth="1"/>
+    <col min="12036" max="12036" width="15.140625" style="15" customWidth="1"/>
+    <col min="12037" max="12037" width="17.85546875" style="15" customWidth="1"/>
+    <col min="12038" max="12038" width="19.85546875" style="15" customWidth="1"/>
+    <col min="12039" max="12039" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12040" max="12040" width="14.140625" style="15" customWidth="1"/>
+    <col min="12041" max="12041" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12042" max="12042" width="16.140625" style="15" customWidth="1"/>
+    <col min="12043" max="12043" width="26.42578125" style="15" customWidth="1"/>
+    <col min="12044" max="12289" width="9.140625" style="15"/>
+    <col min="12290" max="12290" width="27.7109375" style="15" customWidth="1"/>
+    <col min="12291" max="12291" width="15.28515625" style="15" customWidth="1"/>
+    <col min="12292" max="12292" width="15.140625" style="15" customWidth="1"/>
+    <col min="12293" max="12293" width="17.85546875" style="15" customWidth="1"/>
+    <col min="12294" max="12294" width="19.85546875" style="15" customWidth="1"/>
+    <col min="12295" max="12295" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12296" max="12296" width="14.140625" style="15" customWidth="1"/>
+    <col min="12297" max="12297" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12298" max="12298" width="16.140625" style="15" customWidth="1"/>
+    <col min="12299" max="12299" width="26.42578125" style="15" customWidth="1"/>
+    <col min="12300" max="12545" width="9.140625" style="15"/>
+    <col min="12546" max="12546" width="27.7109375" style="15" customWidth="1"/>
+    <col min="12547" max="12547" width="15.28515625" style="15" customWidth="1"/>
+    <col min="12548" max="12548" width="15.140625" style="15" customWidth="1"/>
+    <col min="12549" max="12549" width="17.85546875" style="15" customWidth="1"/>
+    <col min="12550" max="12550" width="19.85546875" style="15" customWidth="1"/>
+    <col min="12551" max="12551" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12552" max="12552" width="14.140625" style="15" customWidth="1"/>
+    <col min="12553" max="12553" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12554" max="12554" width="16.140625" style="15" customWidth="1"/>
+    <col min="12555" max="12555" width="26.42578125" style="15" customWidth="1"/>
+    <col min="12556" max="12801" width="9.140625" style="15"/>
+    <col min="12802" max="12802" width="27.7109375" style="15" customWidth="1"/>
+    <col min="12803" max="12803" width="15.28515625" style="15" customWidth="1"/>
+    <col min="12804" max="12804" width="15.140625" style="15" customWidth="1"/>
+    <col min="12805" max="12805" width="17.85546875" style="15" customWidth="1"/>
+    <col min="12806" max="12806" width="19.85546875" style="15" customWidth="1"/>
+    <col min="12807" max="12807" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12808" max="12808" width="14.140625" style="15" customWidth="1"/>
+    <col min="12809" max="12809" width="14.85546875" style="15" customWidth="1"/>
+    <col min="12810" max="12810" width="16.140625" style="15" customWidth="1"/>
+    <col min="12811" max="12811" width="26.42578125" style="15" customWidth="1"/>
+    <col min="12812" max="13057" width="9.140625" style="15"/>
+    <col min="13058" max="13058" width="27.7109375" style="15" customWidth="1"/>
+    <col min="13059" max="13059" width="15.28515625" style="15" customWidth="1"/>
+    <col min="13060" max="13060" width="15.140625" style="15" customWidth="1"/>
+    <col min="13061" max="13061" width="17.85546875" style="15" customWidth="1"/>
+    <col min="13062" max="13062" width="19.85546875" style="15" customWidth="1"/>
+    <col min="13063" max="13063" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13064" max="13064" width="14.140625" style="15" customWidth="1"/>
+    <col min="13065" max="13065" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13066" max="13066" width="16.140625" style="15" customWidth="1"/>
+    <col min="13067" max="13067" width="26.42578125" style="15" customWidth="1"/>
+    <col min="13068" max="13313" width="9.140625" style="15"/>
+    <col min="13314" max="13314" width="27.7109375" style="15" customWidth="1"/>
+    <col min="13315" max="13315" width="15.28515625" style="15" customWidth="1"/>
+    <col min="13316" max="13316" width="15.140625" style="15" customWidth="1"/>
+    <col min="13317" max="13317" width="17.85546875" style="15" customWidth="1"/>
+    <col min="13318" max="13318" width="19.85546875" style="15" customWidth="1"/>
+    <col min="13319" max="13319" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13320" max="13320" width="14.140625" style="15" customWidth="1"/>
+    <col min="13321" max="13321" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13322" max="13322" width="16.140625" style="15" customWidth="1"/>
+    <col min="13323" max="13323" width="26.42578125" style="15" customWidth="1"/>
+    <col min="13324" max="13569" width="9.140625" style="15"/>
+    <col min="13570" max="13570" width="27.7109375" style="15" customWidth="1"/>
+    <col min="13571" max="13571" width="15.28515625" style="15" customWidth="1"/>
+    <col min="13572" max="13572" width="15.140625" style="15" customWidth="1"/>
+    <col min="13573" max="13573" width="17.85546875" style="15" customWidth="1"/>
+    <col min="13574" max="13574" width="19.85546875" style="15" customWidth="1"/>
+    <col min="13575" max="13575" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13576" max="13576" width="14.140625" style="15" customWidth="1"/>
+    <col min="13577" max="13577" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13578" max="13578" width="16.140625" style="15" customWidth="1"/>
+    <col min="13579" max="13579" width="26.42578125" style="15" customWidth="1"/>
+    <col min="13580" max="13825" width="9.140625" style="15"/>
+    <col min="13826" max="13826" width="27.7109375" style="15" customWidth="1"/>
+    <col min="13827" max="13827" width="15.28515625" style="15" customWidth="1"/>
+    <col min="13828" max="13828" width="15.140625" style="15" customWidth="1"/>
+    <col min="13829" max="13829" width="17.85546875" style="15" customWidth="1"/>
+    <col min="13830" max="13830" width="19.85546875" style="15" customWidth="1"/>
+    <col min="13831" max="13831" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13832" max="13832" width="14.140625" style="15" customWidth="1"/>
+    <col min="13833" max="13833" width="14.85546875" style="15" customWidth="1"/>
+    <col min="13834" max="13834" width="16.140625" style="15" customWidth="1"/>
+    <col min="13835" max="13835" width="26.42578125" style="15" customWidth="1"/>
+    <col min="13836" max="14081" width="9.140625" style="15"/>
+    <col min="14082" max="14082" width="27.7109375" style="15" customWidth="1"/>
+    <col min="14083" max="14083" width="15.28515625" style="15" customWidth="1"/>
+    <col min="14084" max="14084" width="15.140625" style="15" customWidth="1"/>
+    <col min="14085" max="14085" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14086" max="14086" width="19.85546875" style="15" customWidth="1"/>
+    <col min="14087" max="14087" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14088" max="14088" width="14.140625" style="15" customWidth="1"/>
+    <col min="14089" max="14089" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14090" max="14090" width="16.140625" style="15" customWidth="1"/>
+    <col min="14091" max="14091" width="26.42578125" style="15" customWidth="1"/>
+    <col min="14092" max="14337" width="9.140625" style="15"/>
+    <col min="14338" max="14338" width="27.7109375" style="15" customWidth="1"/>
+    <col min="14339" max="14339" width="15.28515625" style="15" customWidth="1"/>
+    <col min="14340" max="14340" width="15.140625" style="15" customWidth="1"/>
+    <col min="14341" max="14341" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14342" max="14342" width="19.85546875" style="15" customWidth="1"/>
+    <col min="14343" max="14343" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14344" max="14344" width="14.140625" style="15" customWidth="1"/>
+    <col min="14345" max="14345" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14346" max="14346" width="16.140625" style="15" customWidth="1"/>
+    <col min="14347" max="14347" width="26.42578125" style="15" customWidth="1"/>
+    <col min="14348" max="14593" width="9.140625" style="15"/>
+    <col min="14594" max="14594" width="27.7109375" style="15" customWidth="1"/>
+    <col min="14595" max="14595" width="15.28515625" style="15" customWidth="1"/>
+    <col min="14596" max="14596" width="15.140625" style="15" customWidth="1"/>
+    <col min="14597" max="14597" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14598" max="14598" width="19.85546875" style="15" customWidth="1"/>
+    <col min="14599" max="14599" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14600" max="14600" width="14.140625" style="15" customWidth="1"/>
+    <col min="14601" max="14601" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14602" max="14602" width="16.140625" style="15" customWidth="1"/>
+    <col min="14603" max="14603" width="26.42578125" style="15" customWidth="1"/>
+    <col min="14604" max="14849" width="9.140625" style="15"/>
+    <col min="14850" max="14850" width="27.7109375" style="15" customWidth="1"/>
+    <col min="14851" max="14851" width="15.28515625" style="15" customWidth="1"/>
+    <col min="14852" max="14852" width="15.140625" style="15" customWidth="1"/>
+    <col min="14853" max="14853" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14854" max="14854" width="19.85546875" style="15" customWidth="1"/>
+    <col min="14855" max="14855" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14856" max="14856" width="14.140625" style="15" customWidth="1"/>
+    <col min="14857" max="14857" width="14.85546875" style="15" customWidth="1"/>
+    <col min="14858" max="14858" width="16.140625" style="15" customWidth="1"/>
+    <col min="14859" max="14859" width="26.42578125" style="15" customWidth="1"/>
+    <col min="14860" max="15105" width="9.140625" style="15"/>
+    <col min="15106" max="15106" width="27.7109375" style="15" customWidth="1"/>
+    <col min="15107" max="15107" width="15.28515625" style="15" customWidth="1"/>
+    <col min="15108" max="15108" width="15.140625" style="15" customWidth="1"/>
+    <col min="15109" max="15109" width="17.85546875" style="15" customWidth="1"/>
+    <col min="15110" max="15110" width="19.85546875" style="15" customWidth="1"/>
+    <col min="15111" max="15111" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15112" max="15112" width="14.140625" style="15" customWidth="1"/>
+    <col min="15113" max="15113" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15114" max="15114" width="16.140625" style="15" customWidth="1"/>
+    <col min="15115" max="15115" width="26.42578125" style="15" customWidth="1"/>
+    <col min="15116" max="15361" width="9.140625" style="15"/>
+    <col min="15362" max="15362" width="27.7109375" style="15" customWidth="1"/>
+    <col min="15363" max="15363" width="15.28515625" style="15" customWidth="1"/>
+    <col min="15364" max="15364" width="15.140625" style="15" customWidth="1"/>
+    <col min="15365" max="15365" width="17.85546875" style="15" customWidth="1"/>
+    <col min="15366" max="15366" width="19.85546875" style="15" customWidth="1"/>
+    <col min="15367" max="15367" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15368" max="15368" width="14.140625" style="15" customWidth="1"/>
+    <col min="15369" max="15369" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15370" max="15370" width="16.140625" style="15" customWidth="1"/>
+    <col min="15371" max="15371" width="26.42578125" style="15" customWidth="1"/>
+    <col min="15372" max="15617" width="9.140625" style="15"/>
+    <col min="15618" max="15618" width="27.7109375" style="15" customWidth="1"/>
+    <col min="15619" max="15619" width="15.28515625" style="15" customWidth="1"/>
+    <col min="15620" max="15620" width="15.140625" style="15" customWidth="1"/>
+    <col min="15621" max="15621" width="17.85546875" style="15" customWidth="1"/>
+    <col min="15622" max="15622" width="19.85546875" style="15" customWidth="1"/>
+    <col min="15623" max="15623" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15624" max="15624" width="14.140625" style="15" customWidth="1"/>
+    <col min="15625" max="15625" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15626" max="15626" width="16.140625" style="15" customWidth="1"/>
+    <col min="15627" max="15627" width="26.42578125" style="15" customWidth="1"/>
+    <col min="15628" max="15873" width="9.140625" style="15"/>
+    <col min="15874" max="15874" width="27.7109375" style="15" customWidth="1"/>
+    <col min="15875" max="15875" width="15.28515625" style="15" customWidth="1"/>
+    <col min="15876" max="15876" width="15.140625" style="15" customWidth="1"/>
+    <col min="15877" max="15877" width="17.85546875" style="15" customWidth="1"/>
+    <col min="15878" max="15878" width="19.85546875" style="15" customWidth="1"/>
+    <col min="15879" max="15879" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15880" max="15880" width="14.140625" style="15" customWidth="1"/>
+    <col min="15881" max="15881" width="14.85546875" style="15" customWidth="1"/>
+    <col min="15882" max="15882" width="16.140625" style="15" customWidth="1"/>
+    <col min="15883" max="15883" width="26.42578125" style="15" customWidth="1"/>
+    <col min="15884" max="16129" width="9.140625" style="15"/>
+    <col min="16130" max="16130" width="27.7109375" style="15" customWidth="1"/>
+    <col min="16131" max="16131" width="15.28515625" style="15" customWidth="1"/>
+    <col min="16132" max="16132" width="15.140625" style="15" customWidth="1"/>
+    <col min="16133" max="16133" width="17.85546875" style="15" customWidth="1"/>
+    <col min="16134" max="16134" width="19.85546875" style="15" customWidth="1"/>
+    <col min="16135" max="16135" width="14.85546875" style="15" customWidth="1"/>
+    <col min="16136" max="16136" width="14.140625" style="15" customWidth="1"/>
+    <col min="16137" max="16137" width="14.85546875" style="15" customWidth="1"/>
+    <col min="16138" max="16138" width="16.140625" style="15" customWidth="1"/>
+    <col min="16139" max="16139" width="26.42578125" style="15" customWidth="1"/>
+    <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:12" s="87" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A3" s="81">
+        <v>1</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="83">
+        <v>41907</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="85"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82">
+        <v>9555382729</v>
+      </c>
+      <c r="H3" s="81">
+        <v>6000</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>505</v>
+      </c>
+      <c r="J3" s="81"/>
+      <c r="K3" s="85" t="s">
+        <v>491</v>
+      </c>
+      <c r="L3" s="86"/>
+    </row>
+    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A4" s="64">
+        <v>2</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="66">
+        <v>41924</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="69">
+        <v>9999405538</v>
+      </c>
+      <c r="H4" s="64">
+        <v>7000</v>
+      </c>
+      <c r="I4" s="64">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5">
+      <c r="J4" s="64"/>
+      <c r="K4" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="L4" s="70"/>
+    </row>
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="33">
+        <v>41947</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="36">
+        <v>9650182218</v>
+      </c>
+      <c r="H5" s="31">
+        <v>5500</v>
+      </c>
+      <c r="I5" s="31">
+        <v>5500</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="25">
+        <v>41947</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="28">
+        <v>9716027793</v>
+      </c>
+      <c r="H6" s="23">
+        <v>5500</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1500</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="33">
+        <v>41907</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="36">
+        <v>9891085793</v>
+      </c>
+      <c r="H7" s="31">
+        <v>4000</v>
+      </c>
+      <c r="I7" s="31">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7">
+      <c r="J7" s="31"/>
+      <c r="K7" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A8" s="31">
+        <v>6</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="33">
+        <v>41947</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="36">
+        <v>9350215064</v>
+      </c>
+      <c r="H8" s="40">
+        <v>9000</v>
+      </c>
+      <c r="I8" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A9" s="31">
+        <v>7</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="33">
+        <v>41952</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36">
+        <v>9136791828</v>
+      </c>
+      <c r="H9" s="31">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A10" s="31">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="33">
+        <v>41964</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36">
+        <v>8800556120</v>
+      </c>
+      <c r="H10" s="31">
+        <v>850</v>
+      </c>
+      <c r="I10" s="31">
+        <v>850</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
+      <c r="A11" s="31">
+        <v>9</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="33">
+        <v>41964</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="36">
+        <v>9958911395</v>
+      </c>
+      <c r="H11" s="31">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="31">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="33">
+        <v>41971</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
+      <c r="A12" s="23">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="25">
+        <v>41964</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="28">
+        <v>8527336673</v>
+      </c>
+      <c r="H12" s="23">
+        <v>7500</v>
+      </c>
+      <c r="I12" s="23">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="18">
+        <v>41947</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="17">
+        <v>8287222934</v>
+      </c>
+      <c r="H13" s="16">
+        <v>8000</v>
+      </c>
+      <c r="I13" s="16">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>372</v>
-      </c>
-      <c r="B18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>377</v>
-      </c>
-      <c r="B19">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>383</v>
-      </c>
-      <c r="B20">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>388</v>
-      </c>
-      <c r="B21">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>389</v>
-      </c>
-      <c r="B22">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B23">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>460</v>
-      </c>
-      <c r="B25">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>461</v>
-      </c>
-      <c r="B26">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>462</v>
-      </c>
-      <c r="B27">
-        <v>1100</v>
-      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A14" s="16">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="18">
+        <v>41947</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="17">
+        <v>7042060502</v>
+      </c>
+      <c r="H14" s="16">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="25">
+        <v>41983</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28">
+        <v>8287414627</v>
+      </c>
+      <c r="H15" s="23">
+        <v>4000</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="33">
+        <v>41980</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="31">
+        <v>4500</v>
+      </c>
+      <c r="I16" s="31">
+        <v>1500</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="33">
+        <v>41985</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="31">
+        <v>5800</v>
+      </c>
+      <c r="I17" s="31">
+        <v>5800</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A18" s="43">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="45">
+        <v>41987</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="43">
+        <v>4000</v>
+      </c>
+      <c r="I18" s="43">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="43"/>
+      <c r="K18" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A19" s="31">
+        <v>19</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="33">
+        <v>42020</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="31">
+        <v>3000</v>
+      </c>
+      <c r="I19" s="31">
+        <v>3000</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A20" s="48">
+        <v>20</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="H20" s="48">
+        <v>5000</v>
+      </c>
+      <c r="I20" s="48">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="48"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+    </row>
+    <row r="21" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A21" s="48">
+        <v>21</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>538</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="H21" s="48">
+        <v>3000</v>
+      </c>
+      <c r="I21" s="48">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="L21" s="51"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E18" r:id="rId1"/>
+    <hyperlink ref="E20" r:id="rId2"/>
+    <hyperlink ref="E21" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="27.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="9" customWidth="1"/>
-    <col min="13" max="257" width="9.140625" style="10"/>
-    <col min="258" max="258" width="27.7109375" style="10" customWidth="1"/>
-    <col min="259" max="259" width="15.28515625" style="10" customWidth="1"/>
-    <col min="260" max="260" width="15.140625" style="10" customWidth="1"/>
-    <col min="261" max="261" width="17.85546875" style="10" customWidth="1"/>
-    <col min="262" max="262" width="19.85546875" style="10" customWidth="1"/>
-    <col min="263" max="263" width="14.85546875" style="10" customWidth="1"/>
-    <col min="264" max="264" width="14.140625" style="10" customWidth="1"/>
-    <col min="265" max="265" width="14.85546875" style="10" customWidth="1"/>
-    <col min="266" max="266" width="16.140625" style="10" customWidth="1"/>
-    <col min="267" max="267" width="26.42578125" style="10" customWidth="1"/>
-    <col min="268" max="513" width="9.140625" style="10"/>
-    <col min="514" max="514" width="27.7109375" style="10" customWidth="1"/>
-    <col min="515" max="515" width="15.28515625" style="10" customWidth="1"/>
-    <col min="516" max="516" width="15.140625" style="10" customWidth="1"/>
-    <col min="517" max="517" width="17.85546875" style="10" customWidth="1"/>
-    <col min="518" max="518" width="19.85546875" style="10" customWidth="1"/>
-    <col min="519" max="519" width="14.85546875" style="10" customWidth="1"/>
-    <col min="520" max="520" width="14.140625" style="10" customWidth="1"/>
-    <col min="521" max="521" width="14.85546875" style="10" customWidth="1"/>
-    <col min="522" max="522" width="16.140625" style="10" customWidth="1"/>
-    <col min="523" max="523" width="26.42578125" style="10" customWidth="1"/>
-    <col min="524" max="769" width="9.140625" style="10"/>
-    <col min="770" max="770" width="27.7109375" style="10" customWidth="1"/>
-    <col min="771" max="771" width="15.28515625" style="10" customWidth="1"/>
-    <col min="772" max="772" width="15.140625" style="10" customWidth="1"/>
-    <col min="773" max="773" width="17.85546875" style="10" customWidth="1"/>
-    <col min="774" max="774" width="19.85546875" style="10" customWidth="1"/>
-    <col min="775" max="775" width="14.85546875" style="10" customWidth="1"/>
-    <col min="776" max="776" width="14.140625" style="10" customWidth="1"/>
-    <col min="777" max="777" width="14.85546875" style="10" customWidth="1"/>
-    <col min="778" max="778" width="16.140625" style="10" customWidth="1"/>
-    <col min="779" max="779" width="26.42578125" style="10" customWidth="1"/>
-    <col min="780" max="1025" width="9.140625" style="10"/>
-    <col min="1026" max="1026" width="27.7109375" style="10" customWidth="1"/>
-    <col min="1027" max="1027" width="15.28515625" style="10" customWidth="1"/>
-    <col min="1028" max="1028" width="15.140625" style="10" customWidth="1"/>
-    <col min="1029" max="1029" width="17.85546875" style="10" customWidth="1"/>
-    <col min="1030" max="1030" width="19.85546875" style="10" customWidth="1"/>
-    <col min="1031" max="1031" width="14.85546875" style="10" customWidth="1"/>
-    <col min="1032" max="1032" width="14.140625" style="10" customWidth="1"/>
-    <col min="1033" max="1033" width="14.85546875" style="10" customWidth="1"/>
-    <col min="1034" max="1034" width="16.140625" style="10" customWidth="1"/>
-    <col min="1035" max="1035" width="26.42578125" style="10" customWidth="1"/>
-    <col min="1036" max="1281" width="9.140625" style="10"/>
-    <col min="1282" max="1282" width="27.7109375" style="10" customWidth="1"/>
-    <col min="1283" max="1283" width="15.28515625" style="10" customWidth="1"/>
-    <col min="1284" max="1284" width="15.140625" style="10" customWidth="1"/>
-    <col min="1285" max="1285" width="17.85546875" style="10" customWidth="1"/>
-    <col min="1286" max="1286" width="19.85546875" style="10" customWidth="1"/>
-    <col min="1287" max="1287" width="14.85546875" style="10" customWidth="1"/>
-    <col min="1288" max="1288" width="14.140625" style="10" customWidth="1"/>
-    <col min="1289" max="1289" width="14.85546875" style="10" customWidth="1"/>
-    <col min="1290" max="1290" width="16.140625" style="10" customWidth="1"/>
-    <col min="1291" max="1291" width="26.42578125" style="10" customWidth="1"/>
-    <col min="1292" max="1537" width="9.140625" style="10"/>
-    <col min="1538" max="1538" width="27.7109375" style="10" customWidth="1"/>
-    <col min="1539" max="1539" width="15.28515625" style="10" customWidth="1"/>
-    <col min="1540" max="1540" width="15.140625" style="10" customWidth="1"/>
-    <col min="1541" max="1541" width="17.85546875" style="10" customWidth="1"/>
-    <col min="1542" max="1542" width="19.85546875" style="10" customWidth="1"/>
-    <col min="1543" max="1543" width="14.85546875" style="10" customWidth="1"/>
-    <col min="1544" max="1544" width="14.140625" style="10" customWidth="1"/>
-    <col min="1545" max="1545" width="14.85546875" style="10" customWidth="1"/>
-    <col min="1546" max="1546" width="16.140625" style="10" customWidth="1"/>
-    <col min="1547" max="1547" width="26.42578125" style="10" customWidth="1"/>
-    <col min="1548" max="1793" width="9.140625" style="10"/>
-    <col min="1794" max="1794" width="27.7109375" style="10" customWidth="1"/>
-    <col min="1795" max="1795" width="15.28515625" style="10" customWidth="1"/>
-    <col min="1796" max="1796" width="15.140625" style="10" customWidth="1"/>
-    <col min="1797" max="1797" width="17.85546875" style="10" customWidth="1"/>
-    <col min="1798" max="1798" width="19.85546875" style="10" customWidth="1"/>
-    <col min="1799" max="1799" width="14.85546875" style="10" customWidth="1"/>
-    <col min="1800" max="1800" width="14.140625" style="10" customWidth="1"/>
-    <col min="1801" max="1801" width="14.85546875" style="10" customWidth="1"/>
-    <col min="1802" max="1802" width="16.140625" style="10" customWidth="1"/>
-    <col min="1803" max="1803" width="26.42578125" style="10" customWidth="1"/>
-    <col min="1804" max="2049" width="9.140625" style="10"/>
-    <col min="2050" max="2050" width="27.7109375" style="10" customWidth="1"/>
-    <col min="2051" max="2051" width="15.28515625" style="10" customWidth="1"/>
-    <col min="2052" max="2052" width="15.140625" style="10" customWidth="1"/>
-    <col min="2053" max="2053" width="17.85546875" style="10" customWidth="1"/>
-    <col min="2054" max="2054" width="19.85546875" style="10" customWidth="1"/>
-    <col min="2055" max="2055" width="14.85546875" style="10" customWidth="1"/>
-    <col min="2056" max="2056" width="14.140625" style="10" customWidth="1"/>
-    <col min="2057" max="2057" width="14.85546875" style="10" customWidth="1"/>
-    <col min="2058" max="2058" width="16.140625" style="10" customWidth="1"/>
-    <col min="2059" max="2059" width="26.42578125" style="10" customWidth="1"/>
-    <col min="2060" max="2305" width="9.140625" style="10"/>
-    <col min="2306" max="2306" width="27.7109375" style="10" customWidth="1"/>
-    <col min="2307" max="2307" width="15.28515625" style="10" customWidth="1"/>
-    <col min="2308" max="2308" width="15.140625" style="10" customWidth="1"/>
-    <col min="2309" max="2309" width="17.85546875" style="10" customWidth="1"/>
-    <col min="2310" max="2310" width="19.85546875" style="10" customWidth="1"/>
-    <col min="2311" max="2311" width="14.85546875" style="10" customWidth="1"/>
-    <col min="2312" max="2312" width="14.140625" style="10" customWidth="1"/>
-    <col min="2313" max="2313" width="14.85546875" style="10" customWidth="1"/>
-    <col min="2314" max="2314" width="16.140625" style="10" customWidth="1"/>
-    <col min="2315" max="2315" width="26.42578125" style="10" customWidth="1"/>
-    <col min="2316" max="2561" width="9.140625" style="10"/>
-    <col min="2562" max="2562" width="27.7109375" style="10" customWidth="1"/>
-    <col min="2563" max="2563" width="15.28515625" style="10" customWidth="1"/>
-    <col min="2564" max="2564" width="15.140625" style="10" customWidth="1"/>
-    <col min="2565" max="2565" width="17.85546875" style="10" customWidth="1"/>
-    <col min="2566" max="2566" width="19.85546875" style="10" customWidth="1"/>
-    <col min="2567" max="2567" width="14.85546875" style="10" customWidth="1"/>
-    <col min="2568" max="2568" width="14.140625" style="10" customWidth="1"/>
-    <col min="2569" max="2569" width="14.85546875" style="10" customWidth="1"/>
-    <col min="2570" max="2570" width="16.140625" style="10" customWidth="1"/>
-    <col min="2571" max="2571" width="26.42578125" style="10" customWidth="1"/>
-    <col min="2572" max="2817" width="9.140625" style="10"/>
-    <col min="2818" max="2818" width="27.7109375" style="10" customWidth="1"/>
-    <col min="2819" max="2819" width="15.28515625" style="10" customWidth="1"/>
-    <col min="2820" max="2820" width="15.140625" style="10" customWidth="1"/>
-    <col min="2821" max="2821" width="17.85546875" style="10" customWidth="1"/>
-    <col min="2822" max="2822" width="19.85546875" style="10" customWidth="1"/>
-    <col min="2823" max="2823" width="14.85546875" style="10" customWidth="1"/>
-    <col min="2824" max="2824" width="14.140625" style="10" customWidth="1"/>
-    <col min="2825" max="2825" width="14.85546875" style="10" customWidth="1"/>
-    <col min="2826" max="2826" width="16.140625" style="10" customWidth="1"/>
-    <col min="2827" max="2827" width="26.42578125" style="10" customWidth="1"/>
-    <col min="2828" max="3073" width="9.140625" style="10"/>
-    <col min="3074" max="3074" width="27.7109375" style="10" customWidth="1"/>
-    <col min="3075" max="3075" width="15.28515625" style="10" customWidth="1"/>
-    <col min="3076" max="3076" width="15.140625" style="10" customWidth="1"/>
-    <col min="3077" max="3077" width="17.85546875" style="10" customWidth="1"/>
-    <col min="3078" max="3078" width="19.85546875" style="10" customWidth="1"/>
-    <col min="3079" max="3079" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3080" max="3080" width="14.140625" style="10" customWidth="1"/>
-    <col min="3081" max="3081" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3082" max="3082" width="16.140625" style="10" customWidth="1"/>
-    <col min="3083" max="3083" width="26.42578125" style="10" customWidth="1"/>
-    <col min="3084" max="3329" width="9.140625" style="10"/>
-    <col min="3330" max="3330" width="27.7109375" style="10" customWidth="1"/>
-    <col min="3331" max="3331" width="15.28515625" style="10" customWidth="1"/>
-    <col min="3332" max="3332" width="15.140625" style="10" customWidth="1"/>
-    <col min="3333" max="3333" width="17.85546875" style="10" customWidth="1"/>
-    <col min="3334" max="3334" width="19.85546875" style="10" customWidth="1"/>
-    <col min="3335" max="3335" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3336" max="3336" width="14.140625" style="10" customWidth="1"/>
-    <col min="3337" max="3337" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3338" max="3338" width="16.140625" style="10" customWidth="1"/>
-    <col min="3339" max="3339" width="26.42578125" style="10" customWidth="1"/>
-    <col min="3340" max="3585" width="9.140625" style="10"/>
-    <col min="3586" max="3586" width="27.7109375" style="10" customWidth="1"/>
-    <col min="3587" max="3587" width="15.28515625" style="10" customWidth="1"/>
-    <col min="3588" max="3588" width="15.140625" style="10" customWidth="1"/>
-    <col min="3589" max="3589" width="17.85546875" style="10" customWidth="1"/>
-    <col min="3590" max="3590" width="19.85546875" style="10" customWidth="1"/>
-    <col min="3591" max="3591" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3592" max="3592" width="14.140625" style="10" customWidth="1"/>
-    <col min="3593" max="3593" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3594" max="3594" width="16.140625" style="10" customWidth="1"/>
-    <col min="3595" max="3595" width="26.42578125" style="10" customWidth="1"/>
-    <col min="3596" max="3841" width="9.140625" style="10"/>
-    <col min="3842" max="3842" width="27.7109375" style="10" customWidth="1"/>
-    <col min="3843" max="3843" width="15.28515625" style="10" customWidth="1"/>
-    <col min="3844" max="3844" width="15.140625" style="10" customWidth="1"/>
-    <col min="3845" max="3845" width="17.85546875" style="10" customWidth="1"/>
-    <col min="3846" max="3846" width="19.85546875" style="10" customWidth="1"/>
-    <col min="3847" max="3847" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3848" max="3848" width="14.140625" style="10" customWidth="1"/>
-    <col min="3849" max="3849" width="14.85546875" style="10" customWidth="1"/>
-    <col min="3850" max="3850" width="16.140625" style="10" customWidth="1"/>
-    <col min="3851" max="3851" width="26.42578125" style="10" customWidth="1"/>
-    <col min="3852" max="4097" width="9.140625" style="10"/>
-    <col min="4098" max="4098" width="27.7109375" style="10" customWidth="1"/>
-    <col min="4099" max="4099" width="15.28515625" style="10" customWidth="1"/>
-    <col min="4100" max="4100" width="15.140625" style="10" customWidth="1"/>
-    <col min="4101" max="4101" width="17.85546875" style="10" customWidth="1"/>
-    <col min="4102" max="4102" width="19.85546875" style="10" customWidth="1"/>
-    <col min="4103" max="4103" width="14.85546875" style="10" customWidth="1"/>
-    <col min="4104" max="4104" width="14.140625" style="10" customWidth="1"/>
-    <col min="4105" max="4105" width="14.85546875" style="10" customWidth="1"/>
-    <col min="4106" max="4106" width="16.140625" style="10" customWidth="1"/>
-    <col min="4107" max="4107" width="26.42578125" style="10" customWidth="1"/>
-    <col min="4108" max="4353" width="9.140625" style="10"/>
-    <col min="4354" max="4354" width="27.7109375" style="10" customWidth="1"/>
-    <col min="4355" max="4355" width="15.28515625" style="10" customWidth="1"/>
-    <col min="4356" max="4356" width="15.140625" style="10" customWidth="1"/>
-    <col min="4357" max="4357" width="17.85546875" style="10" customWidth="1"/>
-    <col min="4358" max="4358" width="19.85546875" style="10" customWidth="1"/>
-    <col min="4359" max="4359" width="14.85546875" style="10" customWidth="1"/>
-    <col min="4360" max="4360" width="14.140625" style="10" customWidth="1"/>
-    <col min="4361" max="4361" width="14.85546875" style="10" customWidth="1"/>
-    <col min="4362" max="4362" width="16.140625" style="10" customWidth="1"/>
-    <col min="4363" max="4363" width="26.42578125" style="10" customWidth="1"/>
-    <col min="4364" max="4609" width="9.140625" style="10"/>
-    <col min="4610" max="4610" width="27.7109375" style="10" customWidth="1"/>
-    <col min="4611" max="4611" width="15.28515625" style="10" customWidth="1"/>
-    <col min="4612" max="4612" width="15.140625" style="10" customWidth="1"/>
-    <col min="4613" max="4613" width="17.85546875" style="10" customWidth="1"/>
-    <col min="4614" max="4614" width="19.85546875" style="10" customWidth="1"/>
-    <col min="4615" max="4615" width="14.85546875" style="10" customWidth="1"/>
-    <col min="4616" max="4616" width="14.140625" style="10" customWidth="1"/>
-    <col min="4617" max="4617" width="14.85546875" style="10" customWidth="1"/>
-    <col min="4618" max="4618" width="16.140625" style="10" customWidth="1"/>
-    <col min="4619" max="4619" width="26.42578125" style="10" customWidth="1"/>
-    <col min="4620" max="4865" width="9.140625" style="10"/>
-    <col min="4866" max="4866" width="27.7109375" style="10" customWidth="1"/>
-    <col min="4867" max="4867" width="15.28515625" style="10" customWidth="1"/>
-    <col min="4868" max="4868" width="15.140625" style="10" customWidth="1"/>
-    <col min="4869" max="4869" width="17.85546875" style="10" customWidth="1"/>
-    <col min="4870" max="4870" width="19.85546875" style="10" customWidth="1"/>
-    <col min="4871" max="4871" width="14.85546875" style="10" customWidth="1"/>
-    <col min="4872" max="4872" width="14.140625" style="10" customWidth="1"/>
-    <col min="4873" max="4873" width="14.85546875" style="10" customWidth="1"/>
-    <col min="4874" max="4874" width="16.140625" style="10" customWidth="1"/>
-    <col min="4875" max="4875" width="26.42578125" style="10" customWidth="1"/>
-    <col min="4876" max="5121" width="9.140625" style="10"/>
-    <col min="5122" max="5122" width="27.7109375" style="10" customWidth="1"/>
-    <col min="5123" max="5123" width="15.28515625" style="10" customWidth="1"/>
-    <col min="5124" max="5124" width="15.140625" style="10" customWidth="1"/>
-    <col min="5125" max="5125" width="17.85546875" style="10" customWidth="1"/>
-    <col min="5126" max="5126" width="19.85546875" style="10" customWidth="1"/>
-    <col min="5127" max="5127" width="14.85546875" style="10" customWidth="1"/>
-    <col min="5128" max="5128" width="14.140625" style="10" customWidth="1"/>
-    <col min="5129" max="5129" width="14.85546875" style="10" customWidth="1"/>
-    <col min="5130" max="5130" width="16.140625" style="10" customWidth="1"/>
-    <col min="5131" max="5131" width="26.42578125" style="10" customWidth="1"/>
-    <col min="5132" max="5377" width="9.140625" style="10"/>
-    <col min="5378" max="5378" width="27.7109375" style="10" customWidth="1"/>
-    <col min="5379" max="5379" width="15.28515625" style="10" customWidth="1"/>
-    <col min="5380" max="5380" width="15.140625" style="10" customWidth="1"/>
-    <col min="5381" max="5381" width="17.85546875" style="10" customWidth="1"/>
-    <col min="5382" max="5382" width="19.85546875" style="10" customWidth="1"/>
-    <col min="5383" max="5383" width="14.85546875" style="10" customWidth="1"/>
-    <col min="5384" max="5384" width="14.140625" style="10" customWidth="1"/>
-    <col min="5385" max="5385" width="14.85546875" style="10" customWidth="1"/>
-    <col min="5386" max="5386" width="16.140625" style="10" customWidth="1"/>
-    <col min="5387" max="5387" width="26.42578125" style="10" customWidth="1"/>
-    <col min="5388" max="5633" width="9.140625" style="10"/>
-    <col min="5634" max="5634" width="27.7109375" style="10" customWidth="1"/>
-    <col min="5635" max="5635" width="15.28515625" style="10" customWidth="1"/>
-    <col min="5636" max="5636" width="15.140625" style="10" customWidth="1"/>
-    <col min="5637" max="5637" width="17.85546875" style="10" customWidth="1"/>
-    <col min="5638" max="5638" width="19.85546875" style="10" customWidth="1"/>
-    <col min="5639" max="5639" width="14.85546875" style="10" customWidth="1"/>
-    <col min="5640" max="5640" width="14.140625" style="10" customWidth="1"/>
-    <col min="5641" max="5641" width="14.85546875" style="10" customWidth="1"/>
-    <col min="5642" max="5642" width="16.140625" style="10" customWidth="1"/>
-    <col min="5643" max="5643" width="26.42578125" style="10" customWidth="1"/>
-    <col min="5644" max="5889" width="9.140625" style="10"/>
-    <col min="5890" max="5890" width="27.7109375" style="10" customWidth="1"/>
-    <col min="5891" max="5891" width="15.28515625" style="10" customWidth="1"/>
-    <col min="5892" max="5892" width="15.140625" style="10" customWidth="1"/>
-    <col min="5893" max="5893" width="17.85546875" style="10" customWidth="1"/>
-    <col min="5894" max="5894" width="19.85546875" style="10" customWidth="1"/>
-    <col min="5895" max="5895" width="14.85546875" style="10" customWidth="1"/>
-    <col min="5896" max="5896" width="14.140625" style="10" customWidth="1"/>
-    <col min="5897" max="5897" width="14.85546875" style="10" customWidth="1"/>
-    <col min="5898" max="5898" width="16.140625" style="10" customWidth="1"/>
-    <col min="5899" max="5899" width="26.42578125" style="10" customWidth="1"/>
-    <col min="5900" max="6145" width="9.140625" style="10"/>
-    <col min="6146" max="6146" width="27.7109375" style="10" customWidth="1"/>
-    <col min="6147" max="6147" width="15.28515625" style="10" customWidth="1"/>
-    <col min="6148" max="6148" width="15.140625" style="10" customWidth="1"/>
-    <col min="6149" max="6149" width="17.85546875" style="10" customWidth="1"/>
-    <col min="6150" max="6150" width="19.85546875" style="10" customWidth="1"/>
-    <col min="6151" max="6151" width="14.85546875" style="10" customWidth="1"/>
-    <col min="6152" max="6152" width="14.140625" style="10" customWidth="1"/>
-    <col min="6153" max="6153" width="14.85546875" style="10" customWidth="1"/>
-    <col min="6154" max="6154" width="16.140625" style="10" customWidth="1"/>
-    <col min="6155" max="6155" width="26.42578125" style="10" customWidth="1"/>
-    <col min="6156" max="6401" width="9.140625" style="10"/>
-    <col min="6402" max="6402" width="27.7109375" style="10" customWidth="1"/>
-    <col min="6403" max="6403" width="15.28515625" style="10" customWidth="1"/>
-    <col min="6404" max="6404" width="15.140625" style="10" customWidth="1"/>
-    <col min="6405" max="6405" width="17.85546875" style="10" customWidth="1"/>
-    <col min="6406" max="6406" width="19.85546875" style="10" customWidth="1"/>
-    <col min="6407" max="6407" width="14.85546875" style="10" customWidth="1"/>
-    <col min="6408" max="6408" width="14.140625" style="10" customWidth="1"/>
-    <col min="6409" max="6409" width="14.85546875" style="10" customWidth="1"/>
-    <col min="6410" max="6410" width="16.140625" style="10" customWidth="1"/>
-    <col min="6411" max="6411" width="26.42578125" style="10" customWidth="1"/>
-    <col min="6412" max="6657" width="9.140625" style="10"/>
-    <col min="6658" max="6658" width="27.7109375" style="10" customWidth="1"/>
-    <col min="6659" max="6659" width="15.28515625" style="10" customWidth="1"/>
-    <col min="6660" max="6660" width="15.140625" style="10" customWidth="1"/>
-    <col min="6661" max="6661" width="17.85546875" style="10" customWidth="1"/>
-    <col min="6662" max="6662" width="19.85546875" style="10" customWidth="1"/>
-    <col min="6663" max="6663" width="14.85546875" style="10" customWidth="1"/>
-    <col min="6664" max="6664" width="14.140625" style="10" customWidth="1"/>
-    <col min="6665" max="6665" width="14.85546875" style="10" customWidth="1"/>
-    <col min="6666" max="6666" width="16.140625" style="10" customWidth="1"/>
-    <col min="6667" max="6667" width="26.42578125" style="10" customWidth="1"/>
-    <col min="6668" max="6913" width="9.140625" style="10"/>
-    <col min="6914" max="6914" width="27.7109375" style="10" customWidth="1"/>
-    <col min="6915" max="6915" width="15.28515625" style="10" customWidth="1"/>
-    <col min="6916" max="6916" width="15.140625" style="10" customWidth="1"/>
-    <col min="6917" max="6917" width="17.85546875" style="10" customWidth="1"/>
-    <col min="6918" max="6918" width="19.85546875" style="10" customWidth="1"/>
-    <col min="6919" max="6919" width="14.85546875" style="10" customWidth="1"/>
-    <col min="6920" max="6920" width="14.140625" style="10" customWidth="1"/>
-    <col min="6921" max="6921" width="14.85546875" style="10" customWidth="1"/>
-    <col min="6922" max="6922" width="16.140625" style="10" customWidth="1"/>
-    <col min="6923" max="6923" width="26.42578125" style="10" customWidth="1"/>
-    <col min="6924" max="7169" width="9.140625" style="10"/>
-    <col min="7170" max="7170" width="27.7109375" style="10" customWidth="1"/>
-    <col min="7171" max="7171" width="15.28515625" style="10" customWidth="1"/>
-    <col min="7172" max="7172" width="15.140625" style="10" customWidth="1"/>
-    <col min="7173" max="7173" width="17.85546875" style="10" customWidth="1"/>
-    <col min="7174" max="7174" width="19.85546875" style="10" customWidth="1"/>
-    <col min="7175" max="7175" width="14.85546875" style="10" customWidth="1"/>
-    <col min="7176" max="7176" width="14.140625" style="10" customWidth="1"/>
-    <col min="7177" max="7177" width="14.85546875" style="10" customWidth="1"/>
-    <col min="7178" max="7178" width="16.140625" style="10" customWidth="1"/>
-    <col min="7179" max="7179" width="26.42578125" style="10" customWidth="1"/>
-    <col min="7180" max="7425" width="9.140625" style="10"/>
-    <col min="7426" max="7426" width="27.7109375" style="10" customWidth="1"/>
-    <col min="7427" max="7427" width="15.28515625" style="10" customWidth="1"/>
-    <col min="7428" max="7428" width="15.140625" style="10" customWidth="1"/>
-    <col min="7429" max="7429" width="17.85546875" style="10" customWidth="1"/>
-    <col min="7430" max="7430" width="19.85546875" style="10" customWidth="1"/>
-    <col min="7431" max="7431" width="14.85546875" style="10" customWidth="1"/>
-    <col min="7432" max="7432" width="14.140625" style="10" customWidth="1"/>
-    <col min="7433" max="7433" width="14.85546875" style="10" customWidth="1"/>
-    <col min="7434" max="7434" width="16.140625" style="10" customWidth="1"/>
-    <col min="7435" max="7435" width="26.42578125" style="10" customWidth="1"/>
-    <col min="7436" max="7681" width="9.140625" style="10"/>
-    <col min="7682" max="7682" width="27.7109375" style="10" customWidth="1"/>
-    <col min="7683" max="7683" width="15.28515625" style="10" customWidth="1"/>
-    <col min="7684" max="7684" width="15.140625" style="10" customWidth="1"/>
-    <col min="7685" max="7685" width="17.85546875" style="10" customWidth="1"/>
-    <col min="7686" max="7686" width="19.85546875" style="10" customWidth="1"/>
-    <col min="7687" max="7687" width="14.85546875" style="10" customWidth="1"/>
-    <col min="7688" max="7688" width="14.140625" style="10" customWidth="1"/>
-    <col min="7689" max="7689" width="14.85546875" style="10" customWidth="1"/>
-    <col min="7690" max="7690" width="16.140625" style="10" customWidth="1"/>
-    <col min="7691" max="7691" width="26.42578125" style="10" customWidth="1"/>
-    <col min="7692" max="7937" width="9.140625" style="10"/>
-    <col min="7938" max="7938" width="27.7109375" style="10" customWidth="1"/>
-    <col min="7939" max="7939" width="15.28515625" style="10" customWidth="1"/>
-    <col min="7940" max="7940" width="15.140625" style="10" customWidth="1"/>
-    <col min="7941" max="7941" width="17.85546875" style="10" customWidth="1"/>
-    <col min="7942" max="7942" width="19.85546875" style="10" customWidth="1"/>
-    <col min="7943" max="7943" width="14.85546875" style="10" customWidth="1"/>
-    <col min="7944" max="7944" width="14.140625" style="10" customWidth="1"/>
-    <col min="7945" max="7945" width="14.85546875" style="10" customWidth="1"/>
-    <col min="7946" max="7946" width="16.140625" style="10" customWidth="1"/>
-    <col min="7947" max="7947" width="26.42578125" style="10" customWidth="1"/>
-    <col min="7948" max="8193" width="9.140625" style="10"/>
-    <col min="8194" max="8194" width="27.7109375" style="10" customWidth="1"/>
-    <col min="8195" max="8195" width="15.28515625" style="10" customWidth="1"/>
-    <col min="8196" max="8196" width="15.140625" style="10" customWidth="1"/>
-    <col min="8197" max="8197" width="17.85546875" style="10" customWidth="1"/>
-    <col min="8198" max="8198" width="19.85546875" style="10" customWidth="1"/>
-    <col min="8199" max="8199" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8200" max="8200" width="14.140625" style="10" customWidth="1"/>
-    <col min="8201" max="8201" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8202" max="8202" width="16.140625" style="10" customWidth="1"/>
-    <col min="8203" max="8203" width="26.42578125" style="10" customWidth="1"/>
-    <col min="8204" max="8449" width="9.140625" style="10"/>
-    <col min="8450" max="8450" width="27.7109375" style="10" customWidth="1"/>
-    <col min="8451" max="8451" width="15.28515625" style="10" customWidth="1"/>
-    <col min="8452" max="8452" width="15.140625" style="10" customWidth="1"/>
-    <col min="8453" max="8453" width="17.85546875" style="10" customWidth="1"/>
-    <col min="8454" max="8454" width="19.85546875" style="10" customWidth="1"/>
-    <col min="8455" max="8455" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8456" max="8456" width="14.140625" style="10" customWidth="1"/>
-    <col min="8457" max="8457" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8458" max="8458" width="16.140625" style="10" customWidth="1"/>
-    <col min="8459" max="8459" width="26.42578125" style="10" customWidth="1"/>
-    <col min="8460" max="8705" width="9.140625" style="10"/>
-    <col min="8706" max="8706" width="27.7109375" style="10" customWidth="1"/>
-    <col min="8707" max="8707" width="15.28515625" style="10" customWidth="1"/>
-    <col min="8708" max="8708" width="15.140625" style="10" customWidth="1"/>
-    <col min="8709" max="8709" width="17.85546875" style="10" customWidth="1"/>
-    <col min="8710" max="8710" width="19.85546875" style="10" customWidth="1"/>
-    <col min="8711" max="8711" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8712" max="8712" width="14.140625" style="10" customWidth="1"/>
-    <col min="8713" max="8713" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8714" max="8714" width="16.140625" style="10" customWidth="1"/>
-    <col min="8715" max="8715" width="26.42578125" style="10" customWidth="1"/>
-    <col min="8716" max="8961" width="9.140625" style="10"/>
-    <col min="8962" max="8962" width="27.7109375" style="10" customWidth="1"/>
-    <col min="8963" max="8963" width="15.28515625" style="10" customWidth="1"/>
-    <col min="8964" max="8964" width="15.140625" style="10" customWidth="1"/>
-    <col min="8965" max="8965" width="17.85546875" style="10" customWidth="1"/>
-    <col min="8966" max="8966" width="19.85546875" style="10" customWidth="1"/>
-    <col min="8967" max="8967" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8968" max="8968" width="14.140625" style="10" customWidth="1"/>
-    <col min="8969" max="8969" width="14.85546875" style="10" customWidth="1"/>
-    <col min="8970" max="8970" width="16.140625" style="10" customWidth="1"/>
-    <col min="8971" max="8971" width="26.42578125" style="10" customWidth="1"/>
-    <col min="8972" max="9217" width="9.140625" style="10"/>
-    <col min="9218" max="9218" width="27.7109375" style="10" customWidth="1"/>
-    <col min="9219" max="9219" width="15.28515625" style="10" customWidth="1"/>
-    <col min="9220" max="9220" width="15.140625" style="10" customWidth="1"/>
-    <col min="9221" max="9221" width="17.85546875" style="10" customWidth="1"/>
-    <col min="9222" max="9222" width="19.85546875" style="10" customWidth="1"/>
-    <col min="9223" max="9223" width="14.85546875" style="10" customWidth="1"/>
-    <col min="9224" max="9224" width="14.140625" style="10" customWidth="1"/>
-    <col min="9225" max="9225" width="14.85546875" style="10" customWidth="1"/>
-    <col min="9226" max="9226" width="16.140625" style="10" customWidth="1"/>
-    <col min="9227" max="9227" width="26.42578125" style="10" customWidth="1"/>
-    <col min="9228" max="9473" width="9.140625" style="10"/>
-    <col min="9474" max="9474" width="27.7109375" style="10" customWidth="1"/>
-    <col min="9475" max="9475" width="15.28515625" style="10" customWidth="1"/>
-    <col min="9476" max="9476" width="15.140625" style="10" customWidth="1"/>
-    <col min="9477" max="9477" width="17.85546875" style="10" customWidth="1"/>
-    <col min="9478" max="9478" width="19.85546875" style="10" customWidth="1"/>
-    <col min="9479" max="9479" width="14.85546875" style="10" customWidth="1"/>
-    <col min="9480" max="9480" width="14.140625" style="10" customWidth="1"/>
-    <col min="9481" max="9481" width="14.85546875" style="10" customWidth="1"/>
-    <col min="9482" max="9482" width="16.140625" style="10" customWidth="1"/>
-    <col min="9483" max="9483" width="26.42578125" style="10" customWidth="1"/>
-    <col min="9484" max="9729" width="9.140625" style="10"/>
-    <col min="9730" max="9730" width="27.7109375" style="10" customWidth="1"/>
-    <col min="9731" max="9731" width="15.28515625" style="10" customWidth="1"/>
-    <col min="9732" max="9732" width="15.140625" style="10" customWidth="1"/>
-    <col min="9733" max="9733" width="17.85546875" style="10" customWidth="1"/>
-    <col min="9734" max="9734" width="19.85546875" style="10" customWidth="1"/>
-    <col min="9735" max="9735" width="14.85546875" style="10" customWidth="1"/>
-    <col min="9736" max="9736" width="14.140625" style="10" customWidth="1"/>
-    <col min="9737" max="9737" width="14.85546875" style="10" customWidth="1"/>
-    <col min="9738" max="9738" width="16.140625" style="10" customWidth="1"/>
-    <col min="9739" max="9739" width="26.42578125" style="10" customWidth="1"/>
-    <col min="9740" max="9985" width="9.140625" style="10"/>
-    <col min="9986" max="9986" width="27.7109375" style="10" customWidth="1"/>
-    <col min="9987" max="9987" width="15.28515625" style="10" customWidth="1"/>
-    <col min="9988" max="9988" width="15.140625" style="10" customWidth="1"/>
-    <col min="9989" max="9989" width="17.85546875" style="10" customWidth="1"/>
-    <col min="9990" max="9990" width="19.85546875" style="10" customWidth="1"/>
-    <col min="9991" max="9991" width="14.85546875" style="10" customWidth="1"/>
-    <col min="9992" max="9992" width="14.140625" style="10" customWidth="1"/>
-    <col min="9993" max="9993" width="14.85546875" style="10" customWidth="1"/>
-    <col min="9994" max="9994" width="16.140625" style="10" customWidth="1"/>
-    <col min="9995" max="9995" width="26.42578125" style="10" customWidth="1"/>
-    <col min="9996" max="10241" width="9.140625" style="10"/>
-    <col min="10242" max="10242" width="27.7109375" style="10" customWidth="1"/>
-    <col min="10243" max="10243" width="15.28515625" style="10" customWidth="1"/>
-    <col min="10244" max="10244" width="15.140625" style="10" customWidth="1"/>
-    <col min="10245" max="10245" width="17.85546875" style="10" customWidth="1"/>
-    <col min="10246" max="10246" width="19.85546875" style="10" customWidth="1"/>
-    <col min="10247" max="10247" width="14.85546875" style="10" customWidth="1"/>
-    <col min="10248" max="10248" width="14.140625" style="10" customWidth="1"/>
-    <col min="10249" max="10249" width="14.85546875" style="10" customWidth="1"/>
-    <col min="10250" max="10250" width="16.140625" style="10" customWidth="1"/>
-    <col min="10251" max="10251" width="26.42578125" style="10" customWidth="1"/>
-    <col min="10252" max="10497" width="9.140625" style="10"/>
-    <col min="10498" max="10498" width="27.7109375" style="10" customWidth="1"/>
-    <col min="10499" max="10499" width="15.28515625" style="10" customWidth="1"/>
-    <col min="10500" max="10500" width="15.140625" style="10" customWidth="1"/>
-    <col min="10501" max="10501" width="17.85546875" style="10" customWidth="1"/>
-    <col min="10502" max="10502" width="19.85546875" style="10" customWidth="1"/>
-    <col min="10503" max="10503" width="14.85546875" style="10" customWidth="1"/>
-    <col min="10504" max="10504" width="14.140625" style="10" customWidth="1"/>
-    <col min="10505" max="10505" width="14.85546875" style="10" customWidth="1"/>
-    <col min="10506" max="10506" width="16.140625" style="10" customWidth="1"/>
-    <col min="10507" max="10507" width="26.42578125" style="10" customWidth="1"/>
-    <col min="10508" max="10753" width="9.140625" style="10"/>
-    <col min="10754" max="10754" width="27.7109375" style="10" customWidth="1"/>
-    <col min="10755" max="10755" width="15.28515625" style="10" customWidth="1"/>
-    <col min="10756" max="10756" width="15.140625" style="10" customWidth="1"/>
-    <col min="10757" max="10757" width="17.85546875" style="10" customWidth="1"/>
-    <col min="10758" max="10758" width="19.85546875" style="10" customWidth="1"/>
-    <col min="10759" max="10759" width="14.85546875" style="10" customWidth="1"/>
-    <col min="10760" max="10760" width="14.140625" style="10" customWidth="1"/>
-    <col min="10761" max="10761" width="14.85546875" style="10" customWidth="1"/>
-    <col min="10762" max="10762" width="16.140625" style="10" customWidth="1"/>
-    <col min="10763" max="10763" width="26.42578125" style="10" customWidth="1"/>
-    <col min="10764" max="11009" width="9.140625" style="10"/>
-    <col min="11010" max="11010" width="27.7109375" style="10" customWidth="1"/>
-    <col min="11011" max="11011" width="15.28515625" style="10" customWidth="1"/>
-    <col min="11012" max="11012" width="15.140625" style="10" customWidth="1"/>
-    <col min="11013" max="11013" width="17.85546875" style="10" customWidth="1"/>
-    <col min="11014" max="11014" width="19.85546875" style="10" customWidth="1"/>
-    <col min="11015" max="11015" width="14.85546875" style="10" customWidth="1"/>
-    <col min="11016" max="11016" width="14.140625" style="10" customWidth="1"/>
-    <col min="11017" max="11017" width="14.85546875" style="10" customWidth="1"/>
-    <col min="11018" max="11018" width="16.140625" style="10" customWidth="1"/>
-    <col min="11019" max="11019" width="26.42578125" style="10" customWidth="1"/>
-    <col min="11020" max="11265" width="9.140625" style="10"/>
-    <col min="11266" max="11266" width="27.7109375" style="10" customWidth="1"/>
-    <col min="11267" max="11267" width="15.28515625" style="10" customWidth="1"/>
-    <col min="11268" max="11268" width="15.140625" style="10" customWidth="1"/>
-    <col min="11269" max="11269" width="17.85546875" style="10" customWidth="1"/>
-    <col min="11270" max="11270" width="19.85546875" style="10" customWidth="1"/>
-    <col min="11271" max="11271" width="14.85546875" style="10" customWidth="1"/>
-    <col min="11272" max="11272" width="14.140625" style="10" customWidth="1"/>
-    <col min="11273" max="11273" width="14.85546875" style="10" customWidth="1"/>
-    <col min="11274" max="11274" width="16.140625" style="10" customWidth="1"/>
-    <col min="11275" max="11275" width="26.42578125" style="10" customWidth="1"/>
-    <col min="11276" max="11521" width="9.140625" style="10"/>
-    <col min="11522" max="11522" width="27.7109375" style="10" customWidth="1"/>
-    <col min="11523" max="11523" width="15.28515625" style="10" customWidth="1"/>
-    <col min="11524" max="11524" width="15.140625" style="10" customWidth="1"/>
-    <col min="11525" max="11525" width="17.85546875" style="10" customWidth="1"/>
-    <col min="11526" max="11526" width="19.85546875" style="10" customWidth="1"/>
-    <col min="11527" max="11527" width="14.85546875" style="10" customWidth="1"/>
-    <col min="11528" max="11528" width="14.140625" style="10" customWidth="1"/>
-    <col min="11529" max="11529" width="14.85546875" style="10" customWidth="1"/>
-    <col min="11530" max="11530" width="16.140625" style="10" customWidth="1"/>
-    <col min="11531" max="11531" width="26.42578125" style="10" customWidth="1"/>
-    <col min="11532" max="11777" width="9.140625" style="10"/>
-    <col min="11778" max="11778" width="27.7109375" style="10" customWidth="1"/>
-    <col min="11779" max="11779" width="15.28515625" style="10" customWidth="1"/>
-    <col min="11780" max="11780" width="15.140625" style="10" customWidth="1"/>
-    <col min="11781" max="11781" width="17.85546875" style="10" customWidth="1"/>
-    <col min="11782" max="11782" width="19.85546875" style="10" customWidth="1"/>
-    <col min="11783" max="11783" width="14.85546875" style="10" customWidth="1"/>
-    <col min="11784" max="11784" width="14.140625" style="10" customWidth="1"/>
-    <col min="11785" max="11785" width="14.85546875" style="10" customWidth="1"/>
-    <col min="11786" max="11786" width="16.140625" style="10" customWidth="1"/>
-    <col min="11787" max="11787" width="26.42578125" style="10" customWidth="1"/>
-    <col min="11788" max="12033" width="9.140625" style="10"/>
-    <col min="12034" max="12034" width="27.7109375" style="10" customWidth="1"/>
-    <col min="12035" max="12035" width="15.28515625" style="10" customWidth="1"/>
-    <col min="12036" max="12036" width="15.140625" style="10" customWidth="1"/>
-    <col min="12037" max="12037" width="17.85546875" style="10" customWidth="1"/>
-    <col min="12038" max="12038" width="19.85546875" style="10" customWidth="1"/>
-    <col min="12039" max="12039" width="14.85546875" style="10" customWidth="1"/>
-    <col min="12040" max="12040" width="14.140625" style="10" customWidth="1"/>
-    <col min="12041" max="12041" width="14.85546875" style="10" customWidth="1"/>
-    <col min="12042" max="12042" width="16.140625" style="10" customWidth="1"/>
-    <col min="12043" max="12043" width="26.42578125" style="10" customWidth="1"/>
-    <col min="12044" max="12289" width="9.140625" style="10"/>
-    <col min="12290" max="12290" width="27.7109375" style="10" customWidth="1"/>
-    <col min="12291" max="12291" width="15.28515625" style="10" customWidth="1"/>
-    <col min="12292" max="12292" width="15.140625" style="10" customWidth="1"/>
-    <col min="12293" max="12293" width="17.85546875" style="10" customWidth="1"/>
-    <col min="12294" max="12294" width="19.85546875" style="10" customWidth="1"/>
-    <col min="12295" max="12295" width="14.85546875" style="10" customWidth="1"/>
-    <col min="12296" max="12296" width="14.140625" style="10" customWidth="1"/>
-    <col min="12297" max="12297" width="14.85546875" style="10" customWidth="1"/>
-    <col min="12298" max="12298" width="16.140625" style="10" customWidth="1"/>
-    <col min="12299" max="12299" width="26.42578125" style="10" customWidth="1"/>
-    <col min="12300" max="12545" width="9.140625" style="10"/>
-    <col min="12546" max="12546" width="27.7109375" style="10" customWidth="1"/>
-    <col min="12547" max="12547" width="15.28515625" style="10" customWidth="1"/>
-    <col min="12548" max="12548" width="15.140625" style="10" customWidth="1"/>
-    <col min="12549" max="12549" width="17.85546875" style="10" customWidth="1"/>
-    <col min="12550" max="12550" width="19.85546875" style="10" customWidth="1"/>
-    <col min="12551" max="12551" width="14.85546875" style="10" customWidth="1"/>
-    <col min="12552" max="12552" width="14.140625" style="10" customWidth="1"/>
-    <col min="12553" max="12553" width="14.85546875" style="10" customWidth="1"/>
-    <col min="12554" max="12554" width="16.140625" style="10" customWidth="1"/>
-    <col min="12555" max="12555" width="26.42578125" style="10" customWidth="1"/>
-    <col min="12556" max="12801" width="9.140625" style="10"/>
-    <col min="12802" max="12802" width="27.7109375" style="10" customWidth="1"/>
-    <col min="12803" max="12803" width="15.28515625" style="10" customWidth="1"/>
-    <col min="12804" max="12804" width="15.140625" style="10" customWidth="1"/>
-    <col min="12805" max="12805" width="17.85546875" style="10" customWidth="1"/>
-    <col min="12806" max="12806" width="19.85546875" style="10" customWidth="1"/>
-    <col min="12807" max="12807" width="14.85546875" style="10" customWidth="1"/>
-    <col min="12808" max="12808" width="14.140625" style="10" customWidth="1"/>
-    <col min="12809" max="12809" width="14.85546875" style="10" customWidth="1"/>
-    <col min="12810" max="12810" width="16.140625" style="10" customWidth="1"/>
-    <col min="12811" max="12811" width="26.42578125" style="10" customWidth="1"/>
-    <col min="12812" max="13057" width="9.140625" style="10"/>
-    <col min="13058" max="13058" width="27.7109375" style="10" customWidth="1"/>
-    <col min="13059" max="13059" width="15.28515625" style="10" customWidth="1"/>
-    <col min="13060" max="13060" width="15.140625" style="10" customWidth="1"/>
-    <col min="13061" max="13061" width="17.85546875" style="10" customWidth="1"/>
-    <col min="13062" max="13062" width="19.85546875" style="10" customWidth="1"/>
-    <col min="13063" max="13063" width="14.85546875" style="10" customWidth="1"/>
-    <col min="13064" max="13064" width="14.140625" style="10" customWidth="1"/>
-    <col min="13065" max="13065" width="14.85546875" style="10" customWidth="1"/>
-    <col min="13066" max="13066" width="16.140625" style="10" customWidth="1"/>
-    <col min="13067" max="13067" width="26.42578125" style="10" customWidth="1"/>
-    <col min="13068" max="13313" width="9.140625" style="10"/>
-    <col min="13314" max="13314" width="27.7109375" style="10" customWidth="1"/>
-    <col min="13315" max="13315" width="15.28515625" style="10" customWidth="1"/>
-    <col min="13316" max="13316" width="15.140625" style="10" customWidth="1"/>
-    <col min="13317" max="13317" width="17.85546875" style="10" customWidth="1"/>
-    <col min="13318" max="13318" width="19.85546875" style="10" customWidth="1"/>
-    <col min="13319" max="13319" width="14.85546875" style="10" customWidth="1"/>
-    <col min="13320" max="13320" width="14.140625" style="10" customWidth="1"/>
-    <col min="13321" max="13321" width="14.85546875" style="10" customWidth="1"/>
-    <col min="13322" max="13322" width="16.140625" style="10" customWidth="1"/>
-    <col min="13323" max="13323" width="26.42578125" style="10" customWidth="1"/>
-    <col min="13324" max="13569" width="9.140625" style="10"/>
-    <col min="13570" max="13570" width="27.7109375" style="10" customWidth="1"/>
-    <col min="13571" max="13571" width="15.28515625" style="10" customWidth="1"/>
-    <col min="13572" max="13572" width="15.140625" style="10" customWidth="1"/>
-    <col min="13573" max="13573" width="17.85546875" style="10" customWidth="1"/>
-    <col min="13574" max="13574" width="19.85546875" style="10" customWidth="1"/>
-    <col min="13575" max="13575" width="14.85546875" style="10" customWidth="1"/>
-    <col min="13576" max="13576" width="14.140625" style="10" customWidth="1"/>
-    <col min="13577" max="13577" width="14.85546875" style="10" customWidth="1"/>
-    <col min="13578" max="13578" width="16.140625" style="10" customWidth="1"/>
-    <col min="13579" max="13579" width="26.42578125" style="10" customWidth="1"/>
-    <col min="13580" max="13825" width="9.140625" style="10"/>
-    <col min="13826" max="13826" width="27.7109375" style="10" customWidth="1"/>
-    <col min="13827" max="13827" width="15.28515625" style="10" customWidth="1"/>
-    <col min="13828" max="13828" width="15.140625" style="10" customWidth="1"/>
-    <col min="13829" max="13829" width="17.85546875" style="10" customWidth="1"/>
-    <col min="13830" max="13830" width="19.85546875" style="10" customWidth="1"/>
-    <col min="13831" max="13831" width="14.85546875" style="10" customWidth="1"/>
-    <col min="13832" max="13832" width="14.140625" style="10" customWidth="1"/>
-    <col min="13833" max="13833" width="14.85546875" style="10" customWidth="1"/>
-    <col min="13834" max="13834" width="16.140625" style="10" customWidth="1"/>
-    <col min="13835" max="13835" width="26.42578125" style="10" customWidth="1"/>
-    <col min="13836" max="14081" width="9.140625" style="10"/>
-    <col min="14082" max="14082" width="27.7109375" style="10" customWidth="1"/>
-    <col min="14083" max="14083" width="15.28515625" style="10" customWidth="1"/>
-    <col min="14084" max="14084" width="15.140625" style="10" customWidth="1"/>
-    <col min="14085" max="14085" width="17.85546875" style="10" customWidth="1"/>
-    <col min="14086" max="14086" width="19.85546875" style="10" customWidth="1"/>
-    <col min="14087" max="14087" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14088" max="14088" width="14.140625" style="10" customWidth="1"/>
-    <col min="14089" max="14089" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14090" max="14090" width="16.140625" style="10" customWidth="1"/>
-    <col min="14091" max="14091" width="26.42578125" style="10" customWidth="1"/>
-    <col min="14092" max="14337" width="9.140625" style="10"/>
-    <col min="14338" max="14338" width="27.7109375" style="10" customWidth="1"/>
-    <col min="14339" max="14339" width="15.28515625" style="10" customWidth="1"/>
-    <col min="14340" max="14340" width="15.140625" style="10" customWidth="1"/>
-    <col min="14341" max="14341" width="17.85546875" style="10" customWidth="1"/>
-    <col min="14342" max="14342" width="19.85546875" style="10" customWidth="1"/>
-    <col min="14343" max="14343" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14344" max="14344" width="14.140625" style="10" customWidth="1"/>
-    <col min="14345" max="14345" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14346" max="14346" width="16.140625" style="10" customWidth="1"/>
-    <col min="14347" max="14347" width="26.42578125" style="10" customWidth="1"/>
-    <col min="14348" max="14593" width="9.140625" style="10"/>
-    <col min="14594" max="14594" width="27.7109375" style="10" customWidth="1"/>
-    <col min="14595" max="14595" width="15.28515625" style="10" customWidth="1"/>
-    <col min="14596" max="14596" width="15.140625" style="10" customWidth="1"/>
-    <col min="14597" max="14597" width="17.85546875" style="10" customWidth="1"/>
-    <col min="14598" max="14598" width="19.85546875" style="10" customWidth="1"/>
-    <col min="14599" max="14599" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14600" max="14600" width="14.140625" style="10" customWidth="1"/>
-    <col min="14601" max="14601" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14602" max="14602" width="16.140625" style="10" customWidth="1"/>
-    <col min="14603" max="14603" width="26.42578125" style="10" customWidth="1"/>
-    <col min="14604" max="14849" width="9.140625" style="10"/>
-    <col min="14850" max="14850" width="27.7109375" style="10" customWidth="1"/>
-    <col min="14851" max="14851" width="15.28515625" style="10" customWidth="1"/>
-    <col min="14852" max="14852" width="15.140625" style="10" customWidth="1"/>
-    <col min="14853" max="14853" width="17.85546875" style="10" customWidth="1"/>
-    <col min="14854" max="14854" width="19.85546875" style="10" customWidth="1"/>
-    <col min="14855" max="14855" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14856" max="14856" width="14.140625" style="10" customWidth="1"/>
-    <col min="14857" max="14857" width="14.85546875" style="10" customWidth="1"/>
-    <col min="14858" max="14858" width="16.140625" style="10" customWidth="1"/>
-    <col min="14859" max="14859" width="26.42578125" style="10" customWidth="1"/>
-    <col min="14860" max="15105" width="9.140625" style="10"/>
-    <col min="15106" max="15106" width="27.7109375" style="10" customWidth="1"/>
-    <col min="15107" max="15107" width="15.28515625" style="10" customWidth="1"/>
-    <col min="15108" max="15108" width="15.140625" style="10" customWidth="1"/>
-    <col min="15109" max="15109" width="17.85546875" style="10" customWidth="1"/>
-    <col min="15110" max="15110" width="19.85546875" style="10" customWidth="1"/>
-    <col min="15111" max="15111" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15112" max="15112" width="14.140625" style="10" customWidth="1"/>
-    <col min="15113" max="15113" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15114" max="15114" width="16.140625" style="10" customWidth="1"/>
-    <col min="15115" max="15115" width="26.42578125" style="10" customWidth="1"/>
-    <col min="15116" max="15361" width="9.140625" style="10"/>
-    <col min="15362" max="15362" width="27.7109375" style="10" customWidth="1"/>
-    <col min="15363" max="15363" width="15.28515625" style="10" customWidth="1"/>
-    <col min="15364" max="15364" width="15.140625" style="10" customWidth="1"/>
-    <col min="15365" max="15365" width="17.85546875" style="10" customWidth="1"/>
-    <col min="15366" max="15366" width="19.85546875" style="10" customWidth="1"/>
-    <col min="15367" max="15367" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15368" max="15368" width="14.140625" style="10" customWidth="1"/>
-    <col min="15369" max="15369" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15370" max="15370" width="16.140625" style="10" customWidth="1"/>
-    <col min="15371" max="15371" width="26.42578125" style="10" customWidth="1"/>
-    <col min="15372" max="15617" width="9.140625" style="10"/>
-    <col min="15618" max="15618" width="27.7109375" style="10" customWidth="1"/>
-    <col min="15619" max="15619" width="15.28515625" style="10" customWidth="1"/>
-    <col min="15620" max="15620" width="15.140625" style="10" customWidth="1"/>
-    <col min="15621" max="15621" width="17.85546875" style="10" customWidth="1"/>
-    <col min="15622" max="15622" width="19.85546875" style="10" customWidth="1"/>
-    <col min="15623" max="15623" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15624" max="15624" width="14.140625" style="10" customWidth="1"/>
-    <col min="15625" max="15625" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15626" max="15626" width="16.140625" style="10" customWidth="1"/>
-    <col min="15627" max="15627" width="26.42578125" style="10" customWidth="1"/>
-    <col min="15628" max="15873" width="9.140625" style="10"/>
-    <col min="15874" max="15874" width="27.7109375" style="10" customWidth="1"/>
-    <col min="15875" max="15875" width="15.28515625" style="10" customWidth="1"/>
-    <col min="15876" max="15876" width="15.140625" style="10" customWidth="1"/>
-    <col min="15877" max="15877" width="17.85546875" style="10" customWidth="1"/>
-    <col min="15878" max="15878" width="19.85546875" style="10" customWidth="1"/>
-    <col min="15879" max="15879" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15880" max="15880" width="14.140625" style="10" customWidth="1"/>
-    <col min="15881" max="15881" width="14.85546875" style="10" customWidth="1"/>
-    <col min="15882" max="15882" width="16.140625" style="10" customWidth="1"/>
-    <col min="15883" max="15883" width="26.42578125" style="10" customWidth="1"/>
-    <col min="15884" max="16129" width="9.140625" style="10"/>
-    <col min="16130" max="16130" width="27.7109375" style="10" customWidth="1"/>
-    <col min="16131" max="16131" width="15.28515625" style="10" customWidth="1"/>
-    <col min="16132" max="16132" width="15.140625" style="10" customWidth="1"/>
-    <col min="16133" max="16133" width="17.85546875" style="10" customWidth="1"/>
-    <col min="16134" max="16134" width="19.85546875" style="10" customWidth="1"/>
-    <col min="16135" max="16135" width="14.85546875" style="10" customWidth="1"/>
-    <col min="16136" max="16136" width="14.140625" style="10" customWidth="1"/>
-    <col min="16137" max="16137" width="14.85546875" style="10" customWidth="1"/>
-    <col min="16138" max="16138" width="16.140625" style="10" customWidth="1"/>
-    <col min="16139" max="16139" width="26.42578125" style="10" customWidth="1"/>
-    <col min="16140" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="97" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="96"/>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" s="81" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75">
-        <v>1</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="77">
-        <v>41907</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76">
-        <v>9555382729</v>
-      </c>
-      <c r="H3" s="75">
-        <v>6000</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>505</v>
-      </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="79" t="s">
-        <v>491</v>
-      </c>
-      <c r="L3" s="80"/>
-    </row>
-    <row r="4" spans="1:12" s="65" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
-        <v>2</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="60">
-        <v>41924</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="63">
-        <v>9999405538</v>
-      </c>
-      <c r="H4" s="58">
-        <v>7000</v>
-      </c>
-      <c r="I4" s="58">
-        <v>500</v>
-      </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="L4" s="64"/>
-    </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>3</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="28">
-        <v>41947</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="31">
-        <v>9650182218</v>
-      </c>
-      <c r="H5" s="26">
-        <v>5500</v>
-      </c>
-      <c r="I5" s="26">
-        <v>5500</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" s="25" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="20">
-        <v>41947</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="23">
-        <v>9716027793</v>
-      </c>
-      <c r="H6" s="18">
-        <v>5500</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1500</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>5</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="28">
-        <v>41907</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="31">
-        <v>9891085793</v>
-      </c>
-      <c r="H7" s="26">
-        <v>4000</v>
-      </c>
-      <c r="I7" s="26">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" spans="1:12" s="34" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>6</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="28">
-        <v>41947</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="31">
-        <v>9350215064</v>
-      </c>
-      <c r="H8" s="35">
-        <v>9000</v>
-      </c>
-      <c r="I8" s="26">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>7</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="28">
-        <v>41952</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31">
-        <v>9136791828</v>
-      </c>
-      <c r="H9" s="26">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="26">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" s="34" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>8</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="28">
-        <v>41964</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31">
-        <v>8800556120</v>
-      </c>
-      <c r="H10" s="26">
-        <v>850</v>
-      </c>
-      <c r="I10" s="26">
-        <v>850</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="1:12" s="34" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>9</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="28">
-        <v>41964</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="31">
-        <v>9958911395</v>
-      </c>
-      <c r="H11" s="26">
-        <v>3000</v>
-      </c>
-      <c r="I11" s="26">
-        <v>3000</v>
-      </c>
-      <c r="J11" s="28">
-        <v>41971</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" s="25" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="20">
-        <v>41964</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="23">
-        <v>8527336673</v>
-      </c>
-      <c r="H12" s="18">
-        <v>7500</v>
-      </c>
-      <c r="I12" s="18">
-        <v>3000</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" s="17" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="13">
-        <v>41947</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="12">
-        <v>8287222934</v>
-      </c>
-      <c r="H13" s="11">
-        <v>8000</v>
-      </c>
-      <c r="I13" s="11">
-        <v>100</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" s="17" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="13">
-        <v>41947</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="12">
-        <v>7042060502</v>
-      </c>
-      <c r="H14" s="11">
-        <v>10000</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:12" s="25" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="20">
-        <v>41983</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23">
-        <v>8287414627</v>
-      </c>
-      <c r="H15" s="18">
-        <v>4000</v>
-      </c>
-      <c r="I15" s="18">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" s="34" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="28">
-        <v>41980</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="26">
-        <v>4500</v>
-      </c>
-      <c r="I16" s="26">
-        <v>1500</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="1:12" s="34" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>16</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="28">
-        <v>41985</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="26">
-        <v>5800</v>
-      </c>
-      <c r="I17" s="26">
-        <v>5800</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="1:12" s="42" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>17</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="40">
-        <v>41987</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="38">
-        <v>4000</v>
-      </c>
-      <c r="I18" s="38">
-        <v>4000</v>
-      </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="1:12" s="34" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <v>19</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="28">
-        <v>42020</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="26">
-        <v>3000</v>
-      </c>
-      <c r="I19" s="26">
-        <v>3000</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" s="47" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
-        <v>20</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>524</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>526</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="H20" s="90"/>
-      <c r="I20" s="43">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="46"/>
-    </row>
-    <row r="21" spans="1:12" s="47" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
-    <hyperlink ref="E20" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="15">
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="49"/>
-      <c r="D2" s="10">
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="54"/>
+      <c r="D2" s="15">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:4" ht="16.5">
+      <c r="A3" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="15">
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="15">
         <v>650</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="15">
         <v>2800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="15">
         <v>1000</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="15">
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="15">
         <v>800</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="15">
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="15">
         <v>975</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="15">
         <v>4200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="15">
         <v>468</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="15">
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="15">
         <v>910</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="15">
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="15">
         <v>500</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="15">
         <v>5800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="15">
         <v>800</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="15">
         <v>6200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="15">
         <v>500</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="15">
         <v>6800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="15">
         <v>975</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="15">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="15">
         <v>910</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="57" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="15">
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="15">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="15">
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="15">
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="15">
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="15">
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="15">
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="68" t="s">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A25" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="10">
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="15">
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A27" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="10">
         <v>2041</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A28" s="74" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="10">
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="68" t="s">
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A29" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A30" s="74" t="s">
         <v>382</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="10">
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+    <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A31" s="57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="52" t="s">
+    <row r="32" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A32" s="57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+    <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A33" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="63">
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="49" t="s">
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="15">
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
+    <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A35" s="57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+    <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A36" s="57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="49" t="s">
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="15">
         <v>1079</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="49" t="s">
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="15">
         <v>780</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="15">
         <v>1235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="15">
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="49" t="s">
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="15">
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="68" t="s">
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A42" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="10">
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+    <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A43" s="57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="68" t="s">
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
+      <c r="A44" s="74" t="s">
         <v>385</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="10">
         <v>665</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="49" t="s">
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="15">
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A46" s="57" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="49" t="s">
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="15">
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
-    </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
-    </row>
-    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="50" t="s">
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="58"/>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="54"/>
+    </row>
+    <row r="50" spans="1:1" ht="16.5">
+      <c r="A50" s="55" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="49" t="s">
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="54" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="49" t="s">
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="49" t="s">
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="49" t="s">
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="49" t="s">
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="49" t="s">
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="49" t="s">
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="49" t="s">
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="49" t="s">
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="54" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="49" t="s">
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="49" t="s">
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="49" t="s">
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="54" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="49" t="s">
+    <row r="64" spans="1:1" ht="15">
+      <c r="A64" s="54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="49" t="s">
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="54" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="49" t="s">
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66" s="54" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="49" t="s">
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" s="54" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="49" t="s">
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68" s="54" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="49" t="s">
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="49" t="s">
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="49" t="s">
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71" s="54" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="49" t="s">
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72" s="54" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="49" t="s">
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="50" t="s">
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74" s="54"/>
+    </row>
+    <row r="75" spans="1:3" ht="16.5">
+      <c r="A75" s="55" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="49" t="s">
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="15">
         <v>1274</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="49" t="s">
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="15">
         <v>780</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="49" t="s">
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="15">
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="49" t="s">
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="15">
         <v>1274</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="49" t="s">
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="15">
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="49" t="s">
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="15">
         <v>1196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="49" t="s">
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="15">
         <v>1196</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="49" t="s">
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="15">
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="52" t="s">
+    <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A84" s="57" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="49" t="s">
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="15">
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="52" t="s">
+    <row r="86" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A86" s="57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="49" t="s">
+    <row r="87" spans="1:3" ht="15">
+      <c r="A87" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="15">
         <v>1430</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="49" t="s">
+    <row r="88" spans="1:3" ht="15">
+      <c r="A88" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="15">
         <v>1040</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="49" t="s">
+    <row r="89" spans="1:3" ht="15">
+      <c r="A89" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="15">
         <v>975</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="49" t="s">
+    <row r="90" spans="1:3" ht="15">
+      <c r="A90" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="15">
         <v>1235</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="49" t="s">
+    <row r="91" spans="1:3" ht="15">
+      <c r="A91" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="15">
         <v>1430</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="49" t="s">
+    <row r="92" spans="1:3" ht="15">
+      <c r="A92" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="15">
         <v>1066</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="49" t="s">
+    <row r="93" spans="1:3" ht="15">
+      <c r="A93" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="15">
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="52" t="s">
+    <row r="94" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A94" s="57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="49" t="s">
+    <row r="95" spans="1:3" ht="15">
+      <c r="A95" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="15">
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="49" t="s">
+    <row r="96" spans="1:3" ht="15">
+      <c r="A96" s="54" t="s">
         <v>404</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="15">
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="49" t="s">
+    <row r="97" spans="1:3" ht="15">
+      <c r="A97" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="15">
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="52" t="s">
+    <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A98" s="57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="49" t="s">
+    <row r="99" spans="1:3" ht="15">
+      <c r="A99" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="15">
         <v>1700</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="49" t="s">
+    <row r="100" spans="1:3" ht="15">
+      <c r="A100" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="15">
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="52" t="s">
+    <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A101" s="57" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="49" t="s">
+    <row r="102" spans="1:3" ht="15">
+      <c r="A102" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="15">
         <v>3035</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="49" t="s">
+    <row r="103" spans="1:3" ht="15">
+      <c r="A103" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="49"/>
-    </row>
-    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="50" t="s">
+    <row r="104" spans="1:3" ht="15">
+      <c r="A104" s="54"/>
+    </row>
+    <row r="105" spans="1:3" ht="16.5">
+      <c r="A105" s="55" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="49" t="s">
+    <row r="106" spans="1:3" ht="15">
+      <c r="A106" s="54" t="s">
         <v>415</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="15">
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="49" t="s">
+    <row r="107" spans="1:3" ht="15">
+      <c r="A107" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="15">
         <v>665</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="49" t="s">
+    <row r="108" spans="1:3" ht="15">
+      <c r="A108" s="54" t="s">
         <v>416</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="15">
         <v>975</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="49" t="s">
+    <row r="109" spans="1:3" ht="15">
+      <c r="A109" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="15">
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="49" t="s">
+    <row r="110" spans="1:3" ht="15">
+      <c r="A110" s="54" t="s">
         <v>418</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="15">
         <v>975</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="49" t="s">
+    <row r="111" spans="1:3" ht="15">
+      <c r="A111" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="15">
         <v>750</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="49" t="s">
+    <row r="112" spans="1:3" ht="15">
+      <c r="A112" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="15">
         <v>975</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="49" t="s">
+    <row r="113" spans="1:3" ht="15">
+      <c r="A113" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="15">
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="49" t="s">
+    <row r="114" spans="1:3" ht="15">
+      <c r="A114" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="15">
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="52" t="s">
+    <row r="115" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A115" s="57" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="49" t="s">
+    <row r="116" spans="1:3" ht="15">
+      <c r="A116" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="15">
         <v>1066</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="49" t="s">
+    <row r="117" spans="1:3" ht="15">
+      <c r="A117" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="15">
         <v>1365</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="49" t="s">
+    <row r="118" spans="1:3" ht="15">
+      <c r="A118" s="54" t="s">
         <v>456</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="15">
         <v>1846</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="49" t="s">
+    <row r="119" spans="1:3" ht="15">
+      <c r="A119" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="49"/>
-    </row>
-    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="50" t="s">
+    <row r="120" spans="1:3" ht="15">
+      <c r="A120" s="54"/>
+    </row>
+    <row r="121" spans="1:3" ht="16.5">
+      <c r="A121" s="55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="52" t="s">
+    <row r="122" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A122" s="57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="49" t="s">
+    <row r="123" spans="1:3" ht="15">
+      <c r="A123" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="15">
         <v>2340</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="49" t="s">
+    <row r="124" spans="1:3" ht="15">
+      <c r="A124" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="15">
         <v>2560</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="49" t="s">
+    <row r="125" spans="1:3" ht="15">
+      <c r="A125" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="15">
         <v>2807</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="49" t="s">
+    <row r="126" spans="1:3" ht="15">
+      <c r="A126" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="15">
         <v>2470</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="49" t="s">
+    <row r="127" spans="1:3" ht="15">
+      <c r="A127" s="54" t="s">
         <v>457</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="15">
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="52" t="s">
+    <row r="128" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A128" s="57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="52" t="s">
+    <row r="129" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A129" s="57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="52" t="s">
+    <row r="130" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A130" s="57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="52" t="s">
+    <row r="131" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A131" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="52" t="s">
+    <row r="132" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A132" s="57" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="52" t="s">
+    <row r="133" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A133" s="57" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="49" t="s">
+    <row r="134" spans="1:3" ht="15">
+      <c r="A134" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="15">
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="52" t="s">
+    <row r="135" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A135" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="52" t="s">
+    <row r="136" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A136" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="52" t="s">
+    <row r="137" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A137" s="57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="52" t="s">
+    <row r="138" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A138" s="57" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="49" t="s">
+    <row r="139" spans="1:3" ht="15">
+      <c r="A139" s="54" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="52" t="s">
+    <row r="140" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A140" s="57" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="52" t="s">
+    <row r="141" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A141" s="57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="49" t="s">
+    <row r="142" spans="1:3" ht="15">
+      <c r="A142" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C142" s="15">
         <v>2240</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="49" t="s">
+    <row r="143" spans="1:3" ht="15">
+      <c r="A143" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="C143" s="10">
+      <c r="C143" s="15">
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="52" t="s">
+    <row r="144" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A144" s="57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="52" t="s">
+    <row r="145" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A145" s="57" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="52" t="s">
+    <row r="146" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A146" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="52" t="s">
+    <row r="147" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A147" s="57" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="52" t="s">
+    <row r="148" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A148" s="57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="52" t="s">
+    <row r="149" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A149" s="57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="49"/>
-    </row>
-    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="50" t="s">
+    <row r="150" spans="1:3" ht="15">
+      <c r="A150" s="54"/>
+    </row>
+    <row r="151" spans="1:3" ht="16.5">
+      <c r="A151" s="55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="49" t="s">
+    <row r="152" spans="1:3" ht="15">
+      <c r="A152" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C152" s="10">
+      <c r="C152" s="15">
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="49" t="s">
+    <row r="153" spans="1:3" ht="15">
+      <c r="A153" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C153" s="15">
         <v>1615</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="49" t="s">
+    <row r="154" spans="1:3" ht="15">
+      <c r="A154" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="C154" s="10">
+      <c r="C154" s="15">
         <v>1460</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="49" t="s">
+    <row r="155" spans="1:3" ht="15">
+      <c r="A155" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C155" s="15">
         <v>3240</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="49" t="s">
+    <row r="156" spans="1:3" ht="15">
+      <c r="A156" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="15">
         <v>1680</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="49" t="s">
+    <row r="157" spans="1:3" ht="15">
+      <c r="A157" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="C157" s="10">
+      <c r="C157" s="15">
         <v>3900</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="49" t="s">
+    <row r="158" spans="1:3" ht="15">
+      <c r="A158" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="50" t="s">
+    <row r="159" spans="1:3" ht="16.5">
+      <c r="A159" s="55" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="49" t="s">
+    <row r="160" spans="1:3" ht="15">
+      <c r="A160" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="15">
         <v>2470</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="49" t="s">
+    <row r="161" spans="1:3" ht="15">
+      <c r="A161" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="15">
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="52" t="s">
+    <row r="162" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A162" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="52" t="s">
+    <row r="163" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A163" s="57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="52" t="s">
+    <row r="164" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A164" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="C164" s="57">
+      <c r="C164" s="63">
         <v>3475</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="49" t="s">
+    <row r="165" spans="1:3" ht="15">
+      <c r="A165" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C165" s="15">
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="52" t="s">
+    <row r="166" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A166" s="57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="52" t="s">
+    <row r="167" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A167" s="57" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="52" t="s">
+    <row r="168" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A168" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="52" t="s">
+    <row r="169" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A169" s="57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="52" t="s">
+    <row r="170" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A170" s="57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="52" t="s">
+    <row r="171" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A171" s="57" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="52" t="s">
+    <row r="172" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A172" s="57" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="52" t="s">
+    <row r="173" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A173" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="52" t="s">
+    <row r="174" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A174" s="57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="52" t="s">
+    <row r="175" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A175" s="57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="52" t="s">
+    <row r="176" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A176" s="57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="49" t="s">
+    <row r="177" spans="1:3" ht="15">
+      <c r="A177" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="C177" s="10">
+      <c r="C177" s="15">
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="52" t="s">
+    <row r="178" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A178" s="57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="49" t="s">
+    <row r="179" spans="1:3" ht="15">
+      <c r="A179" s="54" t="s">
         <v>469</v>
       </c>
-      <c r="C179" s="10">
+      <c r="C179" s="15">
         <v>2170</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="49" t="s">
+    <row r="180" spans="1:3" ht="15">
+      <c r="A180" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="C180" s="10">
+      <c r="C180" s="15">
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="52" t="s">
+    <row r="181" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A181" s="57" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="49" t="s">
+    <row r="182" spans="1:3" ht="15">
+      <c r="A182" s="54" t="s">
         <v>471</v>
       </c>
-      <c r="C182" s="10">
+      <c r="C182" s="15">
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="52" t="s">
+    <row r="183" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A183" s="57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="52" t="s">
+    <row r="184" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A184" s="57" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="49" t="s">
+    <row r="185" spans="1:3" ht="15">
+      <c r="A185" s="54" t="s">
         <v>472</v>
       </c>
-      <c r="C185" s="10">
+      <c r="C185" s="15">
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="52" t="s">
+    <row r="186" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A186" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="52" t="s">
+    <row r="187" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A187" s="57" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="52" t="s">
+    <row r="188" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A188" s="57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="52" t="s">
+    <row r="189" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A189" s="57" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="52" t="s">
+    <row r="190" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A190" s="57" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="52" t="s">
+    <row r="191" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A191" s="57" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="52" t="s">
+    <row r="192" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A192" s="57" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="52" t="s">
+    <row r="193" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A193" s="57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="49"/>
-    </row>
-    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="50" t="s">
+    <row r="194" spans="1:3" ht="15">
+      <c r="A194" s="54"/>
+    </row>
+    <row r="195" spans="1:3" ht="16.5">
+      <c r="A195" s="55" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="49" t="s">
+    <row r="196" spans="1:3" ht="15">
+      <c r="A196" s="54" t="s">
         <v>463</v>
       </c>
-      <c r="C196" s="10">
+      <c r="C196" s="15">
         <v>4030</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="49" t="s">
+    <row r="197" spans="1:3" ht="15">
+      <c r="A197" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="C197" s="10">
+      <c r="C197" s="15">
         <v>4280</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="49" t="s">
+    <row r="198" spans="1:3" ht="15">
+      <c r="A198" s="54" t="s">
         <v>464</v>
       </c>
-      <c r="C198" s="10">
+      <c r="C198" s="15">
         <v>3800</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="49" t="s">
+    <row r="199" spans="1:3" ht="15">
+      <c r="A199" s="54" t="s">
         <v>473</v>
       </c>
-      <c r="C199" s="10">
+      <c r="C199" s="15">
         <v>3670</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="49" t="s">
+    <row r="200" spans="1:3" ht="15">
+      <c r="A200" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="C200" s="10">
+      <c r="C200" s="15">
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="52" t="s">
+    <row r="201" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A201" s="57" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="49" t="s">
+    <row r="202" spans="1:3" ht="15">
+      <c r="A202" s="54" t="s">
         <v>475</v>
       </c>
-      <c r="C202" s="10">
+      <c r="C202" s="15">
         <v>3865</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="49" t="s">
+    <row r="203" spans="1:3" ht="15">
+      <c r="A203" s="54" t="s">
         <v>476</v>
       </c>
-      <c r="C203" s="10">
+      <c r="C203" s="15">
         <v>3790</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="49" t="s">
+    <row r="204" spans="1:3" ht="15">
+      <c r="A204" s="54" t="s">
         <v>477</v>
       </c>
-      <c r="C204" s="10">
+      <c r="C204" s="15">
         <v>4290</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="49"/>
-    </row>
-    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A206" s="50" t="s">
+    <row r="205" spans="1:3" ht="15">
+      <c r="A205" s="54"/>
+    </row>
+    <row r="206" spans="1:3" ht="16.5">
+      <c r="A206" s="55" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="49" t="s">
+    <row r="207" spans="1:3" ht="15">
+      <c r="A207" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="C207" s="10">
+      <c r="C207" s="15">
         <v>3870</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A208" s="49" t="s">
+    <row r="208" spans="1:3" ht="15">
+      <c r="A208" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="C208" s="10">
+      <c r="C208" s="15">
         <v>4800</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A209" s="49" t="s">
+    <row r="209" spans="1:3" ht="15">
+      <c r="A209" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="C209" s="10">
+      <c r="C209" s="15">
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="52" t="s">
+    <row r="210" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A210" s="57" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="49"/>
-    </row>
-    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A212" s="50" t="s">
+    <row r="211" spans="1:3" ht="15">
+      <c r="A211" s="54"/>
+    </row>
+    <row r="212" spans="1:3" ht="16.5">
+      <c r="A212" s="55" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A213" s="49" t="s">
+    <row r="213" spans="1:3" ht="15">
+      <c r="A213" s="54" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A214" s="49" t="s">
+    <row r="214" spans="1:3" ht="15">
+      <c r="A214" s="54" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A215" s="49"/>
-    </row>
-    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A216" s="50" t="s">
+    <row r="215" spans="1:3" ht="15">
+      <c r="A215" s="54"/>
+    </row>
+    <row r="216" spans="1:3" ht="16.5">
+      <c r="A216" s="55" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="49" t="s">
+    <row r="217" spans="1:3" ht="15">
+      <c r="A217" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="C217" s="10">
+      <c r="C217" s="15">
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A218" s="52" t="s">
+    <row r="218" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A218" s="57" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A219" s="49" t="s">
+    <row r="219" spans="1:3" ht="15">
+      <c r="A219" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="C219" s="10">
+      <c r="C219" s="15">
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="52" t="s">
+    <row r="220" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A220" s="57" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="52" t="s">
+    <row r="221" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A221" s="57" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A222" s="52" t="s">
+    <row r="222" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A222" s="57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A223" s="52" t="s">
+    <row r="223" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A223" s="57" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="52" t="s">
+    <row r="224" spans="1:3" s="63" customFormat="1" ht="15">
+      <c r="A224" s="57" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="57" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="52" t="s">
+    <row r="225" spans="1:1" s="63" customFormat="1" ht="15">
+      <c r="A225" s="57" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="49"/>
-    </row>
-    <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A227" s="50" t="s">
+    <row r="226" spans="1:1" ht="15">
+      <c r="A226" s="54"/>
+    </row>
+    <row r="227" spans="1:1" ht="16.5">
+      <c r="A227" s="55" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="49" t="s">
+    <row r="228" spans="1:1" ht="15">
+      <c r="A228" s="54" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A229" s="49"/>
-    </row>
-    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A230" s="50" t="s">
+    <row r="229" spans="1:1" ht="15">
+      <c r="A229" s="54"/>
+    </row>
+    <row r="230" spans="1:1" ht="16.5">
+      <c r="A230" s="55" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="49" t="s">
+    <row r="231" spans="1:1" ht="15">
+      <c r="A231" s="54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A232" s="49" t="s">
+    <row r="232" spans="1:1" ht="15">
+      <c r="A232" s="54" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="50" t="s">
+    <row r="234" spans="1:1" ht="16.5">
+      <c r="A234" s="55" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="51" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" s="56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="51" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" s="56" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="51" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="51" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="51" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" s="56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="51" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" s="56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A242" s="50" t="s">
+    <row r="242" spans="1:1" ht="16.5">
+      <c r="A242" s="55" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A244" s="50" t="s">
+    <row r="244" spans="1:1" ht="16.5">
+      <c r="A244" s="55" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A246" s="50" t="s">
+    <row r="246" spans="1:1" ht="16.5">
+      <c r="A246" s="55" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="54" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" s="59" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="54" t="s">
+    <row r="248" spans="1:1">
+      <c r="A248" s="59" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="54" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" s="59" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="54" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" s="59" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="54" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" s="59" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="55" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" s="60" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="54" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" s="59" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="54" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" s="59" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="54" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" s="59" t="s">
         <v>328</v>
       </c>
     </row>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Rate List" sheetId="5" r:id="rId6"/>
     <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId7"/>
     <sheet name="Final Year Projects" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="561">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -3989,9 +3990,6 @@
     <t>8051 Dev Board Training</t>
   </si>
   <si>
-    <t xml:space="preserve">                               14th Feb</t>
-  </si>
-  <si>
     <t>14th feb 2015</t>
   </si>
   <si>
@@ -4014,6 +4012,69 @@
   </si>
   <si>
     <t>Deliver up to 25th feb</t>
+  </si>
+  <si>
+    <t>Dileep Sharma</t>
+  </si>
+  <si>
+    <t>dileep93sharma@gmail.com</t>
+  </si>
+  <si>
+    <t>Hazardous Condition sensor</t>
+  </si>
+  <si>
+    <t>17th Feb</t>
+  </si>
+  <si>
+    <t>cplor print out</t>
+  </si>
+  <si>
+    <t>Alok Kumar Singh</t>
+  </si>
+  <si>
+    <t>aloksinghniet14@gmail.com</t>
+  </si>
+  <si>
+    <t>Robotics Training</t>
+  </si>
+  <si>
+    <t>10th Feb</t>
+  </si>
+  <si>
+    <t>Deepak kumar Verma</t>
+  </si>
+  <si>
+    <t>deepakocf@gmail.com</t>
+  </si>
+  <si>
+    <t>Vishal Sharma</t>
+  </si>
+  <si>
+    <t>vishalp3120@gmail.com</t>
+  </si>
+  <si>
+    <t>pranjalbajpai54@gmail.com</t>
+  </si>
+  <si>
+    <t>Pranjal Bajpai</t>
+  </si>
+  <si>
+    <t>12th jan</t>
+  </si>
+  <si>
+    <t>21st Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14th Feb</t>
+  </si>
+  <si>
+    <t>14th Feb</t>
+  </si>
+  <si>
+    <t>15th feb 2015</t>
+  </si>
+  <si>
+    <t>17th feb 2015</t>
   </si>
 </sst>
 </file>
@@ -4403,7 +4464,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4459,6 +4519,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4763,10 +4824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4815,35 +4876,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="61" customFormat="1">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:11" s="75" customFormat="1">
+      <c r="A2" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="61">
+      <c r="B2" s="75">
         <v>9540890120</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="75" t="s">
         <v>486</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="75">
         <v>5000</v>
       </c>
-      <c r="H2" s="62">
-        <v>42016</v>
-      </c>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="91" t="s">
+        <v>555</v>
+      </c>
+      <c r="J2" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="75" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4869,8 +4930,8 @@
       <c r="G3">
         <v>5000</v>
       </c>
-      <c r="H3" s="2">
-        <v>42025</v>
+      <c r="H3" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="I3" t="s">
         <v>434</v>
@@ -4899,7 +4960,7 @@
         <v>1500</v>
       </c>
       <c r="H4" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4922,14 +4983,123 @@
         <v>1500</v>
       </c>
       <c r="H5" t="s">
-        <v>532</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6">
+        <v>9911193134</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>1500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B7">
+        <v>9643705662</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>1500</v>
+      </c>
+      <c r="H7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B8">
+        <v>9899766120</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>547</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>1500</v>
+      </c>
+      <c r="H8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9">
+        <v>9650259567</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>547</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>1500</v>
+      </c>
+      <c r="H9" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5231,26 +5401,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="72" customFormat="1">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:9" s="71" customFormat="1">
+      <c r="A12" s="71" t="s">
         <v>335</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="71">
         <v>9871310918</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="71">
         <v>150</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="71" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5306,58 +5476,58 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="76" customFormat="1">
-      <c r="A15" s="76" t="s">
+    <row r="15" spans="1:9" s="75" customFormat="1">
+      <c r="A15" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="76">
+      <c r="B15" s="75">
         <v>9711022937</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>414</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="75" t="s">
         <v>412</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="75">
         <v>350</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="75">
         <v>350</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="75" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="78" customFormat="1">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:9" s="77" customFormat="1">
+      <c r="A16" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="77">
         <v>9990180164</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="77" t="s">
         <v>423</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="77">
         <v>1500</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="H16" s="78" t="s">
+      <c r="H16" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="77" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5383,7 +5553,7 @@
       <c r="G17">
         <v>250</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="75" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5394,7 +5564,7 @@
       <c r="D18" t="s">
         <v>436</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="79" t="s">
         <v>490</v>
       </c>
       <c r="F18">
@@ -5502,10 +5672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5814,6 +5984,23 @@
       </c>
       <c r="E16" t="s">
         <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B17">
+        <v>9911430369</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -5833,6 +6020,7 @@
     <hyperlink ref="C14" r:id="rId13"/>
     <hyperlink ref="C15" r:id="rId14"/>
     <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5840,10 +6028,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5860,19 +6048,19 @@
       <c r="A1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>507</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="89" t="s">
         <v>508</v>
       </c>
       <c r="E1" s="61" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="90" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5912,7 +6100,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -5926,7 +6114,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -5935,9 +6123,37 @@
         <v>10000</v>
       </c>
       <c r="E5">
-        <v>11049</v>
+        <v>10049</v>
       </c>
       <c r="F5">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10049</v>
+      </c>
+      <c r="F6">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10049</v>
+      </c>
+      <c r="F7">
         <v>1070</v>
       </c>
     </row>
@@ -5948,10 +6164,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6218,13 +6434,24 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B24" t="s">
         <v>438</v>
       </c>
       <c r="C24">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>543</v>
+      </c>
+      <c r="B25" t="s">
+        <v>544</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6236,7 +6463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -6249,7 +6476,7 @@
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6470,9 +6697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7222,67 +7449,67 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="87" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A3" s="81">
+    <row r="3" spans="1:12" s="86" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="82">
         <v>41907</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82">
+      <c r="E3" s="84"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81">
         <v>9555382729</v>
       </c>
-      <c r="H3" s="81">
+      <c r="H3" s="80">
         <v>6000</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="85" t="s">
+      <c r="J3" s="80"/>
+      <c r="K3" s="84" t="s">
         <v>491</v>
       </c>
-      <c r="L3" s="86"/>
-    </row>
-    <row r="4" spans="1:12" s="71" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A4" s="64">
+      <c r="L3" s="85"/>
+    </row>
+    <row r="4" spans="1:12" s="70" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="65">
         <v>41924</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="68">
         <v>9999405538</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <v>7000</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="63">
         <v>500</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="63"/>
+      <c r="K4" s="67" t="s">
         <v>352</v>
       </c>
-      <c r="L4" s="70"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="31">
@@ -7629,7 +7856,7 @@
         <v>1000</v>
       </c>
       <c r="J15" s="23"/>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="67" t="s">
         <v>352</v>
       </c>
       <c r="L15" s="29"/>
@@ -7773,7 +8000,7 @@
       <c r="D20" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="87" t="s">
         <v>526</v>
       </c>
       <c r="F20" s="49" t="s">
@@ -7797,22 +8024,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="D21" s="49" t="s">
         <v>535</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="E21" s="87" t="s">
         <v>536</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="F21" s="49" t="s">
         <v>537</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="G21" s="49" t="s">
         <v>538</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>539</v>
       </c>
       <c r="H21" s="48">
         <v>3000</v>
@@ -7822,7 +8049,7 @@
       </c>
       <c r="J21" s="48"/>
       <c r="K21" s="50" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L21" s="51"/>
     </row>
@@ -7841,8 +8068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8071,7 +8298,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="73" t="s">
         <v>381</v>
       </c>
       <c r="C25" s="10">
@@ -8087,7 +8314,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="73" t="s">
         <v>349</v>
       </c>
       <c r="C27" s="10">
@@ -8095,7 +8322,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="73" t="s">
         <v>350</v>
       </c>
       <c r="C28" s="10">
@@ -8103,7 +8330,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="73" t="s">
         <v>351</v>
       </c>
       <c r="C29" s="10">
@@ -8111,28 +8338,28 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="73" t="s">
         <v>382</v>
       </c>
       <c r="C30" s="10">
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="31" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A31" s="57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="32" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A32" s="57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="33" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A33" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="62">
         <v>650</v>
       </c>
     </row>
@@ -8144,12 +8371,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="35" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A35" s="57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="36" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A36" s="57" t="s">
         <v>180</v>
       </c>
@@ -8195,20 +8422,20 @@
       </c>
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="73" t="s">
         <v>384</v>
       </c>
       <c r="C42" s="10">
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="43" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A43" s="57" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="73" t="s">
         <v>385</v>
       </c>
       <c r="C44" s="10">
@@ -8223,7 +8450,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="46" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A46" s="57" t="s">
         <v>183</v>
       </c>
@@ -8434,7 +8661,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="84" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A84" s="57" t="s">
         <v>212</v>
       </c>
@@ -8447,7 +8674,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="86" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A86" s="57" t="s">
         <v>213</v>
       </c>
@@ -8508,7 +8735,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="94" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A94" s="57" t="s">
         <v>215</v>
       </c>
@@ -8537,7 +8764,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="98" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A98" s="57" t="s">
         <v>216</v>
       </c>
@@ -8558,7 +8785,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="101" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A101" s="57" t="s">
         <v>218</v>
       </c>
@@ -8656,7 +8883,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="115" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A115" s="57" t="s">
         <v>223</v>
       </c>
@@ -8698,7 +8925,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="122" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A122" s="57" t="s">
         <v>226</v>
       </c>
@@ -8743,32 +8970,32 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="128" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A128" s="57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="129" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A129" s="57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="130" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A130" s="57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="131" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A131" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="132" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A132" s="57" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="133" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A133" s="57" t="s">
         <v>236</v>
       </c>
@@ -8781,22 +9008,22 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="135" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A135" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="136" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A136" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="137" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A137" s="57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="138" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A138" s="57" t="s">
         <v>241</v>
       </c>
@@ -8806,12 +9033,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="140" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A140" s="57" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="141" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A141" s="57" t="s">
         <v>244</v>
       </c>
@@ -8832,32 +9059,32 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="144" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A144" s="57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="145" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A145" s="57" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="146" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A146" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="147" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A147" s="57" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="148" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A148" s="57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="149" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A149" s="57" t="s">
         <v>252</v>
       </c>
@@ -8944,21 +9171,21 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="162" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A162" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="163" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A163" s="57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="164" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A164" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="C164" s="63">
+      <c r="C164" s="62">
         <v>3475</v>
       </c>
     </row>
@@ -8970,57 +9197,57 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="166" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A166" s="57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="167" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A167" s="57" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="168" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A168" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="169" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A169" s="57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="170" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A170" s="57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="171" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A171" s="57" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="172" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A172" s="57" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="173" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A173" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="174" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A174" s="57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="175" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A175" s="57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="176" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A176" s="57" t="s">
         <v>275</v>
       </c>
@@ -9033,7 +9260,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="178" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A178" s="57" t="s">
         <v>277</v>
       </c>
@@ -9054,7 +9281,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="181" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A181" s="57" t="s">
         <v>278</v>
       </c>
@@ -9067,12 +9294,12 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="183" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A183" s="57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="184" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A184" s="57" t="s">
         <v>280</v>
       </c>
@@ -9085,42 +9312,42 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="186" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A186" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="187" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A187" s="57" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="188" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A188" s="57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="189" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A189" s="57" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="190" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A190" s="57" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="191" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A191" s="57" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="192" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A192" s="57" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="193" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A193" s="57" t="s">
         <v>288</v>
       </c>
@@ -9173,7 +9400,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="201" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A201" s="57" t="s">
         <v>291</v>
       </c>
@@ -9234,7 +9461,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="210" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A210" s="57" t="s">
         <v>293</v>
       </c>
@@ -9273,7 +9500,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="218" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A218" s="57" t="s">
         <v>298</v>
       </c>
@@ -9286,32 +9513,32 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="220" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A220" s="57" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="221" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A221" s="57" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="222" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A222" s="57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="223" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A223" s="57" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="63" customFormat="1" ht="15">
+    <row r="224" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A224" s="57" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="63" customFormat="1" ht="15">
+    <row r="225" spans="1:1" s="62" customFormat="1" ht="15">
       <c r="A225" s="57" t="s">
         <v>304</v>
       </c>
@@ -9446,4 +9673,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Project Status" sheetId="2" r:id="rId2"/>
     <sheet name="Student Visited In Lab" sheetId="3" r:id="rId3"/>
-    <sheet name="Balance" sheetId="10" r:id="rId4"/>
-    <sheet name="Purchase " sheetId="4" r:id="rId5"/>
-    <sheet name="Rate List" sheetId="5" r:id="rId6"/>
-    <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId7"/>
-    <sheet name="Final Year Projects" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="Celeab Responsibilities" sheetId="12" r:id="rId4"/>
+    <sheet name="Balance" sheetId="10" r:id="rId5"/>
+    <sheet name="Purchase " sheetId="4" r:id="rId6"/>
+    <sheet name="Rate List" sheetId="5" r:id="rId7"/>
+    <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId8"/>
+    <sheet name="Final Year Projects" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="579">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4076,12 +4076,66 @@
   <si>
     <t>17th feb 2015</t>
   </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Shankar</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>Make project which is reqiued in shop</t>
+  </si>
+  <si>
+    <t>û</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>Customer soldering work</t>
+  </si>
+  <si>
+    <t>Ethching and soldering, all designed pcb</t>
+  </si>
+  <si>
+    <t>Dealing With All final year students regarding Taking project and any type of help and idea.</t>
+  </si>
+  <si>
+    <t>Any types of Training of students (Basic electronics, 8051dev board and Arduino Training)</t>
+  </si>
+  <si>
+    <t>Maintain a proper xlsheet lab account data in terms of purchase, expense, and income.</t>
+  </si>
+  <si>
+    <t>Explanation of students who come to take project frome our shop</t>
+  </si>
+  <si>
+    <t>All major and mini project pcb design</t>
+  </si>
+  <si>
+    <t>Dealing with Students for Mini pojects</t>
+  </si>
+  <si>
+    <t>Provide PCB/Code for Training</t>
+  </si>
+  <si>
+    <t>Complete Final Year projects</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4144,6 +4198,12 @@
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -4321,7 +4381,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4520,6 +4580,24 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4582,7 +4660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4614,9 +4692,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4648,6 +4727,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4823,14 +4903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -4844,7 +4924,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4876,7 +4956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="75" customFormat="1">
+    <row r="2" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>6</v>
       </c>
@@ -4908,7 +4988,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4940,7 +5020,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>528</v>
       </c>
@@ -4963,7 +5043,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -4986,7 +5066,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>545</v>
       </c>
@@ -5012,7 +5092,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>549</v>
       </c>
@@ -5038,7 +5118,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>551</v>
       </c>
@@ -5064,7 +5144,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>554</v>
       </c>
@@ -5104,14 +5184,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -5124,7 +5204,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5150,7 +5230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5176,7 +5256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5199,7 +5279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5225,7 +5305,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5251,7 +5331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5277,7 +5357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -5300,7 +5380,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -5323,7 +5403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -5349,7 +5429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>329</v>
       </c>
@@ -5375,7 +5455,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -5401,7 +5481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="71" customFormat="1">
+    <row r="12" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="s">
         <v>335</v>
       </c>
@@ -5424,7 +5504,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>346</v>
       </c>
@@ -5450,7 +5530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -5476,7 +5556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="75" customFormat="1">
+    <row r="15" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
         <v>34</v>
       </c>
@@ -5502,7 +5582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="77" customFormat="1">
+    <row r="16" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>421</v>
       </c>
@@ -5531,7 +5611,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>429</v>
       </c>
@@ -5557,7 +5637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>435</v>
       </c>
@@ -5574,7 +5654,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>9711307405</v>
       </c>
@@ -5591,7 +5671,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>502</v>
       </c>
@@ -5614,7 +5694,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>519</v>
       </c>
@@ -5631,7 +5711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>522</v>
       </c>
@@ -5671,14 +5751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -5687,7 +5767,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -5707,7 +5787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -5727,7 +5807,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -5747,7 +5827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -5767,7 +5847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5787,7 +5867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5807,7 +5887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -5827,7 +5907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>358</v>
       </c>
@@ -5847,7 +5927,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>408</v>
       </c>
@@ -5867,7 +5947,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -5884,7 +5964,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>445</v>
       </c>
@@ -5901,7 +5981,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>465</v>
       </c>
@@ -5918,7 +5998,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -5935,7 +6015,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>492</v>
       </c>
@@ -5952,7 +6032,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>496</v>
       </c>
@@ -5969,7 +6049,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>514</v>
       </c>
@@ -5986,7 +6066,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>540</v>
       </c>
@@ -6027,14 +6107,241 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" style="94" customWidth="1"/>
+    <col min="2" max="2" width="15" style="96" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="96" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="96" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="97" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>570</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="94" t="s">
+        <v>572</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="94" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
+        <v>575</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>567</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -6044,7 +6351,7 @@
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>506</v>
       </c>
@@ -6064,7 +6371,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -6084,7 +6391,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>518</v>
       </c>
@@ -6098,7 +6405,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>532</v>
       </c>
@@ -6112,7 +6419,7 @@
         <v>10070</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>532</v>
       </c>
@@ -6129,7 +6436,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>559</v>
       </c>
@@ -6143,7 +6450,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>560</v>
       </c>
@@ -6162,15 +6469,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -6179,7 +6486,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -6190,7 +6497,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6201,7 +6508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -6212,7 +6519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -6223,7 +6530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -6234,7 +6541,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -6245,7 +6552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>338</v>
       </c>
@@ -6256,7 +6563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>338</v>
       </c>
@@ -6267,7 +6574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -6278,7 +6585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>348</v>
       </c>
@@ -6289,7 +6596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>348</v>
       </c>
@@ -6300,7 +6607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>419</v>
       </c>
@@ -6311,7 +6618,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>427</v>
       </c>
@@ -6322,7 +6629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -6333,7 +6640,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>437</v>
       </c>
@@ -6344,7 +6651,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -6355,7 +6662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -6366,7 +6673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>449</v>
       </c>
@@ -6377,7 +6684,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>488</v>
       </c>
@@ -6388,7 +6695,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>488</v>
       </c>
@@ -6399,7 +6706,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>498</v>
       </c>
@@ -6410,7 +6717,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>498</v>
       </c>
@@ -6421,7 +6728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>498</v>
       </c>
@@ -6432,7 +6739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>534</v>
       </c>
@@ -6443,7 +6750,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -6459,20 +6766,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -6480,7 +6787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6488,7 +6795,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -6496,7 +6803,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -6504,7 +6811,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -6512,7 +6819,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -6520,7 +6827,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -6528,7 +6835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -6536,7 +6843,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -6544,7 +6851,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -6552,7 +6859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -6560,7 +6867,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -6568,7 +6875,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -6576,7 +6883,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>345</v>
       </c>
@@ -6584,7 +6891,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>368</v>
       </c>
@@ -6592,7 +6899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>369</v>
       </c>
@@ -6600,7 +6907,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>370</v>
       </c>
@@ -6608,7 +6915,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -6616,7 +6923,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -6624,7 +6931,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>383</v>
       </c>
@@ -6632,7 +6939,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>388</v>
       </c>
@@ -6640,7 +6947,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>389</v>
       </c>
@@ -6648,7 +6955,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>390</v>
       </c>
@@ -6656,7 +6963,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -6664,7 +6971,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>460</v>
       </c>
@@ -6672,7 +6979,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>461</v>
       </c>
@@ -6680,7 +6987,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>462</v>
       </c>
@@ -6693,8 +7000,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6702,7 +7009,7 @@
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -7412,7 +7719,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
@@ -7448,8 +7755,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="86" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" s="86" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80">
         <v>1</v>
       </c>
@@ -7479,7 +7786,7 @@
       </c>
       <c r="L3" s="85"/>
     </row>
-    <row r="4" spans="1:12" s="70" customFormat="1" ht="26.25" thickBot="1">
+    <row r="4" spans="1:12" s="70" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="63">
         <v>2</v>
       </c>
@@ -7511,7 +7818,7 @@
       </c>
       <c r="L4" s="69"/>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -7543,7 +7850,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -7575,7 +7882,7 @@
       </c>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -7607,7 +7914,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -7639,7 +7946,7 @@
       </c>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -7669,7 +7976,7 @@
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -7699,7 +8006,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -7733,7 +8040,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -7765,7 +8072,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -7797,7 +8104,7 @@
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -7829,7 +8136,7 @@
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -7861,7 +8168,7 @@
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -7889,7 +8196,7 @@
       </c>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -7921,7 +8228,7 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
+    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>17</v>
       </c>
@@ -7955,7 +8262,7 @@
       </c>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -7987,7 +8294,7 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48">
         <v>20</v>
       </c>
@@ -8019,7 +8326,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
+    <row r="21" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48">
         <v>21</v>
       </c>
@@ -8064,15 +8371,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -8080,7 +8387,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
         <v>152</v>
       </c>
@@ -8094,13 +8401,13 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
       <c r="D2" s="15">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
         <v>155</v>
       </c>
@@ -8108,7 +8415,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>156</v>
       </c>
@@ -8119,7 +8426,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>157</v>
       </c>
@@ -8130,7 +8437,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
         <v>158</v>
       </c>
@@ -8141,7 +8448,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>159</v>
       </c>
@@ -8152,7 +8459,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
         <v>160</v>
       </c>
@@ -8163,7 +8470,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>161</v>
       </c>
@@ -8174,7 +8481,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
         <v>162</v>
       </c>
@@ -8185,7 +8492,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="54" t="s">
         <v>163</v>
       </c>
@@ -8196,7 +8503,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>164</v>
       </c>
@@ -8207,12 +8514,12 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
         <v>166</v>
       </c>
@@ -8220,7 +8527,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>167</v>
       </c>
@@ -8228,7 +8535,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
         <v>168</v>
       </c>
@@ -8236,12 +8543,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="57" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="56" t="s">
         <v>170</v>
       </c>
@@ -8249,7 +8556,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
         <v>171</v>
       </c>
@@ -8257,7 +8564,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
         <v>172</v>
       </c>
@@ -8265,7 +8572,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
         <v>173</v>
       </c>
@@ -8273,7 +8580,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
         <v>174</v>
       </c>
@@ -8281,7 +8588,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
         <v>175</v>
       </c>
@@ -8289,7 +8596,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
         <v>176</v>
       </c>
@@ -8297,7 +8604,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="73" t="s">
         <v>381</v>
       </c>
@@ -8305,7 +8612,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
         <v>344</v>
       </c>
@@ -8313,7 +8620,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="73" t="s">
         <v>349</v>
       </c>
@@ -8321,7 +8628,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="73" t="s">
         <v>350</v>
       </c>
@@ -8329,7 +8636,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="73" t="s">
         <v>351</v>
       </c>
@@ -8337,7 +8644,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="73" t="s">
         <v>382</v>
       </c>
@@ -8345,17 +8652,17 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="31" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="32" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="33" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="57" t="s">
         <v>366</v>
       </c>
@@ -8363,7 +8670,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
         <v>367</v>
       </c>
@@ -8371,17 +8678,17 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="35" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="36" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
         <v>371</v>
       </c>
@@ -8389,7 +8696,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="54" t="s">
         <v>373</v>
       </c>
@@ -8397,7 +8704,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="54" t="s">
         <v>374</v>
       </c>
@@ -8405,7 +8712,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="54" t="s">
         <v>375</v>
       </c>
@@ -8413,7 +8720,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="54" t="s">
         <v>376</v>
       </c>
@@ -8421,7 +8728,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="73" t="s">
         <v>384</v>
       </c>
@@ -8429,12 +8736,12 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="43" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="73" t="s">
         <v>385</v>
       </c>
@@ -8442,7 +8749,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="54" t="s">
         <v>182</v>
       </c>
@@ -8450,12 +8757,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="46" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="57" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="54" t="s">
         <v>378</v>
       </c>
@@ -8463,141 +8770,141 @@
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="58"/>
     </row>
-    <row r="49" spans="1:1" ht="15">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="54"/>
     </row>
-    <row r="50" spans="1:1" ht="16.5">
+    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="55" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15">
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15">
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15">
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15">
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="54" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15">
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="54" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="54" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="54" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15">
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15">
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15">
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15">
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="54" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="54"/>
     </row>
-    <row r="75" spans="1:3" ht="16.5">
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="55" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15">
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="54" t="s">
         <v>209</v>
       </c>
@@ -8605,7 +8912,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15">
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="54" t="s">
         <v>391</v>
       </c>
@@ -8613,7 +8920,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="54" t="s">
         <v>392</v>
       </c>
@@ -8621,7 +8928,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="54" t="s">
         <v>210</v>
       </c>
@@ -8629,7 +8936,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="54" t="s">
         <v>393</v>
       </c>
@@ -8637,7 +8944,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="54" t="s">
         <v>211</v>
       </c>
@@ -8645,7 +8952,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15">
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="54" t="s">
         <v>394</v>
       </c>
@@ -8653,7 +8960,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15">
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="54" t="s">
         <v>395</v>
       </c>
@@ -8661,12 +8968,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="84" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="57" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="54" t="s">
         <v>396</v>
       </c>
@@ -8674,12 +8981,12 @@
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="86" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="54" t="s">
         <v>214</v>
       </c>
@@ -8687,7 +8994,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15">
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="54" t="s">
         <v>397</v>
       </c>
@@ -8695,7 +9002,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="54" t="s">
         <v>398</v>
       </c>
@@ -8703,7 +9010,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="54" t="s">
         <v>399</v>
       </c>
@@ -8711,7 +9018,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="54" t="s">
         <v>400</v>
       </c>
@@ -8719,7 +9026,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="54" t="s">
         <v>401</v>
       </c>
@@ -8727,7 +9034,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15">
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="54" t="s">
         <v>402</v>
       </c>
@@ -8735,12 +9042,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="94" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="54" t="s">
         <v>403</v>
       </c>
@@ -8748,7 +9055,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15">
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="54" t="s">
         <v>404</v>
       </c>
@@ -8756,7 +9063,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15">
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="54" t="s">
         <v>405</v>
       </c>
@@ -8764,12 +9071,12 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="98" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15">
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="54" t="s">
         <v>217</v>
       </c>
@@ -8777,7 +9084,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15">
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="54" t="s">
         <v>406</v>
       </c>
@@ -8785,12 +9092,12 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="101" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="57" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15">
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="54" t="s">
         <v>407</v>
       </c>
@@ -8798,20 +9105,20 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="54"/>
     </row>
-    <row r="105" spans="1:3" ht="16.5">
+    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15">
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="54" t="s">
         <v>415</v>
       </c>
@@ -8819,7 +9126,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15">
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="54" t="s">
         <v>220</v>
       </c>
@@ -8827,7 +9134,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15">
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="54" t="s">
         <v>416</v>
       </c>
@@ -8835,7 +9142,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15">
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="54" t="s">
         <v>417</v>
       </c>
@@ -8843,7 +9150,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15">
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="54" t="s">
         <v>418</v>
       </c>
@@ -8851,7 +9158,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15">
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="54" t="s">
         <v>420</v>
       </c>
@@ -8859,7 +9166,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15">
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="54" t="s">
         <v>221</v>
       </c>
@@ -8867,7 +9174,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15">
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="54" t="s">
         <v>454</v>
       </c>
@@ -8875,7 +9182,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15">
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="54" t="s">
         <v>222</v>
       </c>
@@ -8883,12 +9190,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="115" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="57" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15">
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="54" t="s">
         <v>224</v>
       </c>
@@ -8896,7 +9203,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15">
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="54" t="s">
         <v>455</v>
       </c>
@@ -8904,7 +9211,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15">
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="54" t="s">
         <v>456</v>
       </c>
@@ -8912,25 +9219,25 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15">
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15">
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="54"/>
     </row>
-    <row r="121" spans="1:3" ht="16.5">
+    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="122" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15">
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="54" t="s">
         <v>227</v>
       </c>
@@ -8938,7 +9245,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15">
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="54" t="s">
         <v>228</v>
       </c>
@@ -8946,7 +9253,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15">
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="54" t="s">
         <v>229</v>
       </c>
@@ -8954,7 +9261,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15">
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="54" t="s">
         <v>230</v>
       </c>
@@ -8962,7 +9269,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15">
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="54" t="s">
         <v>457</v>
       </c>
@@ -8970,37 +9277,37 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="128" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="129" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="130" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="131" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="132" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="57" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="133" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="57" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15">
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="54" t="s">
         <v>237</v>
       </c>
@@ -9008,42 +9315,42 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="135" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="136" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="137" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="138" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="57" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15">
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="54" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="140" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="57" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="141" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15">
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="54" t="s">
         <v>245</v>
       </c>
@@ -9051,7 +9358,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15">
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="54" t="s">
         <v>246</v>
       </c>
@@ -9059,45 +9366,45 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="144" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="145" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="57" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="146" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="147" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="57" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="148" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="149" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15">
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="54"/>
     </row>
-    <row r="151" spans="1:3" ht="16.5">
+    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15">
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="54" t="s">
         <v>254</v>
       </c>
@@ -9105,7 +9412,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15">
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="54" t="s">
         <v>255</v>
       </c>
@@ -9113,7 +9420,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15">
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="54" t="s">
         <v>256</v>
       </c>
@@ -9121,7 +9428,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15">
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="54" t="s">
         <v>458</v>
       </c>
@@ -9129,7 +9436,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15">
+    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="54" t="s">
         <v>257</v>
       </c>
@@ -9137,7 +9444,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15">
+    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="54" t="s">
         <v>459</v>
       </c>
@@ -9145,17 +9452,17 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15">
+    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5">
+    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="55" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15">
+    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="54" t="s">
         <v>259</v>
       </c>
@@ -9163,7 +9470,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15">
+    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="54" t="s">
         <v>260</v>
       </c>
@@ -9171,17 +9478,17 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="162" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="163" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="164" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="57" t="s">
         <v>263</v>
       </c>
@@ -9189,7 +9496,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15">
+    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="54" t="s">
         <v>264</v>
       </c>
@@ -9197,62 +9504,62 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="166" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="167" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="57" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="168" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="169" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="170" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="171" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="57" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="172" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="57" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="173" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="174" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="175" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="176" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15">
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="54" t="s">
         <v>276</v>
       </c>
@@ -9260,12 +9567,12 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="178" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15">
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="54" t="s">
         <v>469</v>
       </c>
@@ -9273,7 +9580,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15">
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="54" t="s">
         <v>470</v>
       </c>
@@ -9281,12 +9588,12 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="181" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="57" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15">
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="54" t="s">
         <v>471</v>
       </c>
@@ -9294,17 +9601,17 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="183" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="184" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="57" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15">
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="54" t="s">
         <v>472</v>
       </c>
@@ -9312,55 +9619,55 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="186" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="187" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="57" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="188" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="189" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="57" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="190" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="57" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="191" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="57" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="192" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="57" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="193" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15">
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="54"/>
     </row>
-    <row r="195" spans="1:3" ht="16.5">
+    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="55" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15">
+    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="54" t="s">
         <v>463</v>
       </c>
@@ -9368,7 +9675,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15">
+    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="54" t="s">
         <v>290</v>
       </c>
@@ -9376,7 +9683,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15">
+    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="54" t="s">
         <v>464</v>
       </c>
@@ -9384,7 +9691,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15">
+    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="54" t="s">
         <v>473</v>
       </c>
@@ -9392,7 +9699,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15">
+    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="54" t="s">
         <v>474</v>
       </c>
@@ -9400,12 +9707,12 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="201" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="57" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15">
+    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="54" t="s">
         <v>475</v>
       </c>
@@ -9413,7 +9720,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15">
+    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="54" t="s">
         <v>476</v>
       </c>
@@ -9421,7 +9728,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15">
+    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="54" t="s">
         <v>477</v>
       </c>
@@ -9429,15 +9736,15 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15">
+    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="54"/>
     </row>
-    <row r="206" spans="1:3" ht="16.5">
+    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A206" s="55" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15">
+    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="54" t="s">
         <v>478</v>
       </c>
@@ -9445,7 +9752,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15">
+    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="54" t="s">
         <v>479</v>
       </c>
@@ -9453,7 +9760,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15">
+    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="54" t="s">
         <v>480</v>
       </c>
@@ -9461,38 +9768,38 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="210" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="57" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15">
+    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="54"/>
     </row>
-    <row r="212" spans="1:3" ht="16.5">
+    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A212" s="55" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15">
+    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="54" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15">
+    <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="54" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15">
+    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="54"/>
     </row>
-    <row r="216" spans="1:3" ht="16.5">
+    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A216" s="55" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15">
+    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="54" t="s">
         <v>481</v>
       </c>
@@ -9500,12 +9807,12 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="218" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="57" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15">
+    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="54" t="s">
         <v>482</v>
       </c>
@@ -9513,158 +9820,158 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="220" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="57" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="221" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="57" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="222" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="223" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="57" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="62" customFormat="1" ht="15">
+    <row r="224" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="57" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="62" customFormat="1" ht="15">
+    <row r="225" spans="1:1" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="57" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15">
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="54"/>
     </row>
-    <row r="227" spans="1:1" ht="16.5">
+    <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A227" s="55" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15">
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="54" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15">
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="54"/>
     </row>
-    <row r="230" spans="1:1" ht="16.5">
+    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A230" s="55" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15">
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15">
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="54" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16.5">
+    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234" s="55" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="56" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16.5">
+    <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A242" s="55" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16.5">
+    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="55" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16.5">
+    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A246" s="55" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="59" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="59" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="59" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="59" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="59" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="60" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="59" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="59" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="59" t="s">
         <v>328</v>
       </c>
@@ -9673,16 +9980,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="580">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4129,6 +4129,9 @@
   </si>
   <si>
     <t>Complete Final Year projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track the requirements and delivery of projects </t>
   </si>
 </sst>
 </file>
@@ -6108,10 +6111,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6324,6 +6327,23 @@
         <v>568</v>
       </c>
       <c r="E12" s="95" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>568</v>
+      </c>
+      <c r="E13" s="95" t="s">
         <v>568</v>
       </c>
     </row>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="594">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4133,12 +4133,54 @@
   <si>
     <t xml:space="preserve">Track the requirements and delivery of projects </t>
   </si>
+  <si>
+    <t>Vipin</t>
+  </si>
+  <si>
+    <t>vipinchauhan247@gmail.com</t>
+  </si>
+  <si>
+    <t>Multi purpose Electronic</t>
+  </si>
+  <si>
+    <t>18th Feb</t>
+  </si>
+  <si>
+    <t>Variable wind power plant</t>
+  </si>
+  <si>
+    <t>sohanshine@gmail.com</t>
+  </si>
+  <si>
+    <t>9136791828</t>
+  </si>
+  <si>
+    <t>Within 1 Month</t>
+  </si>
+  <si>
+    <t>18th feb 2015</t>
+  </si>
+  <si>
+    <t>Prakash Pandey</t>
+  </si>
+  <si>
+    <t>luckyprakash021@gmail.com</t>
+  </si>
+  <si>
+    <t>G.N.I.O.T</t>
+  </si>
+  <si>
+    <t>18th feb</t>
+  </si>
+  <si>
+    <t>Carbon Paper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4384,7 +4426,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4601,6 +4643,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4663,7 +4708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4695,10 +4740,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4730,7 +4774,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4906,14 +4949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -4927,7 +4970,7 @@
     <col min="11" max="11" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4959,7 +5002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="75" customFormat="1">
       <c r="A2" s="75" t="s">
         <v>6</v>
       </c>
@@ -4991,7 +5034,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5023,7 +5066,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>528</v>
       </c>
@@ -5046,7 +5089,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>529</v>
       </c>
@@ -5069,7 +5112,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>545</v>
       </c>
@@ -5095,7 +5138,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>549</v>
       </c>
@@ -5121,7 +5164,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>551</v>
       </c>
@@ -5147,7 +5190,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>554</v>
       </c>
@@ -5187,14 +5230,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -5207,7 +5250,7 @@
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5233,7 +5276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5259,7 +5302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5282,7 +5325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5308,7 +5351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5334,7 +5377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5360,7 +5403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -5383,7 +5426,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -5406,7 +5449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -5432,7 +5475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>329</v>
       </c>
@@ -5458,7 +5501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -5484,7 +5527,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="71" customFormat="1">
       <c r="A12" s="71" t="s">
         <v>335</v>
       </c>
@@ -5507,7 +5550,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>346</v>
       </c>
@@ -5533,7 +5576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>363</v>
       </c>
@@ -5559,7 +5602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="75" customFormat="1">
       <c r="A15" s="75" t="s">
         <v>34</v>
       </c>
@@ -5585,7 +5628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="77" customFormat="1">
       <c r="A16" s="77" t="s">
         <v>421</v>
       </c>
@@ -5614,7 +5657,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>429</v>
       </c>
@@ -5640,7 +5683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>435</v>
       </c>
@@ -5657,7 +5700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="B19">
         <v>9711307405</v>
       </c>
@@ -5674,7 +5717,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>502</v>
       </c>
@@ -5697,7 +5740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>519</v>
       </c>
@@ -5714,7 +5757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>522</v>
       </c>
@@ -5729,6 +5772,29 @@
       </c>
       <c r="F22">
         <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23">
+        <v>9654033937</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D23" t="s">
+        <v>582</v>
+      </c>
+      <c r="E23" t="s">
+        <v>583</v>
+      </c>
+      <c r="F23">
+        <v>800</v>
+      </c>
+      <c r="G23">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5747,21 +5813,22 @@
     <hyperlink ref="C16" r:id="rId12"/>
     <hyperlink ref="C17" r:id="rId13"/>
     <hyperlink ref="C20" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -5770,7 +5837,7 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -5790,7 +5857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -5810,7 +5877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -5830,7 +5897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -5850,7 +5917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5870,7 +5937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -5890,7 +5957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -5910,7 +5977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>358</v>
       </c>
@@ -5930,7 +5997,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>408</v>
       </c>
@@ -5950,7 +6017,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>441</v>
       </c>
@@ -5967,7 +6034,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>445</v>
       </c>
@@ -5984,7 +6051,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>465</v>
       </c>
@@ -6001,7 +6068,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -6018,7 +6085,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>492</v>
       </c>
@@ -6035,7 +6102,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>496</v>
       </c>
@@ -6052,7 +6119,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>514</v>
       </c>
@@ -6069,7 +6136,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>540</v>
       </c>
@@ -6084,6 +6151,23 @@
       </c>
       <c r="E17" t="s">
         <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B18">
+        <v>8130283991</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D18" t="s">
+        <v>591</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6104,20 +6188,21 @@
     <hyperlink ref="C15" r:id="rId14"/>
     <hyperlink ref="C16" r:id="rId15"/>
     <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.7109375" style="94" customWidth="1"/>
     <col min="2" max="2" width="15" style="96" customWidth="1"/>
@@ -6126,7 +6211,7 @@
     <col min="5" max="5" width="13.85546875" style="97" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="61" customFormat="1">
       <c r="A1" s="92" t="s">
         <v>561</v>
       </c>
@@ -6143,7 +6228,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="94" t="s">
         <v>566</v>
       </c>
@@ -6160,7 +6245,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="94" t="s">
         <v>569</v>
       </c>
@@ -6177,7 +6262,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="94" t="s">
         <v>570</v>
       </c>
@@ -6194,7 +6279,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" s="94" t="s">
         <v>571</v>
       </c>
@@ -6211,7 +6296,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45">
       <c r="A6" s="94" t="s">
         <v>572</v>
       </c>
@@ -6228,7 +6313,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="94" t="s">
         <v>573</v>
       </c>
@@ -6245,7 +6330,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="94" t="s">
         <v>574</v>
       </c>
@@ -6262,7 +6347,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="94" t="s">
         <v>575</v>
       </c>
@@ -6279,7 +6364,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="94" t="s">
         <v>576</v>
       </c>
@@ -6296,7 +6381,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="94" t="s">
         <v>577</v>
       </c>
@@ -6313,7 +6398,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="94" t="s">
         <v>578</v>
       </c>
@@ -6330,7 +6415,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="94" t="s">
         <v>579</v>
       </c>
@@ -6354,14 +6439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -6371,7 +6456,7 @@
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>506</v>
       </c>
@@ -6391,7 +6476,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>509</v>
       </c>
@@ -6411,7 +6496,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>518</v>
       </c>
@@ -6425,7 +6510,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>532</v>
       </c>
@@ -6439,7 +6524,7 @@
         <v>10070</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>532</v>
       </c>
@@ -6450,13 +6535,13 @@
         <v>10000</v>
       </c>
       <c r="E5">
-        <v>10049</v>
+        <v>1049</v>
       </c>
       <c r="F5">
         <v>1070</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>559</v>
       </c>
@@ -6464,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10049</v>
+        <v>1049</v>
       </c>
       <c r="F6">
         <v>1070</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>560</v>
       </c>
@@ -6478,10 +6563,27 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10049</v>
+        <v>1049</v>
       </c>
       <c r="F7">
         <v>1070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C8">
+        <v>2300</v>
+      </c>
+      <c r="D8">
+        <v>735</v>
+      </c>
+      <c r="E8">
+        <v>2614</v>
+      </c>
+      <c r="F8">
+        <v>2635</v>
       </c>
     </row>
   </sheetData>
@@ -6490,14 +6592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -6506,7 +6608,7 @@
     <col min="5" max="6" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -6517,7 +6619,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6528,7 +6630,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -6539,7 +6641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -6550,7 +6652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -6561,7 +6663,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -6572,7 +6674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>338</v>
       </c>
@@ -6583,7 +6685,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>338</v>
       </c>
@@ -6594,7 +6696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>338</v>
       </c>
@@ -6605,7 +6707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>348</v>
       </c>
@@ -6616,7 +6718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>348</v>
       </c>
@@ -6627,7 +6729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>419</v>
       </c>
@@ -6638,7 +6740,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>427</v>
       </c>
@@ -6649,7 +6751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -6660,7 +6762,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>437</v>
       </c>
@@ -6671,7 +6773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -6682,7 +6784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>448</v>
       </c>
@@ -6693,7 +6795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>449</v>
       </c>
@@ -6704,7 +6806,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>488</v>
       </c>
@@ -6715,7 +6817,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>488</v>
       </c>
@@ -6726,7 +6828,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>498</v>
       </c>
@@ -6737,7 +6839,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>498</v>
       </c>
@@ -6748,7 +6850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>498</v>
       </c>
@@ -6759,7 +6861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>534</v>
       </c>
@@ -6770,7 +6872,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>543</v>
       </c>
@@ -6779,6 +6881,28 @@
       </c>
       <c r="C25">
         <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>592</v>
+      </c>
+      <c r="B26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C26">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6787,19 +6911,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -6807,7 +6931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6815,7 +6939,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -6823,7 +6947,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -6831,7 +6955,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -6839,7 +6963,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -6847,7 +6971,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -6855,7 +6979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -6863,7 +6987,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -6871,7 +6995,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -6879,7 +7003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -6887,7 +7011,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -6895,7 +7019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -6903,7 +7027,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>345</v>
       </c>
@@ -6911,7 +7035,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>368</v>
       </c>
@@ -6919,7 +7043,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>369</v>
       </c>
@@ -6927,7 +7051,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>370</v>
       </c>
@@ -6935,7 +7059,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>372</v>
       </c>
@@ -6943,7 +7067,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>377</v>
       </c>
@@ -6951,7 +7075,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>383</v>
       </c>
@@ -6959,7 +7083,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>388</v>
       </c>
@@ -6967,7 +7091,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>389</v>
       </c>
@@ -6975,7 +7099,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>390</v>
       </c>
@@ -6983,7 +7107,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -6991,7 +7115,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>460</v>
       </c>
@@ -6999,7 +7123,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>461</v>
       </c>
@@ -7007,7 +7131,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>462</v>
       </c>
@@ -7021,15 +7145,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
     <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
@@ -7739,7 +7863,7 @@
     <col min="16140" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>89</v>
       </c>
@@ -7775,8 +7899,8 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" s="86" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:12" s="86" customFormat="1" ht="13.5" thickBot="1">
       <c r="A3" s="80">
         <v>1</v>
       </c>
@@ -7806,7 +7930,7 @@
       </c>
       <c r="L3" s="85"/>
     </row>
-    <row r="4" spans="1:12" s="70" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="70" customFormat="1" ht="26.25" thickBot="1">
       <c r="A4" s="63">
         <v>2</v>
       </c>
@@ -7838,7 +7962,7 @@
       </c>
       <c r="L4" s="69"/>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -7870,7 +7994,7 @@
       </c>
       <c r="L5" s="38"/>
     </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
       <c r="A6" s="23">
         <v>4</v>
       </c>
@@ -7902,7 +8026,7 @@
       </c>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -7934,7 +8058,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A8" s="31">
         <v>6</v>
       </c>
@@ -7966,7 +8090,7 @@
       </c>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -7996,7 +8120,7 @@
       </c>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -8026,7 +8150,7 @@
       </c>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -8060,7 +8184,7 @@
       </c>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -8092,7 +8216,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -8124,7 +8248,7 @@
       </c>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -8156,7 +8280,7 @@
       </c>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
       <c r="A15" s="23">
         <v>14</v>
       </c>
@@ -8188,7 +8312,7 @@
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -8216,7 +8340,7 @@
       </c>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -8248,7 +8372,7 @@
       </c>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
       <c r="A18" s="43">
         <v>17</v>
       </c>
@@ -8282,7 +8406,7 @@
       </c>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
       <c r="A19" s="31">
         <v>19</v>
       </c>
@@ -8314,7 +8438,7 @@
       </c>
       <c r="L19" s="38"/>
     </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
       <c r="A20" s="48">
         <v>20</v>
       </c>
@@ -8346,7 +8470,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
       <c r="A21" s="48">
         <v>21</v>
       </c>
@@ -8379,27 +8503,60 @@
         <v>539</v>
       </c>
       <c r="L21" s="51"/>
+    </row>
+    <row r="22" spans="1:12" ht="30">
+      <c r="A22" s="11">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>585</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="H22" s="11">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>587</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1"/>
     <hyperlink ref="E20" r:id="rId2"/>
     <hyperlink ref="E21" r:id="rId3"/>
+    <hyperlink ref="E22" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A231" sqref="A231"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
@@ -8407,7 +8564,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="53" t="s">
         <v>152</v>
       </c>
@@ -8421,13 +8578,13 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="54"/>
       <c r="D2" s="15">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="55" t="s">
         <v>155</v>
       </c>
@@ -8435,7 +8592,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="56" t="s">
         <v>156</v>
       </c>
@@ -8446,7 +8603,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="54" t="s">
         <v>157</v>
       </c>
@@ -8457,7 +8614,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="54" t="s">
         <v>158</v>
       </c>
@@ -8468,7 +8625,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="54" t="s">
         <v>159</v>
       </c>
@@ -8479,7 +8636,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="54" t="s">
         <v>160</v>
       </c>
@@ -8490,7 +8647,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="54" t="s">
         <v>161</v>
       </c>
@@ -8501,7 +8658,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="56" t="s">
         <v>162</v>
       </c>
@@ -8512,7 +8669,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="54" t="s">
         <v>163</v>
       </c>
@@ -8523,7 +8680,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="54" t="s">
         <v>164</v>
       </c>
@@ -8534,12 +8691,12 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="57" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="54" t="s">
         <v>166</v>
       </c>
@@ -8547,7 +8704,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="54" t="s">
         <v>167</v>
       </c>
@@ -8555,7 +8712,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="54" t="s">
         <v>168</v>
       </c>
@@ -8563,12 +8720,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="57" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="56" t="s">
         <v>170</v>
       </c>
@@ -8576,7 +8733,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="54" t="s">
         <v>171</v>
       </c>
@@ -8584,7 +8741,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="54" t="s">
         <v>172</v>
       </c>
@@ -8592,7 +8749,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="54" t="s">
         <v>173</v>
       </c>
@@ -8600,7 +8757,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="54" t="s">
         <v>174</v>
       </c>
@@ -8608,7 +8765,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="54" t="s">
         <v>175</v>
       </c>
@@ -8616,7 +8773,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="54" t="s">
         <v>176</v>
       </c>
@@ -8624,7 +8781,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="73" t="s">
         <v>381</v>
       </c>
@@ -8632,7 +8789,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="54" t="s">
         <v>344</v>
       </c>
@@ -8640,7 +8797,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="73" t="s">
         <v>349</v>
       </c>
@@ -8648,7 +8805,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A28" s="73" t="s">
         <v>350</v>
       </c>
@@ -8656,7 +8813,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A29" s="73" t="s">
         <v>351</v>
       </c>
@@ -8664,7 +8821,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="73" t="s">
         <v>382</v>
       </c>
@@ -8672,17 +8829,17 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A31" s="57" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A32" s="57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A33" s="57" t="s">
         <v>366</v>
       </c>
@@ -8690,7 +8847,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="54" t="s">
         <v>367</v>
       </c>
@@ -8698,17 +8855,17 @@
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A35" s="57" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A36" s="57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" s="54" t="s">
         <v>371</v>
       </c>
@@ -8716,7 +8873,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15">
       <c r="A38" s="54" t="s">
         <v>373</v>
       </c>
@@ -8724,7 +8881,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="15">
       <c r="A39" s="54" t="s">
         <v>374</v>
       </c>
@@ -8732,7 +8889,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" s="54" t="s">
         <v>375</v>
       </c>
@@ -8740,7 +8897,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" s="54" t="s">
         <v>376</v>
       </c>
@@ -8748,7 +8905,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A42" s="73" t="s">
         <v>384</v>
       </c>
@@ -8756,12 +8913,12 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A43" s="57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A44" s="73" t="s">
         <v>385</v>
       </c>
@@ -8769,7 +8926,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="15">
       <c r="A45" s="54" t="s">
         <v>182</v>
       </c>
@@ -8777,12 +8934,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A46" s="57" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="15">
       <c r="A47" s="54" t="s">
         <v>378</v>
       </c>
@@ -8790,141 +8947,141 @@
         <v>575</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="15">
       <c r="A48" s="58"/>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" s="54"/>
     </row>
-    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="16.5">
       <c r="A50" s="55" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" s="54" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="15">
       <c r="A52" s="54" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="15">
       <c r="A53" s="54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="15">
       <c r="A54" s="54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="15">
       <c r="A55" s="54" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="15">
       <c r="A56" s="54" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="15">
       <c r="A57" s="54" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="15">
       <c r="A58" s="54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="15">
       <c r="A59" s="54" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="15">
       <c r="A60" s="54" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="15">
       <c r="A61" s="54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="15">
       <c r="A62" s="54" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="15">
       <c r="A63" s="54" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="15">
       <c r="A64" s="54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="15">
       <c r="A65" s="54" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="15">
       <c r="A66" s="54" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="15">
       <c r="A67" s="54" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="15">
       <c r="A68" s="54" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="15">
       <c r="A69" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="15">
       <c r="A70" s="54" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="15">
       <c r="A71" s="54" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="15">
       <c r="A72" s="54" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="15">
       <c r="A73" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="15">
       <c r="A74" s="54"/>
     </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="55" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="15">
       <c r="A76" s="54" t="s">
         <v>209</v>
       </c>
@@ -8932,7 +9089,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="15">
       <c r="A77" s="54" t="s">
         <v>391</v>
       </c>
@@ -8940,7 +9097,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="15">
       <c r="A78" s="54" t="s">
         <v>392</v>
       </c>
@@ -8948,7 +9105,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="15">
       <c r="A79" s="54" t="s">
         <v>210</v>
       </c>
@@ -8956,7 +9113,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="15">
       <c r="A80" s="54" t="s">
         <v>393</v>
       </c>
@@ -8964,7 +9121,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="15">
       <c r="A81" s="54" t="s">
         <v>211</v>
       </c>
@@ -8972,7 +9129,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="15">
       <c r="A82" s="54" t="s">
         <v>394</v>
       </c>
@@ -8980,7 +9137,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="15">
       <c r="A83" s="54" t="s">
         <v>395</v>
       </c>
@@ -8988,12 +9145,12 @@
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A84" s="57" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="15">
       <c r="A85" s="54" t="s">
         <v>396</v>
       </c>
@@ -9001,12 +9158,12 @@
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A86" s="57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="15">
       <c r="A87" s="54" t="s">
         <v>214</v>
       </c>
@@ -9014,7 +9171,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="15">
       <c r="A88" s="54" t="s">
         <v>397</v>
       </c>
@@ -9022,7 +9179,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="15">
       <c r="A89" s="54" t="s">
         <v>398</v>
       </c>
@@ -9030,7 +9187,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="15">
       <c r="A90" s="54" t="s">
         <v>399</v>
       </c>
@@ -9038,7 +9195,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="15">
       <c r="A91" s="54" t="s">
         <v>400</v>
       </c>
@@ -9046,7 +9203,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="15">
       <c r="A92" s="54" t="s">
         <v>401</v>
       </c>
@@ -9054,7 +9211,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="15">
       <c r="A93" s="54" t="s">
         <v>402</v>
       </c>
@@ -9062,12 +9219,12 @@
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A94" s="57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="15">
       <c r="A95" s="54" t="s">
         <v>403</v>
       </c>
@@ -9075,7 +9232,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="15">
       <c r="A96" s="54" t="s">
         <v>404</v>
       </c>
@@ -9083,7 +9240,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="15">
       <c r="A97" s="54" t="s">
         <v>405</v>
       </c>
@@ -9091,12 +9248,12 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A98" s="57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="15">
       <c r="A99" s="54" t="s">
         <v>217</v>
       </c>
@@ -9104,7 +9261,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="15">
       <c r="A100" s="54" t="s">
         <v>406</v>
       </c>
@@ -9112,12 +9269,12 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A101" s="57" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="15">
       <c r="A102" s="54" t="s">
         <v>407</v>
       </c>
@@ -9125,20 +9282,20 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="15">
       <c r="A103" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="15">
       <c r="A104" s="54"/>
     </row>
-    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="16.5">
       <c r="A105" s="55" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="15">
       <c r="A106" s="54" t="s">
         <v>415</v>
       </c>
@@ -9146,7 +9303,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="15">
       <c r="A107" s="54" t="s">
         <v>220</v>
       </c>
@@ -9154,7 +9311,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="15">
       <c r="A108" s="54" t="s">
         <v>416</v>
       </c>
@@ -9162,7 +9319,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="15">
       <c r="A109" s="54" t="s">
         <v>417</v>
       </c>
@@ -9170,7 +9327,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="15">
       <c r="A110" s="54" t="s">
         <v>418</v>
       </c>
@@ -9178,7 +9335,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="15">
       <c r="A111" s="54" t="s">
         <v>420</v>
       </c>
@@ -9186,7 +9343,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="15">
       <c r="A112" s="54" t="s">
         <v>221</v>
       </c>
@@ -9194,7 +9351,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="15">
       <c r="A113" s="54" t="s">
         <v>454</v>
       </c>
@@ -9202,7 +9359,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="15">
       <c r="A114" s="54" t="s">
         <v>222</v>
       </c>
@@ -9210,12 +9367,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A115" s="57" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="15">
       <c r="A116" s="54" t="s">
         <v>224</v>
       </c>
@@ -9223,7 +9380,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="15">
       <c r="A117" s="54" t="s">
         <v>455</v>
       </c>
@@ -9231,7 +9388,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="15">
       <c r="A118" s="54" t="s">
         <v>456</v>
       </c>
@@ -9239,25 +9396,25 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="15">
       <c r="A119" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="15">
       <c r="A120" s="54"/>
     </row>
-    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="16.5">
       <c r="A121" s="55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A122" s="57" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="15">
       <c r="A123" s="54" t="s">
         <v>227</v>
       </c>
@@ -9265,7 +9422,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="15">
       <c r="A124" s="54" t="s">
         <v>228</v>
       </c>
@@ -9273,7 +9430,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="15">
       <c r="A125" s="54" t="s">
         <v>229</v>
       </c>
@@ -9281,7 +9438,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="15">
       <c r="A126" s="54" t="s">
         <v>230</v>
       </c>
@@ -9289,7 +9446,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="15">
       <c r="A127" s="54" t="s">
         <v>457</v>
       </c>
@@ -9297,37 +9454,37 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A128" s="57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A129" s="57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A130" s="57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A131" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A132" s="57" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A133" s="57" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="15">
       <c r="A134" s="54" t="s">
         <v>237</v>
       </c>
@@ -9335,42 +9492,42 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A135" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A136" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A137" s="57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A138" s="57" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="15">
       <c r="A139" s="54" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A140" s="57" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A141" s="57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="15">
       <c r="A142" s="54" t="s">
         <v>245</v>
       </c>
@@ -9378,7 +9535,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="15">
       <c r="A143" s="54" t="s">
         <v>246</v>
       </c>
@@ -9386,45 +9543,45 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A144" s="57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A145" s="57" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A146" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A147" s="57" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A148" s="57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A149" s="57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="15">
       <c r="A150" s="54"/>
     </row>
-    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="16.5">
       <c r="A151" s="55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="15">
       <c r="A152" s="54" t="s">
         <v>254</v>
       </c>
@@ -9432,7 +9589,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="15">
       <c r="A153" s="54" t="s">
         <v>255</v>
       </c>
@@ -9440,7 +9597,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="15">
       <c r="A154" s="54" t="s">
         <v>256</v>
       </c>
@@ -9448,7 +9605,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="15">
       <c r="A155" s="54" t="s">
         <v>458</v>
       </c>
@@ -9456,7 +9613,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="15">
       <c r="A156" s="54" t="s">
         <v>257</v>
       </c>
@@ -9464,7 +9621,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="15">
       <c r="A157" s="54" t="s">
         <v>459</v>
       </c>
@@ -9472,17 +9629,17 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="15">
       <c r="A158" s="54" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="16.5">
       <c r="A159" s="55" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="15">
       <c r="A160" s="54" t="s">
         <v>259</v>
       </c>
@@ -9490,7 +9647,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="15">
       <c r="A161" s="54" t="s">
         <v>260</v>
       </c>
@@ -9498,17 +9655,17 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A162" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A163" s="57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A164" s="57" t="s">
         <v>263</v>
       </c>
@@ -9516,7 +9673,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="15">
       <c r="A165" s="54" t="s">
         <v>264</v>
       </c>
@@ -9524,62 +9681,62 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A166" s="57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A167" s="57" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A168" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A169" s="57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A170" s="57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A171" s="57" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A172" s="57" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A173" s="57" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A174" s="57" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A175" s="57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A176" s="57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="15">
       <c r="A177" s="54" t="s">
         <v>276</v>
       </c>
@@ -9587,12 +9744,12 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A178" s="57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="15">
       <c r="A179" s="54" t="s">
         <v>469</v>
       </c>
@@ -9600,7 +9757,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="15">
       <c r="A180" s="54" t="s">
         <v>470</v>
       </c>
@@ -9608,12 +9765,12 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A181" s="57" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="15">
       <c r="A182" s="54" t="s">
         <v>471</v>
       </c>
@@ -9621,17 +9778,17 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A183" s="57" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A184" s="57" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="15">
       <c r="A185" s="54" t="s">
         <v>472</v>
       </c>
@@ -9639,55 +9796,55 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A186" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A187" s="57" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A188" s="57" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A189" s="57" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A190" s="57" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A191" s="57" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A192" s="57" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A193" s="57" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="15">
       <c r="A194" s="54"/>
     </row>
-    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="16.5">
       <c r="A195" s="55" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="15">
       <c r="A196" s="54" t="s">
         <v>463</v>
       </c>
@@ -9695,7 +9852,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="15">
       <c r="A197" s="54" t="s">
         <v>290</v>
       </c>
@@ -9703,7 +9860,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="15">
       <c r="A198" s="54" t="s">
         <v>464</v>
       </c>
@@ -9711,7 +9868,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="15">
       <c r="A199" s="54" t="s">
         <v>473</v>
       </c>
@@ -9719,7 +9876,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="15">
       <c r="A200" s="54" t="s">
         <v>474</v>
       </c>
@@ -9727,12 +9884,12 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A201" s="57" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="15">
       <c r="A202" s="54" t="s">
         <v>475</v>
       </c>
@@ -9740,7 +9897,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="15">
       <c r="A203" s="54" t="s">
         <v>476</v>
       </c>
@@ -9748,7 +9905,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="15">
       <c r="A204" s="54" t="s">
         <v>477</v>
       </c>
@@ -9756,15 +9913,15 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="15">
       <c r="A205" s="54"/>
     </row>
-    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="16.5">
       <c r="A206" s="55" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="15">
       <c r="A207" s="54" t="s">
         <v>478</v>
       </c>
@@ -9772,7 +9929,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="15">
       <c r="A208" s="54" t="s">
         <v>479</v>
       </c>
@@ -9780,7 +9937,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="15">
       <c r="A209" s="54" t="s">
         <v>480</v>
       </c>
@@ -9788,38 +9945,38 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A210" s="57" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="15">
       <c r="A211" s="54"/>
     </row>
-    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="16.5">
       <c r="A212" s="55" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="15">
       <c r="A213" s="54" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="15">
       <c r="A214" s="54" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="15">
       <c r="A215" s="54"/>
     </row>
-    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="16.5">
       <c r="A216" s="55" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="15">
       <c r="A217" s="54" t="s">
         <v>481</v>
       </c>
@@ -9827,12 +9984,12 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A218" s="57" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="15">
       <c r="A219" s="54" t="s">
         <v>482</v>
       </c>
@@ -9840,158 +9997,158 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A220" s="57" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A221" s="57" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A222" s="57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A223" s="57" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" s="62" customFormat="1" ht="15">
       <c r="A224" s="57" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" s="62" customFormat="1" ht="15">
       <c r="A225" s="57" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="15">
       <c r="A226" s="54"/>
     </row>
-    <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="16.5">
       <c r="A227" s="55" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="15">
       <c r="A228" s="54" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="15">
       <c r="A229" s="54"/>
     </row>
-    <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="16.5">
       <c r="A230" s="55" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="15">
       <c r="A231" s="54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="15">
       <c r="A232" s="54" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="16.5">
       <c r="A234" s="55" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1">
       <c r="A235" s="56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1">
       <c r="A236" s="56" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1">
       <c r="A237" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1">
       <c r="A238" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1">
       <c r="A239" s="56" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1">
       <c r="A240" s="56" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="16.5">
       <c r="A242" s="55" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="16.5">
       <c r="A244" s="55" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="16.5">
       <c r="A246" s="55" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1">
       <c r="A247" s="59" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1">
       <c r="A248" s="59" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1">
       <c r="A249" s="59" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1">
       <c r="A250" s="59" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1">
       <c r="A251" s="59" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1">
       <c r="A252" s="60" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
       <c r="A253" s="59" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1">
       <c r="A254" s="59" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1">
       <c r="A255" s="59" t="s">
         <v>328</v>
       </c>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" tabRatio="815" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="605">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4174,6 +4174,39 @@
   </si>
   <si>
     <t>Carbon Paper</t>
+  </si>
+  <si>
+    <t>Akhilesh Singh</t>
+  </si>
+  <si>
+    <t>akhil965477@gmail.com</t>
+  </si>
+  <si>
+    <t>line following programing</t>
+  </si>
+  <si>
+    <t>19th Feb</t>
+  </si>
+  <si>
+    <t>Nityaprakash Rai</t>
+  </si>
+  <si>
+    <t>nitya.rai51@gmail.com</t>
+  </si>
+  <si>
+    <t>United</t>
+  </si>
+  <si>
+    <t>Qazi zaid lateef</t>
+  </si>
+  <si>
+    <t>qazizaidlateef@gmail.com</t>
+  </si>
+  <si>
+    <t>Ecogreen project</t>
+  </si>
+  <si>
+    <t>19th feb 2015</t>
   </si>
 </sst>
 </file>
@@ -5231,10 +5264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5756,6 +5789,9 @@
       <c r="F21">
         <v>50</v>
       </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
@@ -5773,6 +5809,9 @@
       <c r="F22">
         <v>30</v>
       </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
@@ -5795,6 +5834,58 @@
       </c>
       <c r="G23">
         <v>300</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>594</v>
+      </c>
+      <c r="B24">
+        <v>7053362994</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E24" t="s">
+        <v>597</v>
+      </c>
+      <c r="F24">
+        <v>400</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25">
+        <v>8826582906</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D25" t="s">
+        <v>603</v>
+      </c>
+      <c r="E25" t="s">
+        <v>597</v>
+      </c>
+      <c r="F25">
+        <v>600</v>
+      </c>
+      <c r="G25">
+        <v>600</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5814,18 +5905,20 @@
     <hyperlink ref="C17" r:id="rId13"/>
     <hyperlink ref="C20" r:id="rId14"/>
     <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6167,6 +6260,23 @@
         <v>591</v>
       </c>
       <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>598</v>
+      </c>
+      <c r="B19">
+        <v>9565656535</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6189,6 +6299,7 @@
     <hyperlink ref="C16" r:id="rId15"/>
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6440,10 +6551,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6586,6 +6697,20 @@
         <v>2635</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>3614</v>
+      </c>
+      <c r="F9">
+        <v>3635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6595,7 +6720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Rate List" sheetId="5" r:id="rId7"/>
     <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId8"/>
     <sheet name="Final Year Projects" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="612">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -2754,9 +2755,6 @@
     <t>Course has been completed</t>
   </si>
   <si>
-    <t>They will come day afetr tomorrow.</t>
-  </si>
-  <si>
     <t>PCB Design has been completed on Eagle win .</t>
   </si>
   <si>
@@ -3531,9 +3529,6 @@
     <t>s.i.e.t</t>
   </si>
   <si>
-    <t>quardcopter</t>
-  </si>
-  <si>
     <t>Neeru</t>
   </si>
   <si>
@@ -4207,6 +4202,33 @@
   </si>
   <si>
     <t>19th feb 2015</t>
+  </si>
+  <si>
+    <t>7042060502, 9871025554</t>
+  </si>
+  <si>
+    <t>animesh776@gmail.com,1abhishekanand1@gmail.com</t>
+  </si>
+  <si>
+    <t>Paid at 20th feb 2015</t>
+  </si>
+  <si>
+    <t>20th feb</t>
+  </si>
+  <si>
+    <t>Ashok Kumar</t>
+  </si>
+  <si>
+    <t>Gama1</t>
+  </si>
+  <si>
+    <t>Project Display</t>
+  </si>
+  <si>
+    <t>quadcopter</t>
+  </si>
+  <si>
+    <t>20th feb 2015</t>
   </si>
 </sst>
 </file>
@@ -4284,7 +4306,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4366,6 +4388,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4459,7 +4487,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4490,23 +4518,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4679,6 +4690,43 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="15" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4985,8 +5033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5035,35 +5083,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="75" customFormat="1">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:11" s="68" customFormat="1">
+      <c r="A2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="68">
         <v>9540890120</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>486</v>
-      </c>
-      <c r="G2" s="75">
+      <c r="F2" s="68" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="68">
         <v>5000</v>
       </c>
-      <c r="H2" s="91" t="s">
-        <v>555</v>
-      </c>
-      <c r="J2" s="75" t="s">
+      <c r="H2" s="84" t="s">
+        <v>553</v>
+      </c>
+      <c r="J2" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="68" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5084,16 +5132,16 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G3">
         <v>5000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J3" t="s">
         <v>151</v>
@@ -5101,16 +5149,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4">
         <v>9971907103</v>
       </c>
       <c r="D4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F4">
         <v>1500</v>
@@ -5119,21 +5167,21 @@
         <v>1500</v>
       </c>
       <c r="H4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B5">
         <v>9971907103</v>
       </c>
       <c r="D5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F5">
         <v>1500</v>
@@ -5142,24 +5190,24 @@
         <v>1500</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B6">
         <v>9911193134</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -5168,24 +5216,24 @@
         <v>1500</v>
       </c>
       <c r="H6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B7">
         <v>9643705662</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -5194,24 +5242,24 @@
         <v>1500</v>
       </c>
       <c r="H7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B8">
         <v>9899766120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -5220,24 +5268,24 @@
         <v>1500</v>
       </c>
       <c r="H8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B9">
         <v>9650259567</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -5246,7 +5294,7 @@
         <v>1500</v>
       </c>
       <c r="H9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -5262,12 +5310,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5300,10 +5360,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
@@ -5560,27 +5620,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="71" customFormat="1">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:9" s="64" customFormat="1">
+      <c r="A12" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="64">
         <v>9871310918</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="64">
         <v>150</v>
       </c>
-      <c r="H12" s="71" t="s">
-        <v>379</v>
+      <c r="H12" s="64" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5611,16 +5671,16 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" t="s">
         <v>364</v>
-      </c>
-      <c r="D14" t="s">
-        <v>365</v>
       </c>
       <c r="E14" t="s">
         <v>348</v>
@@ -5635,76 +5695,76 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="75" customFormat="1">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:9" s="68" customFormat="1">
+      <c r="A15" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="68">
         <v>9711022937</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="68" t="s">
         <v>413</v>
       </c>
-      <c r="D15" s="75" t="s">
-        <v>414</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>412</v>
-      </c>
-      <c r="F15" s="75">
+      <c r="E15" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="F15" s="68">
         <v>350</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="68">
         <v>350</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="77" customFormat="1">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:9" s="70" customFormat="1">
+      <c r="A16" s="70" t="s">
+        <v>420</v>
+      </c>
+      <c r="B16" s="70">
+        <v>9990180164</v>
+      </c>
+      <c r="C16" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="77">
-        <v>9990180164</v>
-      </c>
-      <c r="C16" s="78" t="s">
+      <c r="D16" s="70" t="s">
         <v>422</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="E16" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="F16" s="70">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="F16" s="77">
-        <v>1500</v>
-      </c>
-      <c r="G16" s="77" t="s">
+      <c r="H16" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="I16" s="70" t="s">
         <v>425</v>
-      </c>
-      <c r="H16" s="77" t="s">
-        <v>425</v>
-      </c>
-      <c r="I16" s="77" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B17">
         <v>9210036786</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D17" t="s">
+        <v>429</v>
+      </c>
+      <c r="E17" t="s">
         <v>430</v>
-      </c>
-      <c r="E17" t="s">
-        <v>431</v>
       </c>
       <c r="F17">
         <v>250</v>
@@ -5712,19 +5772,19 @@
       <c r="G17">
         <v>250</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="68" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" t="s">
         <v>435</v>
       </c>
-      <c r="D18" t="s">
-        <v>436</v>
-      </c>
-      <c r="E18" s="79" t="s">
-        <v>490</v>
+      <c r="E18" s="72" t="s">
+        <v>488</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -5738,10 +5798,10 @@
         <v>9711307405</v>
       </c>
       <c r="D19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F19">
         <v>200</v>
@@ -5752,19 +5812,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B20">
         <v>8375940733</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F20">
         <v>400</v>
@@ -5775,16 +5835,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B21">
         <v>9838195681</v>
       </c>
       <c r="D21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -5795,16 +5855,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B22">
         <v>9793382456</v>
       </c>
       <c r="D22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -5815,19 +5875,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B23">
         <v>9654033937</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D23" t="s">
+        <v>580</v>
+      </c>
+      <c r="E23" t="s">
         <v>581</v>
-      </c>
-      <c r="D23" t="s">
-        <v>582</v>
-      </c>
-      <c r="E23" t="s">
-        <v>583</v>
       </c>
       <c r="F23">
         <v>800</v>
@@ -5841,19 +5901,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B24">
         <v>7053362994</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E24" t="s">
         <v>595</v>
-      </c>
-      <c r="D24" t="s">
-        <v>596</v>
-      </c>
-      <c r="E24" t="s">
-        <v>597</v>
       </c>
       <c r="F24">
         <v>400</v>
@@ -5864,19 +5924,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B25">
         <v>8826582906</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F25">
         <v>600</v>
@@ -5915,10 +5975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6072,192 +6132,192 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" t="s">
         <v>359</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>360</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>361</v>
-      </c>
-      <c r="F8" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9">
         <v>9411889405</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" t="s">
         <v>409</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>410</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>411</v>
-      </c>
-      <c r="F9" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B10">
         <v>9555433468</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D10" t="s">
         <v>442</v>
       </c>
-      <c r="D10" t="s">
-        <v>443</v>
-      </c>
       <c r="E10" t="s">
-        <v>444</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B11">
         <v>9654818693</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B12">
         <v>9891358561</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12" t="s">
         <v>466</v>
-      </c>
-      <c r="D12" t="s">
-        <v>467</v>
-      </c>
-      <c r="E12" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B13">
         <v>8765633150</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B14">
         <v>9990036755</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D14" t="s">
+        <v>492</v>
+      </c>
+      <c r="E14" t="s">
         <v>493</v>
-      </c>
-      <c r="D14" t="s">
-        <v>494</v>
-      </c>
-      <c r="E14" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B15">
         <v>9540424976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B16">
         <v>7042248420</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D16" t="s">
+        <v>514</v>
+      </c>
+      <c r="E16" t="s">
         <v>515</v>
-      </c>
-      <c r="D16" t="s">
-        <v>516</v>
-      </c>
-      <c r="E16" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B17">
         <v>9911430369</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B18">
         <v>8130283991</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -6265,19 +6325,33 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B19">
         <v>9565656535</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>607</v>
+      </c>
+      <c r="B20">
+        <v>9958940360</v>
+      </c>
+      <c r="D20" t="s">
+        <v>608</v>
+      </c>
+      <c r="E20" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -6310,237 +6384,237 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="94" customWidth="1"/>
-    <col min="2" max="2" width="15" style="96" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="96" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="96" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="97" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" style="87" customWidth="1"/>
+    <col min="2" max="2" width="15" style="89" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="89" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="89" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="61" customFormat="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:5" s="54" customFormat="1">
+      <c r="A1" s="85" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" s="86" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="D1" s="86" t="s">
         <v>562</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="E1" s="85" t="s">
         <v>563</v>
       </c>
-      <c r="D1" s="93" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="87" t="s">
         <v>564</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="B2" s="88" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="94" t="s">
+      <c r="C2" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>566</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="E2" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="87" t="s">
         <v>567</v>
       </c>
-      <c r="C2" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="D2" s="95" t="s">
+      <c r="B3" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="87" t="s">
         <v>568</v>
       </c>
-      <c r="E2" s="95" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="94" t="s">
+      <c r="B4" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="87" t="s">
         <v>569</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="94" t="s">
+      <c r="B5" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" s="87" t="s">
         <v>570</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="94" t="s">
+      <c r="B6" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="87" t="s">
         <v>571</v>
       </c>
-      <c r="B5" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="E5" s="95" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="94" t="s">
+      <c r="B7" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="87" t="s">
         <v>572</v>
       </c>
-      <c r="B6" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="C6" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="E6" s="95" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="94" t="s">
+      <c r="B8" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="87" t="s">
         <v>573</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="94" t="s">
+      <c r="B9" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="87" t="s">
         <v>574</v>
       </c>
-      <c r="B8" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="D8" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="E8" s="95" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="94" t="s">
+      <c r="B10" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="87" t="s">
         <v>575</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="E9" s="95" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="94" t="s">
+      <c r="B11" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="87" t="s">
         <v>576</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="E10" s="95" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="94" t="s">
+      <c r="B12" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="87" t="s">
         <v>577</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="D11" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="94" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" s="95" t="s">
-        <v>567</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="E12" s="95" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="94" t="s">
-        <v>579</v>
-      </c>
-      <c r="B13" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="D13" s="95" t="s">
-        <v>568</v>
-      </c>
-      <c r="E13" s="95" t="s">
-        <v>568</v>
+      <c r="B13" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>566</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -6551,10 +6625,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6569,30 +6643,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="82" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1" s="83" t="s">
         <v>511</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>508</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>512</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C2">
         <v>31253</v>
@@ -6609,7 +6683,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C3">
         <v>3080</v>
@@ -6623,7 +6697,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -6637,7 +6711,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -6654,7 +6728,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6668,7 +6742,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6682,7 +6756,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C8">
         <v>2300</v>
@@ -6699,7 +6773,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C9">
         <v>1000</v>
@@ -6709,6 +6783,23 @@
       </c>
       <c r="F9">
         <v>3635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>611</v>
+      </c>
+      <c r="C10">
+        <v>1500</v>
+      </c>
+      <c r="D10">
+        <v>4500</v>
+      </c>
+      <c r="E10">
+        <v>814</v>
+      </c>
+      <c r="F10">
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -6718,10 +6809,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6741,7 +6832,7 @@
         <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6837,7 +6928,7 @@
         <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -6848,7 +6939,7 @@
         <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -6856,7 +6947,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -6867,10 +6958,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" t="s">
         <v>427</v>
-      </c>
-      <c r="B13" t="s">
-        <v>428</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -6878,10 +6969,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" t="s">
         <v>437</v>
-      </c>
-      <c r="B14" t="s">
-        <v>438</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -6889,10 +6980,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C15">
         <v>105</v>
@@ -6900,10 +6991,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -6911,7 +7002,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -6922,10 +7013,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C18">
         <v>500</v>
@@ -6933,10 +7024,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C19">
         <v>1200</v>
@@ -6944,10 +7035,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C20">
         <v>500</v>
@@ -6955,10 +7046,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C21">
         <v>300</v>
@@ -6966,10 +7057,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" t="s">
         <v>498</v>
-      </c>
-      <c r="B22" t="s">
-        <v>500</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -6977,10 +7068,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B23" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -6988,10 +7079,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C24">
         <v>10000</v>
@@ -6999,10 +7090,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B25" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -7010,10 +7101,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C26">
         <v>700</v>
@@ -7021,13 +7112,24 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B27" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C27">
         <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>606</v>
+      </c>
+      <c r="B28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28">
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
@@ -7039,7 +7141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -7052,7 +7154,7 @@
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="67" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7162,7 +7264,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B15">
         <v>75</v>
@@ -7170,7 +7272,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B16">
         <v>380</v>
@@ -7178,7 +7280,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17">
         <v>150</v>
@@ -7186,7 +7288,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B18">
         <v>300</v>
@@ -7194,7 +7296,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B19">
         <v>400</v>
@@ -7202,7 +7304,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B20">
         <v>300</v>
@@ -7210,7 +7312,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B21">
         <v>500</v>
@@ -7218,7 +7320,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B22">
         <v>600</v>
@@ -7226,7 +7328,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B23">
         <v>800</v>
@@ -7242,7 +7344,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B25">
         <v>1250</v>
@@ -7250,7 +7352,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B26">
         <v>1450</v>
@@ -7258,7 +7360,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B27">
         <v>1100</v>
@@ -7274,8 +7376,8 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8025,631 +8127,635 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:12" s="86" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A3" s="80">
+    <row r="3" spans="1:12" s="79" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A3" s="73">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="75">
         <v>41907</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81">
+      <c r="E3" s="77"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74">
         <v>9555382729</v>
       </c>
-      <c r="H3" s="80">
+      <c r="H3" s="73">
         <v>6000</v>
       </c>
-      <c r="I3" s="80" t="s">
-        <v>505</v>
-      </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="84" t="s">
-        <v>491</v>
-      </c>
-      <c r="L3" s="85"/>
-    </row>
-    <row r="4" spans="1:12" s="70" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A4" s="63">
+      <c r="I3" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="J3" s="73"/>
+      <c r="K3" s="77" t="s">
+        <v>489</v>
+      </c>
+      <c r="L3" s="78"/>
+    </row>
+    <row r="4" spans="1:12" s="63" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="58">
         <v>41924</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="61">
         <v>9999405538</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="56">
         <v>7000</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="56">
         <v>500</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="67" t="s">
+      <c r="J4" s="56"/>
+      <c r="K4" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="L4" s="69"/>
-    </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="31">
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="26">
         <v>41947</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="29">
         <v>9650182218</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="24">
         <v>5500</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="24">
         <v>5500</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="38"/>
-    </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="23">
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <v>41947</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="21">
         <v>9716027793</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="16">
         <v>5500</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="16">
         <v>1500</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="27" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A7" s="31">
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="26">
         <v>41907</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="29">
         <v>9891085793</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="24">
         <v>4000</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="24">
         <v>1000</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="24"/>
+      <c r="K7" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A8" s="31">
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A8" s="24">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="26">
         <v>41947</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="29">
         <v>9350215064</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="33">
         <v>9000</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="24">
         <v>1000</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="24"/>
+      <c r="K8" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A9" s="31">
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A9" s="24">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="26">
         <v>41952</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36">
+      <c r="E9" s="25"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
         <v>9136791828</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="24">
         <v>1000</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="24">
         <v>1000</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="24"/>
+      <c r="K9" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" s="39" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A10" s="31">
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A10" s="24">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="26">
         <v>41964</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36">
+      <c r="E10" s="25"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29">
         <v>8800556120</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="24">
         <v>850</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="24">
         <v>850</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="35" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:12" s="39" customFormat="1" ht="39" thickBot="1">
-      <c r="A11" s="31">
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" s="32" customFormat="1" ht="39" thickBot="1">
+      <c r="A11" s="24">
         <v>9</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="26">
         <v>41964</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="29">
         <v>9958911395</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="24">
         <v>3000</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="24">
         <v>3000</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="26">
         <v>41971</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="51.75" thickBot="1">
-      <c r="A12" s="23">
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="51.75" thickBot="1">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="18">
         <v>41964</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="21">
         <v>8527336673</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="16">
         <v>7500</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="16">
         <v>3000</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="41" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A13" s="16">
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" s="106" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A13" s="100">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="102">
         <v>41947</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="104"/>
+      <c r="F13" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="101">
         <v>8287222934</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="100">
         <v>8000</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="100">
         <v>100</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="20" t="s">
+      <c r="J13" s="100"/>
+      <c r="K13" s="104" t="s">
         <v>352</v>
       </c>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A14" s="16">
+      <c r="L13" s="105"/>
+    </row>
+    <row r="14" spans="1:12" s="98" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="94">
         <v>41947</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="99" t="s">
+        <v>604</v>
+      </c>
+      <c r="F14" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="17">
-        <v>7042060502</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="G14" s="93" t="s">
+        <v>603</v>
+      </c>
+      <c r="H14" s="92">
         <v>10000</v>
       </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="20" t="s">
+      <c r="I14" s="92">
+        <v>1500</v>
+      </c>
+      <c r="J14" s="92" t="s">
+        <v>585</v>
+      </c>
+      <c r="K14" s="96" t="s">
+        <v>605</v>
+      </c>
+      <c r="L14" s="97"/>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="18">
+        <v>41983</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21">
+        <v>8287414627</v>
+      </c>
+      <c r="H15" s="16">
+        <v>4000</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A16" s="24">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="26">
+        <v>41980</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="24">
+        <v>4500</v>
+      </c>
+      <c r="I16" s="24">
+        <v>1500</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" s="30" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="25">
-        <v>41983</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28">
-        <v>8287414627</v>
-      </c>
-      <c r="H15" s="23">
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A17" s="24">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="26">
+        <v>41985</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="24">
+        <v>5800</v>
+      </c>
+      <c r="I17" s="24">
+        <v>5800</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12" s="40" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A18" s="36">
+        <v>17</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="38">
+        <v>41987</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="36">
         <v>4000</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I18" s="36">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="1:12" s="32" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A19" s="24">
+        <v>19</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="26">
+        <v>42020</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="24">
+        <v>3000</v>
+      </c>
+      <c r="I19" s="24">
+        <v>3000</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A20" s="41">
+        <v>20</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="H20" s="41">
+        <v>5000</v>
+      </c>
+      <c r="I20" s="41">
         <v>1000</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="33">
-        <v>41980</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="31">
-        <v>4500</v>
-      </c>
-      <c r="I16" s="31">
-        <v>1500</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A17" s="31">
-        <v>16</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="33">
-        <v>41985</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="31">
-        <v>5800</v>
-      </c>
-      <c r="I17" s="31">
-        <v>5800</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="1:12" s="47" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A18" s="43">
-        <v>17</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="45">
-        <v>41987</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="43">
-        <v>4000</v>
-      </c>
-      <c r="I18" s="43">
-        <v>4000</v>
-      </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="L18" s="46"/>
-    </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A19" s="31">
-        <v>19</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="33">
-        <v>42020</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="31">
+      <c r="J20" s="41"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+    </row>
+    <row r="21" spans="1:12" s="45" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A21" s="41">
+        <v>21</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>534</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="H21" s="41">
         <v>3000</v>
       </c>
-      <c r="I19" s="31">
-        <v>3000</v>
-      </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A20" s="48">
-        <v>20</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>523</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>525</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>526</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>527</v>
-      </c>
-      <c r="H20" s="48">
-        <v>5000</v>
-      </c>
-      <c r="I20" s="48">
+      <c r="I21" s="41">
         <v>1000</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-    </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A21" s="48">
-        <v>21</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>533</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>534</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>535</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>536</v>
-      </c>
-      <c r="F21" s="49" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="G21" s="49" t="s">
-        <v>538</v>
-      </c>
-      <c r="H21" s="48">
-        <v>3000</v>
-      </c>
-      <c r="I21" s="48">
-        <v>1000</v>
-      </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="50" t="s">
-        <v>539</v>
-      </c>
-      <c r="L21" s="51"/>
+      <c r="L21" s="44"/>
     </row>
     <row r="22" spans="1:12" ht="30">
       <c r="A22" s="11">
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="98" t="s">
-        <v>585</v>
+      <c r="E22" s="91" t="s">
+        <v>583</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>123</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H22" s="11">
         <v>3000</v>
@@ -8658,7 +8764,7 @@
         <v>1000</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -8667,9 +8773,10 @@
     <hyperlink ref="E20" r:id="rId2"/>
     <hyperlink ref="E21" r:id="rId3"/>
     <hyperlink ref="E22" r:id="rId4"/>
+    <hyperlink ref="E14" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -8677,20 +8784,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="15" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>152</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -8704,13 +8811,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="54"/>
+      <c r="A2" s="47"/>
       <c r="D2" s="15">
         <v>1800</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="48" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="15">
@@ -8718,7 +8825,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="49" t="s">
         <v>156</v>
       </c>
       <c r="C4" s="15">
@@ -8729,7 +8836,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C5" s="15">
@@ -8740,7 +8847,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="47" t="s">
         <v>158</v>
       </c>
       <c r="C6" s="15">
@@ -8751,7 +8858,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="47" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="15">
@@ -8762,7 +8869,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="47" t="s">
         <v>160</v>
       </c>
       <c r="C8" s="15">
@@ -8773,7 +8880,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="47" t="s">
         <v>161</v>
       </c>
       <c r="C9" s="15">
@@ -8784,7 +8891,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="49" t="s">
         <v>162</v>
       </c>
       <c r="C10" s="15">
@@ -8795,7 +8902,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="47" t="s">
         <v>163</v>
       </c>
       <c r="C11" s="15">
@@ -8806,7 +8913,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="47" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="15">
@@ -8817,12 +8924,12 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="50" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="47" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="15">
@@ -8830,7 +8937,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="47" t="s">
         <v>167</v>
       </c>
       <c r="C15" s="15">
@@ -8838,7 +8945,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="47" t="s">
         <v>168</v>
       </c>
       <c r="C16" s="15">
@@ -8846,12 +8953,12 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="49" t="s">
         <v>170</v>
       </c>
       <c r="C18" s="15">
@@ -8859,7 +8966,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="47" t="s">
         <v>171</v>
       </c>
       <c r="C19" s="15">
@@ -8867,7 +8974,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="47" t="s">
         <v>172</v>
       </c>
       <c r="C20" s="15">
@@ -8875,7 +8982,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="47" t="s">
         <v>173</v>
       </c>
       <c r="C21" s="15">
@@ -8883,7 +8990,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="47" t="s">
         <v>174</v>
       </c>
       <c r="C22" s="15">
@@ -8891,7 +8998,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="47" t="s">
         <v>175</v>
       </c>
       <c r="C23" s="15">
@@ -8899,7 +9006,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="47" t="s">
         <v>176</v>
       </c>
       <c r="C24" s="15">
@@ -8907,15 +9014,15 @@
       </c>
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A25" s="73" t="s">
-        <v>381</v>
+      <c r="A25" s="66" t="s">
+        <v>380</v>
       </c>
       <c r="C25" s="10">
         <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="47" t="s">
         <v>344</v>
       </c>
       <c r="C26" s="15">
@@ -8923,7 +9030,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="66" t="s">
         <v>349</v>
       </c>
       <c r="C27" s="10">
@@ -8931,7 +9038,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="66" t="s">
         <v>350</v>
       </c>
       <c r="C28" s="10">
@@ -8939,7 +9046,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="66" t="s">
         <v>351</v>
       </c>
       <c r="C29" s="10">
@@ -8947,267 +9054,267 @@
       </c>
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A30" s="73" t="s">
-        <v>382</v>
+      <c r="A30" s="66" t="s">
+        <v>381</v>
       </c>
       <c r="C30" s="10">
         <v>1950</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A31" s="57" t="s">
+    <row r="31" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A31" s="50" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A32" s="50" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A33" s="57" t="s">
+    <row r="33" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A33" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" s="55">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="47" t="s">
         <v>366</v>
-      </c>
-      <c r="C33" s="62">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="54" t="s">
-        <v>367</v>
       </c>
       <c r="C34" s="15">
         <v>682</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A35" s="57" t="s">
+    <row r="35" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A35" s="50" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A36" s="57" t="s">
+    <row r="36" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A36" s="50" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
-      <c r="A37" s="54" t="s">
-        <v>371</v>
+      <c r="A37" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="C37" s="15">
         <v>1079</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
-      <c r="A38" s="54" t="s">
-        <v>373</v>
+      <c r="A38" s="47" t="s">
+        <v>372</v>
       </c>
       <c r="C38" s="15">
         <v>780</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="54" t="s">
-        <v>374</v>
+      <c r="A39" s="47" t="s">
+        <v>373</v>
       </c>
       <c r="C39" s="15">
         <v>1235</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15">
-      <c r="A40" s="54" t="s">
-        <v>375</v>
+      <c r="A40" s="47" t="s">
+        <v>374</v>
       </c>
       <c r="C40" s="15">
         <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
-      <c r="A41" s="54" t="s">
-        <v>376</v>
+      <c r="A41" s="47" t="s">
+        <v>375</v>
       </c>
       <c r="C41" s="15">
         <v>1365</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A42" s="73" t="s">
-        <v>384</v>
+      <c r="A42" s="66" t="s">
+        <v>383</v>
       </c>
       <c r="C42" s="10">
         <v>2365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A43" s="57" t="s">
+    <row r="43" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A43" s="50" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
-      <c r="A44" s="73" t="s">
-        <v>385</v>
+      <c r="A44" s="66" t="s">
+        <v>384</v>
       </c>
       <c r="C44" s="10">
         <v>665</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="47" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="15">
         <v>936</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A46" s="57" t="s">
+    <row r="46" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A46" s="50" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
-      <c r="A47" s="54" t="s">
-        <v>378</v>
+      <c r="A47" s="47" t="s">
+        <v>377</v>
       </c>
       <c r="C47" s="15">
         <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15">
-      <c r="A48" s="58"/>
+      <c r="A48" s="51"/>
     </row>
     <row r="49" spans="1:1" ht="15">
-      <c r="A49" s="54"/>
+      <c r="A49" s="47"/>
     </row>
     <row r="50" spans="1:1" ht="16.5">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="48" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="47" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="47" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="47" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="47" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="47" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="47" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="47" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="47" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="47" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="47" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="47" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="47" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="47" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="47" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="47" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="47" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="47" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="47" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="47" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="47" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="47" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="47" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15">
-      <c r="A74" s="54"/>
+      <c r="A74" s="47"/>
     </row>
     <row r="75" spans="1:3" ht="16.5">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="48" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="47" t="s">
         <v>209</v>
       </c>
       <c r="C76" s="15">
@@ -9215,23 +9322,23 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="15">
-      <c r="A77" s="54" t="s">
-        <v>391</v>
+      <c r="A77" s="47" t="s">
+        <v>390</v>
       </c>
       <c r="C77" s="15">
         <v>780</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15">
-      <c r="A78" s="54" t="s">
-        <v>392</v>
+      <c r="A78" s="47" t="s">
+        <v>391</v>
       </c>
       <c r="C78" s="15">
         <v>910</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="47" t="s">
         <v>210</v>
       </c>
       <c r="C79" s="15">
@@ -9239,15 +9346,15 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="15">
-      <c r="A80" s="54" t="s">
-        <v>393</v>
+      <c r="A80" s="47" t="s">
+        <v>392</v>
       </c>
       <c r="C80" s="15">
         <v>1066</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="47" t="s">
         <v>211</v>
       </c>
       <c r="C81" s="15">
@@ -9255,41 +9362,41 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="15">
-      <c r="A82" s="54" t="s">
-        <v>394</v>
+      <c r="A82" s="47" t="s">
+        <v>393</v>
       </c>
       <c r="C82" s="15">
         <v>1196</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15">
-      <c r="A83" s="54" t="s">
-        <v>395</v>
+      <c r="A83" s="47" t="s">
+        <v>394</v>
       </c>
       <c r="C83" s="15">
         <v>936</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A84" s="57" t="s">
+    <row r="84" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A84" s="50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15">
-      <c r="A85" s="54" t="s">
-        <v>396</v>
+      <c r="A85" s="47" t="s">
+        <v>395</v>
       </c>
       <c r="C85" s="15">
         <v>975</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A86" s="57" t="s">
+    <row r="86" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A86" s="50" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="47" t="s">
         <v>214</v>
       </c>
       <c r="C87" s="15">
@@ -9297,89 +9404,89 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="15">
-      <c r="A88" s="54" t="s">
-        <v>397</v>
+      <c r="A88" s="47" t="s">
+        <v>396</v>
       </c>
       <c r="C88" s="15">
         <v>1040</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15">
-      <c r="A89" s="54" t="s">
-        <v>398</v>
+      <c r="A89" s="47" t="s">
+        <v>397</v>
       </c>
       <c r="C89" s="15">
         <v>975</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15">
-      <c r="A90" s="54" t="s">
-        <v>399</v>
+      <c r="A90" s="47" t="s">
+        <v>398</v>
       </c>
       <c r="C90" s="15">
         <v>1235</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15">
-      <c r="A91" s="54" t="s">
-        <v>400</v>
+      <c r="A91" s="47" t="s">
+        <v>399</v>
       </c>
       <c r="C91" s="15">
         <v>1430</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15">
-      <c r="A92" s="54" t="s">
-        <v>401</v>
+      <c r="A92" s="47" t="s">
+        <v>400</v>
       </c>
       <c r="C92" s="15">
         <v>1066</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15">
-      <c r="A93" s="54" t="s">
-        <v>402</v>
+      <c r="A93" s="47" t="s">
+        <v>401</v>
       </c>
       <c r="C93" s="15">
         <v>910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A94" s="57" t="s">
+    <row r="94" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A94" s="50" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15">
-      <c r="A95" s="54" t="s">
-        <v>403</v>
+      <c r="A95" s="47" t="s">
+        <v>402</v>
       </c>
       <c r="C95" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15">
-      <c r="A96" s="54" t="s">
-        <v>404</v>
+      <c r="A96" s="47" t="s">
+        <v>403</v>
       </c>
       <c r="C96" s="15">
         <v>1430</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15">
-      <c r="A97" s="54" t="s">
-        <v>405</v>
+      <c r="A97" s="47" t="s">
+        <v>404</v>
       </c>
       <c r="C97" s="15">
         <v>1065</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A98" s="57" t="s">
+    <row r="98" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A98" s="50" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="47" t="s">
         <v>217</v>
       </c>
       <c r="C99" s="15">
@@ -9387,49 +9494,49 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="15">
-      <c r="A100" s="54" t="s">
-        <v>406</v>
+      <c r="A100" s="47" t="s">
+        <v>405</v>
       </c>
       <c r="C100" s="15">
         <v>3475</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A101" s="57" t="s">
+    <row r="101" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A101" s="50" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15">
-      <c r="A102" s="54" t="s">
-        <v>407</v>
+      <c r="A102" s="47" t="s">
+        <v>406</v>
       </c>
       <c r="C102" s="15">
         <v>3035</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="47" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15">
-      <c r="A104" s="54"/>
+      <c r="A104" s="47"/>
     </row>
     <row r="105" spans="1:3" ht="16.5">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="48" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15">
-      <c r="A106" s="54" t="s">
-        <v>415</v>
+      <c r="A106" s="47" t="s">
+        <v>414</v>
       </c>
       <c r="C106" s="15">
         <v>975</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15">
-      <c r="A107" s="54" t="s">
+      <c r="A107" s="47" t="s">
         <v>220</v>
       </c>
       <c r="C107" s="15">
@@ -9437,39 +9544,39 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="15">
-      <c r="A108" s="54" t="s">
-        <v>416</v>
+      <c r="A108" s="47" t="s">
+        <v>415</v>
       </c>
       <c r="C108" s="15">
         <v>975</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15">
-      <c r="A109" s="54" t="s">
-        <v>417</v>
+      <c r="A109" s="47" t="s">
+        <v>416</v>
       </c>
       <c r="C109" s="15">
         <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15">
-      <c r="A110" s="54" t="s">
-        <v>418</v>
+      <c r="A110" s="47" t="s">
+        <v>417</v>
       </c>
       <c r="C110" s="15">
         <v>975</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15">
-      <c r="A111" s="54" t="s">
-        <v>420</v>
+      <c r="A111" s="47" t="s">
+        <v>419</v>
       </c>
       <c r="C111" s="15">
         <v>750</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15">
-      <c r="A112" s="54" t="s">
+      <c r="A112" s="47" t="s">
         <v>221</v>
       </c>
       <c r="C112" s="15">
@@ -9477,28 +9584,28 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="15">
-      <c r="A113" s="54" t="s">
-        <v>454</v>
+      <c r="A113" s="47" t="s">
+        <v>452</v>
       </c>
       <c r="C113" s="15">
         <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="47" t="s">
         <v>222</v>
       </c>
       <c r="C114" s="15">
         <v>660</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A115" s="57" t="s">
+    <row r="115" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A115" s="50" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15">
-      <c r="A116" s="54" t="s">
+      <c r="A116" s="47" t="s">
         <v>224</v>
       </c>
       <c r="C116" s="15">
@@ -9506,41 +9613,41 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="15">
-      <c r="A117" s="54" t="s">
-        <v>455</v>
+      <c r="A117" s="47" t="s">
+        <v>453</v>
       </c>
       <c r="C117" s="15">
         <v>1365</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15">
-      <c r="A118" s="54" t="s">
-        <v>456</v>
+      <c r="A118" s="47" t="s">
+        <v>454</v>
       </c>
       <c r="C118" s="15">
         <v>1846</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15">
-      <c r="A119" s="54" t="s">
+      <c r="A119" s="47" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15">
-      <c r="A120" s="54"/>
+      <c r="A120" s="47"/>
     </row>
     <row r="121" spans="1:3" ht="16.5">
-      <c r="A121" s="55" t="s">
+      <c r="A121" s="48" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A122" s="57" t="s">
+    <row r="122" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A122" s="50" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="47" t="s">
         <v>227</v>
       </c>
       <c r="C123" s="15">
@@ -9548,7 +9655,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="15">
-      <c r="A124" s="54" t="s">
+      <c r="A124" s="47" t="s">
         <v>228</v>
       </c>
       <c r="C124" s="15">
@@ -9556,7 +9663,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="15">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="47" t="s">
         <v>229</v>
       </c>
       <c r="C125" s="15">
@@ -9564,7 +9671,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="15">
-      <c r="A126" s="54" t="s">
+      <c r="A126" s="47" t="s">
         <v>230</v>
       </c>
       <c r="C126" s="15">
@@ -9572,88 +9679,88 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="15">
-      <c r="A127" s="54" t="s">
-        <v>457</v>
+      <c r="A127" s="47" t="s">
+        <v>455</v>
       </c>
       <c r="C127" s="15">
         <v>2067</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A128" s="57" t="s">
+    <row r="128" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A128" s="50" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A129" s="57" t="s">
+    <row r="129" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A129" s="50" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A130" s="57" t="s">
+    <row r="130" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A130" s="50" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A131" s="57" t="s">
+    <row r="131" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A131" s="50" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A132" s="57" t="s">
+    <row r="132" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A132" s="50" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A133" s="57" t="s">
+    <row r="133" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A133" s="50" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15">
-      <c r="A134" s="54" t="s">
+      <c r="A134" s="47" t="s">
         <v>237</v>
       </c>
       <c r="C134" s="15">
         <v>2375</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A135" s="57" t="s">
+    <row r="135" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A135" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A136" s="57" t="s">
+    <row r="136" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A136" s="50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A137" s="57" t="s">
+    <row r="137" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A137" s="50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A138" s="57" t="s">
+    <row r="138" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A138" s="50" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15">
-      <c r="A139" s="54" t="s">
+      <c r="A139" s="47" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A140" s="57" t="s">
+    <row r="140" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A140" s="50" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A141" s="57" t="s">
+    <row r="141" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A141" s="50" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15">
-      <c r="A142" s="54" t="s">
+      <c r="A142" s="47" t="s">
         <v>245</v>
       </c>
       <c r="C142" s="15">
@@ -9661,53 +9768,53 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="15">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="47" t="s">
         <v>246</v>
       </c>
       <c r="C143" s="15">
         <v>2807</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A144" s="57" t="s">
+    <row r="144" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A144" s="50" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A145" s="57" t="s">
+    <row r="145" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A145" s="50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A146" s="57" t="s">
+    <row r="146" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A146" s="50" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A147" s="57" t="s">
+    <row r="147" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A147" s="50" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A148" s="57" t="s">
+    <row r="148" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A148" s="50" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A149" s="57" t="s">
+    <row r="149" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A149" s="50" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15">
-      <c r="A150" s="54"/>
+      <c r="A150" s="47"/>
     </row>
     <row r="151" spans="1:3" ht="16.5">
-      <c r="A151" s="55" t="s">
+      <c r="A151" s="48" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15">
-      <c r="A152" s="54" t="s">
+      <c r="A152" s="47" t="s">
         <v>254</v>
       </c>
       <c r="C152" s="15">
@@ -9715,7 +9822,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="15">
-      <c r="A153" s="54" t="s">
+      <c r="A153" s="47" t="s">
         <v>255</v>
       </c>
       <c r="C153" s="15">
@@ -9723,7 +9830,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="15">
-      <c r="A154" s="54" t="s">
+      <c r="A154" s="47" t="s">
         <v>256</v>
       </c>
       <c r="C154" s="15">
@@ -9731,15 +9838,15 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="15">
-      <c r="A155" s="54" t="s">
-        <v>458</v>
+      <c r="A155" s="47" t="s">
+        <v>456</v>
       </c>
       <c r="C155" s="15">
         <v>3240</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15">
-      <c r="A156" s="54" t="s">
+      <c r="A156" s="47" t="s">
         <v>257</v>
       </c>
       <c r="C156" s="15">
@@ -9747,25 +9854,25 @@
       </c>
     </row>
     <row r="157" spans="1:3" ht="15">
-      <c r="A157" s="54" t="s">
-        <v>459</v>
+      <c r="A157" s="47" t="s">
+        <v>457</v>
       </c>
       <c r="C157" s="15">
         <v>3900</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15">
-      <c r="A158" s="54" t="s">
+      <c r="A158" s="47" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5">
-      <c r="A159" s="55" t="s">
+      <c r="A159" s="48" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15">
-      <c r="A160" s="54" t="s">
+      <c r="A160" s="47" t="s">
         <v>259</v>
       </c>
       <c r="C160" s="15">
@@ -9773,212 +9880,212 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="15">
-      <c r="A161" s="54" t="s">
+      <c r="A161" s="47" t="s">
         <v>260</v>
       </c>
       <c r="C161" s="15">
         <v>2375</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A162" s="57" t="s">
+    <row r="162" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A162" s="50" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A163" s="57" t="s">
+    <row r="163" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A163" s="50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A164" s="57" t="s">
+    <row r="164" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A164" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="C164" s="62">
+      <c r="C164" s="55">
         <v>3475</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15">
-      <c r="A165" s="54" t="s">
+      <c r="A165" s="47" t="s">
         <v>264</v>
       </c>
       <c r="C165" s="15">
         <v>2360</v>
       </c>
     </row>
-    <row r="166" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A166" s="57" t="s">
+    <row r="166" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A166" s="50" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A167" s="57" t="s">
+    <row r="167" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A167" s="50" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A168" s="57" t="s">
+    <row r="168" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A168" s="50" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A169" s="57" t="s">
+    <row r="169" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A169" s="50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A170" s="57" t="s">
+    <row r="170" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A170" s="50" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A171" s="57" t="s">
+    <row r="171" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A171" s="50" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="172" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A172" s="57" t="s">
+    <row r="172" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A172" s="50" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="173" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A173" s="57" t="s">
+    <row r="173" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A173" s="50" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A174" s="57" t="s">
+    <row r="174" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A174" s="50" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A175" s="57" t="s">
+    <row r="175" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A175" s="50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A176" s="57" t="s">
+    <row r="176" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A176" s="50" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15">
-      <c r="A177" s="54" t="s">
+      <c r="A177" s="47" t="s">
         <v>276</v>
       </c>
       <c r="C177" s="15">
         <v>3190</v>
       </c>
     </row>
-    <row r="178" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A178" s="57" t="s">
+    <row r="178" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A178" s="50" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15">
-      <c r="A179" s="54" t="s">
-        <v>469</v>
+      <c r="A179" s="47" t="s">
+        <v>467</v>
       </c>
       <c r="C179" s="15">
         <v>2170</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15">
-      <c r="A180" s="54" t="s">
-        <v>470</v>
+      <c r="A180" s="47" t="s">
+        <v>468</v>
       </c>
       <c r="C180" s="15">
         <v>2390</v>
       </c>
     </row>
-    <row r="181" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A181" s="57" t="s">
+    <row r="181" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A181" s="50" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15">
-      <c r="A182" s="54" t="s">
-        <v>471</v>
+      <c r="A182" s="47" t="s">
+        <v>469</v>
       </c>
       <c r="C182" s="15">
         <v>2870</v>
       </c>
     </row>
-    <row r="183" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A183" s="57" t="s">
+    <row r="183" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A183" s="50" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="184" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A184" s="57" t="s">
+    <row r="184" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A184" s="50" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15">
-      <c r="A185" s="54" t="s">
-        <v>472</v>
+      <c r="A185" s="47" t="s">
+        <v>470</v>
       </c>
       <c r="C185" s="15">
         <v>2160</v>
       </c>
     </row>
-    <row r="186" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A186" s="57" t="s">
+    <row r="186" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A186" s="50" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A187" s="57" t="s">
+    <row r="187" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A187" s="50" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="188" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A188" s="57" t="s">
+    <row r="188" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A188" s="50" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="189" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A189" s="57" t="s">
+    <row r="189" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A189" s="50" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A190" s="57" t="s">
+    <row r="190" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A190" s="50" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A191" s="57" t="s">
+    <row r="191" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A191" s="50" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="192" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A192" s="57" t="s">
+    <row r="192" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A192" s="50" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A193" s="57" t="s">
+    <row r="193" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A193" s="50" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15">
-      <c r="A194" s="54"/>
+      <c r="A194" s="47"/>
     </row>
     <row r="195" spans="1:3" ht="16.5">
-      <c r="A195" s="55" t="s">
+      <c r="A195" s="48" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15">
-      <c r="A196" s="54" t="s">
-        <v>463</v>
+      <c r="A196" s="47" t="s">
+        <v>461</v>
       </c>
       <c r="C196" s="15">
         <v>4030</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15">
-      <c r="A197" s="54" t="s">
+      <c r="A197" s="47" t="s">
         <v>290</v>
       </c>
       <c r="C197" s="15">
@@ -9986,295 +10093,295 @@
       </c>
     </row>
     <row r="198" spans="1:3" ht="15">
-      <c r="A198" s="54" t="s">
-        <v>464</v>
+      <c r="A198" s="47" t="s">
+        <v>462</v>
       </c>
       <c r="C198" s="15">
         <v>3800</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15">
-      <c r="A199" s="54" t="s">
-        <v>473</v>
+      <c r="A199" s="47" t="s">
+        <v>471</v>
       </c>
       <c r="C199" s="15">
         <v>3670</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15">
-      <c r="A200" s="54" t="s">
-        <v>474</v>
+      <c r="A200" s="47" t="s">
+        <v>472</v>
       </c>
       <c r="C200" s="15">
         <v>4280</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A201" s="57" t="s">
+    <row r="201" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A201" s="50" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15">
-      <c r="A202" s="54" t="s">
-        <v>475</v>
+      <c r="A202" s="47" t="s">
+        <v>473</v>
       </c>
       <c r="C202" s="15">
         <v>3865</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15">
-      <c r="A203" s="54" t="s">
-        <v>476</v>
+      <c r="A203" s="47" t="s">
+        <v>474</v>
       </c>
       <c r="C203" s="15">
         <v>3790</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15">
-      <c r="A204" s="54" t="s">
-        <v>477</v>
+      <c r="A204" s="47" t="s">
+        <v>475</v>
       </c>
       <c r="C204" s="15">
         <v>4290</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15">
-      <c r="A205" s="54"/>
+      <c r="A205" s="47"/>
     </row>
     <row r="206" spans="1:3" ht="16.5">
-      <c r="A206" s="55" t="s">
+      <c r="A206" s="48" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15">
-      <c r="A207" s="54" t="s">
-        <v>478</v>
+      <c r="A207" s="47" t="s">
+        <v>476</v>
       </c>
       <c r="C207" s="15">
         <v>3870</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15">
-      <c r="A208" s="54" t="s">
-        <v>479</v>
+      <c r="A208" s="47" t="s">
+        <v>477</v>
       </c>
       <c r="C208" s="15">
         <v>4800</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15">
-      <c r="A209" s="54" t="s">
-        <v>480</v>
+      <c r="A209" s="47" t="s">
+        <v>478</v>
       </c>
       <c r="C209" s="15">
         <v>4600</v>
       </c>
     </row>
-    <row r="210" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A210" s="57" t="s">
+    <row r="210" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A210" s="50" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15">
-      <c r="A211" s="54"/>
+      <c r="A211" s="47"/>
     </row>
     <row r="212" spans="1:3" ht="16.5">
-      <c r="A212" s="55" t="s">
+      <c r="A212" s="48" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15">
-      <c r="A213" s="54" t="s">
+      <c r="A213" s="47" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15">
-      <c r="A214" s="54" t="s">
+      <c r="A214" s="47" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15">
-      <c r="A215" s="54"/>
+      <c r="A215" s="47"/>
     </row>
     <row r="216" spans="1:3" ht="16.5">
-      <c r="A216" s="55" t="s">
+      <c r="A216" s="48" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15">
-      <c r="A217" s="54" t="s">
-        <v>481</v>
+      <c r="A217" s="47" t="s">
+        <v>479</v>
       </c>
       <c r="C217" s="15">
         <v>2650</v>
       </c>
     </row>
-    <row r="218" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A218" s="57" t="s">
+    <row r="218" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A218" s="50" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15">
-      <c r="A219" s="54" t="s">
-        <v>482</v>
+      <c r="A219" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="C219" s="15">
         <v>1760</v>
       </c>
     </row>
-    <row r="220" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A220" s="57" t="s">
+    <row r="220" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A220" s="50" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A221" s="57" t="s">
+    <row r="221" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A221" s="50" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A222" s="57" t="s">
+    <row r="222" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A222" s="50" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="223" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A223" s="57" t="s">
+    <row r="223" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A223" s="50" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="224" spans="1:3" s="62" customFormat="1" ht="15">
-      <c r="A224" s="57" t="s">
+    <row r="224" spans="1:3" s="55" customFormat="1" ht="15">
+      <c r="A224" s="50" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="1:1" s="62" customFormat="1" ht="15">
-      <c r="A225" s="57" t="s">
+    <row r="225" spans="1:1" s="55" customFormat="1" ht="15">
+      <c r="A225" s="50" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15">
-      <c r="A226" s="54"/>
+      <c r="A226" s="47"/>
     </row>
     <row r="227" spans="1:1" ht="16.5">
-      <c r="A227" s="55" t="s">
+      <c r="A227" s="48" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15">
-      <c r="A228" s="54" t="s">
+      <c r="A228" s="47" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="15">
-      <c r="A229" s="54"/>
+      <c r="A229" s="47"/>
     </row>
     <row r="230" spans="1:1" ht="16.5">
-      <c r="A230" s="55" t="s">
+      <c r="A230" s="48" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15">
-      <c r="A231" s="54" t="s">
+      <c r="A231" s="47" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="15">
-      <c r="A232" s="54" t="s">
+      <c r="A232" s="47" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="16.5">
-      <c r="A234" s="55" t="s">
+      <c r="A234" s="48" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="56" t="s">
+      <c r="A235" s="49" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="56" t="s">
+      <c r="A236" s="49" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="56" t="s">
+      <c r="A237" s="49" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="56" t="s">
+      <c r="A238" s="49" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="56" t="s">
+      <c r="A239" s="49" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="56" t="s">
+      <c r="A240" s="49" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="16.5">
-      <c r="A242" s="55" t="s">
+      <c r="A242" s="48" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5">
-      <c r="A244" s="55" t="s">
+      <c r="A244" s="48" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5">
-      <c r="A246" s="55" t="s">
+      <c r="A246" s="48" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="59" t="s">
+      <c r="A247" s="52" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="59" t="s">
+      <c r="A248" s="52" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="59" t="s">
+      <c r="A249" s="52" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="59" t="s">
+      <c r="A250" s="52" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="59" t="s">
+      <c r="A251" s="52" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="60" t="s">
+      <c r="A252" s="53" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="59" t="s">
+      <c r="A253" s="52" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="59" t="s">
+      <c r="A254" s="52" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="59" t="s">
+      <c r="A255" s="52" t="s">
         <v>328</v>
       </c>
     </row>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="616">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4229,6 +4229,18 @@
   </si>
   <si>
     <t>20th feb 2015</t>
+  </si>
+  <si>
+    <t>Mayank</t>
+  </si>
+  <si>
+    <t>Pcb Design</t>
+  </si>
+  <si>
+    <t>21thFeb</t>
+  </si>
+  <si>
+    <t>21th feb 2015</t>
   </si>
 </sst>
 </file>
@@ -5324,10 +5336,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5946,6 +5958,20 @@
       </c>
       <c r="H25" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>612</v>
+      </c>
+      <c r="B26">
+        <v>9793382956</v>
+      </c>
+      <c r="D26" t="s">
+        <v>613</v>
+      </c>
+      <c r="E26" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -6625,10 +6651,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6800,6 +6826,20 @@
       </c>
       <c r="F10">
         <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>1014</v>
+      </c>
+      <c r="F11">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="618">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4234,13 +4234,19 @@
     <t>Mayank</t>
   </si>
   <si>
-    <t>Pcb Design</t>
-  </si>
-  <si>
-    <t>21thFeb</t>
-  </si>
-  <si>
-    <t>21th feb 2015</t>
+    <t>Timer&amp;relaydriver Pcb</t>
+  </si>
+  <si>
+    <t>21thfeb</t>
+  </si>
+  <si>
+    <t>Abhishek kanaujia</t>
+  </si>
+  <si>
+    <t>kanaujiaabhishek23@gmail.com</t>
+  </si>
+  <si>
+    <t>W.I.W.o dc2dc converter</t>
   </si>
 </sst>
 </file>
@@ -5338,8 +5344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5965,13 +5971,19 @@
         <v>612</v>
       </c>
       <c r="B26">
-        <v>9793382956</v>
+        <v>9818351209</v>
       </c>
       <c r="D26" t="s">
         <v>613</v>
       </c>
       <c r="E26" t="s">
         <v>614</v>
+      </c>
+      <c r="F26">
+        <v>600</v>
+      </c>
+      <c r="G26">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6001,10 +6013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6378,6 +6390,23 @@
       </c>
       <c r="E20" t="s">
         <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>615</v>
+      </c>
+      <c r="B21">
+        <v>9654731136</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6400,6 +6429,7 @@
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C18" r:id="rId17"/>
     <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6651,10 +6681,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6828,20 +6858,6 @@
         <v>835</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>615</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="E11">
-        <v>1014</v>
-      </c>
-      <c r="F11">
-        <v>1035</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6851,7 +6867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -7181,7 +7197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="622">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4234,19 +4234,31 @@
     <t>Mayank</t>
   </si>
   <si>
-    <t>Timer&amp;relaydriver Pcb</t>
-  </si>
-  <si>
-    <t>21thfeb</t>
-  </si>
-  <si>
-    <t>Abhishek kanaujia</t>
-  </si>
-  <si>
-    <t>kanaujiaabhishek23@gmail.com</t>
-  </si>
-  <si>
-    <t>W.I.W.o dc2dc converter</t>
+    <t>Pcb Design</t>
+  </si>
+  <si>
+    <t>21thFeb</t>
+  </si>
+  <si>
+    <t>21th feb 2015</t>
+  </si>
+  <si>
+    <t>22nd feb</t>
+  </si>
+  <si>
+    <t>Umang</t>
+  </si>
+  <si>
+    <t>umangagg.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>9818706353,7835868872</t>
+  </si>
+  <si>
+    <t>Within 15 Days</t>
+  </si>
+  <si>
+    <t>Acciedent vehicle located based on gps and gsm, Accelerometer</t>
   </si>
 </sst>
 </file>
@@ -5344,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5971,19 +5983,13 @@
         <v>612</v>
       </c>
       <c r="B26">
-        <v>9818351209</v>
+        <v>9793382956</v>
       </c>
       <c r="D26" t="s">
         <v>613</v>
       </c>
       <c r="E26" t="s">
         <v>614</v>
-      </c>
-      <c r="F26">
-        <v>600</v>
-      </c>
-      <c r="G26">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6013,10 +6019,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6390,23 +6396,6 @@
       </c>
       <c r="E20" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>615</v>
-      </c>
-      <c r="B21">
-        <v>9654731136</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6418,6 @@
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C18" r:id="rId17"/>
     <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6681,10 +6669,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6858,6 +6846,20 @@
         <v>835</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>1014</v>
+      </c>
+      <c r="F11">
+        <v>1035</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6867,7 +6869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -7197,7 +7199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -7429,11 +7431,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8823,6 +8825,38 @@
         <v>585</v>
       </c>
     </row>
+    <row r="23" spans="1:12" ht="38.25">
+      <c r="A23" s="11">
+        <v>23</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>618</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="11">
+        <v>6000</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E18" r:id="rId1"/>
@@ -8830,9 +8864,10 @@
     <hyperlink ref="E21" r:id="rId3"/>
     <hyperlink ref="E22" r:id="rId4"/>
     <hyperlink ref="E14" r:id="rId5"/>
+    <hyperlink ref="E23" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="623">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4259,6 +4259,9 @@
   </si>
   <si>
     <t>Acciedent vehicle located based on gps and gsm, Accelerometer</t>
+  </si>
+  <si>
+    <t>22nd feb 2015</t>
   </si>
 </sst>
 </file>
@@ -6669,10 +6672,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6858,6 +6861,20 @@
       </c>
       <c r="F11">
         <v>1035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>2014</v>
+      </c>
+      <c r="F12">
+        <v>2035</v>
       </c>
     </row>
   </sheetData>
@@ -7433,9 +7450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="623">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -5359,7 +5359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="D16" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -5993,6 +5993,15 @@
       </c>
       <c r="E26" t="s">
         <v>614</v>
+      </c>
+      <c r="F26">
+        <v>600</v>
+      </c>
+      <c r="G26">
+        <v>600</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6674,8 +6683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6868,13 +6877,13 @@
         <v>622</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E12">
-        <v>2014</v>
+        <v>2414</v>
       </c>
       <c r="F12">
-        <v>2035</v>
+        <v>2435</v>
       </c>
     </row>
   </sheetData>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="Rate List" sheetId="5" r:id="rId7"/>
     <sheet name="Major Projects Undergoing" sheetId="7" r:id="rId8"/>
     <sheet name="Final Year Projects" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
+    <sheet name="Training Weekend And Weekdays" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="652">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>8051 With LCD ; Keypad And RS 232</t>
-  </si>
-  <si>
-    <t>RF Module Pcb</t>
   </si>
   <si>
     <t>DC Motor</t>
@@ -4262,13 +4259,103 @@
   </si>
   <si>
     <t>22nd feb 2015</t>
+  </si>
+  <si>
+    <t>sushantkamboj10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sushant </t>
+  </si>
+  <si>
+    <t>Final year project</t>
+  </si>
+  <si>
+    <t>Ashok kumar</t>
+  </si>
+  <si>
+    <t>ask11shah@gmail.com</t>
+  </si>
+  <si>
+    <t>iimt</t>
+  </si>
+  <si>
+    <t>Emergency light</t>
+  </si>
+  <si>
+    <t>shashank</t>
+  </si>
+  <si>
+    <t>shashank1014@gmail.com</t>
+  </si>
+  <si>
+    <t>RF Module Pcb(self made)</t>
+  </si>
+  <si>
+    <t>RF Module Pcb(Green pcb)</t>
+  </si>
+  <si>
+    <t>Lalit</t>
+  </si>
+  <si>
+    <t>Previous Payment</t>
+  </si>
+  <si>
+    <t>24thFeb</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Weekdays</t>
+  </si>
+  <si>
+    <t>Hands On</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Project Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project </t>
+  </si>
+  <si>
+    <t>Practical</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>24nd feb 2015</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>Street Light</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4337,6 +4424,12 @@
       <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -4520,7 +4613,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4760,6 +4853,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5066,8 +5160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5133,19 +5227,19 @@
         <v>7</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G2" s="68">
         <v>5000</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K2" s="68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5165,33 +5259,33 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G3">
         <v>5000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4">
         <v>9971907103</v>
       </c>
       <c r="D4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" t="s">
         <v>528</v>
-      </c>
-      <c r="E4" t="s">
-        <v>529</v>
       </c>
       <c r="F4">
         <v>1500</v>
@@ -5200,21 +5294,21 @@
         <v>1500</v>
       </c>
       <c r="H4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5">
         <v>9971907103</v>
       </c>
       <c r="D5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E5" t="s">
         <v>528</v>
-      </c>
-      <c r="E5" t="s">
-        <v>529</v>
       </c>
       <c r="F5">
         <v>1500</v>
@@ -5223,24 +5317,24 @@
         <v>1500</v>
       </c>
       <c r="H5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B6">
         <v>9911193134</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -5249,24 +5343,24 @@
         <v>1500</v>
       </c>
       <c r="H6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B7">
         <v>9643705662</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -5275,24 +5369,24 @@
         <v>1500</v>
       </c>
       <c r="H7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B8">
         <v>9899766120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -5301,24 +5395,24 @@
         <v>1500</v>
       </c>
       <c r="H8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B9">
         <v>9650259567</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -5327,7 +5421,7 @@
         <v>1500</v>
       </c>
       <c r="H9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -5345,22 +5439,151 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B5" s="107">
+        <v>1</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>648</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5393,10 +5616,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
@@ -5577,19 +5800,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>9540364146</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <v>300</v>
@@ -5603,19 +5826,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B10">
         <v>8800934802</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" t="s">
         <v>330</v>
       </c>
-      <c r="D10" t="s">
-        <v>331</v>
-      </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>150</v>
@@ -5629,19 +5852,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B11">
         <v>9971564923</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" t="s">
         <v>333</v>
       </c>
-      <c r="D11" t="s">
-        <v>334</v>
-      </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>150</v>
@@ -5655,42 +5878,42 @@
     </row>
     <row r="12" spans="1:9" s="64" customFormat="1">
       <c r="A12" s="64" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B12" s="64">
         <v>9871310918</v>
       </c>
       <c r="C12" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>337</v>
-      </c>
       <c r="E12" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="64">
         <v>150</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13">
         <v>9582449984</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F13">
         <v>300</v>
@@ -5704,19 +5927,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B14">
         <v>9811708509</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" t="s">
         <v>363</v>
       </c>
-      <c r="D14" t="s">
-        <v>364</v>
-      </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -5736,13 +5959,13 @@
         <v>9711022937</v>
       </c>
       <c r="C15" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="68" t="s">
         <v>412</v>
       </c>
-      <c r="D15" s="68" t="s">
-        <v>413</v>
-      </c>
       <c r="E15" s="68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F15" s="68">
         <v>350</v>
@@ -5756,48 +5979,48 @@
     </row>
     <row r="16" spans="1:9" s="70" customFormat="1">
       <c r="A16" s="70" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" s="70">
         <v>9990180164</v>
       </c>
       <c r="C16" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="E16" s="70" t="s">
         <v>422</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>423</v>
       </c>
       <c r="F16" s="70">
         <v>1500</v>
       </c>
       <c r="G16" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="I16" s="70" t="s">
         <v>424</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>424</v>
-      </c>
-      <c r="I16" s="70" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B17">
         <v>9210036786</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D17" t="s">
+        <v>428</v>
+      </c>
+      <c r="E17" t="s">
         <v>429</v>
-      </c>
-      <c r="E17" t="s">
-        <v>430</v>
       </c>
       <c r="F17">
         <v>250</v>
@@ -5811,13 +6034,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" t="s">
         <v>434</v>
       </c>
-      <c r="D18" t="s">
-        <v>435</v>
-      </c>
       <c r="E18" s="72" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -5831,10 +6054,10 @@
         <v>9711307405</v>
       </c>
       <c r="D19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F19">
         <v>200</v>
@@ -5845,19 +6068,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20">
         <v>8375940733</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F20">
         <v>400</v>
@@ -5868,16 +6091,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B21">
         <v>9838195681</v>
       </c>
       <c r="D21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E21" t="s">
         <v>518</v>
-      </c>
-      <c r="E21" t="s">
-        <v>519</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -5888,16 +6111,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B22">
         <v>9793382456</v>
       </c>
       <c r="D22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E22" t="s">
         <v>518</v>
-      </c>
-      <c r="E22" t="s">
-        <v>519</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -5908,19 +6131,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B23">
         <v>9654033937</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D23" t="s">
         <v>579</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>580</v>
-      </c>
-      <c r="E23" t="s">
-        <v>581</v>
       </c>
       <c r="F23">
         <v>800</v>
@@ -5934,19 +6157,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B24">
         <v>7053362994</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D24" t="s">
         <v>593</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>594</v>
-      </c>
-      <c r="E24" t="s">
-        <v>595</v>
       </c>
       <c r="F24">
         <v>400</v>
@@ -5957,19 +6180,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B25">
         <v>8826582906</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D25" t="s">
         <v>600</v>
       </c>
-      <c r="D25" t="s">
-        <v>601</v>
-      </c>
       <c r="E25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F25">
         <v>600</v>
@@ -5983,16 +6206,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B26">
         <v>9793382956</v>
       </c>
       <c r="D26" t="s">
+        <v>612</v>
+      </c>
+      <c r="E26" t="s">
         <v>613</v>
-      </c>
-      <c r="E26" t="s">
-        <v>614</v>
       </c>
       <c r="F26">
         <v>600</v>
@@ -6001,6 +6224,52 @@
         <v>600</v>
       </c>
       <c r="H26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>633</v>
+      </c>
+      <c r="B27">
+        <v>9718155292</v>
+      </c>
+      <c r="D27" t="s">
+        <v>634</v>
+      </c>
+      <c r="E27" t="s">
+        <v>635</v>
+      </c>
+      <c r="F27">
+        <v>2000</v>
+      </c>
+      <c r="G27">
+        <v>2000</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>650</v>
+      </c>
+      <c r="B28">
+        <v>8750546916</v>
+      </c>
+      <c r="D28" t="s">
+        <v>651</v>
+      </c>
+      <c r="E28" t="s">
+        <v>635</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6031,10 +6300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6188,192 +6457,192 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8">
         <v>9990180164</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" t="s">
         <v>358</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>359</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>360</v>
-      </c>
-      <c r="F8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B9">
         <v>9411889405</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" t="s">
         <v>408</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>409</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>410</v>
-      </c>
-      <c r="F9" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10">
         <v>9555433468</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" t="s">
         <v>441</v>
       </c>
-      <c r="D10" t="s">
-        <v>442</v>
-      </c>
       <c r="E10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11">
         <v>9654818693</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" t="s">
         <v>444</v>
-      </c>
-      <c r="D11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E11" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B12">
         <v>9891358561</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D12" t="s">
         <v>464</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>465</v>
-      </c>
-      <c r="E12" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B13">
         <v>8765633150</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B14">
         <v>9990036755</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D14" t="s">
         <v>491</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>492</v>
-      </c>
-      <c r="E14" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B15">
         <v>9540424976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D15" t="s">
+        <v>491</v>
+      </c>
+      <c r="E15" t="s">
         <v>492</v>
-      </c>
-      <c r="E15" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B16">
         <v>7042248420</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D16" t="s">
         <v>513</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>514</v>
-      </c>
-      <c r="E16" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B17">
         <v>9911430369</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B18">
         <v>8130283991</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D18" t="s">
         <v>588</v>
-      </c>
-      <c r="D18" t="s">
-        <v>589</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -6381,16 +6650,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B19">
         <v>9565656535</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D19" t="s">
         <v>597</v>
-      </c>
-      <c r="D19" t="s">
-        <v>598</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -6398,16 +6667,67 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B20">
         <v>9958940360</v>
       </c>
       <c r="D20" t="s">
+        <v>607</v>
+      </c>
+      <c r="E20" t="s">
         <v>608</v>
       </c>
-      <c r="E20" t="s">
-        <v>609</v>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>623</v>
+      </c>
+      <c r="B21">
+        <v>9999518201</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D21" t="s">
+        <v>588</v>
+      </c>
+      <c r="E21" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>625</v>
+      </c>
+      <c r="B22">
+        <v>8750546916</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D22" t="s">
+        <v>627</v>
+      </c>
+      <c r="E22" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>629</v>
+      </c>
+      <c r="B23">
+        <v>8285771212</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D23" t="s">
+        <v>588</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6430,6 +6750,9 @@
     <hyperlink ref="C17" r:id="rId16"/>
     <hyperlink ref="C18" r:id="rId17"/>
     <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C21" r:id="rId19"/>
+    <hyperlink ref="C22" r:id="rId20"/>
+    <hyperlink ref="C23" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6440,7 +6763,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6454,223 +6777,223 @@
   <sheetData>
     <row r="1" spans="1:5" s="54" customFormat="1">
       <c r="A1" s="85" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="C1" s="86" t="s">
         <v>560</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="D1" s="86" t="s">
         <v>561</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="E1" s="85" t="s">
         <v>562</v>
-      </c>
-      <c r="E1" s="85" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="87" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="C2" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C2" s="88" t="s">
-        <v>565</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>566</v>
-      </c>
       <c r="E2" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="87" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B3" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C3" s="88" t="s">
-        <v>566</v>
-      </c>
       <c r="D3" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="87" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B4" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>566</v>
-      </c>
       <c r="D4" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="87" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C5" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5" s="88" t="s">
         <v>565</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>565</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
       <c r="A6" s="87" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C6" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="88" t="s">
         <v>565</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>565</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" s="87" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="87" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="87" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B9" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C9" s="88" t="s">
-        <v>566</v>
-      </c>
       <c r="D9" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="87" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B10" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C10" s="88" t="s">
-        <v>566</v>
-      </c>
       <c r="D10" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="87" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B11" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C11" s="88" t="s">
-        <v>566</v>
-      </c>
       <c r="D11" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="87" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B12" s="88" t="s">
+        <v>564</v>
+      </c>
+      <c r="C12" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C12" s="88" t="s">
-        <v>566</v>
-      </c>
       <c r="D12" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
       <c r="A13" s="87" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -6681,10 +7004,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6699,30 +7022,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="C1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="D1" s="82" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="54" t="s">
+      <c r="F1" s="83" t="s">
         <v>510</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2" t="s">
         <v>507</v>
-      </c>
-      <c r="B2" t="s">
-        <v>508</v>
       </c>
       <c r="C2">
         <v>31253</v>
@@ -6739,7 +7062,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C3">
         <v>3080</v>
@@ -6753,7 +7076,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -6767,7 +7090,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -6784,7 +7107,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -6798,7 +7121,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -6812,7 +7135,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C8">
         <v>2300</v>
@@ -6829,7 +7152,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C9">
         <v>1000</v>
@@ -6843,7 +7166,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C10">
         <v>1500</v>
@@ -6860,7 +7183,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C11">
         <v>200</v>
@@ -6874,7 +7197,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C12">
         <v>1400</v>
@@ -6884,6 +7207,20 @@
       </c>
       <c r="F12">
         <v>2435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>649</v>
+      </c>
+      <c r="C13">
+        <v>2050</v>
+      </c>
+      <c r="E13">
+        <v>4464</v>
+      </c>
+      <c r="F13">
+        <v>4485</v>
       </c>
     </row>
   </sheetData>
@@ -6895,7 +7232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -6916,7 +7253,7 @@
         <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6965,10 +7302,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" t="s">
         <v>338</v>
-      </c>
-      <c r="B6" t="s">
-        <v>339</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -6976,10 +7313,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -6987,10 +7324,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -6998,10 +7335,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -7009,10 +7346,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -7020,10 +7357,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -7031,7 +7368,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -7042,10 +7379,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B13" t="s">
         <v>426</v>
-      </c>
-      <c r="B13" t="s">
-        <v>427</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -7053,10 +7390,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B14" t="s">
         <v>436</v>
-      </c>
-      <c r="B14" t="s">
-        <v>437</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -7064,10 +7401,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C15">
         <v>105</v>
@@ -7075,10 +7412,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -7086,7 +7423,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
@@ -7097,10 +7434,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>446</v>
+      </c>
+      <c r="B18" t="s">
         <v>447</v>
-      </c>
-      <c r="B18" t="s">
-        <v>448</v>
       </c>
       <c r="C18">
         <v>500</v>
@@ -7108,10 +7445,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B19" t="s">
         <v>486</v>
-      </c>
-      <c r="B19" t="s">
-        <v>487</v>
       </c>
       <c r="C19">
         <v>1200</v>
@@ -7119,10 +7456,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C20">
         <v>500</v>
@@ -7130,10 +7467,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B21" t="s">
         <v>496</v>
-      </c>
-      <c r="B21" t="s">
-        <v>497</v>
       </c>
       <c r="C21">
         <v>300</v>
@@ -7141,10 +7478,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -7152,10 +7489,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C23">
         <v>50</v>
@@ -7163,10 +7500,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C24">
         <v>10000</v>
@@ -7174,10 +7511,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>540</v>
+      </c>
+      <c r="B25" t="s">
         <v>541</v>
-      </c>
-      <c r="B25" t="s">
-        <v>542</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -7185,10 +7522,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C26">
         <v>700</v>
@@ -7196,10 +7533,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" t="s">
         <v>590</v>
-      </c>
-      <c r="B27" t="s">
-        <v>591</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -7207,10 +7544,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C28">
         <v>4500</v>
@@ -7223,10 +7560,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7276,177 +7613,185 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>632</v>
       </c>
       <c r="B6">
-        <v>450</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>631</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B11">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>87</v>
       </c>
       <c r="B14">
-        <v>750</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B16">
-        <v>380</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B17">
-        <v>150</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B18">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B19">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B20">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B21">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B22">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B23">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="B24">
-        <v>230</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="B25">
-        <v>1250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B26">
-        <v>1450</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B27">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>459</v>
+      </c>
+      <c r="B28">
         <v>1100</v>
       </c>
     </row>
@@ -8176,34 +8521,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="10" customFormat="1" ht="25.5">
       <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>36</v>
@@ -8216,13 +8561,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="75">
         <v>41907</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="74"/>
@@ -8233,11 +8578,11 @@
         <v>6000</v>
       </c>
       <c r="I3" s="73" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J3" s="73"/>
       <c r="K3" s="77" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L3" s="78"/>
     </row>
@@ -8246,17 +8591,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="58">
         <v>41924</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="61">
         <v>9999405538</v>
@@ -8269,7 +8614,7 @@
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L4" s="62"/>
     </row>
@@ -8278,17 +8623,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="26">
         <v>41947</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="29">
         <v>9650182218</v>
@@ -8301,7 +8646,7 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L5" s="31"/>
     </row>
@@ -8310,13 +8655,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="18">
         <v>41947</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="21" t="s">
@@ -8333,7 +8678,7 @@
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L6" s="22"/>
     </row>
@@ -8342,17 +8687,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="26">
         <v>41907</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="29">
         <v>9891085793</v>
@@ -8365,7 +8710,7 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="31"/>
     </row>
@@ -8374,17 +8719,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="26">
         <v>41947</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="29">
         <v>9350215064</v>
@@ -8397,7 +8742,7 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L8" s="31"/>
     </row>
@@ -8406,13 +8751,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="26">
         <v>41952</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="29"/>
@@ -8427,7 +8772,7 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L9" s="31"/>
     </row>
@@ -8436,13 +8781,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="26">
         <v>41964</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="29"/>
@@ -8457,7 +8802,7 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" s="31"/>
     </row>
@@ -8466,17 +8811,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="26">
         <v>41964</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="29">
         <v>9958911395</v>
@@ -8491,7 +8836,7 @@
         <v>41971</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" s="31"/>
     </row>
@@ -8500,17 +8845,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="18">
         <v>41964</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="G12" s="21">
         <v>8527336673</v>
@@ -8523,7 +8868,7 @@
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L12" s="22"/>
     </row>
@@ -8532,13 +8877,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="102">
         <v>41947</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="101" t="s">
@@ -8555,7 +8900,7 @@
       </c>
       <c r="J13" s="100"/>
       <c r="K13" s="104" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L13" s="105"/>
     </row>
@@ -8564,22 +8909,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="94">
         <v>41947</v>
       </c>
       <c r="D14" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>603</v>
+      </c>
+      <c r="F14" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="99" t="s">
-        <v>604</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>132</v>
-      </c>
       <c r="G14" s="93" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H14" s="92">
         <v>10000</v>
@@ -8588,10 +8933,10 @@
         <v>1500</v>
       </c>
       <c r="J14" s="92" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K14" s="96" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L14" s="97"/>
     </row>
@@ -8600,16 +8945,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="18">
         <v>41983</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21">
@@ -8623,7 +8968,7 @@
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L15" s="22"/>
     </row>
@@ -8632,13 +8977,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="26">
         <v>41980</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -8651,7 +8996,7 @@
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L16" s="31"/>
     </row>
@@ -8660,20 +9005,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="26">
         <v>41985</v>
       </c>
       <c r="D17" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>138</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>139</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17" s="24">
         <v>5800</v>
@@ -8683,7 +9028,7 @@
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L17" s="31"/>
     </row>
@@ -8692,22 +9037,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="38">
         <v>41987</v>
       </c>
       <c r="D18" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="F18" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="37" t="s">
         <v>143</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>144</v>
       </c>
       <c r="H18" s="36">
         <v>4000</v>
@@ -8717,7 +9062,7 @@
       </c>
       <c r="J18" s="36"/>
       <c r="K18" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L18" s="39"/>
     </row>
@@ -8726,20 +9071,20 @@
         <v>19</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="26">
         <v>42020</v>
       </c>
       <c r="D19" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>146</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>147</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" s="24">
         <v>3000</v>
@@ -8749,7 +9094,7 @@
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L19" s="31"/>
     </row>
@@ -8758,22 +9103,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>521</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="D20" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="E20" s="80" t="s">
         <v>523</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>524</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H20" s="41">
         <v>5000</v>
@@ -8790,22 +9135,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="D21" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="E21" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="F21" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="G21" s="42" t="s">
         <v>535</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>536</v>
       </c>
       <c r="H21" s="41">
         <v>3000</v>
@@ -8815,7 +9160,7 @@
       </c>
       <c r="J21" s="41"/>
       <c r="K21" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L21" s="44"/>
     </row>
@@ -8824,22 +9169,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="91" t="s">
         <v>582</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="91" t="s">
+      <c r="F22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>583</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>584</v>
       </c>
       <c r="H22" s="11">
         <v>3000</v>
@@ -8848,7 +9193,7 @@
         <v>1000</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="38.25">
@@ -8856,22 +9201,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="91" t="s">
         <v>617</v>
       </c>
-      <c r="E23" s="91" t="s">
+      <c r="F23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>618</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>619</v>
       </c>
       <c r="H23" s="11">
         <v>1000</v>
@@ -8880,7 +9225,7 @@
         <v>6000</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -8915,13 +9260,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="D1" s="15">
         <v>1200</v>
@@ -8935,7 +9280,7 @@
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="15">
         <v>2200</v>
@@ -8943,7 +9288,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="15">
         <v>650</v>
@@ -8954,7 +9299,7 @@
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="15">
         <v>1000</v>
@@ -8965,7 +9310,7 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="15">
         <v>800</v>
@@ -8976,7 +9321,7 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="15">
         <v>975</v>
@@ -8987,7 +9332,7 @@
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="15">
         <v>468</v>
@@ -8998,7 +9343,7 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="15">
         <v>910</v>
@@ -9009,7 +9354,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="15">
         <v>500</v>
@@ -9020,7 +9365,7 @@
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="15">
         <v>800</v>
@@ -9031,7 +9376,7 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="15">
         <v>500</v>
@@ -9042,12 +9387,12 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="15">
         <v>975</v>
@@ -9055,7 +9400,7 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="15">
         <v>400</v>
@@ -9063,7 +9408,7 @@
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="15">
         <v>910</v>
@@ -9071,12 +9416,12 @@
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="15">
         <v>910</v>
@@ -9084,7 +9429,7 @@
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="15">
         <v>500</v>
@@ -9092,7 +9437,7 @@
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="15">
         <v>450</v>
@@ -9100,7 +9445,7 @@
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="15">
         <v>670</v>
@@ -9108,7 +9453,7 @@
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="15">
         <v>680</v>
@@ -9116,7 +9461,7 @@
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="15">
         <v>780</v>
@@ -9124,7 +9469,7 @@
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="15">
         <v>975</v>
@@ -9132,7 +9477,7 @@
     </row>
     <row r="25" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A25" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C25" s="10">
         <v>546</v>
@@ -9140,7 +9485,7 @@
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C26" s="15">
         <v>1820</v>
@@ -9148,7 +9493,7 @@
     </row>
     <row r="27" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A27" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C27" s="10">
         <v>2041</v>
@@ -9156,7 +9501,7 @@
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A28" s="66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C28" s="10">
         <v>1040</v>
@@ -9164,7 +9509,7 @@
     </row>
     <row r="29" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A29" s="66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C29" s="10">
         <v>1000</v>
@@ -9172,7 +9517,7 @@
     </row>
     <row r="30" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A30" s="66" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C30" s="10">
         <v>1950</v>
@@ -9180,17 +9525,17 @@
     </row>
     <row r="31" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A31" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A32" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A33" s="50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C33" s="55">
         <v>650</v>
@@ -9198,7 +9543,7 @@
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C34" s="15">
         <v>682</v>
@@ -9206,17 +9551,17 @@
     </row>
     <row r="35" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A35" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A36" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C37" s="15">
         <v>1079</v>
@@ -9224,7 +9569,7 @@
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C38" s="15">
         <v>780</v>
@@ -9232,7 +9577,7 @@
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C39" s="15">
         <v>1235</v>
@@ -9240,7 +9585,7 @@
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" s="47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C40" s="15">
         <v>500</v>
@@ -9248,7 +9593,7 @@
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" s="47" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C41" s="15">
         <v>1365</v>
@@ -9256,7 +9601,7 @@
     </row>
     <row r="42" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A42" s="66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C42" s="10">
         <v>2365</v>
@@ -9264,12 +9609,12 @@
     </row>
     <row r="43" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A43" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="10" customFormat="1" ht="15">
       <c r="A44" s="66" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C44" s="10">
         <v>665</v>
@@ -9277,7 +9622,7 @@
     </row>
     <row r="45" spans="1:3" ht="15">
       <c r="A45" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="15">
         <v>936</v>
@@ -9285,12 +9630,12 @@
     </row>
     <row r="46" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A46" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
       <c r="A47" s="47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C47" s="15">
         <v>575</v>
@@ -9304,122 +9649,122 @@
     </row>
     <row r="50" spans="1:1" ht="16.5">
       <c r="A50" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15">
       <c r="A51" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15">
       <c r="A52" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15">
       <c r="A53" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15">
       <c r="A54" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15">
       <c r="A55" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15">
       <c r="A56" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15">
       <c r="A57" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15">
       <c r="A58" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15">
       <c r="A59" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15">
       <c r="A60" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15">
       <c r="A61" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15">
       <c r="A62" s="47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15">
       <c r="A63" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15">
       <c r="A64" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15">
       <c r="A65" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15">
       <c r="A66" s="47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15">
       <c r="A67" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15">
       <c r="A68" s="47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15">
       <c r="A70" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15">
       <c r="A71" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
       <c r="A72" s="47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15">
       <c r="A73" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15">
@@ -9427,12 +9772,12 @@
     </row>
     <row r="75" spans="1:3" ht="16.5">
       <c r="A75" s="48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15">
       <c r="A76" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C76" s="15">
         <v>1274</v>
@@ -9440,7 +9785,7 @@
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" s="47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C77" s="15">
         <v>780</v>
@@ -9448,7 +9793,7 @@
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" s="47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C78" s="15">
         <v>910</v>
@@ -9456,7 +9801,7 @@
     </row>
     <row r="79" spans="1:3" ht="15">
       <c r="A79" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C79" s="15">
         <v>1274</v>
@@ -9464,7 +9809,7 @@
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" s="47" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C80" s="15">
         <v>1066</v>
@@ -9472,7 +9817,7 @@
     </row>
     <row r="81" spans="1:3" ht="15">
       <c r="A81" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C81" s="15">
         <v>1196</v>
@@ -9480,7 +9825,7 @@
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" s="47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C82" s="15">
         <v>1196</v>
@@ -9488,7 +9833,7 @@
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" s="47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C83" s="15">
         <v>936</v>
@@ -9496,12 +9841,12 @@
     </row>
     <row r="84" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A84" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" s="47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C85" s="15">
         <v>975</v>
@@ -9509,12 +9854,12 @@
     </row>
     <row r="86" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A86" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15">
       <c r="A87" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" s="15">
         <v>1430</v>
@@ -9522,7 +9867,7 @@
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" s="47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C88" s="15">
         <v>1040</v>
@@ -9530,7 +9875,7 @@
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" s="47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C89" s="15">
         <v>975</v>
@@ -9538,7 +9883,7 @@
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" s="47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C90" s="15">
         <v>1235</v>
@@ -9546,7 +9891,7 @@
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" s="47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C91" s="15">
         <v>1430</v>
@@ -9554,7 +9899,7 @@
     </row>
     <row r="92" spans="1:3" ht="15">
       <c r="A92" s="47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C92" s="15">
         <v>1066</v>
@@ -9562,7 +9907,7 @@
     </row>
     <row r="93" spans="1:3" ht="15">
       <c r="A93" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C93" s="15">
         <v>910</v>
@@ -9570,12 +9915,12 @@
     </row>
     <row r="94" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A94" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15">
       <c r="A95" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C95" s="15">
         <v>1000</v>
@@ -9583,7 +9928,7 @@
     </row>
     <row r="96" spans="1:3" ht="15">
       <c r="A96" s="47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C96" s="15">
         <v>1430</v>
@@ -9591,7 +9936,7 @@
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" s="47" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C97" s="15">
         <v>1065</v>
@@ -9599,12 +9944,12 @@
     </row>
     <row r="98" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A98" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C99" s="15">
         <v>1700</v>
@@ -9612,7 +9957,7 @@
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" s="47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C100" s="15">
         <v>3475</v>
@@ -9620,12 +9965,12 @@
     </row>
     <row r="101" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A101" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15">
       <c r="A102" s="47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C102" s="15">
         <v>3035</v>
@@ -9633,7 +9978,7 @@
     </row>
     <row r="103" spans="1:3" ht="15">
       <c r="A103" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15">
@@ -9641,12 +9986,12 @@
     </row>
     <row r="105" spans="1:3" ht="16.5">
       <c r="A105" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15">
       <c r="A106" s="47" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C106" s="15">
         <v>975</v>
@@ -9654,7 +9999,7 @@
     </row>
     <row r="107" spans="1:3" ht="15">
       <c r="A107" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C107" s="15">
         <v>665</v>
@@ -9662,7 +10007,7 @@
     </row>
     <row r="108" spans="1:3" ht="15">
       <c r="A108" s="47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C108" s="15">
         <v>975</v>
@@ -9670,7 +10015,7 @@
     </row>
     <row r="109" spans="1:3" ht="15">
       <c r="A109" s="47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C109" s="15">
         <v>675</v>
@@ -9678,7 +10023,7 @@
     </row>
     <row r="110" spans="1:3" ht="15">
       <c r="A110" s="47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C110" s="15">
         <v>975</v>
@@ -9686,7 +10031,7 @@
     </row>
     <row r="111" spans="1:3" ht="15">
       <c r="A111" s="47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C111" s="15">
         <v>750</v>
@@ -9694,7 +10039,7 @@
     </row>
     <row r="112" spans="1:3" ht="15">
       <c r="A112" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C112" s="15">
         <v>975</v>
@@ -9702,7 +10047,7 @@
     </row>
     <row r="113" spans="1:3" ht="15">
       <c r="A113" s="47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C113" s="15">
         <v>300</v>
@@ -9710,7 +10055,7 @@
     </row>
     <row r="114" spans="1:3" ht="15">
       <c r="A114" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C114" s="15">
         <v>660</v>
@@ -9718,12 +10063,12 @@
     </row>
     <row r="115" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A115" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15">
       <c r="A116" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C116" s="15">
         <v>1066</v>
@@ -9731,7 +10076,7 @@
     </row>
     <row r="117" spans="1:3" ht="15">
       <c r="A117" s="47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C117" s="15">
         <v>1365</v>
@@ -9739,7 +10084,7 @@
     </row>
     <row r="118" spans="1:3" ht="15">
       <c r="A118" s="47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C118" s="15">
         <v>1846</v>
@@ -9747,7 +10092,7 @@
     </row>
     <row r="119" spans="1:3" ht="15">
       <c r="A119" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15">
@@ -9755,17 +10100,17 @@
     </row>
     <row r="121" spans="1:3" ht="16.5">
       <c r="A121" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A122" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15">
       <c r="A123" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C123" s="15">
         <v>2340</v>
@@ -9773,7 +10118,7 @@
     </row>
     <row r="124" spans="1:3" ht="15">
       <c r="A124" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C124" s="15">
         <v>2560</v>
@@ -9781,7 +10126,7 @@
     </row>
     <row r="125" spans="1:3" ht="15">
       <c r="A125" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C125" s="15">
         <v>2807</v>
@@ -9789,7 +10134,7 @@
     </row>
     <row r="126" spans="1:3" ht="15">
       <c r="A126" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C126" s="15">
         <v>2470</v>
@@ -9797,7 +10142,7 @@
     </row>
     <row r="127" spans="1:3" ht="15">
       <c r="A127" s="47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C127" s="15">
         <v>2067</v>
@@ -9805,37 +10150,37 @@
     </row>
     <row r="128" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A128" s="50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A129" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="130" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A130" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A131" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A132" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A133" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15">
       <c r="A134" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C134" s="15">
         <v>2375</v>
@@ -9843,42 +10188,42 @@
     </row>
     <row r="135" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A135" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A136" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A137" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A138" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15">
       <c r="A139" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A140" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A141" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15">
       <c r="A142" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C142" s="15">
         <v>2240</v>
@@ -9886,7 +10231,7 @@
     </row>
     <row r="143" spans="1:3" ht="15">
       <c r="A143" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C143" s="15">
         <v>2807</v>
@@ -9894,32 +10239,32 @@
     </row>
     <row r="144" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A144" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A145" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A146" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A147" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A148" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A149" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15">
@@ -9927,12 +10272,12 @@
     </row>
     <row r="151" spans="1:3" ht="16.5">
       <c r="A151" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15">
       <c r="A152" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C152" s="15">
         <v>1360</v>
@@ -9940,7 +10285,7 @@
     </row>
     <row r="153" spans="1:3" ht="15">
       <c r="A153" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C153" s="15">
         <v>1615</v>
@@ -9948,7 +10293,7 @@
     </row>
     <row r="154" spans="1:3" ht="15">
       <c r="A154" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C154" s="15">
         <v>1460</v>
@@ -9956,7 +10301,7 @@
     </row>
     <row r="155" spans="1:3" ht="15">
       <c r="A155" s="47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C155" s="15">
         <v>3240</v>
@@ -9964,7 +10309,7 @@
     </row>
     <row r="156" spans="1:3" ht="15">
       <c r="A156" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C156" s="15">
         <v>1680</v>
@@ -9972,7 +10317,7 @@
     </row>
     <row r="157" spans="1:3" ht="15">
       <c r="A157" s="47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C157" s="15">
         <v>3900</v>
@@ -9980,17 +10325,17 @@
     </row>
     <row r="158" spans="1:3" ht="15">
       <c r="A158" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5">
       <c r="A159" s="48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15">
       <c r="A160" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C160" s="15">
         <v>2470</v>
@@ -9998,7 +10343,7 @@
     </row>
     <row r="161" spans="1:3" ht="15">
       <c r="A161" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C161" s="15">
         <v>2375</v>
@@ -10006,17 +10351,17 @@
     </row>
     <row r="162" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A162" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A163" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A164" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C164" s="55">
         <v>3475</v>
@@ -10024,7 +10369,7 @@
     </row>
     <row r="165" spans="1:3" ht="15">
       <c r="A165" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C165" s="15">
         <v>2360</v>
@@ -10032,62 +10377,62 @@
     </row>
     <row r="166" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A166" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A167" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A168" s="50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A169" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A170" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A171" s="50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A172" s="50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A173" s="50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A174" s="50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A175" s="50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A176" s="50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15">
       <c r="A177" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C177" s="15">
         <v>3190</v>
@@ -10095,12 +10440,12 @@
     </row>
     <row r="178" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A178" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15">
       <c r="A179" s="47" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C179" s="15">
         <v>2170</v>
@@ -10108,7 +10453,7 @@
     </row>
     <row r="180" spans="1:3" ht="15">
       <c r="A180" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C180" s="15">
         <v>2390</v>
@@ -10116,12 +10461,12 @@
     </row>
     <row r="181" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A181" s="50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15">
       <c r="A182" s="47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C182" s="15">
         <v>2870</v>
@@ -10129,17 +10474,17 @@
     </row>
     <row r="183" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A183" s="50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A184" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15">
       <c r="A185" s="47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C185" s="15">
         <v>2160</v>
@@ -10147,42 +10492,42 @@
     </row>
     <row r="186" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A186" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A187" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A188" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A189" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A190" s="50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="191" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A191" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="192" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A192" s="50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="193" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A193" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15">
@@ -10190,12 +10535,12 @@
     </row>
     <row r="195" spans="1:3" ht="16.5">
       <c r="A195" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15">
       <c r="A196" s="47" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C196" s="15">
         <v>4030</v>
@@ -10203,7 +10548,7 @@
     </row>
     <row r="197" spans="1:3" ht="15">
       <c r="A197" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C197" s="15">
         <v>4280</v>
@@ -10211,7 +10556,7 @@
     </row>
     <row r="198" spans="1:3" ht="15">
       <c r="A198" s="47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C198" s="15">
         <v>3800</v>
@@ -10219,7 +10564,7 @@
     </row>
     <row r="199" spans="1:3" ht="15">
       <c r="A199" s="47" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C199" s="15">
         <v>3670</v>
@@ -10227,7 +10572,7 @@
     </row>
     <row r="200" spans="1:3" ht="15">
       <c r="A200" s="47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C200" s="15">
         <v>4280</v>
@@ -10235,12 +10580,12 @@
     </row>
     <row r="201" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A201" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15">
       <c r="A202" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C202" s="15">
         <v>3865</v>
@@ -10248,7 +10593,7 @@
     </row>
     <row r="203" spans="1:3" ht="15">
       <c r="A203" s="47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C203" s="15">
         <v>3790</v>
@@ -10256,7 +10601,7 @@
     </row>
     <row r="204" spans="1:3" ht="15">
       <c r="A204" s="47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C204" s="15">
         <v>4290</v>
@@ -10267,12 +10612,12 @@
     </row>
     <row r="206" spans="1:3" ht="16.5">
       <c r="A206" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15">
       <c r="A207" s="47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C207" s="15">
         <v>3870</v>
@@ -10280,7 +10625,7 @@
     </row>
     <row r="208" spans="1:3" ht="15">
       <c r="A208" s="47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C208" s="15">
         <v>4800</v>
@@ -10288,7 +10633,7 @@
     </row>
     <row r="209" spans="1:3" ht="15">
       <c r="A209" s="47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C209" s="15">
         <v>4600</v>
@@ -10296,7 +10641,7 @@
     </row>
     <row r="210" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A210" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15">
@@ -10304,17 +10649,17 @@
     </row>
     <row r="212" spans="1:3" ht="16.5">
       <c r="A212" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15">
       <c r="A213" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15">
       <c r="A214" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15">
@@ -10322,12 +10667,12 @@
     </row>
     <row r="216" spans="1:3" ht="16.5">
       <c r="A216" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15">
       <c r="A217" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C217" s="15">
         <v>2650</v>
@@ -10335,12 +10680,12 @@
     </row>
     <row r="218" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A218" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15">
       <c r="A219" s="47" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C219" s="15">
         <v>1760</v>
@@ -10348,32 +10693,32 @@
     </row>
     <row r="220" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A220" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="221" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A221" s="50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="222" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A222" s="50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="223" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A223" s="50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224" spans="1:3" s="55" customFormat="1" ht="15">
       <c r="A224" s="50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="225" spans="1:1" s="55" customFormat="1" ht="15">
       <c r="A225" s="50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15">
@@ -10381,12 +10726,12 @@
     </row>
     <row r="227" spans="1:1" ht="16.5">
       <c r="A227" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15">
       <c r="A228" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="15">
@@ -10394,112 +10739,112 @@
     </row>
     <row r="230" spans="1:1" ht="16.5">
       <c r="A230" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15">
       <c r="A231" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="15">
       <c r="A232" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="16.5">
       <c r="A234" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="16.5">
       <c r="A242" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="16.5">
       <c r="A244" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="16.5">
       <c r="A246" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="657">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4349,6 +4349,21 @@
   </si>
   <si>
     <t>Street Light</t>
+  </si>
+  <si>
+    <t>sonu singh</t>
+  </si>
+  <si>
+    <t>sonusng365@gmail.com</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>RahulKumar</t>
+  </si>
+  <si>
+    <t>kumarrahul365@rocketmail.com</t>
   </si>
 </sst>
 </file>
@@ -5582,7 +5597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -6300,10 +6315,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6728,6 +6743,40 @@
       </c>
       <c r="E23" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>652</v>
+      </c>
+      <c r="B24">
+        <v>9990086583</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D24" t="s">
+        <v>627</v>
+      </c>
+      <c r="E24" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>655</v>
+      </c>
+      <c r="B25">
+        <v>9711506828</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D25" t="s">
+        <v>627</v>
+      </c>
+      <c r="E25" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6753,6 +6802,8 @@
     <hyperlink ref="C21" r:id="rId19"/>
     <hyperlink ref="C22" r:id="rId20"/>
     <hyperlink ref="C23" r:id="rId21"/>
+    <hyperlink ref="C24" r:id="rId22"/>
+    <hyperlink ref="C25" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="652">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4000,9 +4000,6 @@
     <t>G.C.E.T</t>
   </si>
   <si>
-    <t>9654640996</t>
-  </si>
-  <si>
     <t>Deliver up to 25th feb</t>
   </si>
   <si>
@@ -4351,19 +4348,7 @@
     <t>Street Light</t>
   </si>
   <si>
-    <t>sonu singh</t>
-  </si>
-  <si>
-    <t>sonusng365@gmail.com</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>RahulKumar</t>
-  </si>
-  <si>
-    <t>kumarrahul365@rocketmail.com</t>
+    <t>9654640996;7042489399</t>
   </si>
 </sst>
 </file>
@@ -5248,7 +5233,7 @@
         <v>5000</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J2" s="68" t="s">
         <v>149</v>
@@ -5280,7 +5265,7 @@
         <v>5000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I3" t="s">
         <v>432</v>
@@ -5309,7 +5294,7 @@
         <v>1500</v>
       </c>
       <c r="H4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5332,24 +5317,24 @@
         <v>1500</v>
       </c>
       <c r="H5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B6">
         <v>9911193134</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -5358,24 +5343,24 @@
         <v>1500</v>
       </c>
       <c r="H6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B7">
         <v>9643705662</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -5384,24 +5369,24 @@
         <v>1500</v>
       </c>
       <c r="H7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B8">
         <v>9899766120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -5410,24 +5395,24 @@
         <v>1500</v>
       </c>
       <c r="H8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B9">
         <v>9650259567</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -5436,7 +5421,7 @@
         <v>1500</v>
       </c>
       <c r="H9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -5469,123 +5454,123 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B4" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>564</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B5" s="107">
         <v>1</v>
       </c>
       <c r="C5" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B9" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>564</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B11" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C11" s="88" t="s">
         <v>564</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -5597,7 +5582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -6146,19 +6131,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B23">
         <v>9654033937</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D23" t="s">
         <v>578</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>579</v>
-      </c>
-      <c r="E23" t="s">
-        <v>580</v>
       </c>
       <c r="F23">
         <v>800</v>
@@ -6172,19 +6157,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B24">
         <v>7053362994</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D24" t="s">
         <v>592</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>593</v>
-      </c>
-      <c r="E24" t="s">
-        <v>594</v>
       </c>
       <c r="F24">
         <v>400</v>
@@ -6195,19 +6180,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B25">
         <v>8826582906</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D25" t="s">
         <v>599</v>
       </c>
-      <c r="D25" t="s">
-        <v>600</v>
-      </c>
       <c r="E25" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F25">
         <v>600</v>
@@ -6221,16 +6206,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B26">
         <v>9793382956</v>
       </c>
       <c r="D26" t="s">
+        <v>611</v>
+      </c>
+      <c r="E26" t="s">
         <v>612</v>
-      </c>
-      <c r="E26" t="s">
-        <v>613</v>
       </c>
       <c r="F26">
         <v>600</v>
@@ -6244,16 +6229,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B27">
         <v>9718155292</v>
       </c>
       <c r="D27" t="s">
+        <v>633</v>
+      </c>
+      <c r="E27" t="s">
         <v>634</v>
-      </c>
-      <c r="E27" t="s">
-        <v>635</v>
       </c>
       <c r="F27">
         <v>2000</v>
@@ -6267,16 +6252,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B28">
         <v>8750546916</v>
       </c>
       <c r="D28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F28">
         <v>50</v>
@@ -6315,10 +6300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6524,7 +6509,7 @@
         <v>441</v>
       </c>
       <c r="E10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6631,33 +6616,33 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B17">
         <v>9911430369</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B18">
         <v>8130283991</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D18" t="s">
         <v>587</v>
-      </c>
-      <c r="D18" t="s">
-        <v>588</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -6665,16 +6650,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B19">
         <v>9565656535</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D19" t="s">
         <v>596</v>
-      </c>
-      <c r="D19" t="s">
-        <v>597</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -6682,101 +6667,67 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B20">
         <v>9958940360</v>
       </c>
       <c r="D20" t="s">
+        <v>606</v>
+      </c>
+      <c r="E20" t="s">
         <v>607</v>
-      </c>
-      <c r="E20" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B21">
         <v>9999518201</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E21" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B22">
         <v>8750546916</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D22" t="s">
         <v>626</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>627</v>
-      </c>
-      <c r="E22" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B23">
         <v>8285771212</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>652</v>
-      </c>
-      <c r="B24">
-        <v>9990086583</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D24" t="s">
-        <v>627</v>
-      </c>
-      <c r="E24" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>655</v>
-      </c>
-      <c r="B25">
-        <v>9711506828</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D25" t="s">
-        <v>627</v>
-      </c>
-      <c r="E25" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6802,8 +6753,6 @@
     <hyperlink ref="C21" r:id="rId19"/>
     <hyperlink ref="C22" r:id="rId20"/>
     <hyperlink ref="C23" r:id="rId21"/>
-    <hyperlink ref="C24" r:id="rId22"/>
-    <hyperlink ref="C25" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6828,223 +6777,223 @@
   <sheetData>
     <row r="1" spans="1:5" s="54" customFormat="1">
       <c r="A1" s="85" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="C1" s="86" t="s">
         <v>559</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="D1" s="86" t="s">
         <v>560</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="E1" s="85" t="s">
         <v>561</v>
-      </c>
-      <c r="E1" s="85" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="87" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>563</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="C2" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="C2" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>565</v>
-      </c>
       <c r="E2" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="87" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B3" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="C3" s="88" t="s">
-        <v>565</v>
-      </c>
       <c r="D3" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="87" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B4" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>565</v>
-      </c>
       <c r="D4" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E4" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="87" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="88" t="s">
         <v>564</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
       <c r="A6" s="87" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C6" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" s="88" t="s">
         <v>564</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" s="87" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D7" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E7" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="87" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="87" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B9" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C9" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="C9" s="88" t="s">
-        <v>565</v>
-      </c>
       <c r="D9" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="87" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B10" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C10" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="C10" s="88" t="s">
-        <v>565</v>
-      </c>
       <c r="D10" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="87" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B11" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C11" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="C11" s="88" t="s">
-        <v>565</v>
-      </c>
       <c r="D11" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E11" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="87" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B12" s="88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="C12" s="88" t="s">
-        <v>565</v>
-      </c>
       <c r="D12" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E12" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
       <c r="A13" s="87" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C13" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D13" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E13" s="88" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -7158,7 +7107,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7172,7 +7121,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7186,7 +7135,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C8">
         <v>2300</v>
@@ -7203,7 +7152,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C9">
         <v>1000</v>
@@ -7217,7 +7166,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C10">
         <v>1500</v>
@@ -7234,7 +7183,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C11">
         <v>200</v>
@@ -7248,7 +7197,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C12">
         <v>1400</v>
@@ -7262,7 +7211,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C13">
         <v>2050</v>
@@ -7562,10 +7511,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>539</v>
+      </c>
+      <c r="B25" t="s">
         <v>540</v>
-      </c>
-      <c r="B25" t="s">
-        <v>541</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -7573,7 +7522,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B26" t="s">
         <v>447</v>
@@ -7584,10 +7533,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>588</v>
+      </c>
+      <c r="B27" t="s">
         <v>589</v>
-      </c>
-      <c r="B27" t="s">
-        <v>590</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -7595,7 +7544,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B28" t="s">
         <v>436</v>
@@ -7664,7 +7613,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B6">
         <v>325</v>
@@ -7672,7 +7621,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B7">
         <v>450</v>
@@ -7855,9 +7804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8969,13 +8918,13 @@
         <v>130</v>
       </c>
       <c r="E14" s="99" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F14" s="93" t="s">
         <v>131</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H14" s="92">
         <v>10000</v>
@@ -8984,10 +8933,10 @@
         <v>1500</v>
       </c>
       <c r="J14" s="92" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K14" s="96" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L14" s="97"/>
     </row>
@@ -9201,7 +9150,7 @@
         <v>534</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>535</v>
+        <v>651</v>
       </c>
       <c r="H21" s="41">
         <v>3000</v>
@@ -9211,7 +9160,7 @@
       </c>
       <c r="J21" s="41"/>
       <c r="K21" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L21" s="44"/>
     </row>
@@ -9220,22 +9169,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>122</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H22" s="11">
         <v>3000</v>
@@ -9244,7 +9193,7 @@
         <v>1000</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="38.25">
@@ -9252,22 +9201,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="91" t="s">
         <v>616</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>617</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>131</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H23" s="11">
         <v>1000</v>
@@ -9276,7 +9225,7 @@
         <v>6000</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="654">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4349,6 +4349,12 @@
   </si>
   <si>
     <t>9654640996;7042489399</t>
+  </si>
+  <si>
+    <t>25th feb</t>
+  </si>
+  <si>
+    <t>Note Pad</t>
   </si>
 </sst>
 </file>
@@ -7230,10 +7236,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7551,6 +7557,17 @@
       </c>
       <c r="C28">
         <v>4500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>652</v>
+      </c>
+      <c r="B29" t="s">
+        <v>653</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7804,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/documents/daily_status.xlsx
+++ b/documents/daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="7950" tabRatio="815" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Training Student Name" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="652">
   <si>
     <t xml:space="preserve">Name Of Student </t>
   </si>
@@ -4349,12 +4349,6 @@
   </si>
   <si>
     <t>9654640996;7042489399</t>
-  </si>
-  <si>
-    <t>25th feb</t>
-  </si>
-  <si>
-    <t>Note Pad</t>
   </si>
 </sst>
 </file>
@@ -6308,8 +6302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7012,7 +7006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -7236,10 +7230,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7557,17 +7551,6 @@
       </c>
       <c r="C28">
         <v>4500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>652</v>
-      </c>
-      <c r="B29" t="s">
-        <v>653</v>
-      </c>
-      <c r="C29">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7822,7 +7805,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
